--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ai\Desktop\repositories\aprp_on_174\src\apps\dailytrans\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC52A53B-8165-40C2-A8CF-3C6D0B9E9A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14250E4B-68D7-4DF6-B5AD-B9F53063140B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7395" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a week" sheetId="1" r:id="rId1"/>
@@ -2042,36 +2042,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2110,6 +2080,36 @@
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2489,9 +2489,9 @@
   </sheetPr>
   <dimension ref="A1:IU257"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -2524,35 +2524,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
     </row>
     <row r="3" spans="1:30" ht="11.5" customHeight="1">
       <c r="A3" s="11"/>
@@ -2601,8 +2601,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2611,41 +2611,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="85" t="s">
+      <c r="T5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="85"/>
+      <c r="U5" s="75"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="90" t="s">
+      <c r="G6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2657,36 +2657,36 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.5" customHeight="1">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="91" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="M7" s="93" t="s">
+      <c r="M7" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="94" t="s">
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="94"/>
-      <c r="V7" s="79"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="85"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
@@ -2697,14 +2697,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2717,7 +2717,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="92"/>
+      <c r="L8" s="82"/>
       <c r="M8" s="30" t="s">
         <v>246</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="U8" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="V8" s="79"/>
+      <c r="V8" s="85"/>
       <c r="W8" s="32" t="s">
         <v>12</v>
       </c>
@@ -2775,13 +2775,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81" t="s">
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2858,13 +2858,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -2939,10 +2939,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3026,10 +3026,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3113,10 +3113,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3200,10 +3200,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3284,10 +3284,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3367,10 +3367,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="73"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3450,10 +3450,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3533,10 +3533,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3616,10 +3616,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="73"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3699,10 +3699,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="73"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3782,10 +3782,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="73"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3865,10 +3865,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="73"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -3948,10 +3948,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="73"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4031,10 +4031,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4114,10 +4114,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4197,10 +4197,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="73"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4280,10 +4280,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="73"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4363,10 +4363,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="73"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4446,10 +4446,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="78"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4530,10 +4530,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="78"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4614,10 +4614,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="73"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4697,10 +4697,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="73"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4780,10 +4780,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="73"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4864,10 +4864,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="73"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -4947,10 +4947,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="73"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5030,10 +5030,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="73"/>
+      <c r="C36" s="89"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5113,10 +5113,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="73"/>
+      <c r="C37" s="89"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5196,10 +5196,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="73"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5279,10 +5279,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="73"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5362,10 +5362,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="73"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5445,10 +5445,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="89"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5528,10 +5528,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="89"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5612,10 +5612,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="77" t="s">
+      <c r="B43" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="77"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5695,10 +5695,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="77"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5778,10 +5778,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="73"/>
+      <c r="C45" s="89"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5861,10 +5861,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="73"/>
+      <c r="C46" s="89"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -5944,10 +5944,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="73"/>
+      <c r="C47" s="89"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6027,10 +6027,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="73" t="s">
+      <c r="B48" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="73"/>
+      <c r="C48" s="89"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6110,10 +6110,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="73"/>
+      <c r="C49" s="89"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6193,10 +6193,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="73"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6276,10 +6276,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="73"/>
+      <c r="C51" s="89"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6359,10 +6359,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="73" t="s">
+      <c r="B52" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="73"/>
+      <c r="C52" s="89"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6442,10 +6442,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="73"/>
+      <c r="C53" s="89"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6525,10 +6525,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="73" t="s">
+      <c r="B54" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="73"/>
+      <c r="C54" s="89"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6608,10 +6608,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="73"/>
+      <c r="C55" s="89"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6691,10 +6691,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="73"/>
+      <c r="C56" s="89"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6774,10 +6774,10 @@
       <c r="A57" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="73" t="s">
+      <c r="B57" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="73"/>
+      <c r="C57" s="89"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6857,10 +6857,10 @@
       <c r="A58" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="73" t="s">
+      <c r="B58" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="73"/>
+      <c r="C58" s="89"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -6940,10 +6940,10 @@
       <c r="A59" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="73" t="s">
+      <c r="B59" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="73"/>
+      <c r="C59" s="89"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7023,10 +7023,10 @@
       <c r="A60" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="73"/>
+      <c r="C60" s="89"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7106,10 +7106,10 @@
       <c r="A61" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B61" s="73" t="s">
+      <c r="B61" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="73"/>
+      <c r="C61" s="89"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7189,10 +7189,10 @@
       <c r="A62" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="73"/>
+      <c r="C62" s="89"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7273,10 +7273,10 @@
       <c r="A63" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="73" t="s">
+      <c r="B63" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="C63" s="73"/>
+      <c r="C63" s="89"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7356,10 +7356,10 @@
       <c r="A64" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="73" t="s">
+      <c r="B64" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="73"/>
+      <c r="C64" s="89"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7440,10 +7440,10 @@
       <c r="A65" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="73" t="s">
+      <c r="B65" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="73"/>
+      <c r="C65" s="89"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7523,10 +7523,10 @@
       <c r="A66" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B66" s="73" t="s">
+      <c r="B66" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="C66" s="73"/>
+      <c r="C66" s="89"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7607,10 +7607,10 @@
       <c r="A67" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="73"/>
+      <c r="C67" s="89"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7690,10 +7690,10 @@
       <c r="A68" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="73"/>
+      <c r="C68" s="89"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7773,10 +7773,10 @@
       <c r="A69" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="73"/>
+      <c r="C69" s="89"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7857,10 +7857,10 @@
       <c r="A70" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="73" t="s">
+      <c r="B70" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="73"/>
+      <c r="C70" s="89"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="34" t="s">
@@ -7940,10 +7940,10 @@
       <c r="A71" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="75" t="s">
+      <c r="B71" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="75"/>
+      <c r="C71" s="92"/>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
       <c r="F71" s="34" t="s">
@@ -8022,10 +8022,10 @@
     </row>
     <row r="72" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
       <c r="A72" s="46"/>
-      <c r="B72" s="73" t="s">
+      <c r="B72" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="73"/>
+      <c r="C72" s="89"/>
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
       <c r="F72" s="34" t="s">
@@ -8104,14 +8104,14 @@
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
       <c r="A73" s="38"/>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76">
+      <c r="C73" s="93"/>
+      <c r="D73" s="93">
         <v>35.200000000000003</v>
       </c>
-      <c r="E73" s="76"/>
+      <c r="E73" s="93"/>
       <c r="F73" s="34" t="s">
         <v>15</v>
       </c>
@@ -8189,10 +8189,10 @@
       <c r="A74" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="73" t="s">
+      <c r="B74" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="73"/>
+      <c r="C74" s="89"/>
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
       <c r="F74" s="34" t="s">
@@ -8272,10 +8272,10 @@
       <c r="A75" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="73"/>
+      <c r="C75" s="89"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8355,10 +8355,10 @@
       <c r="A76" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="73" t="s">
+      <c r="B76" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="73"/>
+      <c r="C76" s="89"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="34" t="s">
@@ -8439,10 +8439,10 @@
       <c r="A77" s="33">
         <v>0</v>
       </c>
-      <c r="B77" s="73" t="s">
+      <c r="B77" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="73"/>
+      <c r="C77" s="89"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="34" t="s">
@@ -8522,10 +8522,10 @@
       <c r="A78" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B78" s="73" t="s">
+      <c r="B78" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="73"/>
+      <c r="C78" s="89"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8605,10 +8605,10 @@
       <c r="A79" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B79" s="73" t="s">
+      <c r="B79" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="73"/>
+      <c r="C79" s="89"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8688,10 +8688,10 @@
       <c r="A80" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B80" s="73" t="s">
+      <c r="B80" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="C80" s="73"/>
+      <c r="C80" s="89"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8771,10 +8771,10 @@
       <c r="A81" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="73" t="s">
+      <c r="B81" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="73"/>
+      <c r="C81" s="89"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8854,10 +8854,10 @@
       <c r="A82" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="73" t="s">
+      <c r="B82" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="73"/>
+      <c r="C82" s="89"/>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
       <c r="F82" s="34" t="s">
@@ -8938,10 +8938,10 @@
       <c r="A83" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B83" s="73" t="s">
+      <c r="B83" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="C83" s="73"/>
+      <c r="C83" s="89"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9022,10 +9022,10 @@
       <c r="A84" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="73" t="s">
+      <c r="B84" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="C84" s="73"/>
+      <c r="C84" s="89"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9106,10 +9106,10 @@
       <c r="A85" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B85" s="73" t="s">
+      <c r="B85" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="C85" s="73"/>
+      <c r="C85" s="89"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9190,10 +9190,10 @@
       <c r="A86" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B86" s="73" t="s">
+      <c r="B86" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="73"/>
+      <c r="C86" s="89"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9274,10 +9274,10 @@
       <c r="A87" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B87" s="73" t="s">
+      <c r="B87" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="C87" s="73"/>
+      <c r="C87" s="89"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9358,10 +9358,10 @@
       <c r="A88" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B88" s="73" t="s">
+      <c r="B88" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="C88" s="73"/>
+      <c r="C88" s="89"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9441,10 +9441,10 @@
       <c r="A89" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B89" s="73" t="s">
+      <c r="B89" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="C89" s="73"/>
+      <c r="C89" s="89"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9524,10 +9524,10 @@
       <c r="A90" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B90" s="73" t="s">
+      <c r="B90" s="89" t="s">
         <v>251</v>
       </c>
-      <c r="C90" s="73"/>
+      <c r="C90" s="89"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9607,10 +9607,10 @@
       <c r="A91" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B91" s="73" t="s">
+      <c r="B91" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="73"/>
+      <c r="C91" s="89"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9690,10 +9690,10 @@
       <c r="A92" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B92" s="73" t="s">
+      <c r="B92" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C92" s="73"/>
+      <c r="C92" s="89"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9773,10 +9773,10 @@
       <c r="A93" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B93" s="73" t="s">
+      <c r="B93" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="73"/>
+      <c r="C93" s="89"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9856,10 +9856,10 @@
       <c r="A94" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B94" s="73" t="s">
+      <c r="B94" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="73"/>
+      <c r="C94" s="89"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9939,10 +9939,10 @@
       <c r="A95" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B95" s="73" t="s">
+      <c r="B95" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="73"/>
+      <c r="C95" s="89"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10022,10 +10022,10 @@
       <c r="A96" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B96" s="73" t="s">
+      <c r="B96" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="73"/>
+      <c r="C96" s="89"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10105,10 +10105,10 @@
       <c r="A97" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B97" s="73" t="s">
+      <c r="B97" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="73"/>
+      <c r="C97" s="89"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10188,10 +10188,10 @@
       <c r="A98" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B98" s="73" t="s">
+      <c r="B98" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="73"/>
+      <c r="C98" s="89"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10271,10 +10271,10 @@
       <c r="A99" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B99" s="73" t="s">
+      <c r="B99" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="C99" s="73"/>
+      <c r="C99" s="89"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10354,10 +10354,10 @@
       <c r="A100" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B100" s="73" t="s">
+      <c r="B100" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="C100" s="73"/>
+      <c r="C100" s="89"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10437,10 +10437,10 @@
       <c r="A101" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B101" s="74" t="s">
+      <c r="B101" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="C101" s="74"/>
+      <c r="C101" s="94"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10520,10 +10520,10 @@
       <c r="A102" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B102" s="73" t="s">
+      <c r="B102" s="89" t="s">
         <v>178</v>
       </c>
-      <c r="C102" s="73"/>
+      <c r="C102" s="89"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10603,10 +10603,10 @@
       <c r="A103" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B103" s="73" t="s">
+      <c r="B103" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="C103" s="73"/>
+      <c r="C103" s="89"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10686,10 +10686,10 @@
       <c r="A104" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B104" s="73" t="s">
+      <c r="B104" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="C104" s="73"/>
+      <c r="C104" s="89"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10769,10 +10769,10 @@
       <c r="A105" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B105" s="73" t="s">
+      <c r="B105" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="73"/>
+      <c r="C105" s="89"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10852,10 +10852,10 @@
       <c r="A106" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B106" s="73" t="s">
+      <c r="B106" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="C106" s="73"/>
+      <c r="C106" s="89"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10935,10 +10935,10 @@
       <c r="A107" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B107" s="73" t="s">
+      <c r="B107" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="C107" s="73"/>
+      <c r="C107" s="89"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11018,10 +11018,10 @@
       <c r="A108" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B108" s="74" t="s">
+      <c r="B108" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="C108" s="74"/>
+      <c r="C108" s="94"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11101,10 +11101,10 @@
       <c r="A109" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B109" s="74" t="s">
+      <c r="B109" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="C109" s="74"/>
+      <c r="C109" s="94"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11184,10 +11184,10 @@
       <c r="A110" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="B110" s="74" t="s">
+      <c r="B110" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="C110" s="74"/>
+      <c r="C110" s="94"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11267,10 +11267,10 @@
       <c r="A111" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B111" s="74" t="s">
+      <c r="B111" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="C111" s="74"/>
+      <c r="C111" s="94"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11350,10 +11350,10 @@
       <c r="A112" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B112" s="74" t="s">
+      <c r="B112" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="C112" s="74"/>
+      <c r="C112" s="94"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11433,10 +11433,10 @@
       <c r="A113" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B113" s="74" t="s">
+      <c r="B113" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="C113" s="74"/>
+      <c r="C113" s="94"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11516,10 +11516,10 @@
       <c r="A114" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="B114" s="74" t="s">
+      <c r="B114" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="C114" s="74"/>
+      <c r="C114" s="94"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11599,10 +11599,10 @@
       <c r="A115" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B115" s="73" t="s">
+      <c r="B115" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="C115" s="73"/>
+      <c r="C115" s="89"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11682,10 +11682,10 @@
       <c r="A116" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B116" s="73" t="s">
+      <c r="B116" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="C116" s="73"/>
+      <c r="C116" s="89"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11765,10 +11765,10 @@
       <c r="A117" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B117" s="73" t="s">
+      <c r="B117" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="C117" s="73"/>
+      <c r="C117" s="89"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11848,10 +11848,10 @@
       <c r="A118" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B118" s="73" t="s">
+      <c r="B118" s="89" t="s">
         <v>204</v>
       </c>
-      <c r="C118" s="73"/>
+      <c r="C118" s="89"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11931,10 +11931,10 @@
       <c r="A119" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="B119" s="73" t="s">
+      <c r="B119" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="C119" s="73"/>
+      <c r="C119" s="89"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12014,10 +12014,10 @@
       <c r="A120" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B120" s="73" t="s">
+      <c r="B120" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="C120" s="73"/>
+      <c r="C120" s="89"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12097,10 +12097,10 @@
       <c r="A121" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B121" s="73" t="s">
+      <c r="B121" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="C121" s="73"/>
+      <c r="C121" s="89"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12180,10 +12180,10 @@
       <c r="A122" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="B122" s="73" t="s">
+      <c r="B122" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="C122" s="73"/>
+      <c r="C122" s="89"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12263,10 +12263,10 @@
       <c r="A123" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B123" s="73" t="s">
+      <c r="B123" s="89" t="s">
         <v>214</v>
       </c>
-      <c r="C123" s="73"/>
+      <c r="C123" s="89"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12346,10 +12346,10 @@
       <c r="A124" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B124" s="73" t="s">
+      <c r="B124" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="C124" s="73"/>
+      <c r="C124" s="89"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12429,10 +12429,10 @@
       <c r="A125" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B125" s="73" t="s">
+      <c r="B125" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="C125" s="73"/>
+      <c r="C125" s="89"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12512,10 +12512,10 @@
       <c r="A126" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="B126" s="73" t="s">
+      <c r="B126" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="C126" s="73"/>
+      <c r="C126" s="89"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12595,10 +12595,10 @@
       <c r="A127" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="B127" s="73" t="s">
+      <c r="B127" s="89" t="s">
         <v>222</v>
       </c>
-      <c r="C127" s="73"/>
+      <c r="C127" s="89"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12678,10 +12678,10 @@
       <c r="A128" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="B128" s="73" t="s">
+      <c r="B128" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="C128" s="73"/>
+      <c r="C128" s="89"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12761,10 +12761,10 @@
       <c r="A129" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="B129" s="73" t="s">
+      <c r="B129" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="C129" s="73"/>
+      <c r="C129" s="89"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12844,10 +12844,10 @@
       <c r="A130" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="B130" s="73" t="s">
+      <c r="B130" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="C130" s="73"/>
+      <c r="C130" s="89"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12927,10 +12927,10 @@
       <c r="A131" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="B131" s="72" t="s">
+      <c r="B131" s="86" t="s">
         <v>230</v>
       </c>
-      <c r="C131" s="72"/>
+      <c r="C131" s="86"/>
       <c r="D131" s="34"/>
       <c r="E131" s="34"/>
       <c r="F131" s="34" t="s">
@@ -14222,6 +14222,133 @@
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14236,140 +14363,13 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="52" firstPageNumber="3" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Arial Unicode MS,粗體"&amp;20&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;20&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="98" max="20" man="1"/>

--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ai\Desktop\repositories\aprp_on_174\src\apps\dailytrans\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14250E4B-68D7-4DF6-B5AD-B9F53063140B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A491A7-67B5-489A-AEA6-1D090B55662E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a week" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -462,9 +460,6 @@
   </si>
   <si>
     <t>41-2</t>
-  </si>
-  <si>
-    <t>新興梨</t>
   </si>
   <si>
     <t>41-3</t>
@@ -1480,6 +1475,10 @@
       </rPr>
       <t>台灣地區各縣米穀價格調查日報表，本會農糧署。</t>
     </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>新興梨</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2042,6 +2041,36 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2080,36 +2109,6 @@
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2198,9 +2197,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2238,9 +2237,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2273,9 +2272,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2308,9 +2324,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2490,32 +2523,32 @@
   <dimension ref="A1:IU257"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A136" sqref="A136"/>
+      <pane ySplit="8" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="6.62890625" customWidth="1"/>
-    <col min="2" max="2" width="6.62890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3671875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1015625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.62890625" customWidth="1"/>
-    <col min="7" max="7" width="10.734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.62890625" style="3" customWidth="1"/>
-    <col min="9" max="11" width="7.89453125" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.734375" style="3" customWidth="1"/>
-    <col min="13" max="19" width="8.62890625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="21.47265625" customWidth="1"/>
-    <col min="21" max="21" width="11.3671875" customWidth="1"/>
-    <col min="22" max="22" width="4.89453125" customWidth="1"/>
-    <col min="23" max="23" width="10.62890625" hidden="1" customWidth="1"/>
-    <col min="24" max="30" width="14.47265625" hidden="1" customWidth="1"/>
-    <col min="31" max="46" width="5.62890625" customWidth="1"/>
+    <col min="4" max="4" width="10.375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="7.875" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" style="3" customWidth="1"/>
+    <col min="13" max="19" width="8.625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="21.5" customWidth="1"/>
+    <col min="21" max="21" width="11.375" customWidth="1"/>
+    <col min="22" max="22" width="4.875" customWidth="1"/>
+    <col min="23" max="23" width="10.625" hidden="1" customWidth="1"/>
+    <col min="24" max="30" width="14.5" hidden="1" customWidth="1"/>
+    <col min="31" max="46" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="11.5" customHeight="1">
+    <row r="1" spans="1:30" ht="11.45" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2524,37 +2557,37 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-    </row>
-    <row r="3" spans="1:30" ht="11.5" customHeight="1">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+    </row>
+    <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -2592,7 +2625,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:30" ht="40" customHeight="1">
+    <row r="5" spans="1:30" ht="39.950000000000003" customHeight="1">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
@@ -2601,8 +2634,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2611,41 +2644,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="75" t="s">
+      <c r="T5" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="75"/>
+      <c r="U5" s="85"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79" t="s">
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2656,37 +2689,37 @@
       <c r="AC6" s="26"/>
       <c r="AD6" s="26"/>
     </row>
-    <row r="7" spans="1:30" s="10" customFormat="1" ht="50.5" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81" t="s">
+    <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="82" t="s">
-        <v>245</v>
-      </c>
-      <c r="M7" s="83" t="s">
+      <c r="L7" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="M7" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="84" t="s">
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="84"/>
-      <c r="V7" s="85"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="79"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
@@ -2697,14 +2730,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="81"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2717,9 +2750,9 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="82"/>
+      <c r="L8" s="92"/>
       <c r="M8" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N8" s="30" t="s">
         <v>10</v>
@@ -2743,9 +2776,9 @@
         <v>11</v>
       </c>
       <c r="U8" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="V8" s="85"/>
+        <v>246</v>
+      </c>
+      <c r="V8" s="79"/>
       <c r="W8" s="32" t="s">
         <v>12</v>
       </c>
@@ -2771,17 +2804,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="9" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2854,17 +2887,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="10" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -2935,14 +2968,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="11" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3022,14 +3055,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="12" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="86"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3109,14 +3142,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="13" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="86"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3196,14 +3229,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="14" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="89"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3280,14 +3313,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="15" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3363,14 +3396,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="16" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="89"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3446,14 +3479,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="17" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="89"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3529,14 +3562,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="18" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="90"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3612,14 +3645,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="19" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3695,14 +3728,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="20" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="89"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3778,14 +3811,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="21" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="89"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3861,14 +3894,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="22" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="89"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -3948,10 +3981,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="89"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4027,14 +4060,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="24" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="89"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4110,14 +4143,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="25" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="90"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4193,14 +4226,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="26" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="89"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4276,14 +4309,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="27" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="89"/>
+      <c r="C27" s="73"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4359,14 +4392,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="28" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="89"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4442,14 +4475,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="29" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="90"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4526,14 +4559,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="30" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="90"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4610,14 +4643,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="31" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="89"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4693,14 +4726,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="32" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="89"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4776,14 +4809,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="33" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="89"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4860,14 +4893,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="34" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="89"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -4943,14 +4976,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="35" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="89"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5026,14 +5059,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="36" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="89"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5109,14 +5142,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="37" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="89"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5192,14 +5225,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="38" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="89"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5275,14 +5308,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="39" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="89"/>
+      <c r="C39" s="73"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5358,14 +5391,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="40" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="89" t="s">
+      <c r="B40" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="89"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5441,14 +5474,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="41" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="89"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5524,14 +5557,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="42" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="89"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5608,14 +5641,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="43" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="91"/>
+      <c r="C43" s="77"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5691,14 +5724,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="44" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="91"/>
+      <c r="C44" s="77"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5774,14 +5807,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="45" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="89" t="s">
+      <c r="B45" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="89"/>
+      <c r="C45" s="73"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5857,14 +5890,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="46" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="89"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -5940,14 +5973,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="47" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="89" t="s">
+      <c r="B47" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="89"/>
+      <c r="C47" s="73"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6023,14 +6056,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="48" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="89"/>
+      <c r="C48" s="73"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6106,14 +6139,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="49" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="89" t="s">
+      <c r="B49" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="89"/>
+      <c r="C49" s="73"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6189,14 +6222,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="50" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="89"/>
+      <c r="C50" s="73"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6272,14 +6305,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="51" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="89" t="s">
+      <c r="B51" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="89"/>
+      <c r="C51" s="73"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6355,14 +6388,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="52" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="89" t="s">
+      <c r="B52" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="89"/>
+      <c r="C52" s="73"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6438,14 +6471,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="53" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="89" t="s">
+      <c r="B53" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="89"/>
+      <c r="C53" s="73"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6521,14 +6554,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="54" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="89" t="s">
+      <c r="B54" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="89"/>
+      <c r="C54" s="73"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6604,14 +6637,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="55" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="89" t="s">
+      <c r="B55" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="89"/>
+      <c r="C55" s="73"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6687,14 +6720,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="56" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="89" t="s">
+      <c r="B56" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="89"/>
+      <c r="C56" s="73"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6770,14 +6803,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="57" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A57" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="89"/>
+      <c r="B57" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="73"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6853,14 +6886,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:30" s="44" customFormat="1" ht="38.5" customHeight="1">
+    <row r="58" spans="1:30" s="44" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A58" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="89" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="89"/>
+        <v>102</v>
+      </c>
+      <c r="B58" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" s="73"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -6936,14 +6969,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="59" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A59" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="89" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="89"/>
+      <c r="C59" s="73"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7019,14 +7052,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="60" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A60" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="89"/>
+      <c r="C60" s="73"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7102,14 +7135,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="61" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A61" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="B61" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="89"/>
+      <c r="C61" s="73"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7185,14 +7218,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="62" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A62" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="89"/>
+      <c r="C62" s="73"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7269,14 +7302,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="63" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A63" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63" s="89" t="s">
-        <v>250</v>
-      </c>
-      <c r="C63" s="89"/>
+        <v>112</v>
+      </c>
+      <c r="B63" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" s="73"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7352,14 +7385,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="64" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A64" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="89"/>
+      <c r="C64" s="73"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7436,14 +7469,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="65" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A65" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="89"/>
+      <c r="C65" s="73"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7519,14 +7552,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="66" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A66" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="B66" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="89"/>
+      <c r="C66" s="73"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7603,14 +7636,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="67" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A67" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="B67" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="89"/>
+      <c r="C67" s="73"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7686,14 +7719,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="68" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A68" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="C68" s="89"/>
+      <c r="C68" s="73"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7769,14 +7802,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="69" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A69" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" s="89"/>
+      <c r="C69" s="73"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7853,14 +7886,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="70" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A70" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="89"/>
+      <c r="C70" s="73"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="34" t="s">
@@ -7936,14 +7969,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="71" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A71" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="92"/>
+      <c r="C71" s="75"/>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
       <c r="F71" s="34" t="s">
@@ -8020,12 +8053,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="72" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A72" s="46"/>
-      <c r="B72" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="89"/>
+      <c r="B72" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="73"/>
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
       <c r="F72" s="34" t="s">
@@ -8102,16 +8135,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A73" s="38"/>
-      <c r="B73" s="93" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="93"/>
-      <c r="D73" s="93">
+      <c r="B73" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76">
         <v>35.200000000000003</v>
       </c>
-      <c r="E73" s="93"/>
+      <c r="E73" s="76"/>
       <c r="F73" s="34" t="s">
         <v>15</v>
       </c>
@@ -8185,14 +8218,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="74" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A74" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="89"/>
+      <c r="C74" s="73"/>
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
       <c r="F74" s="34" t="s">
@@ -8268,14 +8301,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="75" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A75" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="C75" s="89"/>
+      <c r="C75" s="73"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8351,14 +8384,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="76" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A76" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="89"/>
+      <c r="C76" s="73"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="34" t="s">
@@ -8435,14 +8468,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="77" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A77" s="33">
         <v>0</v>
       </c>
-      <c r="B77" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="89"/>
+      <c r="B77" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="73"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="34" t="s">
@@ -8518,14 +8551,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="78" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A78" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="B78" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="C78" s="89"/>
+      <c r="C78" s="73"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8601,14 +8634,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="79" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A79" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="B79" s="89" t="s">
-        <v>142</v>
-      </c>
-      <c r="C79" s="89"/>
+      <c r="C79" s="73"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8684,14 +8717,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="80" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A80" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="B80" s="89" t="s">
-        <v>253</v>
-      </c>
-      <c r="C80" s="89"/>
+        <v>142</v>
+      </c>
+      <c r="B80" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80" s="73"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8767,14 +8800,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="81" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A81" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="C81" s="89"/>
+      <c r="C81" s="73"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8850,14 +8883,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="82" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A82" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="C82" s="89"/>
+      <c r="C82" s="73"/>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
       <c r="F82" s="34" t="s">
@@ -8934,14 +8967,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="83" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A83" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="B83" s="89" t="s">
-        <v>149</v>
-      </c>
-      <c r="C83" s="89"/>
+      <c r="C83" s="73"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9018,14 +9051,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="84" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A84" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="C84" s="89"/>
+      <c r="C84" s="73"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9102,14 +9135,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="85" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A85" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="B85" s="89" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85" s="89"/>
+      <c r="C85" s="73"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9186,14 +9219,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="86" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A86" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="B86" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="C86" s="89"/>
+      <c r="C86" s="73"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9270,14 +9303,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="87" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A87" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="B87" s="89" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="89"/>
+      <c r="C87" s="73"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9354,14 +9387,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="88" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A88" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="B88" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="C88" s="89"/>
+      <c r="C88" s="73"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9437,14 +9470,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="89" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A89" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="B89" s="89" t="s">
-        <v>161</v>
-      </c>
-      <c r="C89" s="89"/>
+      <c r="C89" s="73"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9520,14 +9553,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="90" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A90" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B90" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="C90" s="89"/>
+        <v>161</v>
+      </c>
+      <c r="B90" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" s="73"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9603,14 +9636,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="91" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A91" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B91" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="89"/>
+      <c r="C91" s="73"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9686,14 +9719,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="92" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A92" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B92" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C92" s="89"/>
+      <c r="C92" s="73"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9769,14 +9802,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="93" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A93" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B93" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="89"/>
+      <c r="C93" s="73"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9852,14 +9885,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="94" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A94" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="B94" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="89"/>
+      <c r="C94" s="73"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9935,14 +9968,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="95" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A95" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B95" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="89"/>
+      <c r="C95" s="73"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10018,14 +10051,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="96" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A96" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="B96" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="89"/>
+      <c r="C96" s="73"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10101,14 +10134,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="97" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A97" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B97" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="89"/>
+      <c r="C97" s="73"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10184,14 +10217,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="98" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A98" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="B98" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="89"/>
+      <c r="C98" s="73"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10267,14 +10300,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="99" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A99" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="B99" s="89" t="s">
-        <v>172</v>
-      </c>
-      <c r="C99" s="89"/>
+      <c r="C99" s="73"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10350,14 +10383,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="100" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A100" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="B100" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="C100" s="89"/>
+      <c r="C100" s="73"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10433,14 +10466,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="101" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A101" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="B101" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="C101" s="94"/>
+      <c r="C101" s="74"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10516,14 +10549,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="102" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A102" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="B102" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" s="89"/>
+      <c r="C102" s="73"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10599,14 +10632,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="103" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A103" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B103" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="B103" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C103" s="89"/>
+      <c r="C103" s="73"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10682,14 +10715,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="104" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A104" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="B104" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="C104" s="89"/>
+      <c r="C104" s="73"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10765,14 +10798,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="105" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A105" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B105" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="B105" s="89" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="89"/>
+      <c r="C105" s="73"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10848,14 +10881,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="106" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A106" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B106" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="B106" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" s="89"/>
+      <c r="C106" s="73"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10931,14 +10964,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="107" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A107" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="B107" s="89" t="s">
-        <v>188</v>
-      </c>
-      <c r="C107" s="89"/>
+      <c r="C107" s="73"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11014,14 +11047,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="108" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A108" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B108" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="B108" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="C108" s="94"/>
+      <c r="C108" s="74"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11097,14 +11130,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="109" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A109" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B109" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="C109" s="94"/>
+      <c r="B109" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" s="74"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11180,14 +11213,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="110" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A110" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B110" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="C110" s="94"/>
+        <v>191</v>
+      </c>
+      <c r="B110" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="C110" s="74"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11263,14 +11296,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="111" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A111" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B111" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="C111" s="94"/>
+        <v>192</v>
+      </c>
+      <c r="B111" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="C111" s="74"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11346,14 +11379,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="112" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A112" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B112" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="C112" s="94"/>
+        <v>193</v>
+      </c>
+      <c r="B112" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="C112" s="74"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11429,14 +11462,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="113" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A113" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B113" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="C113" s="94"/>
+        <v>194</v>
+      </c>
+      <c r="B113" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="C113" s="74"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11512,14 +11545,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="114" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A114" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="B114" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="C114" s="94"/>
+        <v>195</v>
+      </c>
+      <c r="B114" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" s="74"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11595,14 +11628,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="115" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A115" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B115" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="B115" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="C115" s="89"/>
+      <c r="C115" s="73"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11678,14 +11711,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="116" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A116" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="B116" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="C116" s="89"/>
+      <c r="C116" s="73"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11761,14 +11794,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="117" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A117" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="B117" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="C117" s="89"/>
+      <c r="C117" s="73"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11844,14 +11877,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="118" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A118" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="B118" s="89" t="s">
-        <v>204</v>
-      </c>
-      <c r="C118" s="89"/>
+      <c r="C118" s="73"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11927,14 +11960,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="119" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A119" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B119" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="B119" s="89" t="s">
-        <v>206</v>
-      </c>
-      <c r="C119" s="89"/>
+      <c r="C119" s="73"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12010,14 +12043,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="120" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A120" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B120" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="B120" s="89" t="s">
-        <v>208</v>
-      </c>
-      <c r="C120" s="89"/>
+      <c r="C120" s="73"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12093,14 +12126,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="121" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A121" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B121" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="B121" s="89" t="s">
-        <v>210</v>
-      </c>
-      <c r="C121" s="89"/>
+      <c r="C121" s="73"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12176,14 +12209,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="122" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A122" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B122" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="B122" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="C122" s="89"/>
+      <c r="C122" s="73"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12259,14 +12292,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="123" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A123" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B123" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="B123" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="C123" s="89"/>
+      <c r="C123" s="73"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12342,14 +12375,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="124" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A124" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B124" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="B124" s="89" t="s">
-        <v>216</v>
-      </c>
-      <c r="C124" s="89"/>
+      <c r="C124" s="73"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12425,14 +12458,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="125" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A125" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B125" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="B125" s="89" t="s">
-        <v>218</v>
-      </c>
-      <c r="C125" s="89"/>
+      <c r="C125" s="73"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12508,14 +12541,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="126" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A126" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B126" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="B126" s="89" t="s">
-        <v>220</v>
-      </c>
-      <c r="C126" s="89"/>
+      <c r="C126" s="73"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12591,14 +12624,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="127" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A127" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="B127" s="89" t="s">
-        <v>222</v>
-      </c>
-      <c r="C127" s="89"/>
+      <c r="C127" s="73"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12674,14 +12707,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:30" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="128" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A128" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B128" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="B128" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="C128" s="89"/>
+      <c r="C128" s="73"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12757,14 +12790,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:255" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="129" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A129" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B129" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="B129" s="89" t="s">
-        <v>226</v>
-      </c>
-      <c r="C129" s="89"/>
+      <c r="C129" s="73"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12840,14 +12873,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:255" s="10" customFormat="1" ht="38.5" customHeight="1">
+    <row r="130" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A130" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B130" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="B130" s="89" t="s">
-        <v>228</v>
-      </c>
-      <c r="C130" s="89"/>
+      <c r="C130" s="73"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12923,14 +12956,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:255" s="47" customFormat="1" ht="38.5" customHeight="1">
+    <row r="131" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A131" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B131" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="B131" s="86" t="s">
-        <v>230</v>
-      </c>
-      <c r="C131" s="86"/>
+      <c r="C131" s="72"/>
       <c r="D131" s="34"/>
       <c r="E131" s="34"/>
       <c r="F131" s="34" t="s">
@@ -13234,13 +13267,13 @@
     </row>
     <row r="132" spans="1:255" s="10" customFormat="1">
       <c r="A132" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B132" s="26"/>
       <c r="C132" s="49"/>
       <c r="D132" s="50"/>
       <c r="F132" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H132" s="52"/>
       <c r="I132" s="53"/>
@@ -13265,7 +13298,7 @@
     </row>
     <row r="133" spans="1:255" s="10" customFormat="1">
       <c r="A133" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B133" s="59"/>
       <c r="C133" s="60"/>
@@ -13292,7 +13325,7 @@
     </row>
     <row r="134" spans="1:255" s="10" customFormat="1">
       <c r="A134" s="58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B134" s="59"/>
       <c r="C134" s="60"/>
@@ -13319,7 +13352,7 @@
     </row>
     <row r="135" spans="1:255" s="10" customFormat="1">
       <c r="A135" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B135" s="62"/>
       <c r="C135" s="1"/>
@@ -13346,7 +13379,7 @@
     </row>
     <row r="136" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A136" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B136" s="62"/>
       <c r="C136" s="1"/>
@@ -13373,7 +13406,7 @@
     </row>
     <row r="137" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A137" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B137" s="62"/>
       <c r="C137" s="1"/>
@@ -13400,7 +13433,7 @@
     </row>
     <row r="138" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A138" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B138" s="62"/>
       <c r="C138" s="1"/>
@@ -13427,7 +13460,7 @@
     </row>
     <row r="139" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A139" s="58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B139" s="62"/>
       <c r="C139" s="1"/>
@@ -13454,7 +13487,7 @@
     </row>
     <row r="140" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A140" s="58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B140" s="62"/>
       <c r="C140" s="1"/>
@@ -13481,7 +13514,7 @@
     </row>
     <row r="141" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B141" s="62"/>
       <c r="C141" s="1"/>
@@ -13508,7 +13541,7 @@
     </row>
     <row r="142" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B142" s="62"/>
       <c r="C142" s="1"/>
@@ -13535,7 +13568,7 @@
     </row>
     <row r="143" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B143" s="62"/>
       <c r="C143" s="1"/>
@@ -13562,7 +13595,7 @@
     </row>
     <row r="144" spans="1:255">
       <c r="A144" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="60"/>
@@ -13585,7 +13618,7 @@
     </row>
     <row r="145" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A145" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B145" s="59"/>
       <c r="C145" s="60"/>
@@ -13612,7 +13645,7 @@
     </row>
     <row r="146" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A146" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B146" s="66"/>
       <c r="C146" s="67"/>
@@ -13639,7 +13672,7 @@
     </row>
     <row r="147" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A147" s="71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B147" s="59"/>
       <c r="C147" s="60"/>
@@ -13666,7 +13699,7 @@
     </row>
     <row r="148" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A148" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B148" s="59"/>
       <c r="C148" s="60"/>
@@ -13693,7 +13726,7 @@
     </row>
     <row r="149" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A149" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B149" s="59"/>
       <c r="C149" s="60"/>
@@ -14222,133 +14255,6 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14363,6 +14269,133 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A491A7-67B5-489A-AEA6-1D090B55662E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4887E0D-ADCD-482D-931D-AA42EA3A4867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="257">
   <si>
     <t>重要農產品價格日報表</t>
   </si>
@@ -1479,6 +1479,10 @@
   </si>
   <si>
     <t>新興梨</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鑽鳳梨 (台北市場批發價)</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -1703,7 +1707,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1837,12 +1841,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2041,36 +2058,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2109,6 +2096,42 @@
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2523,8 +2546,8 @@
   <dimension ref="A1:IU257"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <pane ySplit="8" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91:C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2557,35 +2580,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2634,8 +2657,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2644,41 +2667,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="85" t="s">
+      <c r="T5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="85"/>
+      <c r="U5" s="75"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="90" t="s">
+      <c r="G6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2690,36 +2713,36 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="91" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="M7" s="93" t="s">
+      <c r="M7" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="94" t="s">
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="94"/>
-      <c r="V7" s="79"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="85"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
@@ -2730,14 +2753,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2750,7 +2773,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="92"/>
+      <c r="L8" s="82"/>
       <c r="M8" s="30" t="s">
         <v>245</v>
       </c>
@@ -2778,7 +2801,7 @@
       <c r="U8" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="V8" s="79"/>
+      <c r="V8" s="85"/>
       <c r="W8" s="32" t="s">
         <v>12</v>
       </c>
@@ -2808,13 +2831,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81" t="s">
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2891,13 +2914,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -2972,10 +2995,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3059,10 +3082,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3146,10 +3169,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3233,10 +3256,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3317,10 +3340,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3400,10 +3423,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="73"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3483,10 +3506,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3566,10 +3589,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3649,10 +3672,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="73"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3732,10 +3755,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="73"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3815,10 +3838,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="73"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3898,10 +3921,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="73"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -3981,10 +4004,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="73"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4064,10 +4087,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4147,10 +4170,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4230,10 +4253,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="73"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4313,10 +4336,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="73"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4396,10 +4419,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="73"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4479,10 +4502,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="78"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4563,10 +4586,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="78"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4647,10 +4670,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="73"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4730,10 +4753,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="73"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4813,10 +4836,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="73"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4897,10 +4920,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="73"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -4980,10 +5003,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="73"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5063,10 +5086,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="73"/>
+      <c r="C36" s="89"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5146,10 +5169,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="73"/>
+      <c r="C37" s="89"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5229,10 +5252,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="73"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5312,10 +5335,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="73"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5395,10 +5418,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="73"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5478,10 +5501,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="89"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5561,10 +5584,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="89"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5645,10 +5668,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="77" t="s">
+      <c r="B43" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="77"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5728,10 +5751,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="77"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5811,10 +5834,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="73"/>
+      <c r="C45" s="89"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5894,10 +5917,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="73"/>
+      <c r="C46" s="89"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -5977,10 +6000,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="73"/>
+      <c r="C47" s="89"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6060,10 +6083,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="73" t="s">
+      <c r="B48" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="73"/>
+      <c r="C48" s="89"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6143,10 +6166,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="73"/>
+      <c r="C49" s="89"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6226,10 +6249,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="73"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6309,10 +6332,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="73"/>
+      <c r="C51" s="89"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6392,10 +6415,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="73" t="s">
+      <c r="B52" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="73"/>
+      <c r="C52" s="89"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6475,10 +6498,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="73"/>
+      <c r="C53" s="89"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6558,10 +6581,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="73" t="s">
+      <c r="B54" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="73"/>
+      <c r="C54" s="89"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6641,10 +6664,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="73"/>
+      <c r="C55" s="89"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6724,10 +6747,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="73"/>
+      <c r="C56" s="89"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6807,10 +6830,10 @@
       <c r="A57" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="73" t="s">
+      <c r="B57" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="73"/>
+      <c r="C57" s="89"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6890,10 +6913,10 @@
       <c r="A58" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="73" t="s">
+      <c r="B58" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="C58" s="73"/>
+      <c r="C58" s="89"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -6973,10 +6996,10 @@
       <c r="A59" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="73" t="s">
+      <c r="B59" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="73"/>
+      <c r="C59" s="89"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7056,10 +7079,10 @@
       <c r="A60" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="73"/>
+      <c r="C60" s="89"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7139,10 +7162,10 @@
       <c r="A61" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="73" t="s">
+      <c r="B61" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="73"/>
+      <c r="C61" s="89"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7222,10 +7245,10 @@
       <c r="A62" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="73"/>
+      <c r="C62" s="89"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7306,10 +7329,10 @@
       <c r="A63" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="73" t="s">
+      <c r="B63" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="C63" s="73"/>
+      <c r="C63" s="89"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7389,10 +7412,10 @@
       <c r="A64" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="73" t="s">
+      <c r="B64" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="73"/>
+      <c r="C64" s="89"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7473,10 +7496,10 @@
       <c r="A65" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="73" t="s">
+      <c r="B65" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="73"/>
+      <c r="C65" s="89"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7556,10 +7579,10 @@
       <c r="A66" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="73" t="s">
+      <c r="B66" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="73"/>
+      <c r="C66" s="89"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7640,10 +7663,10 @@
       <c r="A67" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="73"/>
+      <c r="C67" s="89"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7723,10 +7746,10 @@
       <c r="A68" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="73"/>
+      <c r="C68" s="89"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7806,10 +7829,10 @@
       <c r="A69" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="73"/>
+      <c r="C69" s="89"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7890,10 +7913,10 @@
       <c r="A70" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="73" t="s">
+      <c r="B70" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="73"/>
+      <c r="C70" s="89"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="34" t="s">
@@ -7973,10 +7996,10 @@
       <c r="A71" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="75" t="s">
+      <c r="B71" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="75"/>
+      <c r="C71" s="92"/>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
       <c r="F71" s="34" t="s">
@@ -8055,10 +8078,10 @@
     </row>
     <row r="72" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A72" s="46"/>
-      <c r="B72" s="73" t="s">
+      <c r="B72" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="73"/>
+      <c r="C72" s="89"/>
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
       <c r="F72" s="34" t="s">
@@ -8137,14 +8160,14 @@
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A73" s="38"/>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76">
+      <c r="C73" s="93"/>
+      <c r="D73" s="93">
         <v>35.200000000000003</v>
       </c>
-      <c r="E73" s="76"/>
+      <c r="E73" s="93"/>
       <c r="F73" s="34" t="s">
         <v>15</v>
       </c>
@@ -8222,10 +8245,10 @@
       <c r="A74" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="73" t="s">
+      <c r="B74" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="73"/>
+      <c r="C74" s="89"/>
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
       <c r="F74" s="34" t="s">
@@ -8305,10 +8328,10 @@
       <c r="A75" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="73"/>
+      <c r="C75" s="89"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8388,10 +8411,10 @@
       <c r="A76" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="73" t="s">
+      <c r="B76" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="73"/>
+      <c r="C76" s="89"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="34" t="s">
@@ -8472,10 +8495,10 @@
       <c r="A77" s="33">
         <v>0</v>
       </c>
-      <c r="B77" s="73" t="s">
+      <c r="B77" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="73"/>
+      <c r="C77" s="89"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="34" t="s">
@@ -8555,10 +8578,10 @@
       <c r="A78" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="73" t="s">
+      <c r="B78" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="C78" s="73"/>
+      <c r="C78" s="89"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8638,10 +8661,10 @@
       <c r="A79" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="73" t="s">
+      <c r="B79" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="73"/>
+      <c r="C79" s="89"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8721,10 +8744,10 @@
       <c r="A80" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="73" t="s">
+      <c r="B80" s="89" t="s">
         <v>252</v>
       </c>
-      <c r="C80" s="73"/>
+      <c r="C80" s="89"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8804,10 +8827,10 @@
       <c r="A81" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B81" s="73" t="s">
+      <c r="B81" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="73"/>
+      <c r="C81" s="89"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8887,10 +8910,10 @@
       <c r="A82" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="73" t="s">
+      <c r="B82" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="73"/>
+      <c r="C82" s="89"/>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
       <c r="F82" s="34" t="s">
@@ -8971,10 +8994,10 @@
       <c r="A83" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B83" s="73" t="s">
+      <c r="B83" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="73"/>
+      <c r="C83" s="89"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9055,10 +9078,10 @@
       <c r="A84" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B84" s="73" t="s">
+      <c r="B84" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="C84" s="73"/>
+      <c r="C84" s="89"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9139,10 +9162,10 @@
       <c r="A85" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B85" s="73" t="s">
+      <c r="B85" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="C85" s="73"/>
+      <c r="C85" s="89"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9223,10 +9246,10 @@
       <c r="A86" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B86" s="73" t="s">
+      <c r="B86" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="73"/>
+      <c r="C86" s="89"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9307,10 +9330,10 @@
       <c r="A87" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B87" s="73" t="s">
+      <c r="B87" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="C87" s="73"/>
+      <c r="C87" s="89"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9391,10 +9414,10 @@
       <c r="A88" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B88" s="73" t="s">
+      <c r="B88" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="C88" s="73"/>
+      <c r="C88" s="89"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9474,10 +9497,10 @@
       <c r="A89" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B89" s="73" t="s">
+      <c r="B89" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="C89" s="73"/>
+      <c r="C89" s="89"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9557,10 +9580,10 @@
       <c r="A90" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B90" s="73" t="s">
+      <c r="B90" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="C90" s="73"/>
+      <c r="C90" s="89"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9640,10 +9663,10 @@
       <c r="A91" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B91" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" s="73"/>
+      <c r="B91" s="95" t="s">
+        <v>256</v>
+      </c>
+      <c r="C91" s="96"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9723,10 +9746,10 @@
       <c r="A92" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B92" s="73" t="s">
+      <c r="B92" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C92" s="73"/>
+      <c r="C92" s="89"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9806,10 +9829,10 @@
       <c r="A93" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B93" s="73" t="s">
+      <c r="B93" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="73"/>
+      <c r="C93" s="89"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9889,10 +9912,10 @@
       <c r="A94" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B94" s="73" t="s">
+      <c r="B94" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="73"/>
+      <c r="C94" s="89"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9972,10 +9995,10 @@
       <c r="A95" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B95" s="73" t="s">
+      <c r="B95" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="73"/>
+      <c r="C95" s="89"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10055,10 +10078,10 @@
       <c r="A96" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B96" s="73" t="s">
+      <c r="B96" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="73"/>
+      <c r="C96" s="89"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10138,10 +10161,10 @@
       <c r="A97" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B97" s="73" t="s">
+      <c r="B97" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="73"/>
+      <c r="C97" s="89"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10221,10 +10244,10 @@
       <c r="A98" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B98" s="73" t="s">
+      <c r="B98" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="73"/>
+      <c r="C98" s="89"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10304,10 +10327,10 @@
       <c r="A99" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B99" s="73" t="s">
+      <c r="B99" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="C99" s="73"/>
+      <c r="C99" s="89"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10387,10 +10410,10 @@
       <c r="A100" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B100" s="73" t="s">
+      <c r="B100" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="C100" s="73"/>
+      <c r="C100" s="89"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10470,10 +10493,10 @@
       <c r="A101" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B101" s="74" t="s">
+      <c r="B101" s="94" t="s">
         <v>175</v>
       </c>
-      <c r="C101" s="74"/>
+      <c r="C101" s="94"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10553,10 +10576,10 @@
       <c r="A102" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B102" s="73" t="s">
+      <c r="B102" s="89" t="s">
         <v>177</v>
       </c>
-      <c r="C102" s="73"/>
+      <c r="C102" s="89"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10636,10 +10659,10 @@
       <c r="A103" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B103" s="73" t="s">
+      <c r="B103" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="C103" s="73"/>
+      <c r="C103" s="89"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10719,10 +10742,10 @@
       <c r="A104" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B104" s="73" t="s">
+      <c r="B104" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="C104" s="73"/>
+      <c r="C104" s="89"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10802,10 +10825,10 @@
       <c r="A105" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B105" s="73" t="s">
+      <c r="B105" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="73"/>
+      <c r="C105" s="89"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10885,10 +10908,10 @@
       <c r="A106" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B106" s="73" t="s">
+      <c r="B106" s="89" t="s">
         <v>185</v>
       </c>
-      <c r="C106" s="73"/>
+      <c r="C106" s="89"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10968,10 +10991,10 @@
       <c r="A107" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B107" s="73" t="s">
+      <c r="B107" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="C107" s="73"/>
+      <c r="C107" s="89"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11051,10 +11074,10 @@
       <c r="A108" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B108" s="74" t="s">
+      <c r="B108" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="C108" s="74"/>
+      <c r="C108" s="94"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11134,10 +11157,10 @@
       <c r="A109" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B109" s="74" t="s">
+      <c r="B109" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="C109" s="74"/>
+      <c r="C109" s="94"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11217,10 +11240,10 @@
       <c r="A110" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B110" s="74" t="s">
+      <c r="B110" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="C110" s="74"/>
+      <c r="C110" s="94"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11300,10 +11323,10 @@
       <c r="A111" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="B111" s="74" t="s">
+      <c r="B111" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="C111" s="74"/>
+      <c r="C111" s="94"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11383,10 +11406,10 @@
       <c r="A112" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B112" s="74" t="s">
+      <c r="B112" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="C112" s="74"/>
+      <c r="C112" s="94"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11466,10 +11489,10 @@
       <c r="A113" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B113" s="74" t="s">
+      <c r="B113" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="C113" s="74"/>
+      <c r="C113" s="94"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11549,10 +11572,10 @@
       <c r="A114" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B114" s="74" t="s">
+      <c r="B114" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="C114" s="74"/>
+      <c r="C114" s="94"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11632,10 +11655,10 @@
       <c r="A115" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="B115" s="73" t="s">
+      <c r="B115" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="C115" s="73"/>
+      <c r="C115" s="89"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11715,10 +11738,10 @@
       <c r="A116" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="B116" s="73" t="s">
+      <c r="B116" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="C116" s="73"/>
+      <c r="C116" s="89"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11798,10 +11821,10 @@
       <c r="A117" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="B117" s="73" t="s">
+      <c r="B117" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="C117" s="73"/>
+      <c r="C117" s="89"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11881,10 +11904,10 @@
       <c r="A118" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="B118" s="73" t="s">
+      <c r="B118" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="C118" s="73"/>
+      <c r="C118" s="89"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11964,10 +11987,10 @@
       <c r="A119" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B119" s="73" t="s">
+      <c r="B119" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="C119" s="73"/>
+      <c r="C119" s="89"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12047,10 +12070,10 @@
       <c r="A120" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="B120" s="73" t="s">
+      <c r="B120" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="C120" s="73"/>
+      <c r="C120" s="89"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12130,10 +12153,10 @@
       <c r="A121" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B121" s="73" t="s">
+      <c r="B121" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C121" s="73"/>
+      <c r="C121" s="89"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12213,10 +12236,10 @@
       <c r="A122" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="B122" s="73" t="s">
+      <c r="B122" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="C122" s="73"/>
+      <c r="C122" s="89"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12296,10 +12319,10 @@
       <c r="A123" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="B123" s="73" t="s">
+      <c r="B123" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="C123" s="73"/>
+      <c r="C123" s="89"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12379,10 +12402,10 @@
       <c r="A124" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="B124" s="73" t="s">
+      <c r="B124" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="C124" s="73"/>
+      <c r="C124" s="89"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12462,10 +12485,10 @@
       <c r="A125" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="B125" s="73" t="s">
+      <c r="B125" s="89" t="s">
         <v>217</v>
       </c>
-      <c r="C125" s="73"/>
+      <c r="C125" s="89"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12545,10 +12568,10 @@
       <c r="A126" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="B126" s="73" t="s">
+      <c r="B126" s="89" t="s">
         <v>219</v>
       </c>
-      <c r="C126" s="73"/>
+      <c r="C126" s="89"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12628,10 +12651,10 @@
       <c r="A127" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="B127" s="73" t="s">
+      <c r="B127" s="89" t="s">
         <v>221</v>
       </c>
-      <c r="C127" s="73"/>
+      <c r="C127" s="89"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12711,10 +12734,10 @@
       <c r="A128" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="B128" s="73" t="s">
+      <c r="B128" s="89" t="s">
         <v>223</v>
       </c>
-      <c r="C128" s="73"/>
+      <c r="C128" s="89"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12794,10 +12817,10 @@
       <c r="A129" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="B129" s="73" t="s">
+      <c r="B129" s="89" t="s">
         <v>225</v>
       </c>
-      <c r="C129" s="73"/>
+      <c r="C129" s="89"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12877,10 +12900,10 @@
       <c r="A130" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="B130" s="73" t="s">
+      <c r="B130" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="C130" s="73"/>
+      <c r="C130" s="89"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12960,10 +12983,10 @@
       <c r="A131" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="B131" s="72" t="s">
+      <c r="B131" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="C131" s="72"/>
+      <c r="C131" s="86"/>
       <c r="D131" s="34"/>
       <c r="E131" s="34"/>
       <c r="F131" s="34" t="s">
@@ -14255,6 +14278,133 @@
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14269,133 +14419,6 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4887E0D-ADCD-482D-931D-AA42EA3A4867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F000879B-D835-4EE2-B7C5-6E98D62C952A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="256">
   <si>
     <t>重要農產品價格日報表</t>
   </si>
@@ -1479,10 +1479,6 @@
   </si>
   <si>
     <t>新興梨</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鑽鳳梨 (台北市場批發價)</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -1707,7 +1703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1841,25 +1837,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2058,6 +2041,36 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2096,42 +2109,6 @@
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2546,8 +2523,8 @@
   <dimension ref="A1:IU257"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91:C91"/>
+      <pane ySplit="8" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2580,35 +2557,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2657,8 +2634,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2667,41 +2644,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="75" t="s">
+      <c r="T5" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="75"/>
+      <c r="U5" s="85"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79" t="s">
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2713,36 +2690,36 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81" t="s">
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="82" t="s">
+      <c r="L7" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="M7" s="83" t="s">
+      <c r="M7" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="84" t="s">
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="84"/>
-      <c r="V7" s="85"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="79"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
@@ -2753,14 +2730,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="81"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2773,7 +2750,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="82"/>
+      <c r="L8" s="92"/>
       <c r="M8" s="30" t="s">
         <v>245</v>
       </c>
@@ -2801,7 +2778,7 @@
       <c r="U8" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="V8" s="85"/>
+      <c r="V8" s="79"/>
       <c r="W8" s="32" t="s">
         <v>12</v>
       </c>
@@ -2831,13 +2808,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2914,13 +2891,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -2995,10 +2972,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3082,10 +3059,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="86"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3169,10 +3146,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="86"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3256,10 +3233,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="89"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3340,10 +3317,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3423,10 +3400,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="89"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3506,10 +3483,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="89"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3589,10 +3566,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="90"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3672,10 +3649,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3755,10 +3732,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="89"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3838,10 +3815,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="89"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3921,10 +3898,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="89"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -4004,10 +3981,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="89"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4087,10 +4064,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="89"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4170,10 +4147,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="90"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4253,10 +4230,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="89"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4336,10 +4313,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="89"/>
+      <c r="C27" s="73"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4419,10 +4396,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="89"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4502,10 +4479,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="90"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4586,10 +4563,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="90"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4670,10 +4647,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="89"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4753,10 +4730,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="89"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4836,10 +4813,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="89"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4920,10 +4897,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="89"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -5003,10 +4980,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="89"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5086,10 +5063,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="89"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5169,10 +5146,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="89"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5252,10 +5229,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="89"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5335,10 +5312,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="89"/>
+      <c r="C39" s="73"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5418,10 +5395,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="89" t="s">
+      <c r="B40" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="89"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5501,10 +5478,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="89"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5584,10 +5561,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="89"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5668,10 +5645,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="91"/>
+      <c r="C43" s="77"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5751,10 +5728,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="91"/>
+      <c r="C44" s="77"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5834,10 +5811,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="89" t="s">
+      <c r="B45" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="89"/>
+      <c r="C45" s="73"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5917,10 +5894,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="89"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -6000,10 +5977,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="89" t="s">
+      <c r="B47" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="89"/>
+      <c r="C47" s="73"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6083,10 +6060,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="89"/>
+      <c r="C48" s="73"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6166,10 +6143,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="89" t="s">
+      <c r="B49" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="89"/>
+      <c r="C49" s="73"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6249,10 +6226,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="89"/>
+      <c r="C50" s="73"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6332,10 +6309,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="89" t="s">
+      <c r="B51" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="89"/>
+      <c r="C51" s="73"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6415,10 +6392,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="89" t="s">
+      <c r="B52" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="89"/>
+      <c r="C52" s="73"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6498,10 +6475,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="89" t="s">
+      <c r="B53" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="89"/>
+      <c r="C53" s="73"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6581,10 +6558,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="89" t="s">
+      <c r="B54" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="89"/>
+      <c r="C54" s="73"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6664,10 +6641,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="89" t="s">
+      <c r="B55" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="89"/>
+      <c r="C55" s="73"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6747,10 +6724,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="89" t="s">
+      <c r="B56" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="89"/>
+      <c r="C56" s="73"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6830,10 +6807,10 @@
       <c r="A57" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="89" t="s">
+      <c r="B57" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="89"/>
+      <c r="C57" s="73"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6913,10 +6890,10 @@
       <c r="A58" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="89" t="s">
+      <c r="B58" s="73" t="s">
         <v>255</v>
       </c>
-      <c r="C58" s="89"/>
+      <c r="C58" s="73"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -6996,10 +6973,10 @@
       <c r="A59" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="89" t="s">
+      <c r="B59" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="89"/>
+      <c r="C59" s="73"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7079,10 +7056,10 @@
       <c r="A60" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="89" t="s">
+      <c r="B60" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="89"/>
+      <c r="C60" s="73"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7162,10 +7139,10 @@
       <c r="A61" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="89" t="s">
+      <c r="B61" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="89"/>
+      <c r="C61" s="73"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7245,10 +7222,10 @@
       <c r="A62" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="89" t="s">
+      <c r="B62" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="89"/>
+      <c r="C62" s="73"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7329,10 +7306,10 @@
       <c r="A63" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="89" t="s">
+      <c r="B63" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="C63" s="89"/>
+      <c r="C63" s="73"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7412,10 +7389,10 @@
       <c r="A64" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="89" t="s">
+      <c r="B64" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="89"/>
+      <c r="C64" s="73"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7496,10 +7473,10 @@
       <c r="A65" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="89" t="s">
+      <c r="B65" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="89"/>
+      <c r="C65" s="73"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7579,10 +7556,10 @@
       <c r="A66" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="89" t="s">
+      <c r="B66" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="89"/>
+      <c r="C66" s="73"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7663,10 +7640,10 @@
       <c r="A67" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="89" t="s">
+      <c r="B67" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="89"/>
+      <c r="C67" s="73"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7746,10 +7723,10 @@
       <c r="A68" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="89" t="s">
+      <c r="B68" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="89"/>
+      <c r="C68" s="73"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7829,10 +7806,10 @@
       <c r="A69" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="89" t="s">
+      <c r="B69" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="89"/>
+      <c r="C69" s="73"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7913,10 +7890,10 @@
       <c r="A70" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="89" t="s">
+      <c r="B70" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="89"/>
+      <c r="C70" s="73"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="34" t="s">
@@ -7996,10 +7973,10 @@
       <c r="A71" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="92" t="s">
+      <c r="B71" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="92"/>
+      <c r="C71" s="75"/>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
       <c r="F71" s="34" t="s">
@@ -8078,10 +8055,10 @@
     </row>
     <row r="72" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A72" s="46"/>
-      <c r="B72" s="89" t="s">
+      <c r="B72" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="89"/>
+      <c r="C72" s="73"/>
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
       <c r="F72" s="34" t="s">
@@ -8160,14 +8137,14 @@
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A73" s="38"/>
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="93"/>
-      <c r="D73" s="93">
+      <c r="C73" s="76"/>
+      <c r="D73" s="76">
         <v>35.200000000000003</v>
       </c>
-      <c r="E73" s="93"/>
+      <c r="E73" s="76"/>
       <c r="F73" s="34" t="s">
         <v>15</v>
       </c>
@@ -8245,10 +8222,10 @@
       <c r="A74" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="89" t="s">
+      <c r="B74" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="89"/>
+      <c r="C74" s="73"/>
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
       <c r="F74" s="34" t="s">
@@ -8328,10 +8305,10 @@
       <c r="A75" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="89" t="s">
+      <c r="B75" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="89"/>
+      <c r="C75" s="73"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8411,10 +8388,10 @@
       <c r="A76" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="89" t="s">
+      <c r="B76" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="89"/>
+      <c r="C76" s="73"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="34" t="s">
@@ -8495,10 +8472,10 @@
       <c r="A77" s="33">
         <v>0</v>
       </c>
-      <c r="B77" s="89" t="s">
+      <c r="B77" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="89"/>
+      <c r="C77" s="73"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="34" t="s">
@@ -8578,10 +8555,10 @@
       <c r="A78" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="89" t="s">
+      <c r="B78" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="C78" s="89"/>
+      <c r="C78" s="73"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8661,10 +8638,10 @@
       <c r="A79" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="89" t="s">
+      <c r="B79" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="89"/>
+      <c r="C79" s="73"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8744,10 +8721,10 @@
       <c r="A80" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="89" t="s">
+      <c r="B80" s="73" t="s">
         <v>252</v>
       </c>
-      <c r="C80" s="89"/>
+      <c r="C80" s="73"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8827,10 +8804,10 @@
       <c r="A81" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B81" s="89" t="s">
+      <c r="B81" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="89"/>
+      <c r="C81" s="73"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8910,10 +8887,10 @@
       <c r="A82" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="89" t="s">
+      <c r="B82" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="89"/>
+      <c r="C82" s="73"/>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
       <c r="F82" s="34" t="s">
@@ -8994,10 +8971,10 @@
       <c r="A83" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B83" s="89" t="s">
+      <c r="B83" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="89"/>
+      <c r="C83" s="73"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9078,10 +9055,10 @@
       <c r="A84" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B84" s="89" t="s">
+      <c r="B84" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="C84" s="89"/>
+      <c r="C84" s="73"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9162,10 +9139,10 @@
       <c r="A85" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B85" s="89" t="s">
+      <c r="B85" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="C85" s="89"/>
+      <c r="C85" s="73"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9246,10 +9223,10 @@
       <c r="A86" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B86" s="89" t="s">
+      <c r="B86" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="89"/>
+      <c r="C86" s="73"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9330,10 +9307,10 @@
       <c r="A87" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B87" s="89" t="s">
+      <c r="B87" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="C87" s="89"/>
+      <c r="C87" s="73"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9414,10 +9391,10 @@
       <c r="A88" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B88" s="89" t="s">
+      <c r="B88" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="C88" s="89"/>
+      <c r="C88" s="73"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9497,10 +9474,10 @@
       <c r="A89" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B89" s="89" t="s">
+      <c r="B89" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="C89" s="89"/>
+      <c r="C89" s="73"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9580,10 +9557,10 @@
       <c r="A90" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B90" s="89" t="s">
+      <c r="B90" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="C90" s="89"/>
+      <c r="C90" s="73"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9663,10 +9640,10 @@
       <c r="A91" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B91" s="95" t="s">
-        <v>256</v>
-      </c>
-      <c r="C91" s="96"/>
+      <c r="B91" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" s="73"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9746,10 +9723,10 @@
       <c r="A92" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B92" s="89" t="s">
+      <c r="B92" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C92" s="89"/>
+      <c r="C92" s="73"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9829,10 +9806,10 @@
       <c r="A93" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B93" s="89" t="s">
+      <c r="B93" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="89"/>
+      <c r="C93" s="73"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9912,10 +9889,10 @@
       <c r="A94" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B94" s="89" t="s">
+      <c r="B94" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="89"/>
+      <c r="C94" s="73"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9995,10 +9972,10 @@
       <c r="A95" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B95" s="89" t="s">
+      <c r="B95" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="89"/>
+      <c r="C95" s="73"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10078,10 +10055,10 @@
       <c r="A96" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B96" s="89" t="s">
+      <c r="B96" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="89"/>
+      <c r="C96" s="73"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10161,10 +10138,10 @@
       <c r="A97" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B97" s="89" t="s">
+      <c r="B97" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="89"/>
+      <c r="C97" s="73"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10244,10 +10221,10 @@
       <c r="A98" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B98" s="89" t="s">
+      <c r="B98" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="89"/>
+      <c r="C98" s="73"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10327,10 +10304,10 @@
       <c r="A99" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B99" s="89" t="s">
+      <c r="B99" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="C99" s="89"/>
+      <c r="C99" s="73"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10410,10 +10387,10 @@
       <c r="A100" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B100" s="89" t="s">
+      <c r="B100" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="C100" s="89"/>
+      <c r="C100" s="73"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10493,10 +10470,10 @@
       <c r="A101" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B101" s="94" t="s">
+      <c r="B101" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="C101" s="94"/>
+      <c r="C101" s="74"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10576,10 +10553,10 @@
       <c r="A102" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B102" s="89" t="s">
+      <c r="B102" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="C102" s="89"/>
+      <c r="C102" s="73"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10659,10 +10636,10 @@
       <c r="A103" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B103" s="89" t="s">
+      <c r="B103" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="C103" s="89"/>
+      <c r="C103" s="73"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10742,10 +10719,10 @@
       <c r="A104" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B104" s="89" t="s">
+      <c r="B104" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="C104" s="89"/>
+      <c r="C104" s="73"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10825,10 +10802,10 @@
       <c r="A105" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B105" s="89" t="s">
+      <c r="B105" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="89"/>
+      <c r="C105" s="73"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10908,10 +10885,10 @@
       <c r="A106" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B106" s="89" t="s">
+      <c r="B106" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="C106" s="89"/>
+      <c r="C106" s="73"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10991,10 +10968,10 @@
       <c r="A107" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B107" s="89" t="s">
+      <c r="B107" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="C107" s="89"/>
+      <c r="C107" s="73"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11074,10 +11051,10 @@
       <c r="A108" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B108" s="94" t="s">
+      <c r="B108" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="C108" s="94"/>
+      <c r="C108" s="74"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11157,10 +11134,10 @@
       <c r="A109" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B109" s="94" t="s">
+      <c r="B109" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="C109" s="94"/>
+      <c r="C109" s="74"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11240,10 +11217,10 @@
       <c r="A110" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B110" s="94" t="s">
+      <c r="B110" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="C110" s="94"/>
+      <c r="C110" s="74"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11323,10 +11300,10 @@
       <c r="A111" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="B111" s="94" t="s">
+      <c r="B111" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="C111" s="94"/>
+      <c r="C111" s="74"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11406,10 +11383,10 @@
       <c r="A112" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B112" s="94" t="s">
+      <c r="B112" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="C112" s="94"/>
+      <c r="C112" s="74"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11489,10 +11466,10 @@
       <c r="A113" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B113" s="94" t="s">
+      <c r="B113" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="C113" s="94"/>
+      <c r="C113" s="74"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11572,10 +11549,10 @@
       <c r="A114" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B114" s="94" t="s">
+      <c r="B114" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="C114" s="94"/>
+      <c r="C114" s="74"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11655,10 +11632,10 @@
       <c r="A115" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="B115" s="89" t="s">
+      <c r="B115" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="C115" s="89"/>
+      <c r="C115" s="73"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11738,10 +11715,10 @@
       <c r="A116" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="B116" s="89" t="s">
+      <c r="B116" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="C116" s="89"/>
+      <c r="C116" s="73"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11821,10 +11798,10 @@
       <c r="A117" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="B117" s="89" t="s">
+      <c r="B117" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="C117" s="89"/>
+      <c r="C117" s="73"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11904,10 +11881,10 @@
       <c r="A118" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="B118" s="89" t="s">
+      <c r="B118" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="C118" s="89"/>
+      <c r="C118" s="73"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11987,10 +11964,10 @@
       <c r="A119" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B119" s="89" t="s">
+      <c r="B119" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="C119" s="89"/>
+      <c r="C119" s="73"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12070,10 +12047,10 @@
       <c r="A120" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="B120" s="89" t="s">
+      <c r="B120" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="C120" s="89"/>
+      <c r="C120" s="73"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12153,10 +12130,10 @@
       <c r="A121" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B121" s="89" t="s">
+      <c r="B121" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="C121" s="89"/>
+      <c r="C121" s="73"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12236,10 +12213,10 @@
       <c r="A122" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="B122" s="89" t="s">
+      <c r="B122" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="C122" s="89"/>
+      <c r="C122" s="73"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12319,10 +12296,10 @@
       <c r="A123" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="B123" s="89" t="s">
+      <c r="B123" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="C123" s="89"/>
+      <c r="C123" s="73"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12402,10 +12379,10 @@
       <c r="A124" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="B124" s="89" t="s">
+      <c r="B124" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="C124" s="89"/>
+      <c r="C124" s="73"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12485,10 +12462,10 @@
       <c r="A125" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="B125" s="89" t="s">
+      <c r="B125" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="C125" s="89"/>
+      <c r="C125" s="73"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12568,10 +12545,10 @@
       <c r="A126" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="B126" s="89" t="s">
+      <c r="B126" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C126" s="89"/>
+      <c r="C126" s="73"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12651,10 +12628,10 @@
       <c r="A127" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="B127" s="89" t="s">
+      <c r="B127" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="C127" s="89"/>
+      <c r="C127" s="73"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12734,10 +12711,10 @@
       <c r="A128" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="B128" s="89" t="s">
+      <c r="B128" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="C128" s="89"/>
+      <c r="C128" s="73"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12817,10 +12794,10 @@
       <c r="A129" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="B129" s="89" t="s">
+      <c r="B129" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="C129" s="89"/>
+      <c r="C129" s="73"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12900,10 +12877,10 @@
       <c r="A130" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="B130" s="89" t="s">
+      <c r="B130" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="C130" s="89"/>
+      <c r="C130" s="73"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12983,10 +12960,10 @@
       <c r="A131" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="B131" s="86" t="s">
+      <c r="B131" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="C131" s="86"/>
+      <c r="C131" s="72"/>
       <c r="D131" s="34"/>
       <c r="E131" s="34"/>
       <c r="F131" s="34" t="s">
@@ -14278,133 +14255,6 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14419,6 +14269,133 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F000879B-D835-4EE2-B7C5-6E98D62C952A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785E25F7-DFC5-4062-B8DB-3EB157F3BD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="257">
   <si>
     <t>重要農產品價格日報表</t>
   </si>
@@ -551,9 +551,6 @@
   <si>
     <t>青香蕉-下品
 (產地)</t>
-  </si>
-  <si>
-    <t>香蕉 (台北市場批發價)</t>
   </si>
   <si>
     <t>55</t>
@@ -1479,6 +1476,14 @@
   </si>
   <si>
     <t>新興梨</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉 (台北市場批發價)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鑽鳯梨(台北市場批發價)</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2041,36 +2046,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2109,6 +2084,36 @@
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2523,8 +2528,8 @@
   <dimension ref="A1:IU257"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+      <pane ySplit="8" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91:C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2557,35 +2562,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2634,8 +2639,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2644,41 +2649,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="85" t="s">
+      <c r="T5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="85"/>
+      <c r="U5" s="75"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="90" t="s">
+      <c r="G6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2690,36 +2695,36 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="91" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="92" t="s">
-        <v>244</v>
-      </c>
-      <c r="M7" s="93" t="s">
+      <c r="L7" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="M7" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="94" t="s">
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="94"/>
-      <c r="V7" s="79"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="85"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
@@ -2730,14 +2735,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2750,9 +2755,9 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="92"/>
+      <c r="L8" s="82"/>
       <c r="M8" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N8" s="30" t="s">
         <v>10</v>
@@ -2776,9 +2781,9 @@
         <v>11</v>
       </c>
       <c r="U8" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="V8" s="79"/>
+        <v>245</v>
+      </c>
+      <c r="V8" s="85"/>
       <c r="W8" s="32" t="s">
         <v>12</v>
       </c>
@@ -2808,13 +2813,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81" t="s">
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2891,13 +2896,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -2972,10 +2977,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3059,10 +3064,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3146,10 +3151,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3233,10 +3238,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3317,10 +3322,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3400,10 +3405,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="73"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3483,10 +3488,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3566,10 +3571,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3649,10 +3654,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="73"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3732,10 +3737,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="73"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3815,10 +3820,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="73"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3898,10 +3903,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="73"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -3981,10 +3986,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="73"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4064,10 +4069,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4147,10 +4152,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4230,10 +4235,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="73"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4313,10 +4318,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="73"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4396,10 +4401,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="73"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4479,10 +4484,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="78"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4563,10 +4568,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="78"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4647,10 +4652,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="73"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4730,10 +4735,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="73"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4813,10 +4818,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="73"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4897,10 +4902,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="73"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -4980,10 +4985,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="73"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5063,10 +5068,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="73"/>
+      <c r="C36" s="89"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5146,10 +5151,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="73"/>
+      <c r="C37" s="89"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5229,10 +5234,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="73"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5312,10 +5317,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="73"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5395,10 +5400,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="73"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5478,10 +5483,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="73"/>
+      <c r="C41" s="89"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5561,10 +5566,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="89"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5645,10 +5650,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="77" t="s">
+      <c r="B43" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="77"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5728,10 +5733,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="77"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5811,10 +5816,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="73"/>
+      <c r="C45" s="89"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5894,10 +5899,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="73"/>
+      <c r="C46" s="89"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -5977,10 +5982,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="73"/>
+      <c r="C47" s="89"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6060,10 +6065,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="73" t="s">
+      <c r="B48" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="73"/>
+      <c r="C48" s="89"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6143,10 +6148,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="73"/>
+      <c r="C49" s="89"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6226,10 +6231,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="73"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6309,10 +6314,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="73"/>
+      <c r="C51" s="89"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6392,10 +6397,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="73" t="s">
+      <c r="B52" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="73"/>
+      <c r="C52" s="89"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6475,10 +6480,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="73"/>
+      <c r="C53" s="89"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6558,10 +6563,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="73" t="s">
+      <c r="B54" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="73"/>
+      <c r="C54" s="89"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6641,10 +6646,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="73"/>
+      <c r="C55" s="89"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6724,10 +6729,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="73"/>
+      <c r="C56" s="89"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6807,10 +6812,10 @@
       <c r="A57" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="73" t="s">
+      <c r="B57" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="73"/>
+      <c r="C57" s="89"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6890,10 +6895,10 @@
       <c r="A58" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="C58" s="73"/>
+      <c r="B58" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="89"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -6973,10 +6978,10 @@
       <c r="A59" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="73" t="s">
+      <c r="B59" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="73"/>
+      <c r="C59" s="89"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7056,10 +7061,10 @@
       <c r="A60" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="73"/>
+      <c r="C60" s="89"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7139,10 +7144,10 @@
       <c r="A61" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="73" t="s">
+      <c r="B61" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="73"/>
+      <c r="C61" s="89"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7222,10 +7227,10 @@
       <c r="A62" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="73"/>
+      <c r="C62" s="89"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7306,10 +7311,10 @@
       <c r="A63" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="C63" s="73"/>
+      <c r="B63" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" s="89"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7389,10 +7394,10 @@
       <c r="A64" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="73" t="s">
+      <c r="B64" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="73"/>
+      <c r="C64" s="89"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7473,10 +7478,10 @@
       <c r="A65" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="73" t="s">
+      <c r="B65" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="73"/>
+      <c r="C65" s="89"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7556,10 +7561,10 @@
       <c r="A66" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="73" t="s">
+      <c r="B66" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="73"/>
+      <c r="C66" s="89"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7640,10 +7645,10 @@
       <c r="A67" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="73"/>
+      <c r="C67" s="89"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7723,10 +7728,10 @@
       <c r="A68" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="73"/>
+      <c r="C68" s="89"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7806,10 +7811,10 @@
       <c r="A69" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="73"/>
+      <c r="C69" s="89"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7890,10 +7895,10 @@
       <c r="A70" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="73" t="s">
+      <c r="B70" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="73"/>
+      <c r="C70" s="89"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="34" t="s">
@@ -7973,10 +7978,10 @@
       <c r="A71" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="75" t="s">
+      <c r="B71" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="75"/>
+      <c r="C71" s="92"/>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
       <c r="F71" s="34" t="s">
@@ -8055,10 +8060,10 @@
     </row>
     <row r="72" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A72" s="46"/>
-      <c r="B72" s="73" t="s">
+      <c r="B72" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="73"/>
+      <c r="C72" s="89"/>
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
       <c r="F72" s="34" t="s">
@@ -8137,14 +8142,14 @@
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A73" s="38"/>
-      <c r="B73" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76">
+      <c r="B73" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" s="93"/>
+      <c r="D73" s="93">
         <v>35.200000000000003</v>
       </c>
-      <c r="E73" s="76"/>
+      <c r="E73" s="93"/>
       <c r="F73" s="34" t="s">
         <v>15</v>
       </c>
@@ -8220,12 +8225,12 @@
     </row>
     <row r="74" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A74" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74" s="73"/>
+      <c r="C74" s="89"/>
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
       <c r="F74" s="34" t="s">
@@ -8303,12 +8308,12 @@
     </row>
     <row r="75" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A75" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" s="73"/>
+      <c r="C75" s="89"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8386,12 +8391,12 @@
     </row>
     <row r="76" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A76" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="C76" s="73"/>
+      <c r="C76" s="89"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="34" t="s">
@@ -8472,10 +8477,10 @@
       <c r="A77" s="33">
         <v>0</v>
       </c>
-      <c r="B77" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="73"/>
+      <c r="B77" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="89"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="34" t="s">
@@ -8553,12 +8558,12 @@
     </row>
     <row r="78" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A78" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="73"/>
+      <c r="C78" s="89"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8636,12 +8641,12 @@
     </row>
     <row r="79" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A79" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="73"/>
+      <c r="C79" s="89"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8719,12 +8724,12 @@
     </row>
     <row r="80" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A80" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B80" s="73" t="s">
-        <v>252</v>
-      </c>
-      <c r="C80" s="73"/>
+        <v>141</v>
+      </c>
+      <c r="B80" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" s="89"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8802,12 +8807,12 @@
     </row>
     <row r="81" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A81" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="B81" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="C81" s="73"/>
+      <c r="C81" s="89"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8885,12 +8890,12 @@
     </row>
     <row r="82" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A82" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" s="73"/>
+      <c r="C82" s="89"/>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
       <c r="F82" s="34" t="s">
@@ -8969,12 +8974,12 @@
     </row>
     <row r="83" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A83" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="B83" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" s="73"/>
+      <c r="C83" s="89"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9053,12 +9058,12 @@
     </row>
     <row r="84" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A84" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="B84" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" s="73"/>
+      <c r="C84" s="89"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9137,12 +9142,12 @@
     </row>
     <row r="85" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A85" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="B85" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="C85" s="73"/>
+      <c r="C85" s="89"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9221,12 +9226,12 @@
     </row>
     <row r="86" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A86" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B86" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="B86" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="C86" s="73"/>
+      <c r="C86" s="89"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9305,12 +9310,12 @@
     </row>
     <row r="87" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A87" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="B87" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="C87" s="73"/>
+      <c r="C87" s="89"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9389,12 +9394,12 @@
     </row>
     <row r="88" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A88" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="B88" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="C88" s="73"/>
+      <c r="C88" s="89"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9472,12 +9477,12 @@
     </row>
     <row r="89" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A89" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="B89" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="C89" s="73"/>
+      <c r="C89" s="89"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9555,12 +9560,12 @@
     </row>
     <row r="90" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A90" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B90" s="73" t="s">
-        <v>250</v>
-      </c>
-      <c r="C90" s="73"/>
+        <v>160</v>
+      </c>
+      <c r="B90" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" s="89"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9638,12 +9643,12 @@
     </row>
     <row r="91" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A91" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B91" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" s="73"/>
+        <v>161</v>
+      </c>
+      <c r="B91" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="C91" s="89"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9721,12 +9726,12 @@
     </row>
     <row r="92" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A92" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B92" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C92" s="73"/>
+      <c r="C92" s="89"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9804,12 +9809,12 @@
     </row>
     <row r="93" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A93" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B93" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="73"/>
+      <c r="C93" s="89"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9887,12 +9892,12 @@
     </row>
     <row r="94" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A94" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B94" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="73"/>
+      <c r="C94" s="89"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9970,12 +9975,12 @@
     </row>
     <row r="95" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A95" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="B95" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="73"/>
+      <c r="C95" s="89"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10053,12 +10058,12 @@
     </row>
     <row r="96" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A96" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B96" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="73"/>
+      <c r="C96" s="89"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10136,12 +10141,12 @@
     </row>
     <row r="97" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A97" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="B97" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="73"/>
+      <c r="C97" s="89"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10219,12 +10224,12 @@
     </row>
     <row r="98" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A98" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B98" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="73"/>
+      <c r="C98" s="89"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10302,12 +10307,12 @@
     </row>
     <row r="99" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A99" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="B99" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="C99" s="73"/>
+      <c r="C99" s="89"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10385,12 +10390,12 @@
     </row>
     <row r="100" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A100" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="B100" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="C100" s="73"/>
+      <c r="C100" s="89"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10468,12 +10473,12 @@
     </row>
     <row r="101" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A101" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="B101" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="C101" s="74"/>
+      <c r="C101" s="94"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10551,12 +10556,12 @@
     </row>
     <row r="102" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A102" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B102" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="B102" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="C102" s="73"/>
+      <c r="C102" s="89"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10634,12 +10639,12 @@
     </row>
     <row r="103" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A103" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" s="89" t="s">
         <v>178</v>
       </c>
-      <c r="B103" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="C103" s="73"/>
+      <c r="C103" s="89"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10717,12 +10722,12 @@
     </row>
     <row r="104" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A104" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B104" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="B104" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="C104" s="73"/>
+      <c r="C104" s="89"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10800,12 +10805,12 @@
     </row>
     <row r="105" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A105" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B105" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="B105" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="73"/>
+      <c r="C105" s="89"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10883,12 +10888,12 @@
     </row>
     <row r="106" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A106" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B106" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="B106" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="73"/>
+      <c r="C106" s="89"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10966,12 +10971,12 @@
     </row>
     <row r="107" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A107" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="B107" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="C107" s="73"/>
+      <c r="C107" s="89"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11049,12 +11054,12 @@
     </row>
     <row r="108" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A108" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B108" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="B108" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="C108" s="74"/>
+      <c r="C108" s="94"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11132,12 +11137,12 @@
     </row>
     <row r="109" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A109" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B109" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="C109" s="74"/>
+      <c r="B109" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" s="94"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11215,12 +11220,12 @@
     </row>
     <row r="110" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A110" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B110" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="C110" s="74"/>
+        <v>190</v>
+      </c>
+      <c r="B110" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C110" s="94"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11298,12 +11303,12 @@
     </row>
     <row r="111" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A111" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B111" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="C111" s="74"/>
+        <v>191</v>
+      </c>
+      <c r="B111" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" s="94"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11381,12 +11386,12 @@
     </row>
     <row r="112" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A112" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B112" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="C112" s="74"/>
+        <v>192</v>
+      </c>
+      <c r="B112" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C112" s="94"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11464,12 +11469,12 @@
     </row>
     <row r="113" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A113" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B113" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="C113" s="74"/>
+        <v>193</v>
+      </c>
+      <c r="B113" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C113" s="94"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11547,12 +11552,12 @@
     </row>
     <row r="114" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A114" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B114" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="C114" s="74"/>
+        <v>194</v>
+      </c>
+      <c r="B114" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" s="94"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11630,12 +11635,12 @@
     </row>
     <row r="115" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A115" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B115" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="B115" s="73" t="s">
-        <v>197</v>
-      </c>
-      <c r="C115" s="73"/>
+      <c r="C115" s="89"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11713,12 +11718,12 @@
     </row>
     <row r="116" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A116" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B116" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="B116" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="C116" s="73"/>
+      <c r="C116" s="89"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11796,12 +11801,12 @@
     </row>
     <row r="117" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A117" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="B117" s="73" t="s">
-        <v>201</v>
-      </c>
-      <c r="C117" s="73"/>
+      <c r="C117" s="89"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11879,12 +11884,12 @@
     </row>
     <row r="118" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A118" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="B118" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="B118" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="C118" s="73"/>
+      <c r="C118" s="89"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11962,12 +11967,12 @@
     </row>
     <row r="119" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A119" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B119" s="89" t="s">
         <v>204</v>
       </c>
-      <c r="B119" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="C119" s="73"/>
+      <c r="C119" s="89"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12045,12 +12050,12 @@
     </row>
     <row r="120" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A120" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B120" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="B120" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C120" s="73"/>
+      <c r="C120" s="89"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12128,12 +12133,12 @@
     </row>
     <row r="121" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A121" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="B121" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="B121" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="C121" s="73"/>
+      <c r="C121" s="89"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12211,12 +12216,12 @@
     </row>
     <row r="122" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A122" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="B122" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="B122" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="C122" s="73"/>
+      <c r="C122" s="89"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12294,12 +12299,12 @@
     </row>
     <row r="123" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A123" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B123" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="B123" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="C123" s="73"/>
+      <c r="C123" s="89"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12377,12 +12382,12 @@
     </row>
     <row r="124" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A124" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B124" s="89" t="s">
         <v>214</v>
       </c>
-      <c r="B124" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="C124" s="73"/>
+      <c r="C124" s="89"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12460,12 +12465,12 @@
     </row>
     <row r="125" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A125" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B125" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="B125" s="73" t="s">
-        <v>217</v>
-      </c>
-      <c r="C125" s="73"/>
+      <c r="C125" s="89"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12543,12 +12548,12 @@
     </row>
     <row r="126" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A126" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B126" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="B126" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="C126" s="73"/>
+      <c r="C126" s="89"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12626,12 +12631,12 @@
     </row>
     <row r="127" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A127" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B127" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="B127" s="73" t="s">
-        <v>221</v>
-      </c>
-      <c r="C127" s="73"/>
+      <c r="C127" s="89"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12709,12 +12714,12 @@
     </row>
     <row r="128" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A128" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B128" s="89" t="s">
         <v>222</v>
       </c>
-      <c r="B128" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="C128" s="73"/>
+      <c r="C128" s="89"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12792,12 +12797,12 @@
     </row>
     <row r="129" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A129" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B129" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="B129" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="C129" s="73"/>
+      <c r="C129" s="89"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12875,12 +12880,12 @@
     </row>
     <row r="130" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A130" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B130" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="B130" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="C130" s="73"/>
+      <c r="C130" s="89"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12958,12 +12963,12 @@
     </row>
     <row r="131" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A131" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B131" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="B131" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="C131" s="72"/>
+      <c r="C131" s="86"/>
       <c r="D131" s="34"/>
       <c r="E131" s="34"/>
       <c r="F131" s="34" t="s">
@@ -13267,13 +13272,13 @@
     </row>
     <row r="132" spans="1:255" s="10" customFormat="1">
       <c r="A132" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B132" s="26"/>
       <c r="C132" s="49"/>
       <c r="D132" s="50"/>
       <c r="F132" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H132" s="52"/>
       <c r="I132" s="53"/>
@@ -13298,7 +13303,7 @@
     </row>
     <row r="133" spans="1:255" s="10" customFormat="1">
       <c r="A133" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B133" s="59"/>
       <c r="C133" s="60"/>
@@ -13325,7 +13330,7 @@
     </row>
     <row r="134" spans="1:255" s="10" customFormat="1">
       <c r="A134" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B134" s="59"/>
       <c r="C134" s="60"/>
@@ -13352,7 +13357,7 @@
     </row>
     <row r="135" spans="1:255" s="10" customFormat="1">
       <c r="A135" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B135" s="62"/>
       <c r="C135" s="1"/>
@@ -13379,7 +13384,7 @@
     </row>
     <row r="136" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A136" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B136" s="62"/>
       <c r="C136" s="1"/>
@@ -13406,7 +13411,7 @@
     </row>
     <row r="137" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A137" s="58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B137" s="62"/>
       <c r="C137" s="1"/>
@@ -13433,7 +13438,7 @@
     </row>
     <row r="138" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A138" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B138" s="62"/>
       <c r="C138" s="1"/>
@@ -13460,7 +13465,7 @@
     </row>
     <row r="139" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A139" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B139" s="62"/>
       <c r="C139" s="1"/>
@@ -13487,7 +13492,7 @@
     </row>
     <row r="140" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A140" s="58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B140" s="62"/>
       <c r="C140" s="1"/>
@@ -13514,7 +13519,7 @@
     </row>
     <row r="141" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B141" s="62"/>
       <c r="C141" s="1"/>
@@ -13541,7 +13546,7 @@
     </row>
     <row r="142" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B142" s="62"/>
       <c r="C142" s="1"/>
@@ -13568,7 +13573,7 @@
     </row>
     <row r="143" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B143" s="62"/>
       <c r="C143" s="1"/>
@@ -13595,7 +13600,7 @@
     </row>
     <row r="144" spans="1:255">
       <c r="A144" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B144" s="59"/>
       <c r="C144" s="60"/>
@@ -13618,7 +13623,7 @@
     </row>
     <row r="145" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A145" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B145" s="59"/>
       <c r="C145" s="60"/>
@@ -13645,7 +13650,7 @@
     </row>
     <row r="146" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A146" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B146" s="66"/>
       <c r="C146" s="67"/>
@@ -13672,7 +13677,7 @@
     </row>
     <row r="147" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A147" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B147" s="59"/>
       <c r="C147" s="60"/>
@@ -13699,7 +13704,7 @@
     </row>
     <row r="148" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A148" s="71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B148" s="59"/>
       <c r="C148" s="60"/>
@@ -13726,7 +13731,7 @@
     </row>
     <row r="149" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A149" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B149" s="59"/>
       <c r="C149" s="60"/>
@@ -14255,6 +14260,133 @@
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14269,133 +14401,6 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785E25F7-DFC5-4062-B8DB-3EB157F3BD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBAE3315-5D90-4F47-8CC6-9E4753EE6340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier">"'24a7b5fc-9de7-4bbf-a971-8358f80d3098'"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'a week'!$A$1:$U$149</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'a week'!$A$1:$U$151</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'a week'!$A:$E,'a week'!$1:$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="258">
   <si>
     <t>重要農產品價格日報表</t>
   </si>
@@ -762,10 +762,6 @@
     <t>82</t>
   </si>
   <si>
-    <t>550KG以上
-肉牛(產地-頭)</t>
-  </si>
-  <si>
     <t>83</t>
   </si>
   <si>
@@ -865,10 +861,6 @@
   </si>
   <si>
     <t>97</t>
-  </si>
-  <si>
-    <t>午仔魚
-(池邊)</t>
   </si>
   <si>
     <t>註：</t>
@@ -1484,6 +1476,20 @@
   </si>
   <si>
     <t>金鑽鳯梨(台北市場批發價)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>(新增品項)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>午仔魚
+(池邊)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>550KG以上
+肉牛(產地-頭)</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -1708,7 +1714,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1842,12 +1848,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2046,6 +2065,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2113,6 +2135,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2525,11 +2559,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IU257"/>
+  <dimension ref="A1:IU259"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91:C91"/>
+      <pane ySplit="8" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133:C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2562,35 +2596,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2639,8 +2673,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2649,41 +2683,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="75" t="s">
+      <c r="T5" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="75"/>
+      <c r="U5" s="76"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2695,36 +2729,36 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="82" t="s">
-        <v>243</v>
-      </c>
-      <c r="M7" s="83" t="s">
+      <c r="L7" s="83" t="s">
+        <v>241</v>
+      </c>
+      <c r="M7" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="84" t="s">
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="84"/>
-      <c r="V7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="86"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
@@ -2735,14 +2769,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="81"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2755,9 +2789,9 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="82"/>
+      <c r="L8" s="83"/>
       <c r="M8" s="30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N8" s="30" t="s">
         <v>10</v>
@@ -2781,9 +2815,9 @@
         <v>11</v>
       </c>
       <c r="U8" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="V8" s="85"/>
+        <v>243</v>
+      </c>
+      <c r="V8" s="86"/>
       <c r="W8" s="32" t="s">
         <v>12</v>
       </c>
@@ -2813,13 +2847,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2896,13 +2930,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -2977,10 +3011,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3064,10 +3098,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="86"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3151,10 +3185,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="86"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3238,10 +3272,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="89"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3322,10 +3356,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3405,10 +3439,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="89"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3488,10 +3522,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="89"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3571,10 +3605,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="90"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3654,10 +3688,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3737,10 +3771,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="89"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3820,10 +3854,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="89"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3903,10 +3937,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="89"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -3986,10 +4020,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="89"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4069,10 +4103,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="89"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4152,10 +4186,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="90"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4235,10 +4269,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="89"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4318,10 +4352,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="89"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4401,10 +4435,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="89"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4484,10 +4518,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="90"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4568,10 +4602,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="90"/>
+      <c r="C30" s="91"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4652,10 +4686,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="89"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4735,10 +4769,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="89"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4818,10 +4852,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="89"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4902,10 +4936,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="89"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -4985,10 +5019,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="89"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5068,10 +5102,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="89"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5151,10 +5185,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="89"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5234,10 +5268,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="89"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5317,10 +5351,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="89"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5400,10 +5434,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="89" t="s">
+      <c r="B40" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="89"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5483,10 +5517,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="89"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5566,10 +5600,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="89"/>
+      <c r="C42" s="90"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5650,10 +5684,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="91"/>
+      <c r="C43" s="92"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5733,10 +5767,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="91"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5816,10 +5850,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="89" t="s">
+      <c r="B45" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="89"/>
+      <c r="C45" s="90"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5899,10 +5933,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="89"/>
+      <c r="C46" s="90"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -5982,10 +6016,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="89" t="s">
+      <c r="B47" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="89"/>
+      <c r="C47" s="90"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6065,10 +6099,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="89"/>
+      <c r="C48" s="90"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6148,10 +6182,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="89" t="s">
+      <c r="B49" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="89"/>
+      <c r="C49" s="90"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6231,10 +6265,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="89"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6314,10 +6348,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="89" t="s">
+      <c r="B51" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="89"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6397,10 +6431,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="89" t="s">
+      <c r="B52" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="89"/>
+      <c r="C52" s="90"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6480,10 +6514,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="89" t="s">
+      <c r="B53" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="89"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6563,10 +6597,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="89" t="s">
+      <c r="B54" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="89"/>
+      <c r="C54" s="90"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6646,10 +6680,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="89" t="s">
+      <c r="B55" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="89"/>
+      <c r="C55" s="90"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6729,10 +6763,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="89" t="s">
+      <c r="B56" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="89"/>
+      <c r="C56" s="90"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6812,10 +6846,10 @@
       <c r="A57" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="89" t="s">
+      <c r="B57" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="89"/>
+      <c r="C57" s="90"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6895,10 +6929,10 @@
       <c r="A58" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="89" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="89"/>
+      <c r="B58" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="90"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -6978,10 +7012,10 @@
       <c r="A59" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="89" t="s">
+      <c r="B59" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="89"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7061,10 +7095,10 @@
       <c r="A60" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="89" t="s">
+      <c r="B60" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="89"/>
+      <c r="C60" s="90"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7144,10 +7178,10 @@
       <c r="A61" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="89" t="s">
+      <c r="B61" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="89"/>
+      <c r="C61" s="90"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7227,10 +7261,10 @@
       <c r="A62" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="89" t="s">
+      <c r="B62" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="89"/>
+      <c r="C62" s="90"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7311,10 +7345,10 @@
       <c r="A63" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="C63" s="89"/>
+      <c r="B63" s="90" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" s="90"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7394,10 +7428,10 @@
       <c r="A64" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="89" t="s">
+      <c r="B64" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="89"/>
+      <c r="C64" s="90"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7478,10 +7512,10 @@
       <c r="A65" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="89" t="s">
+      <c r="B65" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="89"/>
+      <c r="C65" s="90"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7561,10 +7595,10 @@
       <c r="A66" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="89" t="s">
+      <c r="B66" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="89"/>
+      <c r="C66" s="90"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7645,10 +7679,10 @@
       <c r="A67" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="89" t="s">
+      <c r="B67" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="89"/>
+      <c r="C67" s="90"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7728,10 +7762,10 @@
       <c r="A68" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="89" t="s">
+      <c r="B68" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="89"/>
+      <c r="C68" s="90"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7811,10 +7845,10 @@
       <c r="A69" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="89" t="s">
+      <c r="B69" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="89"/>
+      <c r="C69" s="90"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7895,10 +7929,10 @@
       <c r="A70" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="89" t="s">
+      <c r="B70" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="89"/>
+      <c r="C70" s="90"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="34" t="s">
@@ -7978,10 +8012,10 @@
       <c r="A71" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="92" t="s">
+      <c r="B71" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="92"/>
+      <c r="C71" s="93"/>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
       <c r="F71" s="34" t="s">
@@ -8060,10 +8094,10 @@
     </row>
     <row r="72" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A72" s="46"/>
-      <c r="B72" s="89" t="s">
+      <c r="B72" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="89"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
       <c r="F72" s="34" t="s">
@@ -8142,14 +8176,14 @@
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A73" s="38"/>
-      <c r="B73" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="C73" s="93"/>
-      <c r="D73" s="93">
+      <c r="B73" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94">
         <v>35.200000000000003</v>
       </c>
-      <c r="E73" s="93"/>
+      <c r="E73" s="94"/>
       <c r="F73" s="34" t="s">
         <v>15</v>
       </c>
@@ -8227,10 +8261,10 @@
       <c r="A74" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B74" s="89" t="s">
+      <c r="B74" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="89"/>
+      <c r="C74" s="90"/>
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
       <c r="F74" s="34" t="s">
@@ -8310,10 +8344,10 @@
       <c r="A75" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="89" t="s">
+      <c r="B75" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="89"/>
+      <c r="C75" s="90"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8390,16 +8424,14 @@
       </c>
     </row>
     <row r="76" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A76" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="89"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="90"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
-      <c r="F76" s="34" t="s">
+      <c r="F76" s="72" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="35" t="s">
@@ -8441,46 +8473,25 @@
       <c r="S76" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T76" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="U76" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="V76" s="42"/>
-      <c r="W76" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="X76" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y76" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z76" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA76" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB76" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC76" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD76" s="40" t="s">
-        <v>15</v>
-      </c>
+      <c r="T76" s="70"/>
+      <c r="U76" s="36"/>
+      <c r="W76" s="40"/>
+      <c r="X76" s="40"/>
+      <c r="Y76" s="40"/>
+      <c r="Z76" s="40"/>
+      <c r="AA76" s="40"/>
+      <c r="AB76" s="40"/>
+      <c r="AC76" s="40"/>
+      <c r="AD76" s="40"/>
     </row>
     <row r="77" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A77" s="33">
-        <v>0</v>
-      </c>
-      <c r="B77" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="89"/>
+      <c r="A77" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="90"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="34" t="s">
@@ -8531,6 +8542,7 @@
       <c r="U77" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="V77" s="42"/>
       <c r="W77" s="40" t="s">
         <v>15</v>
       </c>
@@ -8557,13 +8569,13 @@
       </c>
     </row>
     <row r="78" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A78" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B78" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" s="89"/>
+      <c r="A78" s="33">
+        <v>0</v>
+      </c>
+      <c r="B78" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="90"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8641,12 +8653,12 @@
     </row>
     <row r="79" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A79" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="89"/>
+        <v>137</v>
+      </c>
+      <c r="B79" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="90"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8724,12 +8736,12 @@
     </row>
     <row r="80" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A80" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B80" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="C80" s="89"/>
+        <v>139</v>
+      </c>
+      <c r="B80" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="90"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8807,12 +8819,12 @@
     </row>
     <row r="81" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A81" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B81" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="89"/>
+        <v>141</v>
+      </c>
+      <c r="B81" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" s="90"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8890,12 +8902,12 @@
     </row>
     <row r="82" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A82" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B82" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="C82" s="89"/>
+        <v>142</v>
+      </c>
+      <c r="B82" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="90"/>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
       <c r="F82" s="34" t="s">
@@ -8946,7 +8958,6 @@
       <c r="U82" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V82" s="42"/>
       <c r="W82" s="40" t="s">
         <v>15</v>
       </c>
@@ -8974,12 +8985,12 @@
     </row>
     <row r="83" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A83" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" s="89"/>
+        <v>144</v>
+      </c>
+      <c r="B83" s="90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="90"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9058,12 +9069,12 @@
     </row>
     <row r="84" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A84" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" s="89" t="s">
-        <v>149</v>
-      </c>
-      <c r="C84" s="89"/>
+        <v>146</v>
+      </c>
+      <c r="B84" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="90"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9142,12 +9153,12 @@
     </row>
     <row r="85" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A85" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B85" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="C85" s="89"/>
+        <v>148</v>
+      </c>
+      <c r="B85" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="90"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9226,12 +9237,12 @@
     </row>
     <row r="86" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A86" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B86" s="89" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" s="89"/>
+        <v>150</v>
+      </c>
+      <c r="B86" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="90"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9310,12 +9321,12 @@
     </row>
     <row r="87" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A87" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B87" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="C87" s="89"/>
+        <v>152</v>
+      </c>
+      <c r="B87" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" s="90"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9394,12 +9405,12 @@
     </row>
     <row r="88" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A88" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B88" s="89" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" s="89"/>
+        <v>154</v>
+      </c>
+      <c r="B88" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="90"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9450,6 +9461,7 @@
       <c r="U88" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="V88" s="42"/>
       <c r="W88" s="40" t="s">
         <v>15</v>
       </c>
@@ -9477,12 +9489,12 @@
     </row>
     <row r="89" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A89" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B89" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="C89" s="89"/>
+        <v>156</v>
+      </c>
+      <c r="B89" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="90"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9560,12 +9572,12 @@
     </row>
     <row r="90" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A90" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B90" s="89" t="s">
-        <v>249</v>
-      </c>
-      <c r="C90" s="89"/>
+        <v>158</v>
+      </c>
+      <c r="B90" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="90"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9643,12 +9655,12 @@
     </row>
     <row r="91" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A91" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B91" s="89" t="s">
-        <v>256</v>
-      </c>
-      <c r="C91" s="89"/>
+        <v>160</v>
+      </c>
+      <c r="B91" s="90" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" s="90"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9726,12 +9738,12 @@
     </row>
     <row r="92" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A92" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B92" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" s="89"/>
+        <v>161</v>
+      </c>
+      <c r="B92" s="90" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="90"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9809,12 +9821,12 @@
     </row>
     <row r="93" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A93" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B93" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="89"/>
+      <c r="C93" s="90"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9892,12 +9904,12 @@
     </row>
     <row r="94" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A94" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B94" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="89"/>
+      <c r="C94" s="90"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9975,12 +9987,12 @@
     </row>
     <row r="95" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A95" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="89"/>
+      <c r="C95" s="90"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10058,12 +10070,12 @@
     </row>
     <row r="96" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A96" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="B96" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B96" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="89"/>
+      <c r="C96" s="90"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10141,12 +10153,12 @@
     </row>
     <row r="97" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A97" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B97" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="89"/>
+      <c r="C97" s="90"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10224,12 +10236,12 @@
     </row>
     <row r="98" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A98" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="89"/>
+      <c r="C98" s="90"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10307,12 +10319,12 @@
     </row>
     <row r="99" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A99" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B99" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="C99" s="89"/>
+        <v>168</v>
+      </c>
+      <c r="B99" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="90"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10390,12 +10402,12 @@
     </row>
     <row r="100" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A100" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B100" s="89" t="s">
-        <v>172</v>
-      </c>
-      <c r="C100" s="89"/>
+        <v>169</v>
+      </c>
+      <c r="B100" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="90"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10473,12 +10485,12 @@
     </row>
     <row r="101" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A101" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="B101" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="C101" s="94"/>
+        <v>171</v>
+      </c>
+      <c r="B101" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="90"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10556,12 +10568,12 @@
     </row>
     <row r="102" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A102" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B102" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="C102" s="89"/>
+        <v>173</v>
+      </c>
+      <c r="B102" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="95"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10639,12 +10651,12 @@
     </row>
     <row r="103" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A103" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B103" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="C103" s="89"/>
+        <v>175</v>
+      </c>
+      <c r="B103" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" s="90"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10722,12 +10734,12 @@
     </row>
     <row r="104" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A104" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B104" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C104" s="89"/>
+        <v>177</v>
+      </c>
+      <c r="B104" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="90"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10805,12 +10817,12 @@
     </row>
     <row r="105" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A105" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="B105" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="C105" s="89"/>
+        <v>179</v>
+      </c>
+      <c r="B105" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" s="90"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10888,12 +10900,12 @@
     </row>
     <row r="106" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A106" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B106" s="89" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="89"/>
+        <v>181</v>
+      </c>
+      <c r="B106" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C106" s="90"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10971,12 +10983,12 @@
     </row>
     <row r="107" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A107" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B107" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="C107" s="89"/>
+        <v>183</v>
+      </c>
+      <c r="B107" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="C107" s="90"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11054,12 +11066,12 @@
     </row>
     <row r="108" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A108" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B108" s="94" t="s">
-        <v>188</v>
-      </c>
-      <c r="C108" s="94"/>
+        <v>185</v>
+      </c>
+      <c r="B108" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" s="90"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11137,12 +11149,12 @@
     </row>
     <row r="109" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A109" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B109" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B109" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C109" s="94"/>
+      <c r="C109" s="95"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11220,12 +11232,12 @@
     </row>
     <row r="110" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A110" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B110" s="94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B110" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="94"/>
+      <c r="C110" s="95"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11303,12 +11315,12 @@
     </row>
     <row r="111" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A111" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B111" s="94" t="s">
+        <v>190</v>
+      </c>
+      <c r="B111" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C111" s="94"/>
+      <c r="C111" s="95"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11386,12 +11398,12 @@
     </row>
     <row r="112" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A112" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B112" s="94" t="s">
+        <v>191</v>
+      </c>
+      <c r="B112" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C112" s="94"/>
+      <c r="C112" s="95"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11469,12 +11481,12 @@
     </row>
     <row r="113" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A113" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B113" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="B113" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C113" s="94"/>
+      <c r="C113" s="95"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11552,12 +11564,12 @@
     </row>
     <row r="114" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A114" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B114" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="B114" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C114" s="94"/>
+      <c r="C114" s="95"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11635,12 +11647,12 @@
     </row>
     <row r="115" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A115" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B115" s="89" t="s">
-        <v>196</v>
-      </c>
-      <c r="C115" s="89"/>
+        <v>194</v>
+      </c>
+      <c r="B115" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="95"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11718,12 +11730,12 @@
     </row>
     <row r="116" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A116" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="B116" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="C116" s="89"/>
+        <v>195</v>
+      </c>
+      <c r="B116" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C116" s="95"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11801,12 +11813,12 @@
     </row>
     <row r="117" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A117" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B117" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="C117" s="89"/>
+        <v>197</v>
+      </c>
+      <c r="B117" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C117" s="99"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11882,14 +11894,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
+    <row r="118" spans="1:30" s="10" customFormat="1" ht="38.25" customHeight="1">
       <c r="A118" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B118" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="C118" s="89"/>
+        <v>198</v>
+      </c>
+      <c r="B118" s="90" t="s">
+        <v>257</v>
+      </c>
+      <c r="C118" s="90"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11967,12 +11979,12 @@
     </row>
     <row r="119" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A119" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B119" s="89" t="s">
-        <v>204</v>
-      </c>
-      <c r="C119" s="89"/>
+        <v>200</v>
+      </c>
+      <c r="B119" s="90" t="s">
+        <v>199</v>
+      </c>
+      <c r="C119" s="90"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12050,12 +12062,12 @@
     </row>
     <row r="120" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A120" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B120" s="89" t="s">
-        <v>206</v>
-      </c>
-      <c r="C120" s="89"/>
+        <v>202</v>
+      </c>
+      <c r="B120" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="C120" s="90"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12133,12 +12145,12 @@
     </row>
     <row r="121" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A121" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B121" s="89" t="s">
-        <v>208</v>
-      </c>
-      <c r="C121" s="89"/>
+        <v>204</v>
+      </c>
+      <c r="B121" s="90" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" s="90"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12216,12 +12228,12 @@
     </row>
     <row r="122" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A122" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B122" s="89" t="s">
-        <v>210</v>
-      </c>
-      <c r="C122" s="89"/>
+        <v>206</v>
+      </c>
+      <c r="B122" s="90" t="s">
+        <v>205</v>
+      </c>
+      <c r="C122" s="90"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12299,12 +12311,12 @@
     </row>
     <row r="123" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A123" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="B123" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="C123" s="89"/>
+        <v>208</v>
+      </c>
+      <c r="B123" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="C123" s="90"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12382,12 +12394,12 @@
     </row>
     <row r="124" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A124" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B124" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="C124" s="89"/>
+        <v>210</v>
+      </c>
+      <c r="B124" s="90" t="s">
+        <v>209</v>
+      </c>
+      <c r="C124" s="90"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12465,12 +12477,12 @@
     </row>
     <row r="125" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A125" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B125" s="89" t="s">
-        <v>216</v>
-      </c>
-      <c r="C125" s="89"/>
+        <v>212</v>
+      </c>
+      <c r="B125" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="C125" s="90"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12548,12 +12560,12 @@
     </row>
     <row r="126" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A126" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B126" s="89" t="s">
-        <v>218</v>
-      </c>
-      <c r="C126" s="89"/>
+        <v>214</v>
+      </c>
+      <c r="B126" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="C126" s="90"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12631,12 +12643,12 @@
     </row>
     <row r="127" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A127" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B127" s="89" t="s">
-        <v>220</v>
-      </c>
-      <c r="C127" s="89"/>
+        <v>216</v>
+      </c>
+      <c r="B127" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="C127" s="90"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12714,12 +12726,12 @@
     </row>
     <row r="128" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A128" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B128" s="89" t="s">
-        <v>222</v>
-      </c>
-      <c r="C128" s="89"/>
+        <v>218</v>
+      </c>
+      <c r="B128" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="C128" s="90"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12797,12 +12809,12 @@
     </row>
     <row r="129" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A129" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B129" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="C129" s="89"/>
+        <v>220</v>
+      </c>
+      <c r="B129" s="90" t="s">
+        <v>219</v>
+      </c>
+      <c r="C129" s="90"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12880,12 +12892,12 @@
     </row>
     <row r="130" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A130" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B130" s="89" t="s">
-        <v>226</v>
-      </c>
-      <c r="C130" s="89"/>
+        <v>222</v>
+      </c>
+      <c r="B130" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="C130" s="90"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12961,16 +12973,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
+    <row r="131" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A131" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="B131" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="C131" s="86"/>
-      <c r="D131" s="34"/>
-      <c r="E131" s="34"/>
+        <v>224</v>
+      </c>
+      <c r="B131" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="C131" s="90"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="43"/>
       <c r="F131" s="34" t="s">
         <v>15</v>
       </c>
@@ -13019,7 +13031,6 @@
       <c r="U131" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V131" s="10"/>
       <c r="W131" s="40" t="s">
         <v>15</v>
       </c>
@@ -13044,328 +13055,651 @@
       <c r="AD131" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AE131" s="10"/>
-      <c r="AF131" s="10"/>
-      <c r="AG131" s="10"/>
-      <c r="AH131" s="10"/>
-      <c r="AI131" s="10"/>
-      <c r="AJ131" s="10"/>
-      <c r="AK131" s="10"/>
-      <c r="AL131" s="10"/>
-      <c r="AM131" s="10"/>
-      <c r="AN131" s="10"/>
-      <c r="AO131" s="10"/>
-      <c r="AP131" s="10"/>
-      <c r="AQ131" s="10"/>
-      <c r="AR131" s="10"/>
-      <c r="AS131" s="10"/>
-      <c r="AT131" s="10"/>
-      <c r="AU131" s="10"/>
-      <c r="AV131" s="10"/>
-      <c r="AW131" s="10"/>
-      <c r="AX131" s="10"/>
-      <c r="AY131" s="10"/>
-      <c r="AZ131" s="10"/>
-      <c r="BA131" s="10"/>
-      <c r="BB131" s="10"/>
-      <c r="BC131" s="10"/>
-      <c r="BD131" s="10"/>
-      <c r="BE131" s="10"/>
-      <c r="BF131" s="10"/>
-      <c r="BG131" s="10"/>
-      <c r="BH131" s="10"/>
-      <c r="BI131" s="10"/>
-      <c r="BJ131" s="10"/>
-      <c r="BK131" s="10"/>
-      <c r="BL131" s="10"/>
-      <c r="BM131" s="10"/>
-      <c r="BN131" s="10"/>
-      <c r="BO131" s="10"/>
-      <c r="BP131" s="10"/>
-      <c r="BQ131" s="10"/>
-      <c r="BR131" s="10"/>
-      <c r="BS131" s="10"/>
-      <c r="BT131" s="10"/>
-      <c r="BU131" s="10"/>
-      <c r="BV131" s="10"/>
-      <c r="BW131" s="10"/>
-      <c r="BX131" s="10"/>
-      <c r="BY131" s="10"/>
-      <c r="BZ131" s="10"/>
-      <c r="CA131" s="10"/>
-      <c r="CB131" s="10"/>
-      <c r="CC131" s="10"/>
-      <c r="CD131" s="10"/>
-      <c r="CE131" s="10"/>
-      <c r="CF131" s="10"/>
-      <c r="CG131" s="10"/>
-      <c r="CH131" s="10"/>
-      <c r="CI131" s="10"/>
-      <c r="CJ131" s="10"/>
-      <c r="CK131" s="10"/>
-      <c r="CL131" s="10"/>
-      <c r="CM131" s="10"/>
-      <c r="CN131" s="10"/>
-      <c r="CO131" s="10"/>
-      <c r="CP131" s="10"/>
-      <c r="CQ131" s="10"/>
-      <c r="CR131" s="10"/>
-      <c r="CS131" s="10"/>
-      <c r="CT131" s="10"/>
-      <c r="CU131" s="10"/>
-      <c r="CV131" s="10"/>
-      <c r="CW131" s="10"/>
-      <c r="CX131" s="10"/>
-      <c r="CY131" s="10"/>
-      <c r="CZ131" s="10"/>
-      <c r="DA131" s="10"/>
-      <c r="DB131" s="10"/>
-      <c r="DC131" s="10"/>
-      <c r="DD131" s="10"/>
-      <c r="DE131" s="10"/>
-      <c r="DF131" s="10"/>
-      <c r="DG131" s="10"/>
-      <c r="DH131" s="10"/>
-      <c r="DI131" s="10"/>
-      <c r="DJ131" s="10"/>
-      <c r="DK131" s="10"/>
-      <c r="DL131" s="10"/>
-      <c r="DM131" s="10"/>
-      <c r="DN131" s="10"/>
-      <c r="DO131" s="10"/>
-      <c r="DP131" s="10"/>
-      <c r="DQ131" s="10"/>
-      <c r="DR131" s="10"/>
-      <c r="DS131" s="10"/>
-      <c r="DT131" s="10"/>
-      <c r="DU131" s="10"/>
-      <c r="DV131" s="10"/>
-      <c r="DW131" s="10"/>
-      <c r="DX131" s="10"/>
-      <c r="DY131" s="10"/>
-      <c r="DZ131" s="10"/>
-      <c r="EA131" s="10"/>
-      <c r="EB131" s="10"/>
-      <c r="EC131" s="10"/>
-      <c r="ED131" s="10"/>
-      <c r="EE131" s="10"/>
-      <c r="EF131" s="10"/>
-      <c r="EG131" s="10"/>
-      <c r="EH131" s="10"/>
-      <c r="EI131" s="10"/>
-      <c r="EJ131" s="10"/>
-      <c r="EK131" s="10"/>
-      <c r="EL131" s="10"/>
-      <c r="EM131" s="10"/>
-      <c r="EN131" s="10"/>
-      <c r="EO131" s="10"/>
-      <c r="EP131" s="10"/>
-      <c r="EQ131" s="10"/>
-      <c r="ER131" s="10"/>
-      <c r="ES131" s="10"/>
-      <c r="ET131" s="10"/>
-      <c r="EU131" s="10"/>
-      <c r="EV131" s="10"/>
-      <c r="EW131" s="10"/>
-      <c r="EX131" s="10"/>
-      <c r="EY131" s="10"/>
-      <c r="EZ131" s="10"/>
-      <c r="FA131" s="10"/>
-      <c r="FB131" s="10"/>
-      <c r="FC131" s="10"/>
-      <c r="FD131" s="10"/>
-      <c r="FE131" s="10"/>
-      <c r="FF131" s="10"/>
-      <c r="FG131" s="10"/>
-      <c r="FH131" s="10"/>
-      <c r="FI131" s="10"/>
-      <c r="FJ131" s="10"/>
-      <c r="FK131" s="10"/>
-      <c r="FL131" s="10"/>
-      <c r="FM131" s="10"/>
-      <c r="FN131" s="10"/>
-      <c r="FO131" s="10"/>
-      <c r="FP131" s="10"/>
-      <c r="FQ131" s="10"/>
-      <c r="FR131" s="10"/>
-      <c r="FS131" s="10"/>
-      <c r="FT131" s="10"/>
-      <c r="FU131" s="10"/>
-      <c r="FV131" s="10"/>
-      <c r="FW131" s="10"/>
-      <c r="FX131" s="10"/>
-      <c r="FY131" s="10"/>
-      <c r="FZ131" s="10"/>
-      <c r="GA131" s="10"/>
-      <c r="GB131" s="10"/>
-      <c r="GC131" s="10"/>
-      <c r="GD131" s="10"/>
-      <c r="GE131" s="10"/>
-      <c r="GF131" s="10"/>
-      <c r="GG131" s="10"/>
-      <c r="GH131" s="10"/>
-      <c r="GI131" s="10"/>
-      <c r="GJ131" s="10"/>
-      <c r="GK131" s="10"/>
-      <c r="GL131" s="10"/>
-      <c r="GM131" s="10"/>
-      <c r="GN131" s="10"/>
-      <c r="GO131" s="10"/>
-      <c r="GP131" s="10"/>
-      <c r="GQ131" s="10"/>
-      <c r="GR131" s="10"/>
-      <c r="GS131" s="10"/>
-      <c r="GT131" s="10"/>
-      <c r="GU131" s="10"/>
-      <c r="GV131" s="10"/>
-      <c r="GW131" s="10"/>
-      <c r="GX131" s="10"/>
-      <c r="GY131" s="10"/>
-      <c r="GZ131" s="10"/>
-      <c r="HA131" s="10"/>
-      <c r="HB131" s="10"/>
-      <c r="HC131" s="10"/>
-      <c r="HD131" s="10"/>
-      <c r="HE131" s="10"/>
-      <c r="HF131" s="10"/>
-      <c r="HG131" s="10"/>
-      <c r="HH131" s="10"/>
-      <c r="HI131" s="10"/>
-      <c r="HJ131" s="10"/>
-      <c r="HK131" s="10"/>
-      <c r="HL131" s="10"/>
-      <c r="HM131" s="10"/>
-      <c r="HN131" s="10"/>
-      <c r="HO131" s="10"/>
-      <c r="HP131" s="10"/>
-      <c r="HQ131" s="10"/>
-      <c r="HR131" s="10"/>
-      <c r="HS131" s="10"/>
-      <c r="HT131" s="10"/>
-      <c r="HU131" s="10"/>
-      <c r="HV131" s="10"/>
-      <c r="HW131" s="10"/>
-      <c r="HX131" s="10"/>
-      <c r="HY131" s="10"/>
-      <c r="HZ131" s="10"/>
-      <c r="IA131" s="10"/>
-      <c r="IB131" s="10"/>
-      <c r="IC131" s="10"/>
-      <c r="ID131" s="10"/>
-      <c r="IE131" s="10"/>
-      <c r="IF131" s="10"/>
-      <c r="IG131" s="10"/>
-      <c r="IH131" s="10"/>
-      <c r="II131" s="10"/>
-      <c r="IJ131" s="10"/>
-      <c r="IK131" s="10"/>
-      <c r="IL131" s="10"/>
-      <c r="IM131" s="10"/>
-      <c r="IN131" s="10"/>
-      <c r="IO131" s="10"/>
-      <c r="IP131" s="10"/>
-      <c r="IQ131" s="10"/>
-      <c r="IR131" s="10"/>
-      <c r="IS131" s="10"/>
-      <c r="IT131" s="10"/>
-      <c r="IU131" s="10"/>
-    </row>
-    <row r="132" spans="1:255" s="10" customFormat="1">
-      <c r="A132" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="B132" s="26"/>
-      <c r="C132" s="49"/>
-      <c r="D132" s="50"/>
-      <c r="F132" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="H132" s="52"/>
-      <c r="I132" s="53"/>
-      <c r="J132" s="53"/>
-      <c r="K132" s="53"/>
-      <c r="L132" s="54"/>
-      <c r="M132" s="54"/>
-      <c r="N132" s="54"/>
-      <c r="O132" s="54"/>
-      <c r="P132" s="55"/>
-      <c r="Q132" s="54"/>
-      <c r="R132" s="54"/>
-      <c r="T132" s="56"/>
-      <c r="AP132" s="57"/>
-      <c r="AQ132" s="57"/>
-      <c r="AR132" s="57"/>
-      <c r="AS132" s="57"/>
-      <c r="AT132" s="57"/>
-      <c r="AU132" s="57"/>
-      <c r="AV132" s="57"/>
-      <c r="AW132" s="57"/>
-    </row>
-    <row r="133" spans="1:255" s="10" customFormat="1">
-      <c r="A133" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="B133" s="59"/>
-      <c r="C133" s="60"/>
-      <c r="D133" s="59"/>
-      <c r="E133" s="59"/>
-      <c r="F133" s="59"/>
-      <c r="G133" s="59"/>
-      <c r="H133" s="61"/>
-      <c r="I133" s="54"/>
-      <c r="J133" s="54"/>
-      <c r="K133" s="54"/>
-      <c r="L133" s="54"/>
-      <c r="M133" s="54"/>
-      <c r="N133" s="54"/>
-      <c r="O133" s="54"/>
-      <c r="AM133" s="57"/>
-      <c r="AN133" s="57"/>
-      <c r="AO133" s="57"/>
-      <c r="AP133" s="57"/>
-      <c r="AQ133" s="57"/>
-      <c r="AR133" s="57"/>
-      <c r="AS133" s="57"/>
-      <c r="AT133" s="57"/>
+    </row>
+    <row r="132" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
+      <c r="A132" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B132" s="90" t="s">
+        <v>225</v>
+      </c>
+      <c r="C132" s="90"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="34"/>
+      <c r="F132" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K132" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L132" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M132" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N132" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O132" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P132" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q132" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R132" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S132" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="T132" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="U132" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="V132" s="10"/>
+      <c r="W132" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="X132" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y132" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z132" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA132" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB132" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC132" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD132" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE132" s="10"/>
+      <c r="AF132" s="10"/>
+      <c r="AG132" s="10"/>
+      <c r="AH132" s="10"/>
+      <c r="AI132" s="10"/>
+      <c r="AJ132" s="10"/>
+      <c r="AK132" s="10"/>
+      <c r="AL132" s="10"/>
+      <c r="AM132" s="10"/>
+      <c r="AN132" s="10"/>
+      <c r="AO132" s="10"/>
+      <c r="AP132" s="10"/>
+      <c r="AQ132" s="10"/>
+      <c r="AR132" s="10"/>
+      <c r="AS132" s="10"/>
+      <c r="AT132" s="10"/>
+      <c r="AU132" s="10"/>
+      <c r="AV132" s="10"/>
+      <c r="AW132" s="10"/>
+      <c r="AX132" s="10"/>
+      <c r="AY132" s="10"/>
+      <c r="AZ132" s="10"/>
+      <c r="BA132" s="10"/>
+      <c r="BB132" s="10"/>
+      <c r="BC132" s="10"/>
+      <c r="BD132" s="10"/>
+      <c r="BE132" s="10"/>
+      <c r="BF132" s="10"/>
+      <c r="BG132" s="10"/>
+      <c r="BH132" s="10"/>
+      <c r="BI132" s="10"/>
+      <c r="BJ132" s="10"/>
+      <c r="BK132" s="10"/>
+      <c r="BL132" s="10"/>
+      <c r="BM132" s="10"/>
+      <c r="BN132" s="10"/>
+      <c r="BO132" s="10"/>
+      <c r="BP132" s="10"/>
+      <c r="BQ132" s="10"/>
+      <c r="BR132" s="10"/>
+      <c r="BS132" s="10"/>
+      <c r="BT132" s="10"/>
+      <c r="BU132" s="10"/>
+      <c r="BV132" s="10"/>
+      <c r="BW132" s="10"/>
+      <c r="BX132" s="10"/>
+      <c r="BY132" s="10"/>
+      <c r="BZ132" s="10"/>
+      <c r="CA132" s="10"/>
+      <c r="CB132" s="10"/>
+      <c r="CC132" s="10"/>
+      <c r="CD132" s="10"/>
+      <c r="CE132" s="10"/>
+      <c r="CF132" s="10"/>
+      <c r="CG132" s="10"/>
+      <c r="CH132" s="10"/>
+      <c r="CI132" s="10"/>
+      <c r="CJ132" s="10"/>
+      <c r="CK132" s="10"/>
+      <c r="CL132" s="10"/>
+      <c r="CM132" s="10"/>
+      <c r="CN132" s="10"/>
+      <c r="CO132" s="10"/>
+      <c r="CP132" s="10"/>
+      <c r="CQ132" s="10"/>
+      <c r="CR132" s="10"/>
+      <c r="CS132" s="10"/>
+      <c r="CT132" s="10"/>
+      <c r="CU132" s="10"/>
+      <c r="CV132" s="10"/>
+      <c r="CW132" s="10"/>
+      <c r="CX132" s="10"/>
+      <c r="CY132" s="10"/>
+      <c r="CZ132" s="10"/>
+      <c r="DA132" s="10"/>
+      <c r="DB132" s="10"/>
+      <c r="DC132" s="10"/>
+      <c r="DD132" s="10"/>
+      <c r="DE132" s="10"/>
+      <c r="DF132" s="10"/>
+      <c r="DG132" s="10"/>
+      <c r="DH132" s="10"/>
+      <c r="DI132" s="10"/>
+      <c r="DJ132" s="10"/>
+      <c r="DK132" s="10"/>
+      <c r="DL132" s="10"/>
+      <c r="DM132" s="10"/>
+      <c r="DN132" s="10"/>
+      <c r="DO132" s="10"/>
+      <c r="DP132" s="10"/>
+      <c r="DQ132" s="10"/>
+      <c r="DR132" s="10"/>
+      <c r="DS132" s="10"/>
+      <c r="DT132" s="10"/>
+      <c r="DU132" s="10"/>
+      <c r="DV132" s="10"/>
+      <c r="DW132" s="10"/>
+      <c r="DX132" s="10"/>
+      <c r="DY132" s="10"/>
+      <c r="DZ132" s="10"/>
+      <c r="EA132" s="10"/>
+      <c r="EB132" s="10"/>
+      <c r="EC132" s="10"/>
+      <c r="ED132" s="10"/>
+      <c r="EE132" s="10"/>
+      <c r="EF132" s="10"/>
+      <c r="EG132" s="10"/>
+      <c r="EH132" s="10"/>
+      <c r="EI132" s="10"/>
+      <c r="EJ132" s="10"/>
+      <c r="EK132" s="10"/>
+      <c r="EL132" s="10"/>
+      <c r="EM132" s="10"/>
+      <c r="EN132" s="10"/>
+      <c r="EO132" s="10"/>
+      <c r="EP132" s="10"/>
+      <c r="EQ132" s="10"/>
+      <c r="ER132" s="10"/>
+      <c r="ES132" s="10"/>
+      <c r="ET132" s="10"/>
+      <c r="EU132" s="10"/>
+      <c r="EV132" s="10"/>
+      <c r="EW132" s="10"/>
+      <c r="EX132" s="10"/>
+      <c r="EY132" s="10"/>
+      <c r="EZ132" s="10"/>
+      <c r="FA132" s="10"/>
+      <c r="FB132" s="10"/>
+      <c r="FC132" s="10"/>
+      <c r="FD132" s="10"/>
+      <c r="FE132" s="10"/>
+      <c r="FF132" s="10"/>
+      <c r="FG132" s="10"/>
+      <c r="FH132" s="10"/>
+      <c r="FI132" s="10"/>
+      <c r="FJ132" s="10"/>
+      <c r="FK132" s="10"/>
+      <c r="FL132" s="10"/>
+      <c r="FM132" s="10"/>
+      <c r="FN132" s="10"/>
+      <c r="FO132" s="10"/>
+      <c r="FP132" s="10"/>
+      <c r="FQ132" s="10"/>
+      <c r="FR132" s="10"/>
+      <c r="FS132" s="10"/>
+      <c r="FT132" s="10"/>
+      <c r="FU132" s="10"/>
+      <c r="FV132" s="10"/>
+      <c r="FW132" s="10"/>
+      <c r="FX132" s="10"/>
+      <c r="FY132" s="10"/>
+      <c r="FZ132" s="10"/>
+      <c r="GA132" s="10"/>
+      <c r="GB132" s="10"/>
+      <c r="GC132" s="10"/>
+      <c r="GD132" s="10"/>
+      <c r="GE132" s="10"/>
+      <c r="GF132" s="10"/>
+      <c r="GG132" s="10"/>
+      <c r="GH132" s="10"/>
+      <c r="GI132" s="10"/>
+      <c r="GJ132" s="10"/>
+      <c r="GK132" s="10"/>
+      <c r="GL132" s="10"/>
+      <c r="GM132" s="10"/>
+      <c r="GN132" s="10"/>
+      <c r="GO132" s="10"/>
+      <c r="GP132" s="10"/>
+      <c r="GQ132" s="10"/>
+      <c r="GR132" s="10"/>
+      <c r="GS132" s="10"/>
+      <c r="GT132" s="10"/>
+      <c r="GU132" s="10"/>
+      <c r="GV132" s="10"/>
+      <c r="GW132" s="10"/>
+      <c r="GX132" s="10"/>
+      <c r="GY132" s="10"/>
+      <c r="GZ132" s="10"/>
+      <c r="HA132" s="10"/>
+      <c r="HB132" s="10"/>
+      <c r="HC132" s="10"/>
+      <c r="HD132" s="10"/>
+      <c r="HE132" s="10"/>
+      <c r="HF132" s="10"/>
+      <c r="HG132" s="10"/>
+      <c r="HH132" s="10"/>
+      <c r="HI132" s="10"/>
+      <c r="HJ132" s="10"/>
+      <c r="HK132" s="10"/>
+      <c r="HL132" s="10"/>
+      <c r="HM132" s="10"/>
+      <c r="HN132" s="10"/>
+      <c r="HO132" s="10"/>
+      <c r="HP132" s="10"/>
+      <c r="HQ132" s="10"/>
+      <c r="HR132" s="10"/>
+      <c r="HS132" s="10"/>
+      <c r="HT132" s="10"/>
+      <c r="HU132" s="10"/>
+      <c r="HV132" s="10"/>
+      <c r="HW132" s="10"/>
+      <c r="HX132" s="10"/>
+      <c r="HY132" s="10"/>
+      <c r="HZ132" s="10"/>
+      <c r="IA132" s="10"/>
+      <c r="IB132" s="10"/>
+      <c r="IC132" s="10"/>
+      <c r="ID132" s="10"/>
+      <c r="IE132" s="10"/>
+      <c r="IF132" s="10"/>
+      <c r="IG132" s="10"/>
+      <c r="IH132" s="10"/>
+      <c r="II132" s="10"/>
+      <c r="IJ132" s="10"/>
+      <c r="IK132" s="10"/>
+      <c r="IL132" s="10"/>
+      <c r="IM132" s="10"/>
+      <c r="IN132" s="10"/>
+      <c r="IO132" s="10"/>
+      <c r="IP132" s="10"/>
+      <c r="IQ132" s="10"/>
+      <c r="IR132" s="10"/>
+      <c r="IS132" s="10"/>
+      <c r="IT132" s="10"/>
+      <c r="IU132" s="10"/>
+    </row>
+    <row r="133" spans="1:255" s="97" customFormat="1" ht="38.450000000000003" customHeight="1">
+      <c r="A133" s="33">
+        <v>98</v>
+      </c>
+      <c r="B133" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C133" s="87"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="72"/>
+      <c r="F133" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="T133" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="U133" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="V133" s="10"/>
+      <c r="W133" s="96"/>
+      <c r="X133" s="96"/>
+      <c r="Y133" s="96"/>
+      <c r="Z133" s="96"/>
+      <c r="AA133" s="96"/>
+      <c r="AB133" s="96"/>
+      <c r="AC133" s="96"/>
+      <c r="AD133" s="96"/>
+      <c r="AE133" s="10"/>
+      <c r="AF133" s="10"/>
+      <c r="AG133" s="10"/>
+      <c r="AH133" s="10"/>
+      <c r="AI133" s="10"/>
+      <c r="AJ133" s="10"/>
+      <c r="AK133" s="10"/>
+      <c r="AL133" s="10"/>
+      <c r="AM133" s="10"/>
+      <c r="AN133" s="10"/>
+      <c r="AO133" s="10"/>
+      <c r="AP133" s="10"/>
+      <c r="AQ133" s="10"/>
+      <c r="AR133" s="10"/>
+      <c r="AS133" s="10"/>
+      <c r="AT133" s="10"/>
+      <c r="AU133" s="10"/>
+      <c r="AV133" s="10"/>
+      <c r="AW133" s="10"/>
+      <c r="AX133" s="10"/>
+      <c r="AY133" s="10"/>
+      <c r="AZ133" s="10"/>
+      <c r="BA133" s="10"/>
+      <c r="BB133" s="10"/>
+      <c r="BC133" s="10"/>
+      <c r="BD133" s="10"/>
+      <c r="BE133" s="10"/>
+      <c r="BF133" s="10"/>
+      <c r="BG133" s="10"/>
+      <c r="BH133" s="10"/>
+      <c r="BI133" s="10"/>
+      <c r="BJ133" s="10"/>
+      <c r="BK133" s="10"/>
+      <c r="BL133" s="10"/>
+      <c r="BM133" s="10"/>
+      <c r="BN133" s="10"/>
+      <c r="BO133" s="10"/>
+      <c r="BP133" s="10"/>
+      <c r="BQ133" s="10"/>
+      <c r="BR133" s="10"/>
+      <c r="BS133" s="10"/>
+      <c r="BT133" s="10"/>
+      <c r="BU133" s="10"/>
+      <c r="BV133" s="10"/>
+      <c r="BW133" s="10"/>
+      <c r="BX133" s="10"/>
+      <c r="BY133" s="10"/>
+      <c r="BZ133" s="10"/>
+      <c r="CA133" s="10"/>
+      <c r="CB133" s="10"/>
+      <c r="CC133" s="10"/>
+      <c r="CD133" s="10"/>
+      <c r="CE133" s="10"/>
+      <c r="CF133" s="10"/>
+      <c r="CG133" s="10"/>
+      <c r="CH133" s="10"/>
+      <c r="CI133" s="10"/>
+      <c r="CJ133" s="10"/>
+      <c r="CK133" s="10"/>
+      <c r="CL133" s="10"/>
+      <c r="CM133" s="10"/>
+      <c r="CN133" s="10"/>
+      <c r="CO133" s="10"/>
+      <c r="CP133" s="10"/>
+      <c r="CQ133" s="10"/>
+      <c r="CR133" s="10"/>
+      <c r="CS133" s="10"/>
+      <c r="CT133" s="10"/>
+      <c r="CU133" s="10"/>
+      <c r="CV133" s="10"/>
+      <c r="CW133" s="10"/>
+      <c r="CX133" s="10"/>
+      <c r="CY133" s="10"/>
+      <c r="CZ133" s="10"/>
+      <c r="DA133" s="10"/>
+      <c r="DB133" s="10"/>
+      <c r="DC133" s="10"/>
+      <c r="DD133" s="10"/>
+      <c r="DE133" s="10"/>
+      <c r="DF133" s="10"/>
+      <c r="DG133" s="10"/>
+      <c r="DH133" s="10"/>
+      <c r="DI133" s="10"/>
+      <c r="DJ133" s="10"/>
+      <c r="DK133" s="10"/>
+      <c r="DL133" s="10"/>
+      <c r="DM133" s="10"/>
+      <c r="DN133" s="10"/>
+      <c r="DO133" s="10"/>
+      <c r="DP133" s="10"/>
+      <c r="DQ133" s="10"/>
+      <c r="DR133" s="10"/>
+      <c r="DS133" s="10"/>
+      <c r="DT133" s="10"/>
+      <c r="DU133" s="10"/>
+      <c r="DV133" s="10"/>
+      <c r="DW133" s="10"/>
+      <c r="DX133" s="10"/>
+      <c r="DY133" s="10"/>
+      <c r="DZ133" s="10"/>
+      <c r="EA133" s="10"/>
+      <c r="EB133" s="10"/>
+      <c r="EC133" s="10"/>
+      <c r="ED133" s="10"/>
+      <c r="EE133" s="10"/>
+      <c r="EF133" s="10"/>
+      <c r="EG133" s="10"/>
+      <c r="EH133" s="10"/>
+      <c r="EI133" s="10"/>
+      <c r="EJ133" s="10"/>
+      <c r="EK133" s="10"/>
+      <c r="EL133" s="10"/>
+      <c r="EM133" s="10"/>
+      <c r="EN133" s="10"/>
+      <c r="EO133" s="10"/>
+      <c r="EP133" s="10"/>
+      <c r="EQ133" s="10"/>
+      <c r="ER133" s="10"/>
+      <c r="ES133" s="10"/>
+      <c r="ET133" s="10"/>
+      <c r="EU133" s="10"/>
+      <c r="EV133" s="10"/>
+      <c r="EW133" s="10"/>
+      <c r="EX133" s="10"/>
+      <c r="EY133" s="10"/>
+      <c r="EZ133" s="10"/>
+      <c r="FA133" s="10"/>
+      <c r="FB133" s="10"/>
+      <c r="FC133" s="10"/>
+      <c r="FD133" s="10"/>
+      <c r="FE133" s="10"/>
+      <c r="FF133" s="10"/>
+      <c r="FG133" s="10"/>
+      <c r="FH133" s="10"/>
+      <c r="FI133" s="10"/>
+      <c r="FJ133" s="10"/>
+      <c r="FK133" s="10"/>
+      <c r="FL133" s="10"/>
+      <c r="FM133" s="10"/>
+      <c r="FN133" s="10"/>
+      <c r="FO133" s="10"/>
+      <c r="FP133" s="10"/>
+      <c r="FQ133" s="10"/>
+      <c r="FR133" s="10"/>
+      <c r="FS133" s="10"/>
+      <c r="FT133" s="10"/>
+      <c r="FU133" s="10"/>
+      <c r="FV133" s="10"/>
+      <c r="FW133" s="10"/>
+      <c r="FX133" s="10"/>
+      <c r="FY133" s="10"/>
+      <c r="FZ133" s="10"/>
+      <c r="GA133" s="10"/>
+      <c r="GB133" s="10"/>
+      <c r="GC133" s="10"/>
+      <c r="GD133" s="10"/>
+      <c r="GE133" s="10"/>
+      <c r="GF133" s="10"/>
+      <c r="GG133" s="10"/>
+      <c r="GH133" s="10"/>
+      <c r="GI133" s="10"/>
+      <c r="GJ133" s="10"/>
+      <c r="GK133" s="10"/>
+      <c r="GL133" s="10"/>
+      <c r="GM133" s="10"/>
+      <c r="GN133" s="10"/>
+      <c r="GO133" s="10"/>
+      <c r="GP133" s="10"/>
+      <c r="GQ133" s="10"/>
+      <c r="GR133" s="10"/>
+      <c r="GS133" s="10"/>
+      <c r="GT133" s="10"/>
+      <c r="GU133" s="10"/>
+      <c r="GV133" s="10"/>
+      <c r="GW133" s="10"/>
+      <c r="GX133" s="10"/>
+      <c r="GY133" s="10"/>
+      <c r="GZ133" s="10"/>
+      <c r="HA133" s="10"/>
+      <c r="HB133" s="10"/>
+      <c r="HC133" s="10"/>
+      <c r="HD133" s="10"/>
+      <c r="HE133" s="10"/>
+      <c r="HF133" s="10"/>
+      <c r="HG133" s="10"/>
+      <c r="HH133" s="10"/>
+      <c r="HI133" s="10"/>
+      <c r="HJ133" s="10"/>
+      <c r="HK133" s="10"/>
+      <c r="HL133" s="10"/>
+      <c r="HM133" s="10"/>
+      <c r="HN133" s="10"/>
+      <c r="HO133" s="10"/>
+      <c r="HP133" s="10"/>
+      <c r="HQ133" s="10"/>
+      <c r="HR133" s="10"/>
+      <c r="HS133" s="10"/>
+      <c r="HT133" s="10"/>
+      <c r="HU133" s="10"/>
+      <c r="HV133" s="10"/>
+      <c r="HW133" s="10"/>
+      <c r="HX133" s="10"/>
+      <c r="HY133" s="10"/>
+      <c r="HZ133" s="10"/>
+      <c r="IA133" s="10"/>
+      <c r="IB133" s="10"/>
+      <c r="IC133" s="10"/>
+      <c r="ID133" s="10"/>
+      <c r="IE133" s="10"/>
+      <c r="IF133" s="10"/>
+      <c r="IG133" s="10"/>
+      <c r="IH133" s="10"/>
+      <c r="II133" s="10"/>
+      <c r="IJ133" s="10"/>
+      <c r="IK133" s="10"/>
+      <c r="IL133" s="10"/>
+      <c r="IM133" s="10"/>
+      <c r="IN133" s="10"/>
+      <c r="IO133" s="10"/>
+      <c r="IP133" s="10"/>
+      <c r="IQ133" s="10"/>
+      <c r="IR133" s="10"/>
+      <c r="IS133" s="10"/>
+      <c r="IT133" s="10"/>
+      <c r="IU133" s="10"/>
     </row>
     <row r="134" spans="1:255" s="10" customFormat="1">
-      <c r="A134" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="B134" s="59"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="59"/>
-      <c r="E134" s="59"/>
-      <c r="F134" s="59"/>
-      <c r="G134" s="59"/>
-      <c r="H134" s="61"/>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
-      <c r="K134" s="54"/>
+      <c r="A134" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B134" s="26"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="50"/>
+      <c r="F134" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="H134" s="52"/>
+      <c r="I134" s="53"/>
+      <c r="J134" s="53"/>
+      <c r="K134" s="53"/>
       <c r="L134" s="54"/>
       <c r="M134" s="54"/>
       <c r="N134" s="54"/>
       <c r="O134" s="54"/>
-      <c r="AM134" s="57"/>
-      <c r="AN134" s="57"/>
-      <c r="AO134" s="57"/>
+      <c r="P134" s="55"/>
+      <c r="Q134" s="54"/>
+      <c r="R134" s="54"/>
+      <c r="T134" s="56"/>
       <c r="AP134" s="57"/>
       <c r="AQ134" s="57"/>
       <c r="AR134" s="57"/>
       <c r="AS134" s="57"/>
       <c r="AT134" s="57"/>
+      <c r="AU134" s="57"/>
+      <c r="AV134" s="57"/>
+      <c r="AW134" s="57"/>
     </row>
     <row r="135" spans="1:255" s="10" customFormat="1">
-      <c r="A135" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="B135" s="62"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="62"/>
+      <c r="A135" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="B135" s="59"/>
+      <c r="C135" s="60"/>
+      <c r="D135" s="59"/>
       <c r="E135" s="59"/>
       <c r="F135" s="59"/>
       <c r="G135" s="59"/>
-      <c r="H135" s="63"/>
+      <c r="H135" s="61"/>
       <c r="I135" s="54"/>
       <c r="J135" s="54"/>
       <c r="K135" s="54"/>
@@ -13382,17 +13716,17 @@
       <c r="AS135" s="57"/>
       <c r="AT135" s="57"/>
     </row>
-    <row r="136" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A136" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="B136" s="62"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="62"/>
+    <row r="136" spans="1:255" s="10" customFormat="1">
+      <c r="A136" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="B136" s="59"/>
+      <c r="C136" s="60"/>
+      <c r="D136" s="59"/>
       <c r="E136" s="59"/>
       <c r="F136" s="59"/>
       <c r="G136" s="59"/>
-      <c r="H136" s="63"/>
+      <c r="H136" s="61"/>
       <c r="I136" s="54"/>
       <c r="J136" s="54"/>
       <c r="K136" s="54"/>
@@ -13409,9 +13743,9 @@
       <c r="AS136" s="57"/>
       <c r="AT136" s="57"/>
     </row>
-    <row r="137" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A137" s="58" t="s">
-        <v>247</v>
+    <row r="137" spans="1:255" s="10" customFormat="1">
+      <c r="A137" s="71" t="s">
+        <v>228</v>
       </c>
       <c r="B137" s="62"/>
       <c r="C137" s="1"/>
@@ -13437,8 +13771,8 @@
       <c r="AT137" s="57"/>
     </row>
     <row r="138" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A138" s="58" t="s">
-        <v>232</v>
+      <c r="A138" s="71" t="s">
+        <v>229</v>
       </c>
       <c r="B138" s="62"/>
       <c r="C138" s="1"/>
@@ -13465,7 +13799,7 @@
     </row>
     <row r="139" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A139" s="58" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B139" s="62"/>
       <c r="C139" s="1"/>
@@ -13492,7 +13826,7 @@
     </row>
     <row r="140" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A140" s="58" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B140" s="62"/>
       <c r="C140" s="1"/>
@@ -13519,7 +13853,7 @@
     </row>
     <row r="141" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="58" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B141" s="62"/>
       <c r="C141" s="1"/>
@@ -13546,7 +13880,7 @@
     </row>
     <row r="142" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="58" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B142" s="62"/>
       <c r="C142" s="1"/>
@@ -13573,7 +13907,7 @@
     </row>
     <row r="143" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="58" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B143" s="62"/>
       <c r="C143" s="1"/>
@@ -13598,17 +13932,17 @@
       <c r="AS143" s="57"/>
       <c r="AT143" s="57"/>
     </row>
-    <row r="144" spans="1:255">
-      <c r="A144" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="B144" s="59"/>
-      <c r="C144" s="60"/>
-      <c r="D144" s="59"/>
+    <row r="144" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A144" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="B144" s="62"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="62"/>
       <c r="E144" s="59"/>
       <c r="F144" s="59"/>
       <c r="G144" s="59"/>
-      <c r="H144" s="61"/>
+      <c r="H144" s="63"/>
       <c r="I144" s="54"/>
       <c r="J144" s="54"/>
       <c r="K144" s="54"/>
@@ -13616,45 +13950,49 @@
       <c r="M144" s="54"/>
       <c r="N144" s="54"/>
       <c r="O144" s="54"/>
-      <c r="P144" s="10"/>
-      <c r="Q144" s="10"/>
-      <c r="R144" s="10"/>
-      <c r="S144"/>
-    </row>
-    <row r="145" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="A145" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="B145" s="59"/>
-      <c r="C145" s="60"/>
-      <c r="D145" s="59"/>
+      <c r="AM144" s="57"/>
+      <c r="AN144" s="57"/>
+      <c r="AO144" s="57"/>
+      <c r="AP144" s="57"/>
+      <c r="AQ144" s="57"/>
+      <c r="AR144" s="57"/>
+      <c r="AS144" s="57"/>
+      <c r="AT144" s="57"/>
+    </row>
+    <row r="145" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A145" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="B145" s="62"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="62"/>
       <c r="E145" s="59"/>
       <c r="F145" s="59"/>
-      <c r="G145" s="64"/>
+      <c r="G145" s="59"/>
       <c r="H145" s="63"/>
-      <c r="I145" s="55"/>
-      <c r="J145" s="55"/>
-      <c r="K145" s="55"/>
-      <c r="L145" s="55"/>
-      <c r="M145" s="55"/>
-      <c r="N145" s="55"/>
-      <c r="O145" s="55"/>
-      <c r="AM145" s="65"/>
-      <c r="AN145" s="65"/>
-      <c r="AO145" s="65"/>
-      <c r="AP145" s="65"/>
-      <c r="AQ145" s="65"/>
-      <c r="AR145" s="65"/>
-      <c r="AS145" s="65"/>
-      <c r="AT145" s="65"/>
-    </row>
-    <row r="146" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="I145" s="54"/>
+      <c r="J145" s="54"/>
+      <c r="K145" s="54"/>
+      <c r="L145" s="54"/>
+      <c r="M145" s="54"/>
+      <c r="N145" s="54"/>
+      <c r="O145" s="54"/>
+      <c r="AM145" s="57"/>
+      <c r="AN145" s="57"/>
+      <c r="AO145" s="57"/>
+      <c r="AP145" s="57"/>
+      <c r="AQ145" s="57"/>
+      <c r="AR145" s="57"/>
+      <c r="AS145" s="57"/>
+      <c r="AT145" s="57"/>
+    </row>
+    <row r="146" spans="1:46">
       <c r="A146" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="B146" s="66"/>
-      <c r="C146" s="67"/>
-      <c r="D146" s="68"/>
+        <v>244</v>
+      </c>
+      <c r="B146" s="59"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="59"/>
       <c r="E146" s="59"/>
       <c r="F146" s="59"/>
       <c r="G146" s="59"/>
@@ -13666,25 +14004,21 @@
       <c r="M146" s="54"/>
       <c r="N146" s="54"/>
       <c r="O146" s="54"/>
-      <c r="AM146" s="57"/>
-      <c r="AN146" s="57"/>
-      <c r="AO146" s="57"/>
-      <c r="AP146" s="57"/>
-      <c r="AQ146" s="57"/>
-      <c r="AR146" s="57"/>
-      <c r="AS146" s="57"/>
-      <c r="AT146" s="57"/>
+      <c r="P146" s="10"/>
+      <c r="Q146" s="10"/>
+      <c r="R146" s="10"/>
+      <c r="S146"/>
     </row>
     <row r="147" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A147" s="71" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B147" s="59"/>
       <c r="C147" s="60"/>
       <c r="D147" s="59"/>
       <c r="E147" s="59"/>
       <c r="F147" s="59"/>
-      <c r="G147" s="59"/>
+      <c r="G147" s="64"/>
       <c r="H147" s="63"/>
       <c r="I147" s="55"/>
       <c r="J147" s="55"/>
@@ -13704,11 +14038,11 @@
     </row>
     <row r="148" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A148" s="71" t="s">
-        <v>241</v>
-      </c>
-      <c r="B148" s="59"/>
-      <c r="C148" s="60"/>
-      <c r="D148" s="59"/>
+        <v>237</v>
+      </c>
+      <c r="B148" s="66"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="68"/>
       <c r="E148" s="59"/>
       <c r="F148" s="59"/>
       <c r="G148" s="59"/>
@@ -13729,9 +14063,9 @@
       <c r="AS148" s="57"/>
       <c r="AT148" s="57"/>
     </row>
-    <row r="149" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+    <row r="149" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A149" s="71" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B149" s="59"/>
       <c r="C149" s="60"/>
@@ -13739,34 +14073,76 @@
       <c r="E149" s="59"/>
       <c r="F149" s="59"/>
       <c r="G149" s="59"/>
-      <c r="H149" s="61"/>
-      <c r="I149" s="54"/>
-      <c r="J149" s="54"/>
-      <c r="K149" s="54"/>
-      <c r="L149" s="54"/>
-      <c r="M149" s="54"/>
-      <c r="N149" s="54"/>
-      <c r="O149" s="54"/>
-      <c r="AM149" s="57"/>
-      <c r="AN149" s="57"/>
-      <c r="AO149" s="57"/>
-      <c r="AP149" s="57"/>
-      <c r="AQ149" s="57"/>
-      <c r="AR149" s="57"/>
-      <c r="AS149" s="57"/>
-      <c r="AT149" s="57"/>
-    </row>
-    <row r="150" spans="1:46">
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="69"/>
-    </row>
-    <row r="151" spans="1:46">
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="69"/>
+      <c r="H149" s="63"/>
+      <c r="I149" s="55"/>
+      <c r="J149" s="55"/>
+      <c r="K149" s="55"/>
+      <c r="L149" s="55"/>
+      <c r="M149" s="55"/>
+      <c r="N149" s="55"/>
+      <c r="O149" s="55"/>
+      <c r="AM149" s="65"/>
+      <c r="AN149" s="65"/>
+      <c r="AO149" s="65"/>
+      <c r="AP149" s="65"/>
+      <c r="AQ149" s="65"/>
+      <c r="AR149" s="65"/>
+      <c r="AS149" s="65"/>
+      <c r="AT149" s="65"/>
+    </row>
+    <row r="150" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A150" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="B150" s="59"/>
+      <c r="C150" s="60"/>
+      <c r="D150" s="59"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="59"/>
+      <c r="G150" s="59"/>
+      <c r="H150" s="61"/>
+      <c r="I150" s="54"/>
+      <c r="J150" s="54"/>
+      <c r="K150" s="54"/>
+      <c r="L150" s="54"/>
+      <c r="M150" s="54"/>
+      <c r="N150" s="54"/>
+      <c r="O150" s="54"/>
+      <c r="AM150" s="57"/>
+      <c r="AN150" s="57"/>
+      <c r="AO150" s="57"/>
+      <c r="AP150" s="57"/>
+      <c r="AQ150" s="57"/>
+      <c r="AR150" s="57"/>
+      <c r="AS150" s="57"/>
+      <c r="AT150" s="57"/>
+    </row>
+    <row r="151" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A151" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="B151" s="59"/>
+      <c r="C151" s="60"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="59"/>
+      <c r="H151" s="61"/>
+      <c r="I151" s="54"/>
+      <c r="J151" s="54"/>
+      <c r="K151" s="54"/>
+      <c r="L151" s="54"/>
+      <c r="M151" s="54"/>
+      <c r="N151" s="54"/>
+      <c r="O151" s="54"/>
+      <c r="AM151" s="57"/>
+      <c r="AN151" s="57"/>
+      <c r="AO151" s="57"/>
+      <c r="AP151" s="57"/>
+      <c r="AQ151" s="57"/>
+      <c r="AR151" s="57"/>
+      <c r="AS151" s="57"/>
+      <c r="AT151" s="57"/>
     </row>
     <row r="152" spans="1:46">
       <c r="D152" s="1"/>
@@ -14135,13 +14511,19 @@
       <c r="G212" s="69"/>
     </row>
     <row r="213" spans="4:7">
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="69"/>
     </row>
     <row r="214" spans="4:7">
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
       <c r="G214" s="69"/>
     </row>
     <row r="215" spans="4:7">
+      <c r="F215" s="1"/>
       <c r="G215" s="69"/>
     </row>
     <row r="216" spans="4:7">
@@ -14150,11 +14532,11 @@
     <row r="217" spans="4:7">
       <c r="G217" s="69"/>
     </row>
-    <row r="222" spans="4:7">
-      <c r="G222"/>
-    </row>
-    <row r="223" spans="4:7">
-      <c r="G223"/>
+    <row r="218" spans="4:7">
+      <c r="G218" s="69"/>
+    </row>
+    <row r="219" spans="4:7">
+      <c r="G219" s="69"/>
     </row>
     <row r="224" spans="4:7">
       <c r="G224"/>
@@ -14258,10 +14640,16 @@
     <row r="257" spans="7:7">
       <c r="G257"/>
     </row>
+    <row r="258" spans="7:7">
+      <c r="G258"/>
+    </row>
+    <row r="259" spans="7:7">
+      <c r="G259"/>
+    </row>
   </sheetData>
-  <mergeCells count="141">
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B122:C122"/>
+  <mergeCells count="143">
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B132:C132"/>
     <mergeCell ref="B123:C123"/>
     <mergeCell ref="B124:C124"/>
     <mergeCell ref="B125:C125"/>
@@ -14270,7 +14658,7 @@
     <mergeCell ref="B128:C128"/>
     <mergeCell ref="B129:C129"/>
     <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B131:C131"/>
     <mergeCell ref="B114:C114"/>
     <mergeCell ref="B115:C115"/>
     <mergeCell ref="B116:C116"/>
@@ -14279,7 +14667,7 @@
     <mergeCell ref="B119:C119"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B122:C122"/>
     <mergeCell ref="B105:C105"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="B107:C107"/>
@@ -14288,7 +14676,7 @@
     <mergeCell ref="B110:C110"/>
     <mergeCell ref="B111:C111"/>
     <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B113:C113"/>
     <mergeCell ref="B96:C96"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="B98:C98"/>
@@ -14297,7 +14685,7 @@
     <mergeCell ref="B101:C101"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B104:C104"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="B89:C89"/>
@@ -14306,7 +14694,7 @@
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B95:C95"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
@@ -14315,6 +14703,7 @@
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B70:C70"/>
@@ -14323,6 +14712,7 @@
     <mergeCell ref="B73:E73"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
@@ -14410,7 +14800,7 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;20&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="98" max="20" man="1"/>
+    <brk id="99" max="20" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBAE3315-5D90-4F47-8CC6-9E4753EE6340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818781BA-9D1B-451A-997C-E5FEC82DB05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier">"'24a7b5fc-9de7-4bbf-a971-8358f80d3098'"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'a week'!$A$1:$U$151</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'a week'!$A$1:$U$150</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'a week'!$A:$E,'a week'!$1:$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="258">
   <si>
     <t>重要農產品價格日報表</t>
   </si>
@@ -762,6 +762,10 @@
     <t>82</t>
   </si>
   <si>
+    <t>550KG以上
+肉牛(產地-頭)</t>
+  </si>
+  <si>
     <t>83</t>
   </si>
   <si>
@@ -861,6 +865,10 @@
   </si>
   <si>
     <t>97</t>
+  </si>
+  <si>
+    <t>午仔魚
+(池邊)</t>
   </si>
   <si>
     <t>註：</t>
@@ -1480,16 +1488,6 @@
   </si>
   <si>
     <t>(新增品項)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>午仔魚
-(池邊)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>550KG以上
-肉牛(產地-頭)</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -1714,7 +1712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1848,25 +1846,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2068,6 +2053,36 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2106,48 +2121,6 @@
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2559,11 +2532,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IU259"/>
+  <dimension ref="A1:IU258"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133:C133"/>
+      <pane ySplit="8" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2596,35 +2569,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2673,8 +2646,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2683,41 +2656,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="76" t="s">
+      <c r="T5" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="76"/>
+      <c r="U5" s="86"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2729,36 +2702,36 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="92" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="83" t="s">
-        <v>241</v>
-      </c>
-      <c r="M7" s="84" t="s">
+      <c r="L7" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="M7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="85" t="s">
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="85"/>
-      <c r="V7" s="86"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="80"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
@@ -2769,14 +2742,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2789,9 +2762,9 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="83"/>
+      <c r="L8" s="93"/>
       <c r="M8" s="30" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N8" s="30" t="s">
         <v>10</v>
@@ -2815,9 +2788,9 @@
         <v>11</v>
       </c>
       <c r="U8" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="V8" s="86"/>
+        <v>245</v>
+      </c>
+      <c r="V8" s="80"/>
       <c r="W8" s="32" t="s">
         <v>12</v>
       </c>
@@ -2847,13 +2820,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2930,13 +2903,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -3011,10 +2984,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="87"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3098,10 +3071,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="87"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3185,10 +3158,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="87"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3272,10 +3245,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="90"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3356,10 +3329,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="90"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3439,10 +3412,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="90"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3522,10 +3495,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3605,10 +3578,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="91"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3688,10 +3661,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="90"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3771,10 +3744,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="90"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3854,10 +3827,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="90"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3937,10 +3910,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="90"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -4020,10 +3993,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="90"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4103,10 +4076,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="90"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4186,10 +4159,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="91"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4269,10 +4242,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="90"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4352,10 +4325,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="90"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4435,10 +4408,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="90"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4518,10 +4491,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="91"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4602,10 +4575,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="91"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4686,10 +4659,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="90"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4769,10 +4742,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="90"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4852,10 +4825,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="90"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4936,10 +4909,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="90"/>
+      <c r="C34" s="74"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -5019,10 +4992,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="90"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5102,10 +5075,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="90" t="s">
+      <c r="B36" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="90"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5185,10 +5158,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="90"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5268,10 +5241,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="90"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5351,10 +5324,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="90"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5434,10 +5407,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="90"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5517,10 +5490,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="90"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5600,10 +5573,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="90"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5684,10 +5657,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="92" t="s">
+      <c r="B43" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="92"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5767,10 +5740,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="92"/>
+      <c r="C44" s="78"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5850,10 +5823,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="90"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5933,10 +5906,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="90"/>
+      <c r="C46" s="74"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -6016,10 +5989,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="90" t="s">
+      <c r="B47" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="90"/>
+      <c r="C47" s="74"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6099,10 +6072,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="90" t="s">
+      <c r="B48" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="90"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6182,10 +6155,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="90"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6265,10 +6238,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="90"/>
+      <c r="C50" s="74"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6348,10 +6321,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="90" t="s">
+      <c r="B51" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="90"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6431,10 +6404,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="90" t="s">
+      <c r="B52" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="90"/>
+      <c r="C52" s="74"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6514,10 +6487,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="90" t="s">
+      <c r="B53" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="90"/>
+      <c r="C53" s="74"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6597,10 +6570,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="90" t="s">
+      <c r="B54" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="90"/>
+      <c r="C54" s="74"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6680,10 +6653,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="90"/>
+      <c r="C55" s="74"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6763,10 +6736,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="90" t="s">
+      <c r="B56" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="90"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6846,10 +6819,10 @@
       <c r="A57" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="90" t="s">
+      <c r="B57" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="90"/>
+      <c r="C57" s="74"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6929,10 +6902,10 @@
       <c r="A58" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="90" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="90"/>
+      <c r="B58" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="74"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -7012,10 +6985,10 @@
       <c r="A59" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="90" t="s">
+      <c r="B59" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="90"/>
+      <c r="C59" s="74"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7095,10 +7068,10 @@
       <c r="A60" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="90" t="s">
+      <c r="B60" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="90"/>
+      <c r="C60" s="74"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7178,10 +7151,10 @@
       <c r="A61" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="90" t="s">
+      <c r="B61" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="90"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7261,10 +7234,10 @@
       <c r="A62" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="90" t="s">
+      <c r="B62" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="90"/>
+      <c r="C62" s="74"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7345,10 +7318,10 @@
       <c r="A63" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="90" t="s">
-        <v>246</v>
-      </c>
-      <c r="C63" s="90"/>
+      <c r="B63" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" s="74"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7428,10 +7401,10 @@
       <c r="A64" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="90" t="s">
+      <c r="B64" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="90"/>
+      <c r="C64" s="74"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7512,10 +7485,10 @@
       <c r="A65" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="90" t="s">
+      <c r="B65" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="90"/>
+      <c r="C65" s="74"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7595,10 +7568,10 @@
       <c r="A66" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="90" t="s">
+      <c r="B66" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="90"/>
+      <c r="C66" s="74"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7679,10 +7652,10 @@
       <c r="A67" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="90" t="s">
+      <c r="B67" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="90"/>
+      <c r="C67" s="74"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7762,10 +7735,10 @@
       <c r="A68" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="90" t="s">
+      <c r="B68" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="90"/>
+      <c r="C68" s="74"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7845,10 +7818,10 @@
       <c r="A69" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="90" t="s">
+      <c r="B69" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="90"/>
+      <c r="C69" s="74"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7929,10 +7902,10 @@
       <c r="A70" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="90" t="s">
+      <c r="B70" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="90"/>
+      <c r="C70" s="74"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="34" t="s">
@@ -8012,10 +7985,10 @@
       <c r="A71" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="93" t="s">
+      <c r="B71" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="93"/>
+      <c r="C71" s="76"/>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
       <c r="F71" s="34" t="s">
@@ -8094,10 +8067,10 @@
     </row>
     <row r="72" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A72" s="46"/>
-      <c r="B72" s="90" t="s">
+      <c r="B72" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="90"/>
+      <c r="C72" s="74"/>
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
       <c r="F72" s="34" t="s">
@@ -8176,14 +8149,14 @@
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A73" s="38"/>
-      <c r="B73" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94">
+      <c r="B73" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77">
         <v>35.200000000000003</v>
       </c>
-      <c r="E73" s="94"/>
+      <c r="E73" s="77"/>
       <c r="F73" s="34" t="s">
         <v>15</v>
       </c>
@@ -8261,10 +8234,10 @@
       <c r="A74" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B74" s="90" t="s">
+      <c r="B74" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="90"/>
+      <c r="C74" s="74"/>
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
       <c r="F74" s="34" t="s">
@@ -8344,10 +8317,10 @@
       <c r="A75" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="90" t="s">
+      <c r="B75" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="90"/>
+      <c r="C75" s="74"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8425,10 +8398,10 @@
     </row>
     <row r="76" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A76" s="33"/>
-      <c r="B76" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="C76" s="90"/>
+      <c r="B76" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="C76" s="74"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="72" t="s">
@@ -8488,10 +8461,10 @@
       <c r="A77" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B77" s="90" t="s">
+      <c r="B77" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="C77" s="90"/>
+      <c r="C77" s="74"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="34" t="s">
@@ -8572,10 +8545,10 @@
       <c r="A78" s="33">
         <v>0</v>
       </c>
-      <c r="B78" s="90" t="s">
+      <c r="B78" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="C78" s="90"/>
+      <c r="C78" s="74"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8655,10 +8628,10 @@
       <c r="A79" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="90" t="s">
+      <c r="B79" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="90"/>
+      <c r="C79" s="74"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8738,10 +8711,10 @@
       <c r="A80" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="90" t="s">
+      <c r="B80" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="90"/>
+      <c r="C80" s="74"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8821,10 +8794,10 @@
       <c r="A81" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B81" s="90" t="s">
-        <v>249</v>
-      </c>
-      <c r="C81" s="90"/>
+      <c r="B81" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" s="74"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8904,10 +8877,10 @@
       <c r="A82" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B82" s="90" t="s">
+      <c r="B82" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="90"/>
+      <c r="C82" s="74"/>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
       <c r="F82" s="34" t="s">
@@ -8987,10 +8960,10 @@
       <c r="A83" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B83" s="90" t="s">
+      <c r="B83" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="C83" s="90"/>
+      <c r="C83" s="74"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9071,10 +9044,10 @@
       <c r="A84" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B84" s="90" t="s">
+      <c r="B84" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="90"/>
+      <c r="C84" s="74"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9155,10 +9128,10 @@
       <c r="A85" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B85" s="90" t="s">
+      <c r="B85" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="90"/>
+      <c r="C85" s="74"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9239,10 +9212,10 @@
       <c r="A86" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B86" s="90" t="s">
+      <c r="B86" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="90"/>
+      <c r="C86" s="74"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9323,10 +9296,10 @@
       <c r="A87" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B87" s="90" t="s">
+      <c r="B87" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="90"/>
+      <c r="C87" s="74"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9407,10 +9380,10 @@
       <c r="A88" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B88" s="90" t="s">
+      <c r="B88" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="90"/>
+      <c r="C88" s="74"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9491,10 +9464,10 @@
       <c r="A89" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B89" s="90" t="s">
+      <c r="B89" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="90"/>
+      <c r="C89" s="74"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9574,10 +9547,10 @@
       <c r="A90" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B90" s="90" t="s">
+      <c r="B90" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="90"/>
+      <c r="C90" s="74"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9657,10 +9630,10 @@
       <c r="A91" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B91" s="90" t="s">
-        <v>247</v>
-      </c>
-      <c r="C91" s="90"/>
+      <c r="B91" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="74"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9740,10 +9713,10 @@
       <c r="A92" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B92" s="90" t="s">
-        <v>255</v>
-      </c>
-      <c r="C92" s="90"/>
+      <c r="B92" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" s="74"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9823,10 +9796,10 @@
       <c r="A93" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B93" s="90" t="s">
+      <c r="B93" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="90"/>
+      <c r="C93" s="74"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9906,10 +9879,10 @@
       <c r="A94" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B94" s="90" t="s">
+      <c r="B94" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="90"/>
+      <c r="C94" s="74"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9989,10 +9962,10 @@
       <c r="A95" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B95" s="90" t="s">
+      <c r="B95" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="90"/>
+      <c r="C95" s="74"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10072,10 +10045,10 @@
       <c r="A96" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B96" s="90" t="s">
+      <c r="B96" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="90"/>
+      <c r="C96" s="74"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10155,10 +10128,10 @@
       <c r="A97" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B97" s="90" t="s">
+      <c r="B97" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="90"/>
+      <c r="C97" s="74"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10238,10 +10211,10 @@
       <c r="A98" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B98" s="90" t="s">
+      <c r="B98" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="90"/>
+      <c r="C98" s="74"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10321,10 +10294,10 @@
       <c r="A99" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B99" s="90" t="s">
+      <c r="B99" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="90"/>
+      <c r="C99" s="74"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10404,10 +10377,10 @@
       <c r="A100" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B100" s="90" t="s">
+      <c r="B100" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="C100" s="90"/>
+      <c r="C100" s="74"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10487,10 +10460,10 @@
       <c r="A101" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B101" s="90" t="s">
+      <c r="B101" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="C101" s="90"/>
+      <c r="C101" s="74"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10570,10 +10543,10 @@
       <c r="A102" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B102" s="95" t="s">
+      <c r="B102" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="95"/>
+      <c r="C102" s="75"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10653,10 +10626,10 @@
       <c r="A103" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B103" s="90" t="s">
+      <c r="B103" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="C103" s="90"/>
+      <c r="C103" s="74"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10736,10 +10709,10 @@
       <c r="A104" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B104" s="90" t="s">
+      <c r="B104" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C104" s="90"/>
+      <c r="C104" s="74"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10819,10 +10792,10 @@
       <c r="A105" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B105" s="90" t="s">
+      <c r="B105" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C105" s="90"/>
+      <c r="C105" s="74"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10902,10 +10875,10 @@
       <c r="A106" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B106" s="90" t="s">
+      <c r="B106" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="C106" s="90"/>
+      <c r="C106" s="74"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10985,10 +10958,10 @@
       <c r="A107" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B107" s="90" t="s">
+      <c r="B107" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="C107" s="90"/>
+      <c r="C107" s="74"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11068,10 +11041,10 @@
       <c r="A108" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B108" s="90" t="s">
+      <c r="B108" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="C108" s="90"/>
+      <c r="C108" s="74"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11151,10 +11124,10 @@
       <c r="A109" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B109" s="95" t="s">
+      <c r="B109" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C109" s="95"/>
+      <c r="C109" s="75"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11234,10 +11207,10 @@
       <c r="A110" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B110" s="95" t="s">
+      <c r="B110" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="95"/>
+      <c r="C110" s="75"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11317,10 +11290,10 @@
       <c r="A111" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B111" s="95" t="s">
+      <c r="B111" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C111" s="95"/>
+      <c r="C111" s="75"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11400,10 +11373,10 @@
       <c r="A112" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B112" s="95" t="s">
+      <c r="B112" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C112" s="95"/>
+      <c r="C112" s="75"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11483,10 +11456,10 @@
       <c r="A113" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="B113" s="95" t="s">
+      <c r="B113" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C113" s="95"/>
+      <c r="C113" s="75"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11566,10 +11539,10 @@
       <c r="A114" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B114" s="95" t="s">
+      <c r="B114" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C114" s="95"/>
+      <c r="C114" s="75"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11649,10 +11622,10 @@
       <c r="A115" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B115" s="95" t="s">
+      <c r="B115" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C115" s="95"/>
+      <c r="C115" s="75"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11732,10 +11705,10 @@
       <c r="A116" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B116" s="95" t="s">
-        <v>188</v>
-      </c>
-      <c r="C116" s="95"/>
+      <c r="B116" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="C116" s="74"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11815,10 +11788,10 @@
       <c r="A117" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B117" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="C117" s="99"/>
+      <c r="B117" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C117" s="74"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11896,12 +11869,12 @@
     </row>
     <row r="118" spans="1:30" s="10" customFormat="1" ht="38.25" customHeight="1">
       <c r="A118" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="B118" s="90" t="s">
-        <v>257</v>
-      </c>
-      <c r="C118" s="90"/>
+        <v>199</v>
+      </c>
+      <c r="B118" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="C118" s="74"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11979,12 +11952,12 @@
     </row>
     <row r="119" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A119" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="B119" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="C119" s="90"/>
+        <v>201</v>
+      </c>
+      <c r="B119" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" s="74"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12062,12 +12035,12 @@
     </row>
     <row r="120" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A120" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B120" s="90" t="s">
-        <v>201</v>
-      </c>
-      <c r="C120" s="90"/>
+        <v>203</v>
+      </c>
+      <c r="B120" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C120" s="74"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12145,12 +12118,12 @@
     </row>
     <row r="121" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A121" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="B121" s="90" t="s">
-        <v>203</v>
-      </c>
-      <c r="C121" s="90"/>
+        <v>205</v>
+      </c>
+      <c r="B121" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="C121" s="74"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12228,12 +12201,12 @@
     </row>
     <row r="122" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A122" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B122" s="90" t="s">
-        <v>205</v>
-      </c>
-      <c r="C122" s="90"/>
+        <v>207</v>
+      </c>
+      <c r="B122" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="C122" s="74"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12311,12 +12284,12 @@
     </row>
     <row r="123" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A123" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B123" s="90" t="s">
-        <v>207</v>
-      </c>
-      <c r="C123" s="90"/>
+        <v>209</v>
+      </c>
+      <c r="B123" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C123" s="74"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12394,12 +12367,12 @@
     </row>
     <row r="124" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A124" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="B124" s="90" t="s">
-        <v>209</v>
-      </c>
-      <c r="C124" s="90"/>
+        <v>211</v>
+      </c>
+      <c r="B124" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C124" s="74"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12477,12 +12450,12 @@
     </row>
     <row r="125" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A125" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B125" s="90" t="s">
-        <v>211</v>
-      </c>
-      <c r="C125" s="90"/>
+        <v>213</v>
+      </c>
+      <c r="B125" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C125" s="74"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12560,12 +12533,12 @@
     </row>
     <row r="126" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A126" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="B126" s="90" t="s">
-        <v>213</v>
-      </c>
-      <c r="C126" s="90"/>
+        <v>215</v>
+      </c>
+      <c r="B126" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C126" s="74"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12643,12 +12616,12 @@
     </row>
     <row r="127" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A127" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B127" s="90" t="s">
-        <v>215</v>
-      </c>
-      <c r="C127" s="90"/>
+        <v>217</v>
+      </c>
+      <c r="B127" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="C127" s="74"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12726,12 +12699,12 @@
     </row>
     <row r="128" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A128" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B128" s="90" t="s">
-        <v>217</v>
-      </c>
-      <c r="C128" s="90"/>
+        <v>219</v>
+      </c>
+      <c r="B128" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C128" s="74"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12809,12 +12782,12 @@
     </row>
     <row r="129" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A129" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B129" s="90" t="s">
-        <v>219</v>
-      </c>
-      <c r="C129" s="90"/>
+        <v>221</v>
+      </c>
+      <c r="B129" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C129" s="74"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12892,12 +12865,12 @@
     </row>
     <row r="130" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A130" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="B130" s="90" t="s">
-        <v>221</v>
-      </c>
-      <c r="C130" s="90"/>
+        <v>223</v>
+      </c>
+      <c r="B130" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="C130" s="74"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12975,12 +12948,12 @@
     </row>
     <row r="131" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A131" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="B131" s="90" t="s">
-        <v>223</v>
-      </c>
-      <c r="C131" s="90"/>
+        <v>225</v>
+      </c>
+      <c r="B131" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="C131" s="74"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
       <c r="F131" s="34" t="s">
@@ -13058,12 +13031,12 @@
     </row>
     <row r="132" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A132" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="B132" s="90" t="s">
-        <v>225</v>
-      </c>
-      <c r="C132" s="90"/>
+        <v>227</v>
+      </c>
+      <c r="B132" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="C132" s="73"/>
       <c r="D132" s="34"/>
       <c r="E132" s="34"/>
       <c r="F132" s="34" t="s">
@@ -13365,333 +13338,67 @@
       <c r="IT132" s="10"/>
       <c r="IU132" s="10"/>
     </row>
-    <row r="133" spans="1:255" s="97" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A133" s="33">
-        <v>98</v>
-      </c>
-      <c r="B133" s="87" t="s">
-        <v>256</v>
-      </c>
-      <c r="C133" s="87"/>
-      <c r="D133" s="72"/>
-      <c r="E133" s="72"/>
-      <c r="F133" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="M133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="T133" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="U133" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="V133" s="10"/>
-      <c r="W133" s="96"/>
-      <c r="X133" s="96"/>
-      <c r="Y133" s="96"/>
-      <c r="Z133" s="96"/>
-      <c r="AA133" s="96"/>
-      <c r="AB133" s="96"/>
-      <c r="AC133" s="96"/>
-      <c r="AD133" s="96"/>
-      <c r="AE133" s="10"/>
-      <c r="AF133" s="10"/>
-      <c r="AG133" s="10"/>
-      <c r="AH133" s="10"/>
-      <c r="AI133" s="10"/>
-      <c r="AJ133" s="10"/>
-      <c r="AK133" s="10"/>
-      <c r="AL133" s="10"/>
-      <c r="AM133" s="10"/>
-      <c r="AN133" s="10"/>
-      <c r="AO133" s="10"/>
-      <c r="AP133" s="10"/>
-      <c r="AQ133" s="10"/>
-      <c r="AR133" s="10"/>
-      <c r="AS133" s="10"/>
-      <c r="AT133" s="10"/>
-      <c r="AU133" s="10"/>
-      <c r="AV133" s="10"/>
-      <c r="AW133" s="10"/>
-      <c r="AX133" s="10"/>
-      <c r="AY133" s="10"/>
-      <c r="AZ133" s="10"/>
-      <c r="BA133" s="10"/>
-      <c r="BB133" s="10"/>
-      <c r="BC133" s="10"/>
-      <c r="BD133" s="10"/>
-      <c r="BE133" s="10"/>
-      <c r="BF133" s="10"/>
-      <c r="BG133" s="10"/>
-      <c r="BH133" s="10"/>
-      <c r="BI133" s="10"/>
-      <c r="BJ133" s="10"/>
-      <c r="BK133" s="10"/>
-      <c r="BL133" s="10"/>
-      <c r="BM133" s="10"/>
-      <c r="BN133" s="10"/>
-      <c r="BO133" s="10"/>
-      <c r="BP133" s="10"/>
-      <c r="BQ133" s="10"/>
-      <c r="BR133" s="10"/>
-      <c r="BS133" s="10"/>
-      <c r="BT133" s="10"/>
-      <c r="BU133" s="10"/>
-      <c r="BV133" s="10"/>
-      <c r="BW133" s="10"/>
-      <c r="BX133" s="10"/>
-      <c r="BY133" s="10"/>
-      <c r="BZ133" s="10"/>
-      <c r="CA133" s="10"/>
-      <c r="CB133" s="10"/>
-      <c r="CC133" s="10"/>
-      <c r="CD133" s="10"/>
-      <c r="CE133" s="10"/>
-      <c r="CF133" s="10"/>
-      <c r="CG133" s="10"/>
-      <c r="CH133" s="10"/>
-      <c r="CI133" s="10"/>
-      <c r="CJ133" s="10"/>
-      <c r="CK133" s="10"/>
-      <c r="CL133" s="10"/>
-      <c r="CM133" s="10"/>
-      <c r="CN133" s="10"/>
-      <c r="CO133" s="10"/>
-      <c r="CP133" s="10"/>
-      <c r="CQ133" s="10"/>
-      <c r="CR133" s="10"/>
-      <c r="CS133" s="10"/>
-      <c r="CT133" s="10"/>
-      <c r="CU133" s="10"/>
-      <c r="CV133" s="10"/>
-      <c r="CW133" s="10"/>
-      <c r="CX133" s="10"/>
-      <c r="CY133" s="10"/>
-      <c r="CZ133" s="10"/>
-      <c r="DA133" s="10"/>
-      <c r="DB133" s="10"/>
-      <c r="DC133" s="10"/>
-      <c r="DD133" s="10"/>
-      <c r="DE133" s="10"/>
-      <c r="DF133" s="10"/>
-      <c r="DG133" s="10"/>
-      <c r="DH133" s="10"/>
-      <c r="DI133" s="10"/>
-      <c r="DJ133" s="10"/>
-      <c r="DK133" s="10"/>
-      <c r="DL133" s="10"/>
-      <c r="DM133" s="10"/>
-      <c r="DN133" s="10"/>
-      <c r="DO133" s="10"/>
-      <c r="DP133" s="10"/>
-      <c r="DQ133" s="10"/>
-      <c r="DR133" s="10"/>
-      <c r="DS133" s="10"/>
-      <c r="DT133" s="10"/>
-      <c r="DU133" s="10"/>
-      <c r="DV133" s="10"/>
-      <c r="DW133" s="10"/>
-      <c r="DX133" s="10"/>
-      <c r="DY133" s="10"/>
-      <c r="DZ133" s="10"/>
-      <c r="EA133" s="10"/>
-      <c r="EB133" s="10"/>
-      <c r="EC133" s="10"/>
-      <c r="ED133" s="10"/>
-      <c r="EE133" s="10"/>
-      <c r="EF133" s="10"/>
-      <c r="EG133" s="10"/>
-      <c r="EH133" s="10"/>
-      <c r="EI133" s="10"/>
-      <c r="EJ133" s="10"/>
-      <c r="EK133" s="10"/>
-      <c r="EL133" s="10"/>
-      <c r="EM133" s="10"/>
-      <c r="EN133" s="10"/>
-      <c r="EO133" s="10"/>
-      <c r="EP133" s="10"/>
-      <c r="EQ133" s="10"/>
-      <c r="ER133" s="10"/>
-      <c r="ES133" s="10"/>
-      <c r="ET133" s="10"/>
-      <c r="EU133" s="10"/>
-      <c r="EV133" s="10"/>
-      <c r="EW133" s="10"/>
-      <c r="EX133" s="10"/>
-      <c r="EY133" s="10"/>
-      <c r="EZ133" s="10"/>
-      <c r="FA133" s="10"/>
-      <c r="FB133" s="10"/>
-      <c r="FC133" s="10"/>
-      <c r="FD133" s="10"/>
-      <c r="FE133" s="10"/>
-      <c r="FF133" s="10"/>
-      <c r="FG133" s="10"/>
-      <c r="FH133" s="10"/>
-      <c r="FI133" s="10"/>
-      <c r="FJ133" s="10"/>
-      <c r="FK133" s="10"/>
-      <c r="FL133" s="10"/>
-      <c r="FM133" s="10"/>
-      <c r="FN133" s="10"/>
-      <c r="FO133" s="10"/>
-      <c r="FP133" s="10"/>
-      <c r="FQ133" s="10"/>
-      <c r="FR133" s="10"/>
-      <c r="FS133" s="10"/>
-      <c r="FT133" s="10"/>
-      <c r="FU133" s="10"/>
-      <c r="FV133" s="10"/>
-      <c r="FW133" s="10"/>
-      <c r="FX133" s="10"/>
-      <c r="FY133" s="10"/>
-      <c r="FZ133" s="10"/>
-      <c r="GA133" s="10"/>
-      <c r="GB133" s="10"/>
-      <c r="GC133" s="10"/>
-      <c r="GD133" s="10"/>
-      <c r="GE133" s="10"/>
-      <c r="GF133" s="10"/>
-      <c r="GG133" s="10"/>
-      <c r="GH133" s="10"/>
-      <c r="GI133" s="10"/>
-      <c r="GJ133" s="10"/>
-      <c r="GK133" s="10"/>
-      <c r="GL133" s="10"/>
-      <c r="GM133" s="10"/>
-      <c r="GN133" s="10"/>
-      <c r="GO133" s="10"/>
-      <c r="GP133" s="10"/>
-      <c r="GQ133" s="10"/>
-      <c r="GR133" s="10"/>
-      <c r="GS133" s="10"/>
-      <c r="GT133" s="10"/>
-      <c r="GU133" s="10"/>
-      <c r="GV133" s="10"/>
-      <c r="GW133" s="10"/>
-      <c r="GX133" s="10"/>
-      <c r="GY133" s="10"/>
-      <c r="GZ133" s="10"/>
-      <c r="HA133" s="10"/>
-      <c r="HB133" s="10"/>
-      <c r="HC133" s="10"/>
-      <c r="HD133" s="10"/>
-      <c r="HE133" s="10"/>
-      <c r="HF133" s="10"/>
-      <c r="HG133" s="10"/>
-      <c r="HH133" s="10"/>
-      <c r="HI133" s="10"/>
-      <c r="HJ133" s="10"/>
-      <c r="HK133" s="10"/>
-      <c r="HL133" s="10"/>
-      <c r="HM133" s="10"/>
-      <c r="HN133" s="10"/>
-      <c r="HO133" s="10"/>
-      <c r="HP133" s="10"/>
-      <c r="HQ133" s="10"/>
-      <c r="HR133" s="10"/>
-      <c r="HS133" s="10"/>
-      <c r="HT133" s="10"/>
-      <c r="HU133" s="10"/>
-      <c r="HV133" s="10"/>
-      <c r="HW133" s="10"/>
-      <c r="HX133" s="10"/>
-      <c r="HY133" s="10"/>
-      <c r="HZ133" s="10"/>
-      <c r="IA133" s="10"/>
-      <c r="IB133" s="10"/>
-      <c r="IC133" s="10"/>
-      <c r="ID133" s="10"/>
-      <c r="IE133" s="10"/>
-      <c r="IF133" s="10"/>
-      <c r="IG133" s="10"/>
-      <c r="IH133" s="10"/>
-      <c r="II133" s="10"/>
-      <c r="IJ133" s="10"/>
-      <c r="IK133" s="10"/>
-      <c r="IL133" s="10"/>
-      <c r="IM133" s="10"/>
-      <c r="IN133" s="10"/>
-      <c r="IO133" s="10"/>
-      <c r="IP133" s="10"/>
-      <c r="IQ133" s="10"/>
-      <c r="IR133" s="10"/>
-      <c r="IS133" s="10"/>
-      <c r="IT133" s="10"/>
-      <c r="IU133" s="10"/>
+    <row r="133" spans="1:255" s="10" customFormat="1">
+      <c r="A133" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="B133" s="26"/>
+      <c r="C133" s="49"/>
+      <c r="D133" s="50"/>
+      <c r="F133" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="H133" s="52"/>
+      <c r="I133" s="53"/>
+      <c r="J133" s="53"/>
+      <c r="K133" s="53"/>
+      <c r="L133" s="54"/>
+      <c r="M133" s="54"/>
+      <c r="N133" s="54"/>
+      <c r="O133" s="54"/>
+      <c r="P133" s="55"/>
+      <c r="Q133" s="54"/>
+      <c r="R133" s="54"/>
+      <c r="T133" s="56"/>
+      <c r="AP133" s="57"/>
+      <c r="AQ133" s="57"/>
+      <c r="AR133" s="57"/>
+      <c r="AS133" s="57"/>
+      <c r="AT133" s="57"/>
+      <c r="AU133" s="57"/>
+      <c r="AV133" s="57"/>
+      <c r="AW133" s="57"/>
     </row>
     <row r="134" spans="1:255" s="10" customFormat="1">
-      <c r="A134" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="B134" s="26"/>
-      <c r="C134" s="49"/>
-      <c r="D134" s="50"/>
-      <c r="F134" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="H134" s="52"/>
-      <c r="I134" s="53"/>
-      <c r="J134" s="53"/>
-      <c r="K134" s="53"/>
+      <c r="A134" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="B134" s="59"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="59"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="59"/>
+      <c r="G134" s="59"/>
+      <c r="H134" s="61"/>
+      <c r="I134" s="54"/>
+      <c r="J134" s="54"/>
+      <c r="K134" s="54"/>
       <c r="L134" s="54"/>
       <c r="M134" s="54"/>
       <c r="N134" s="54"/>
       <c r="O134" s="54"/>
-      <c r="P134" s="55"/>
-      <c r="Q134" s="54"/>
-      <c r="R134" s="54"/>
-      <c r="T134" s="56"/>
+      <c r="AM134" s="57"/>
+      <c r="AN134" s="57"/>
+      <c r="AO134" s="57"/>
       <c r="AP134" s="57"/>
       <c r="AQ134" s="57"/>
       <c r="AR134" s="57"/>
       <c r="AS134" s="57"/>
       <c r="AT134" s="57"/>
-      <c r="AU134" s="57"/>
-      <c r="AV134" s="57"/>
-      <c r="AW134" s="57"/>
     </row>
     <row r="135" spans="1:255" s="10" customFormat="1">
       <c r="A135" s="58" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B135" s="59"/>
       <c r="C135" s="60"/>
@@ -13717,16 +13424,16 @@
       <c r="AT135" s="57"/>
     </row>
     <row r="136" spans="1:255" s="10" customFormat="1">
-      <c r="A136" s="58" t="s">
-        <v>251</v>
-      </c>
-      <c r="B136" s="59"/>
-      <c r="C136" s="60"/>
-      <c r="D136" s="59"/>
+      <c r="A136" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="B136" s="62"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="62"/>
       <c r="E136" s="59"/>
       <c r="F136" s="59"/>
       <c r="G136" s="59"/>
-      <c r="H136" s="61"/>
+      <c r="H136" s="63"/>
       <c r="I136" s="54"/>
       <c r="J136" s="54"/>
       <c r="K136" s="54"/>
@@ -13743,9 +13450,9 @@
       <c r="AS136" s="57"/>
       <c r="AT136" s="57"/>
     </row>
-    <row r="137" spans="1:255" s="10" customFormat="1">
+    <row r="137" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A137" s="71" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B137" s="62"/>
       <c r="C137" s="1"/>
@@ -13771,8 +13478,8 @@
       <c r="AT137" s="57"/>
     </row>
     <row r="138" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A138" s="71" t="s">
-        <v>229</v>
+      <c r="A138" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="B138" s="62"/>
       <c r="C138" s="1"/>
@@ -13799,7 +13506,7 @@
     </row>
     <row r="139" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A139" s="58" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B139" s="62"/>
       <c r="C139" s="1"/>
@@ -13826,7 +13533,7 @@
     </row>
     <row r="140" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A140" s="58" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B140" s="62"/>
       <c r="C140" s="1"/>
@@ -13853,7 +13560,7 @@
     </row>
     <row r="141" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="58" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B141" s="62"/>
       <c r="C141" s="1"/>
@@ -13880,7 +13587,7 @@
     </row>
     <row r="142" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="58" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B142" s="62"/>
       <c r="C142" s="1"/>
@@ -13907,7 +13614,7 @@
     </row>
     <row r="143" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="58" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B143" s="62"/>
       <c r="C143" s="1"/>
@@ -13934,7 +13641,7 @@
     </row>
     <row r="144" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A144" s="58" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B144" s="62"/>
       <c r="C144" s="1"/>
@@ -13959,17 +13666,17 @@
       <c r="AS144" s="57"/>
       <c r="AT144" s="57"/>
     </row>
-    <row r="145" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A145" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="B145" s="62"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="62"/>
+    <row r="145" spans="1:46">
+      <c r="A145" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="B145" s="59"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="59"/>
       <c r="E145" s="59"/>
       <c r="F145" s="59"/>
       <c r="G145" s="59"/>
-      <c r="H145" s="63"/>
+      <c r="H145" s="61"/>
       <c r="I145" s="54"/>
       <c r="J145" s="54"/>
       <c r="K145" s="54"/>
@@ -13977,95 +13684,95 @@
       <c r="M145" s="54"/>
       <c r="N145" s="54"/>
       <c r="O145" s="54"/>
-      <c r="AM145" s="57"/>
-      <c r="AN145" s="57"/>
-      <c r="AO145" s="57"/>
-      <c r="AP145" s="57"/>
-      <c r="AQ145" s="57"/>
-      <c r="AR145" s="57"/>
-      <c r="AS145" s="57"/>
-      <c r="AT145" s="57"/>
-    </row>
-    <row r="146" spans="1:46">
+      <c r="P145" s="10"/>
+      <c r="Q145" s="10"/>
+      <c r="R145" s="10"/>
+      <c r="S145"/>
+    </row>
+    <row r="146" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A146" s="71" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B146" s="59"/>
       <c r="C146" s="60"/>
       <c r="D146" s="59"/>
       <c r="E146" s="59"/>
       <c r="F146" s="59"/>
-      <c r="G146" s="59"/>
-      <c r="H146" s="61"/>
-      <c r="I146" s="54"/>
-      <c r="J146" s="54"/>
-      <c r="K146" s="54"/>
-      <c r="L146" s="54"/>
-      <c r="M146" s="54"/>
-      <c r="N146" s="54"/>
-      <c r="O146" s="54"/>
-      <c r="P146" s="10"/>
-      <c r="Q146" s="10"/>
-      <c r="R146" s="10"/>
-      <c r="S146"/>
-    </row>
-    <row r="147" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
+      <c r="G146" s="64"/>
+      <c r="H146" s="63"/>
+      <c r="I146" s="55"/>
+      <c r="J146" s="55"/>
+      <c r="K146" s="55"/>
+      <c r="L146" s="55"/>
+      <c r="M146" s="55"/>
+      <c r="N146" s="55"/>
+      <c r="O146" s="55"/>
+      <c r="AM146" s="65"/>
+      <c r="AN146" s="65"/>
+      <c r="AO146" s="65"/>
+      <c r="AP146" s="65"/>
+      <c r="AQ146" s="65"/>
+      <c r="AR146" s="65"/>
+      <c r="AS146" s="65"/>
+      <c r="AT146" s="65"/>
+    </row>
+    <row r="147" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A147" s="71" t="s">
-        <v>236</v>
-      </c>
-      <c r="B147" s="59"/>
-      <c r="C147" s="60"/>
-      <c r="D147" s="59"/>
+        <v>239</v>
+      </c>
+      <c r="B147" s="66"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="68"/>
       <c r="E147" s="59"/>
       <c r="F147" s="59"/>
-      <c r="G147" s="64"/>
-      <c r="H147" s="63"/>
-      <c r="I147" s="55"/>
-      <c r="J147" s="55"/>
-      <c r="K147" s="55"/>
-      <c r="L147" s="55"/>
-      <c r="M147" s="55"/>
-      <c r="N147" s="55"/>
-      <c r="O147" s="55"/>
-      <c r="AM147" s="65"/>
-      <c r="AN147" s="65"/>
-      <c r="AO147" s="65"/>
-      <c r="AP147" s="65"/>
-      <c r="AQ147" s="65"/>
-      <c r="AR147" s="65"/>
-      <c r="AS147" s="65"/>
-      <c r="AT147" s="65"/>
-    </row>
-    <row r="148" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="G147" s="59"/>
+      <c r="H147" s="61"/>
+      <c r="I147" s="54"/>
+      <c r="J147" s="54"/>
+      <c r="K147" s="54"/>
+      <c r="L147" s="54"/>
+      <c r="M147" s="54"/>
+      <c r="N147" s="54"/>
+      <c r="O147" s="54"/>
+      <c r="AM147" s="57"/>
+      <c r="AN147" s="57"/>
+      <c r="AO147" s="57"/>
+      <c r="AP147" s="57"/>
+      <c r="AQ147" s="57"/>
+      <c r="AR147" s="57"/>
+      <c r="AS147" s="57"/>
+      <c r="AT147" s="57"/>
+    </row>
+    <row r="148" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A148" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="B148" s="66"/>
-      <c r="C148" s="67"/>
-      <c r="D148" s="68"/>
+        <v>240</v>
+      </c>
+      <c r="B148" s="59"/>
+      <c r="C148" s="60"/>
+      <c r="D148" s="59"/>
       <c r="E148" s="59"/>
       <c r="F148" s="59"/>
       <c r="G148" s="59"/>
-      <c r="H148" s="61"/>
-      <c r="I148" s="54"/>
-      <c r="J148" s="54"/>
-      <c r="K148" s="54"/>
-      <c r="L148" s="54"/>
-      <c r="M148" s="54"/>
-      <c r="N148" s="54"/>
-      <c r="O148" s="54"/>
-      <c r="AM148" s="57"/>
-      <c r="AN148" s="57"/>
-      <c r="AO148" s="57"/>
-      <c r="AP148" s="57"/>
-      <c r="AQ148" s="57"/>
-      <c r="AR148" s="57"/>
-      <c r="AS148" s="57"/>
-      <c r="AT148" s="57"/>
-    </row>
-    <row r="149" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
+      <c r="H148" s="63"/>
+      <c r="I148" s="55"/>
+      <c r="J148" s="55"/>
+      <c r="K148" s="55"/>
+      <c r="L148" s="55"/>
+      <c r="M148" s="55"/>
+      <c r="N148" s="55"/>
+      <c r="O148" s="55"/>
+      <c r="AM148" s="65"/>
+      <c r="AN148" s="65"/>
+      <c r="AO148" s="65"/>
+      <c r="AP148" s="65"/>
+      <c r="AQ148" s="65"/>
+      <c r="AR148" s="65"/>
+      <c r="AS148" s="65"/>
+      <c r="AT148" s="65"/>
+    </row>
+    <row r="149" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A149" s="71" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B149" s="59"/>
       <c r="C149" s="60"/>
@@ -14073,26 +13780,26 @@
       <c r="E149" s="59"/>
       <c r="F149" s="59"/>
       <c r="G149" s="59"/>
-      <c r="H149" s="63"/>
-      <c r="I149" s="55"/>
-      <c r="J149" s="55"/>
-      <c r="K149" s="55"/>
-      <c r="L149" s="55"/>
-      <c r="M149" s="55"/>
-      <c r="N149" s="55"/>
-      <c r="O149" s="55"/>
-      <c r="AM149" s="65"/>
-      <c r="AN149" s="65"/>
-      <c r="AO149" s="65"/>
-      <c r="AP149" s="65"/>
-      <c r="AQ149" s="65"/>
-      <c r="AR149" s="65"/>
-      <c r="AS149" s="65"/>
-      <c r="AT149" s="65"/>
+      <c r="H149" s="61"/>
+      <c r="I149" s="54"/>
+      <c r="J149" s="54"/>
+      <c r="K149" s="54"/>
+      <c r="L149" s="54"/>
+      <c r="M149" s="54"/>
+      <c r="N149" s="54"/>
+      <c r="O149" s="54"/>
+      <c r="AM149" s="57"/>
+      <c r="AN149" s="57"/>
+      <c r="AO149" s="57"/>
+      <c r="AP149" s="57"/>
+      <c r="AQ149" s="57"/>
+      <c r="AR149" s="57"/>
+      <c r="AS149" s="57"/>
+      <c r="AT149" s="57"/>
     </row>
     <row r="150" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A150" s="71" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B150" s="59"/>
       <c r="C150" s="60"/>
@@ -14117,32 +13824,11 @@
       <c r="AS150" s="57"/>
       <c r="AT150" s="57"/>
     </row>
-    <row r="151" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A151" s="71" t="s">
-        <v>240</v>
-      </c>
-      <c r="B151" s="59"/>
-      <c r="C151" s="60"/>
-      <c r="D151" s="59"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="59"/>
-      <c r="G151" s="59"/>
-      <c r="H151" s="61"/>
-      <c r="I151" s="54"/>
-      <c r="J151" s="54"/>
-      <c r="K151" s="54"/>
-      <c r="L151" s="54"/>
-      <c r="M151" s="54"/>
-      <c r="N151" s="54"/>
-      <c r="O151" s="54"/>
-      <c r="AM151" s="57"/>
-      <c r="AN151" s="57"/>
-      <c r="AO151" s="57"/>
-      <c r="AP151" s="57"/>
-      <c r="AQ151" s="57"/>
-      <c r="AR151" s="57"/>
-      <c r="AS151" s="57"/>
-      <c r="AT151" s="57"/>
+    <row r="151" spans="1:46">
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="69"/>
     </row>
     <row r="152" spans="1:46">
       <c r="D152" s="1"/>
@@ -14517,13 +14203,10 @@
       <c r="G213" s="69"/>
     </row>
     <row r="214" spans="4:7">
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="69"/>
     </row>
     <row r="215" spans="4:7">
-      <c r="F215" s="1"/>
       <c r="G215" s="69"/>
     </row>
     <row r="216" spans="4:7">
@@ -14535,8 +14218,8 @@
     <row r="218" spans="4:7">
       <c r="G218" s="69"/>
     </row>
-    <row r="219" spans="4:7">
-      <c r="G219" s="69"/>
+    <row r="223" spans="4:7">
+      <c r="G223"/>
     </row>
     <row r="224" spans="4:7">
       <c r="G224"/>
@@ -14643,140 +14326,8 @@
     <row r="258" spans="7:7">
       <c r="G258"/>
     </row>
-    <row r="259" spans="7:7">
-      <c r="G259"/>
-    </row>
   </sheetData>
-  <mergeCells count="143">
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="142">
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14791,6 +14342,134 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818781BA-9D1B-451A-997C-E5FEC82DB05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB1B71F-17B5-4333-9C70-A7650403D7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1712,7 +1712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1846,12 +1846,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2053,36 +2066,6 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2121,6 +2104,48 @@
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2535,8 +2560,8 @@
   <dimension ref="A1:IU258"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H134" sqref="H134"/>
+      <pane ySplit="8" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B108" sqref="B108:C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2569,35 +2594,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2646,8 +2671,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2656,41 +2681,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="86" t="s">
+      <c r="T5" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="86"/>
+      <c r="U5" s="76"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="90" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2702,36 +2727,36 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="95" t="s">
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="95"/>
-      <c r="V7" s="80"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="86"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
@@ -2742,14 +2767,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2762,7 +2787,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="93"/>
+      <c r="L8" s="83"/>
       <c r="M8" s="30" t="s">
         <v>244</v>
       </c>
@@ -2790,7 +2815,7 @@
       <c r="U8" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="V8" s="80"/>
+      <c r="V8" s="86"/>
       <c r="W8" s="32" t="s">
         <v>12</v>
       </c>
@@ -2820,13 +2845,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2903,13 +2928,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -2984,10 +3009,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3071,10 +3096,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3158,10 +3183,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="73"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3245,10 +3270,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3329,10 +3354,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3412,10 +3437,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3495,10 +3520,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3578,10 +3603,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="79"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3661,10 +3686,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="74"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3744,10 +3769,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3827,10 +3852,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3910,10 +3935,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="74"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -3993,10 +4018,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4076,10 +4101,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="74"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4159,10 +4184,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="79"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4242,10 +4267,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="74"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4325,10 +4350,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4408,10 +4433,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="74"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4491,10 +4516,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4575,10 +4600,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="91"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4659,10 +4684,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4742,10 +4767,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="74"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4825,10 +4850,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="74"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4909,10 +4934,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="74"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -4992,10 +5017,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="74"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5075,10 +5100,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5158,10 +5183,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="74"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5241,10 +5266,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="74"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5324,10 +5349,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="74"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5407,10 +5432,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="74" t="s">
+      <c r="B40" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="74"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5490,10 +5515,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5573,10 +5598,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="74"/>
+      <c r="C42" s="90"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5657,10 +5682,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="78"/>
+      <c r="C43" s="92"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5740,10 +5765,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="78"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5823,10 +5848,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="74"/>
+      <c r="C45" s="90"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5906,10 +5931,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="74"/>
+      <c r="C46" s="90"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -5989,10 +6014,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="74"/>
+      <c r="C47" s="90"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6072,10 +6097,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="74" t="s">
+      <c r="B48" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="74"/>
+      <c r="C48" s="90"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6155,10 +6180,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="74"/>
+      <c r="C49" s="90"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6238,10 +6263,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="74"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6321,10 +6346,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6404,10 +6429,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="74" t="s">
+      <c r="B52" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="74"/>
+      <c r="C52" s="90"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6487,10 +6512,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="74"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6570,10 +6595,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="74" t="s">
+      <c r="B54" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="74"/>
+      <c r="C54" s="90"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6653,10 +6678,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="74" t="s">
+      <c r="B55" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="74"/>
+      <c r="C55" s="90"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6736,10 +6761,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="74" t="s">
+      <c r="B56" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="74"/>
+      <c r="C56" s="90"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6819,10 +6844,10 @@
       <c r="A57" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="74" t="s">
+      <c r="B57" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="74"/>
+      <c r="C57" s="90"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6902,10 +6927,10 @@
       <c r="A58" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="74" t="s">
+      <c r="B58" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="C58" s="74"/>
+      <c r="C58" s="90"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -6985,10 +7010,10 @@
       <c r="A59" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="74"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7068,10 +7093,10 @@
       <c r="A60" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="74" t="s">
+      <c r="B60" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="74"/>
+      <c r="C60" s="90"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7151,10 +7176,10 @@
       <c r="A61" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="74" t="s">
+      <c r="B61" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="90"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7234,10 +7259,10 @@
       <c r="A62" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="74" t="s">
+      <c r="B62" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="74"/>
+      <c r="C62" s="90"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7318,10 +7343,10 @@
       <c r="A63" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="74" t="s">
+      <c r="B63" s="90" t="s">
         <v>248</v>
       </c>
-      <c r="C63" s="74"/>
+      <c r="C63" s="90"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7401,10 +7426,10 @@
       <c r="A64" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="74" t="s">
+      <c r="B64" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="74"/>
+      <c r="C64" s="90"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7485,10 +7510,10 @@
       <c r="A65" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="74" t="s">
+      <c r="B65" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="74"/>
+      <c r="C65" s="90"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7568,10 +7593,10 @@
       <c r="A66" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="74" t="s">
+      <c r="B66" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="74"/>
+      <c r="C66" s="90"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7652,10 +7677,10 @@
       <c r="A67" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="74" t="s">
+      <c r="B67" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="74"/>
+      <c r="C67" s="90"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7735,10 +7760,10 @@
       <c r="A68" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="74" t="s">
+      <c r="B68" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="74"/>
+      <c r="C68" s="90"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7818,10 +7843,10 @@
       <c r="A69" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="74" t="s">
+      <c r="B69" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="74"/>
+      <c r="C69" s="90"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7902,10 +7927,10 @@
       <c r="A70" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="74" t="s">
+      <c r="B70" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="74"/>
+      <c r="C70" s="90"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="34" t="s">
@@ -7985,10 +8010,10 @@
       <c r="A71" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="76" t="s">
+      <c r="B71" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="76"/>
+      <c r="C71" s="93"/>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
       <c r="F71" s="34" t="s">
@@ -8067,10 +8092,10 @@
     </row>
     <row r="72" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A72" s="46"/>
-      <c r="B72" s="74" t="s">
+      <c r="B72" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="74"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
       <c r="F72" s="34" t="s">
@@ -8149,14 +8174,14 @@
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A73" s="38"/>
-      <c r="B73" s="77" t="s">
+      <c r="B73" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="77"/>
-      <c r="D73" s="77">
+      <c r="C73" s="94"/>
+      <c r="D73" s="94">
         <v>35.200000000000003</v>
       </c>
-      <c r="E73" s="77"/>
+      <c r="E73" s="94"/>
       <c r="F73" s="34" t="s">
         <v>15</v>
       </c>
@@ -8234,10 +8259,10 @@
       <c r="A74" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B74" s="74" t="s">
+      <c r="B74" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="74"/>
+      <c r="C74" s="90"/>
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
       <c r="F74" s="34" t="s">
@@ -8317,10 +8342,10 @@
       <c r="A75" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="74" t="s">
+      <c r="B75" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="74"/>
+      <c r="C75" s="90"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8398,10 +8423,10 @@
     </row>
     <row r="76" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A76" s="33"/>
-      <c r="B76" s="74" t="s">
+      <c r="B76" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="C76" s="74"/>
+      <c r="C76" s="90"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="72" t="s">
@@ -8461,10 +8486,10 @@
       <c r="A77" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B77" s="74" t="s">
+      <c r="B77" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="C77" s="74"/>
+      <c r="C77" s="90"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="34" t="s">
@@ -8545,10 +8570,10 @@
       <c r="A78" s="33">
         <v>0</v>
       </c>
-      <c r="B78" s="74" t="s">
+      <c r="B78" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="C78" s="74"/>
+      <c r="C78" s="90"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8628,10 +8653,10 @@
       <c r="A79" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="74" t="s">
+      <c r="B79" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="74"/>
+      <c r="C79" s="90"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8711,10 +8736,10 @@
       <c r="A80" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="74" t="s">
+      <c r="B80" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="74"/>
+      <c r="C80" s="90"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8794,10 +8819,10 @@
       <c r="A81" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B81" s="74" t="s">
+      <c r="B81" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="C81" s="74"/>
+      <c r="C81" s="90"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8877,10 +8902,10 @@
       <c r="A82" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B82" s="74" t="s">
+      <c r="B82" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="74"/>
+      <c r="C82" s="90"/>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
       <c r="F82" s="34" t="s">
@@ -8960,10 +8985,10 @@
       <c r="A83" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B83" s="74" t="s">
+      <c r="B83" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C83" s="74"/>
+      <c r="C83" s="90"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9044,10 +9069,10 @@
       <c r="A84" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B84" s="74" t="s">
+      <c r="B84" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="74"/>
+      <c r="C84" s="90"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9128,10 +9153,10 @@
       <c r="A85" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B85" s="74" t="s">
+      <c r="B85" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="74"/>
+      <c r="C85" s="90"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9212,10 +9237,10 @@
       <c r="A86" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B86" s="74" t="s">
+      <c r="B86" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="74"/>
+      <c r="C86" s="90"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9296,10 +9321,10 @@
       <c r="A87" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B87" s="74" t="s">
+      <c r="B87" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="74"/>
+      <c r="C87" s="90"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9380,10 +9405,10 @@
       <c r="A88" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B88" s="74" t="s">
+      <c r="B88" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="74"/>
+      <c r="C88" s="90"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9464,10 +9489,10 @@
       <c r="A89" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B89" s="74" t="s">
+      <c r="B89" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="74"/>
+      <c r="C89" s="90"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9547,10 +9572,10 @@
       <c r="A90" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B90" s="74" t="s">
+      <c r="B90" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="74"/>
+      <c r="C90" s="90"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9630,10 +9655,10 @@
       <c r="A91" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B91" s="74" t="s">
+      <c r="B91" s="90" t="s">
         <v>249</v>
       </c>
-      <c r="C91" s="74"/>
+      <c r="C91" s="90"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9713,10 +9738,10 @@
       <c r="A92" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B92" s="74" t="s">
+      <c r="B92" s="90" t="s">
         <v>257</v>
       </c>
-      <c r="C92" s="74"/>
+      <c r="C92" s="90"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9796,10 +9821,10 @@
       <c r="A93" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B93" s="74" t="s">
+      <c r="B93" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="74"/>
+      <c r="C93" s="90"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9879,10 +9904,10 @@
       <c r="A94" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B94" s="74" t="s">
+      <c r="B94" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="74"/>
+      <c r="C94" s="90"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9962,10 +9987,10 @@
       <c r="A95" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B95" s="74" t="s">
+      <c r="B95" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="74"/>
+      <c r="C95" s="90"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10045,10 +10070,10 @@
       <c r="A96" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B96" s="74" t="s">
+      <c r="B96" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="74"/>
+      <c r="C96" s="90"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10128,10 +10153,10 @@
       <c r="A97" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B97" s="74" t="s">
+      <c r="B97" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="74"/>
+      <c r="C97" s="90"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10211,10 +10236,10 @@
       <c r="A98" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B98" s="74" t="s">
+      <c r="B98" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="74"/>
+      <c r="C98" s="90"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10294,10 +10319,10 @@
       <c r="A99" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B99" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" s="74"/>
+      <c r="B99" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" s="97"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10377,10 +10402,10 @@
       <c r="A100" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B100" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="C100" s="74"/>
+      <c r="B100" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="C100" s="97"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10460,10 +10485,10 @@
       <c r="A101" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B101" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="C101" s="74"/>
+      <c r="B101" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" s="99"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10543,10 +10568,10 @@
       <c r="A102" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B102" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="C102" s="75"/>
+      <c r="B102" s="96" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" s="97"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10626,10 +10651,10 @@
       <c r="A103" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B103" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="C103" s="74"/>
+      <c r="B103" s="96" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103" s="97"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10709,10 +10734,10 @@
       <c r="A104" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B104" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="C104" s="74"/>
+      <c r="B104" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" s="97"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10792,10 +10817,10 @@
       <c r="A105" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B105" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="C105" s="74"/>
+      <c r="B105" s="96" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="97"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10875,10 +10900,10 @@
       <c r="A106" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B106" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="C106" s="74"/>
+      <c r="B106" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" s="97"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10958,10 +10983,10 @@
       <c r="A107" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B107" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="C107" s="74"/>
+      <c r="B107" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C107" s="90"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11041,10 +11066,10 @@
       <c r="A108" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B108" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="C108" s="74"/>
+      <c r="B108" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C108" s="95"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11124,10 +11149,10 @@
       <c r="A109" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B109" s="75" t="s">
+      <c r="B109" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C109" s="75"/>
+      <c r="C109" s="95"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11207,10 +11232,10 @@
       <c r="A110" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B110" s="75" t="s">
+      <c r="B110" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="75"/>
+      <c r="C110" s="95"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11290,10 +11315,10 @@
       <c r="A111" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B111" s="75" t="s">
+      <c r="B111" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C111" s="75"/>
+      <c r="C111" s="95"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11373,10 +11398,10 @@
       <c r="A112" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B112" s="75" t="s">
+      <c r="B112" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C112" s="75"/>
+      <c r="C112" s="95"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11456,10 +11481,10 @@
       <c r="A113" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="B113" s="75" t="s">
+      <c r="B113" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C113" s="75"/>
+      <c r="C113" s="95"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11539,10 +11564,10 @@
       <c r="A114" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B114" s="75" t="s">
+      <c r="B114" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C114" s="75"/>
+      <c r="C114" s="95"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11622,10 +11647,10 @@
       <c r="A115" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B115" s="75" t="s">
+      <c r="B115" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C115" s="75"/>
+      <c r="C115" s="95"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11705,10 +11730,10 @@
       <c r="A116" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B116" s="74" t="s">
+      <c r="B116" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="C116" s="74"/>
+      <c r="C116" s="90"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11788,10 +11813,10 @@
       <c r="A117" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B117" s="74" t="s">
+      <c r="B117" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="C117" s="74"/>
+      <c r="C117" s="90"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11871,10 +11896,10 @@
       <c r="A118" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B118" s="74" t="s">
+      <c r="B118" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="C118" s="74"/>
+      <c r="C118" s="90"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11954,10 +11979,10 @@
       <c r="A119" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B119" s="74" t="s">
+      <c r="B119" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="C119" s="74"/>
+      <c r="C119" s="90"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12037,10 +12062,10 @@
       <c r="A120" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B120" s="74" t="s">
+      <c r="B120" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="C120" s="74"/>
+      <c r="C120" s="90"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12120,10 +12145,10 @@
       <c r="A121" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="B121" s="74" t="s">
+      <c r="B121" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="C121" s="74"/>
+      <c r="C121" s="90"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12203,10 +12228,10 @@
       <c r="A122" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B122" s="74" t="s">
+      <c r="B122" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="C122" s="74"/>
+      <c r="C122" s="90"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12286,10 +12311,10 @@
       <c r="A123" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B123" s="74" t="s">
+      <c r="B123" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="C123" s="74"/>
+      <c r="C123" s="90"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12369,10 +12394,10 @@
       <c r="A124" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="B124" s="74" t="s">
+      <c r="B124" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="C124" s="74"/>
+      <c r="C124" s="90"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12452,10 +12477,10 @@
       <c r="A125" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B125" s="74" t="s">
+      <c r="B125" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="C125" s="74"/>
+      <c r="C125" s="90"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12535,10 +12560,10 @@
       <c r="A126" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B126" s="74" t="s">
+      <c r="B126" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="C126" s="74"/>
+      <c r="C126" s="90"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12618,10 +12643,10 @@
       <c r="A127" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B127" s="74" t="s">
+      <c r="B127" s="90" t="s">
         <v>218</v>
       </c>
-      <c r="C127" s="74"/>
+      <c r="C127" s="90"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12701,10 +12726,10 @@
       <c r="A128" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="B128" s="74" t="s">
+      <c r="B128" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="C128" s="74"/>
+      <c r="C128" s="90"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12784,10 +12809,10 @@
       <c r="A129" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="B129" s="74" t="s">
+      <c r="B129" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="C129" s="74"/>
+      <c r="C129" s="90"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12867,10 +12892,10 @@
       <c r="A130" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="B130" s="74" t="s">
+      <c r="B130" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="C130" s="74"/>
+      <c r="C130" s="90"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12950,10 +12975,10 @@
       <c r="A131" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="B131" s="74" t="s">
+      <c r="B131" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="C131" s="74"/>
+      <c r="C131" s="90"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
       <c r="F131" s="34" t="s">
@@ -13033,10 +13058,10 @@
       <c r="A132" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="B132" s="73" t="s">
+      <c r="B132" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="C132" s="73"/>
+      <c r="C132" s="87"/>
       <c r="D132" s="34"/>
       <c r="E132" s="34"/>
       <c r="F132" s="34" t="s">
@@ -14328,6 +14353,134 @@
     </row>
   </sheetData>
   <mergeCells count="142">
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14342,134 +14495,6 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB1B71F-17B5-4333-9C70-A7650403D7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D8EF3C-0D80-42D0-A358-DD9E2BAEBBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2066,6 +2066,48 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2104,48 +2146,6 @@
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2561,7 +2561,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B108" sqref="B108:C108"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2594,35 +2594,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2671,8 +2671,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2681,41 +2681,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="76" t="s">
+      <c r="T5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="76"/>
+      <c r="U5" s="90"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="91"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2727,36 +2727,36 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82" t="s">
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="83" t="s">
+      <c r="L7" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="M7" s="84" t="s">
+      <c r="M7" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="85" t="s">
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="85"/>
-      <c r="V7" s="86"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="84"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
@@ -2767,14 +2767,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2787,7 +2787,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="83"/>
+      <c r="L8" s="97"/>
       <c r="M8" s="30" t="s">
         <v>244</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="U8" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="V8" s="86"/>
+      <c r="V8" s="84"/>
       <c r="W8" s="32" t="s">
         <v>12</v>
       </c>
@@ -2845,13 +2845,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2928,13 +2928,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -3009,10 +3009,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="87"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3096,10 +3096,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="87"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3183,10 +3183,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="87"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3270,10 +3270,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="90"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3354,10 +3354,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="90"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3437,10 +3437,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="90"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3520,10 +3520,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3603,10 +3603,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="91"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3686,10 +3686,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="90"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3769,10 +3769,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="90"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3852,10 +3852,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="90"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3935,10 +3935,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="90"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -4018,10 +4018,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="90"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4101,10 +4101,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="90"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4184,10 +4184,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="91"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4267,10 +4267,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="90"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4350,10 +4350,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="90"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4433,10 +4433,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="90"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4516,10 +4516,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="91"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4600,10 +4600,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="91"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4684,10 +4684,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="90"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4767,10 +4767,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="90"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4850,10 +4850,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="90"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4934,10 +4934,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="90"/>
+      <c r="C34" s="74"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -5017,10 +5017,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="90"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5100,10 +5100,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="90" t="s">
+      <c r="B36" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="90"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5183,10 +5183,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="90"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5266,10 +5266,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="90"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5349,10 +5349,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="90"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5432,10 +5432,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="90"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5515,10 +5515,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="90"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5598,10 +5598,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="90"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5682,10 +5682,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="92" t="s">
+      <c r="B43" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="92"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5765,10 +5765,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="92"/>
+      <c r="C44" s="82"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5848,10 +5848,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="90"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5931,10 +5931,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="90"/>
+      <c r="C46" s="74"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -6014,10 +6014,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="90" t="s">
+      <c r="B47" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="90"/>
+      <c r="C47" s="74"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6097,10 +6097,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="90" t="s">
+      <c r="B48" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="90"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6180,10 +6180,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="90"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6263,10 +6263,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="90"/>
+      <c r="C50" s="74"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6346,10 +6346,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="90" t="s">
+      <c r="B51" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="90"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6429,10 +6429,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="90" t="s">
+      <c r="B52" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="90"/>
+      <c r="C52" s="74"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6512,10 +6512,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="90" t="s">
+      <c r="B53" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="90"/>
+      <c r="C53" s="74"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6595,10 +6595,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="90" t="s">
+      <c r="B54" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="90"/>
+      <c r="C54" s="74"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6678,10 +6678,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="90"/>
+      <c r="C55" s="74"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6761,10 +6761,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="90" t="s">
+      <c r="B56" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="90"/>
+      <c r="C56" s="74"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6844,10 +6844,10 @@
       <c r="A57" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="90" t="s">
+      <c r="B57" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="90"/>
+      <c r="C57" s="74"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6927,10 +6927,10 @@
       <c r="A58" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="90" t="s">
+      <c r="B58" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="C58" s="90"/>
+      <c r="C58" s="74"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -7010,10 +7010,10 @@
       <c r="A59" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="90" t="s">
+      <c r="B59" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="90"/>
+      <c r="C59" s="74"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7093,10 +7093,10 @@
       <c r="A60" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="90" t="s">
+      <c r="B60" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="90"/>
+      <c r="C60" s="74"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7176,10 +7176,10 @@
       <c r="A61" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="90" t="s">
+      <c r="B61" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="90"/>
+      <c r="C61" s="74"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7259,10 +7259,10 @@
       <c r="A62" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="90" t="s">
+      <c r="B62" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="90"/>
+      <c r="C62" s="74"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7343,10 +7343,10 @@
       <c r="A63" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="90" t="s">
+      <c r="B63" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="C63" s="90"/>
+      <c r="C63" s="74"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7426,10 +7426,10 @@
       <c r="A64" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="90" t="s">
+      <c r="B64" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="90"/>
+      <c r="C64" s="74"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7510,10 +7510,10 @@
       <c r="A65" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="90" t="s">
+      <c r="B65" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="90"/>
+      <c r="C65" s="74"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7593,10 +7593,10 @@
       <c r="A66" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="90" t="s">
+      <c r="B66" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="90"/>
+      <c r="C66" s="74"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7677,10 +7677,10 @@
       <c r="A67" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="90" t="s">
+      <c r="B67" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="90"/>
+      <c r="C67" s="74"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7760,10 +7760,10 @@
       <c r="A68" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="90" t="s">
+      <c r="B68" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="90"/>
+      <c r="C68" s="74"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7843,10 +7843,10 @@
       <c r="A69" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="90" t="s">
+      <c r="B69" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="90"/>
+      <c r="C69" s="74"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7927,10 +7927,10 @@
       <c r="A70" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="90" t="s">
+      <c r="B70" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="90"/>
+      <c r="C70" s="74"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="34" t="s">
@@ -8010,10 +8010,10 @@
       <c r="A71" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="93" t="s">
+      <c r="B71" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="93"/>
+      <c r="C71" s="80"/>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
       <c r="F71" s="34" t="s">
@@ -8092,10 +8092,10 @@
     </row>
     <row r="72" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A72" s="46"/>
-      <c r="B72" s="90" t="s">
+      <c r="B72" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="90"/>
+      <c r="C72" s="74"/>
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
       <c r="F72" s="34" t="s">
@@ -8174,14 +8174,14 @@
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A73" s="38"/>
-      <c r="B73" s="94" t="s">
+      <c r="B73" s="81" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94">
+      <c r="C73" s="81"/>
+      <c r="D73" s="81">
         <v>35.200000000000003</v>
       </c>
-      <c r="E73" s="94"/>
+      <c r="E73" s="81"/>
       <c r="F73" s="34" t="s">
         <v>15</v>
       </c>
@@ -8259,10 +8259,10 @@
       <c r="A74" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B74" s="90" t="s">
+      <c r="B74" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="90"/>
+      <c r="C74" s="74"/>
       <c r="D74" s="43"/>
       <c r="E74" s="43"/>
       <c r="F74" s="34" t="s">
@@ -8342,10 +8342,10 @@
       <c r="A75" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="90" t="s">
+      <c r="B75" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="90"/>
+      <c r="C75" s="74"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8423,10 +8423,10 @@
     </row>
     <row r="76" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A76" s="33"/>
-      <c r="B76" s="90" t="s">
+      <c r="B76" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="C76" s="90"/>
+      <c r="C76" s="74"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="72" t="s">
@@ -8486,10 +8486,10 @@
       <c r="A77" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B77" s="90" t="s">
+      <c r="B77" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="C77" s="90"/>
+      <c r="C77" s="74"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="34" t="s">
@@ -8570,10 +8570,10 @@
       <c r="A78" s="33">
         <v>0</v>
       </c>
-      <c r="B78" s="90" t="s">
+      <c r="B78" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="C78" s="90"/>
+      <c r="C78" s="74"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8653,10 +8653,10 @@
       <c r="A79" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="90" t="s">
+      <c r="B79" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="90"/>
+      <c r="C79" s="74"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8736,10 +8736,10 @@
       <c r="A80" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="90" t="s">
+      <c r="B80" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="90"/>
+      <c r="C80" s="74"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8819,10 +8819,10 @@
       <c r="A81" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B81" s="90" t="s">
+      <c r="B81" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="C81" s="90"/>
+      <c r="C81" s="74"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8902,10 +8902,10 @@
       <c r="A82" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B82" s="90" t="s">
+      <c r="B82" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="90"/>
+      <c r="C82" s="74"/>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
       <c r="F82" s="34" t="s">
@@ -8985,10 +8985,10 @@
       <c r="A83" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B83" s="90" t="s">
+      <c r="B83" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="C83" s="90"/>
+      <c r="C83" s="74"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9069,10 +9069,10 @@
       <c r="A84" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B84" s="90" t="s">
+      <c r="B84" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="90"/>
+      <c r="C84" s="74"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9153,10 +9153,10 @@
       <c r="A85" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B85" s="90" t="s">
+      <c r="B85" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="90"/>
+      <c r="C85" s="74"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9237,10 +9237,10 @@
       <c r="A86" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B86" s="90" t="s">
+      <c r="B86" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="90"/>
+      <c r="C86" s="74"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9321,10 +9321,10 @@
       <c r="A87" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B87" s="90" t="s">
+      <c r="B87" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="90"/>
+      <c r="C87" s="74"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9405,10 +9405,10 @@
       <c r="A88" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B88" s="90" t="s">
+      <c r="B88" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="90"/>
+      <c r="C88" s="74"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9489,10 +9489,10 @@
       <c r="A89" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B89" s="90" t="s">
+      <c r="B89" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="90"/>
+      <c r="C89" s="74"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9572,10 +9572,10 @@
       <c r="A90" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B90" s="90" t="s">
+      <c r="B90" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="90"/>
+      <c r="C90" s="74"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9655,10 +9655,10 @@
       <c r="A91" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B91" s="90" t="s">
+      <c r="B91" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="C91" s="90"/>
+      <c r="C91" s="74"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9738,10 +9738,10 @@
       <c r="A92" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B92" s="90" t="s">
+      <c r="B92" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="C92" s="90"/>
+      <c r="C92" s="74"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9821,10 +9821,10 @@
       <c r="A93" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B93" s="90" t="s">
+      <c r="B93" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="90"/>
+      <c r="C93" s="74"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9904,10 +9904,10 @@
       <c r="A94" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B94" s="90" t="s">
+      <c r="B94" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="90"/>
+      <c r="C94" s="74"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9987,10 +9987,10 @@
       <c r="A95" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B95" s="90" t="s">
+      <c r="B95" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="90"/>
+      <c r="C95" s="74"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10070,10 +10070,10 @@
       <c r="A96" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B96" s="90" t="s">
+      <c r="B96" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="90"/>
+      <c r="C96" s="74"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10153,10 +10153,10 @@
       <c r="A97" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B97" s="90" t="s">
+      <c r="B97" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="90"/>
+      <c r="C97" s="74"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10236,10 +10236,10 @@
       <c r="A98" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B98" s="90" t="s">
+      <c r="B98" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="90"/>
+      <c r="C98" s="74"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10319,10 +10319,10 @@
       <c r="A99" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B99" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="C99" s="97"/>
+      <c r="B99" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="74"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10402,10 +10402,10 @@
       <c r="A100" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B100" s="96" t="s">
-        <v>172</v>
-      </c>
-      <c r="C100" s="97"/>
+      <c r="B100" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="77"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10485,10 +10485,10 @@
       <c r="A101" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B101" s="98" t="s">
-        <v>174</v>
-      </c>
-      <c r="C101" s="99"/>
+      <c r="B101" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="77"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10568,10 +10568,10 @@
       <c r="A102" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B102" s="96" t="s">
-        <v>176</v>
-      </c>
-      <c r="C102" s="97"/>
+      <c r="B102" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="79"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10651,10 +10651,10 @@
       <c r="A103" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B103" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="C103" s="97"/>
+      <c r="B103" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" s="77"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10734,10 +10734,10 @@
       <c r="A104" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B104" s="96" t="s">
-        <v>180</v>
-      </c>
-      <c r="C104" s="97"/>
+      <c r="B104" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="77"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10817,10 +10817,10 @@
       <c r="A105" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B105" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="C105" s="97"/>
+      <c r="B105" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" s="77"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10900,10 +10900,10 @@
       <c r="A106" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B106" s="96" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="97"/>
+      <c r="B106" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="C106" s="77"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10983,10 +10983,10 @@
       <c r="A107" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B107" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="C107" s="90"/>
+      <c r="B107" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C107" s="77"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11066,10 +11066,10 @@
       <c r="A108" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B108" s="95" t="s">
-        <v>188</v>
-      </c>
-      <c r="C108" s="95"/>
+      <c r="B108" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" s="74"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11149,10 +11149,10 @@
       <c r="A109" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B109" s="95" t="s">
+      <c r="B109" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C109" s="95"/>
+      <c r="C109" s="75"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11232,10 +11232,10 @@
       <c r="A110" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B110" s="95" t="s">
+      <c r="B110" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="95"/>
+      <c r="C110" s="75"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11315,10 +11315,10 @@
       <c r="A111" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B111" s="95" t="s">
+      <c r="B111" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C111" s="95"/>
+      <c r="C111" s="75"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11398,10 +11398,10 @@
       <c r="A112" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B112" s="95" t="s">
+      <c r="B112" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C112" s="95"/>
+      <c r="C112" s="75"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11481,10 +11481,10 @@
       <c r="A113" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="B113" s="95" t="s">
+      <c r="B113" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C113" s="95"/>
+      <c r="C113" s="75"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11564,10 +11564,10 @@
       <c r="A114" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B114" s="95" t="s">
+      <c r="B114" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C114" s="95"/>
+      <c r="C114" s="75"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11647,10 +11647,10 @@
       <c r="A115" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B115" s="95" t="s">
+      <c r="B115" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C115" s="95"/>
+      <c r="C115" s="75"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11730,10 +11730,10 @@
       <c r="A116" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B116" s="90" t="s">
+      <c r="B116" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="C116" s="90"/>
+      <c r="C116" s="74"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11813,10 +11813,10 @@
       <c r="A117" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B117" s="90" t="s">
+      <c r="B117" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="C117" s="90"/>
+      <c r="C117" s="74"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11896,10 +11896,10 @@
       <c r="A118" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B118" s="90" t="s">
+      <c r="B118" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="C118" s="90"/>
+      <c r="C118" s="74"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11979,10 +11979,10 @@
       <c r="A119" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B119" s="90" t="s">
+      <c r="B119" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="C119" s="90"/>
+      <c r="C119" s="74"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12062,10 +12062,10 @@
       <c r="A120" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B120" s="90" t="s">
+      <c r="B120" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="C120" s="90"/>
+      <c r="C120" s="74"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12145,10 +12145,10 @@
       <c r="A121" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="B121" s="90" t="s">
+      <c r="B121" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="C121" s="90"/>
+      <c r="C121" s="74"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12228,10 +12228,10 @@
       <c r="A122" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B122" s="90" t="s">
+      <c r="B122" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="C122" s="90"/>
+      <c r="C122" s="74"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12311,10 +12311,10 @@
       <c r="A123" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B123" s="90" t="s">
+      <c r="B123" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="C123" s="90"/>
+      <c r="C123" s="74"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12394,10 +12394,10 @@
       <c r="A124" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="B124" s="90" t="s">
+      <c r="B124" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="C124" s="90"/>
+      <c r="C124" s="74"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12477,10 +12477,10 @@
       <c r="A125" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B125" s="90" t="s">
+      <c r="B125" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="C125" s="90"/>
+      <c r="C125" s="74"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12560,10 +12560,10 @@
       <c r="A126" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B126" s="90" t="s">
+      <c r="B126" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="C126" s="90"/>
+      <c r="C126" s="74"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12643,10 +12643,10 @@
       <c r="A127" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B127" s="90" t="s">
+      <c r="B127" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="C127" s="90"/>
+      <c r="C127" s="74"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12726,10 +12726,10 @@
       <c r="A128" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="B128" s="90" t="s">
+      <c r="B128" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="C128" s="90"/>
+      <c r="C128" s="74"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12809,10 +12809,10 @@
       <c r="A129" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="B129" s="90" t="s">
+      <c r="B129" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="C129" s="90"/>
+      <c r="C129" s="74"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12892,10 +12892,10 @@
       <c r="A130" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="B130" s="90" t="s">
+      <c r="B130" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="C130" s="90"/>
+      <c r="C130" s="74"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12975,10 +12975,10 @@
       <c r="A131" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="B131" s="90" t="s">
+      <c r="B131" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="C131" s="90"/>
+      <c r="C131" s="74"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
       <c r="F131" s="34" t="s">
@@ -13058,10 +13058,10 @@
       <c r="A132" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="B132" s="87" t="s">
+      <c r="B132" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="C132" s="87"/>
+      <c r="C132" s="73"/>
       <c r="D132" s="34"/>
       <c r="E132" s="34"/>
       <c r="F132" s="34" t="s">
@@ -14353,134 +14353,6 @@
     </row>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14495,6 +14367,134 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D8EF3C-0D80-42D0-A358-DD9E2BAEBBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD942957-AF93-430B-859D-012B07C00211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5175" yWindow="5685" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a week" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier">"'24a7b5fc-9de7-4bbf-a971-8358f80d3098'"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'a week'!$A$1:$U$150</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'a week'!$A$1:$U$152</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'a week'!$A:$E,'a week'!$1:$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="260">
   <si>
     <t>重要農產品價格日報表</t>
   </si>
@@ -456,9 +456,6 @@
     <t>41-1</t>
   </si>
   <si>
-    <t>世紀梨</t>
-  </si>
-  <si>
     <t>41-2</t>
   </si>
   <si>
@@ -537,9 +534,6 @@
   </si>
   <si>
     <t>53</t>
-  </si>
-  <si>
-    <t>愛文芒果</t>
   </si>
   <si>
     <t>54</t>
@@ -1055,9 +1049,6 @@
     <t xml:space="preserve">  之簡單平均)；竿採梅產地價格(國姓、六龜和甲仙等農會查報價格之簡單平均) —農產品價格查報，本會農糧署。</t>
   </si>
   <si>
-    <t>4.新興梨、豐水梨及甜柿交易量價(東勢果菜市場價格)－農產品行情報導，本會農糧署。</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -1444,10 +1435,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>珍珠芭</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>資料來源：</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1488,6 +1475,30 @@
   </si>
   <si>
     <t>(新增品項)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠芭(產地)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠芭(台北市場批發價)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>愛文芒果(產地)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>愛文芒果(台北市場批發價)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>寶島甘露梨</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.豐水梨、新興梨及寶島甘露梨交易量價(東勢果菜市場價格)－農產品行情報導，本會農糧署。</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -1864,7 +1875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2066,45 +2077,6 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2146,6 +2118,48 @@
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2557,11 +2571,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IU258"/>
+  <dimension ref="A1:IU260"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100:C100"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2594,35 +2608,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2671,8 +2685,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2681,41 +2695,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="90" t="s">
+      <c r="T5" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="90"/>
+      <c r="U5" s="77"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2727,36 +2741,36 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96" t="s">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="97" t="s">
-        <v>243</v>
-      </c>
-      <c r="M7" s="98" t="s">
+      <c r="L7" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="M7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="99" t="s">
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="99"/>
-      <c r="V7" s="84"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
@@ -2767,14 +2781,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2787,9 +2801,9 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="97"/>
+      <c r="L8" s="84"/>
       <c r="M8" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N8" s="30" t="s">
         <v>10</v>
@@ -2813,9 +2827,9 @@
         <v>11</v>
       </c>
       <c r="U8" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="V8" s="84"/>
+        <v>242</v>
+      </c>
+      <c r="V8" s="87"/>
       <c r="W8" s="32" t="s">
         <v>12</v>
       </c>
@@ -2845,13 +2859,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2928,13 +2942,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -3009,10 +3023,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3096,10 +3110,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3183,10 +3197,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="73"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3270,10 +3284,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3354,10 +3368,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3437,10 +3451,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3520,10 +3534,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3603,10 +3617,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3686,10 +3700,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="74"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3769,10 +3783,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3852,10 +3866,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3935,10 +3949,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="74"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -4018,10 +4032,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4101,10 +4115,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="74"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4184,10 +4198,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="83"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4267,10 +4281,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="74"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4350,10 +4364,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4433,10 +4447,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="74"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4516,10 +4530,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="83"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4600,10 +4614,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4684,10 +4698,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4767,10 +4781,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="74"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4850,10 +4864,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="74"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4934,10 +4948,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="74"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -5017,10 +5031,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="74"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5100,10 +5114,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="91"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5183,10 +5197,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="74"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5266,10 +5280,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="74"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5349,10 +5363,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="74"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5432,10 +5446,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="74" t="s">
+      <c r="B40" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="74"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5515,10 +5529,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5598,10 +5612,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="74"/>
+      <c r="C42" s="91"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5682,10 +5696,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="82" t="s">
+      <c r="B43" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="82"/>
+      <c r="C43" s="93"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5765,10 +5779,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="82"/>
+      <c r="C44" s="93"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5848,10 +5862,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="74"/>
+      <c r="C45" s="91"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5931,10 +5945,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="74"/>
+      <c r="C46" s="91"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -6014,10 +6028,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="74"/>
+      <c r="C47" s="91"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6097,10 +6111,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="74" t="s">
+      <c r="B48" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="74"/>
+      <c r="C48" s="91"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6180,10 +6194,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="74"/>
+      <c r="C49" s="91"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6263,10 +6277,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="74"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6346,10 +6360,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6429,10 +6443,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="74" t="s">
+      <c r="B52" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="74"/>
+      <c r="C52" s="91"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6512,10 +6526,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="74"/>
+      <c r="C53" s="91"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6595,10 +6609,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="74" t="s">
+      <c r="B54" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="74"/>
+      <c r="C54" s="91"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6678,10 +6692,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="74" t="s">
+      <c r="B55" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="74"/>
+      <c r="C55" s="91"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6761,10 +6775,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="74"/>
+      <c r="B56" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="C56" s="91"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6842,12 +6856,12 @@
     </row>
     <row r="57" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A57" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="74"/>
+        <v>100</v>
+      </c>
+      <c r="B57" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="91"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6925,12 +6939,12 @@
     </row>
     <row r="58" spans="1:30" s="44" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A58" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="74"/>
+        <v>101</v>
+      </c>
+      <c r="B58" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="91"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -7008,12 +7022,12 @@
     </row>
     <row r="59" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A59" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="74"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7091,12 +7105,12 @@
     </row>
     <row r="60" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A60" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="74"/>
+      <c r="C60" s="91"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7174,12 +7188,12 @@
     </row>
     <row r="61" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A61" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7257,12 +7271,12 @@
     </row>
     <row r="62" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A62" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="74"/>
+      <c r="C62" s="91"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7341,12 +7355,12 @@
     </row>
     <row r="63" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A63" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="C63" s="74"/>
+        <v>111</v>
+      </c>
+      <c r="B63" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" s="91"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7424,12 +7438,12 @@
     </row>
     <row r="64" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A64" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" s="74"/>
+      <c r="C64" s="91"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7508,12 +7522,12 @@
     </row>
     <row r="65" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A65" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="74"/>
+      <c r="C65" s="91"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7591,12 +7605,12 @@
     </row>
     <row r="66" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A66" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="74"/>
+      <c r="C66" s="91"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7675,12 +7689,12 @@
     </row>
     <row r="67" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A67" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="74"/>
+      <c r="C67" s="91"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7758,12 +7772,12 @@
     </row>
     <row r="68" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A68" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="74"/>
+      <c r="C68" s="91"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7841,12 +7855,12 @@
     </row>
     <row r="69" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A69" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="74"/>
+      <c r="C69" s="91"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7924,98 +7938,49 @@
       </c>
     </row>
     <row r="70" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A70" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="74"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="91" t="s">
+        <v>256</v>
+      </c>
+      <c r="C70" s="91"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
-      <c r="F70" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K70" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L70" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="M70" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N70" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O70" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P70" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q70" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R70" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S70" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="T70" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="U70" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="W70" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="X70" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y70" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z70" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA70" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB70" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC70" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD70" s="40" t="s">
-        <v>15</v>
-      </c>
+      <c r="F70" s="73"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="70"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="42"/>
+      <c r="W70" s="40"/>
+      <c r="X70" s="40"/>
+      <c r="Y70" s="40"/>
+      <c r="Z70" s="40"/>
+      <c r="AA70" s="40"/>
+      <c r="AB70" s="40"/>
+      <c r="AC70" s="40"/>
+      <c r="AD70" s="40"/>
     </row>
     <row r="71" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A71" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B71" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="80"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
+        <v>124</v>
+      </c>
+      <c r="B71" s="91" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" s="91"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
       <c r="F71" s="34" t="s">
         <v>15</v>
       </c>
@@ -8064,7 +8029,6 @@
       <c r="U71" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V71" s="42"/>
       <c r="W71" s="40" t="s">
         <v>15</v>
       </c>
@@ -8091,13 +8055,15 @@
       </c>
     </row>
     <row r="72" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A72" s="46"/>
-      <c r="B72" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="74"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
+      <c r="A72" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="94"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
       <c r="F72" s="34" t="s">
         <v>15</v>
       </c>
@@ -8173,15 +8139,13 @@
       </c>
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A73" s="38"/>
-      <c r="B73" s="81" t="s">
-        <v>255</v>
-      </c>
-      <c r="C73" s="81"/>
-      <c r="D73" s="81">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E73" s="81"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="91"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
       <c r="F73" s="34" t="s">
         <v>15</v>
       </c>
@@ -8230,6 +8194,7 @@
       <c r="U73" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="V73" s="42"/>
       <c r="W73" s="40" t="s">
         <v>15</v>
       </c>
@@ -8256,15 +8221,15 @@
       </c>
     </row>
     <row r="74" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A74" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="74"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C74" s="95"/>
+      <c r="D74" s="95">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E74" s="95"/>
       <c r="F74" s="34" t="s">
         <v>15</v>
       </c>
@@ -8340,12 +8305,12 @@
     </row>
     <row r="75" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A75" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="74"/>
+        <v>128</v>
+      </c>
+      <c r="B75" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="91"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8422,14 +8387,16 @@
       </c>
     </row>
     <row r="76" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A76" s="33"/>
-      <c r="B76" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="C76" s="74"/>
+      <c r="A76" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="91"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
-      <c r="F76" s="72" t="s">
+      <c r="F76" s="34" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="35" t="s">
@@ -8471,28 +8438,46 @@
       <c r="S76" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T76" s="70"/>
-      <c r="U76" s="36"/>
-      <c r="W76" s="40"/>
-      <c r="X76" s="40"/>
-      <c r="Y76" s="40"/>
-      <c r="Z76" s="40"/>
-      <c r="AA76" s="40"/>
-      <c r="AB76" s="40"/>
-      <c r="AC76" s="40"/>
-      <c r="AD76" s="40"/>
+      <c r="T76" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="U76" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="W76" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="X76" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y76" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z76" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA76" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB76" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC76" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD76" s="40" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="77" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A77" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="74"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" s="91"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
-      <c r="F77" s="34" t="s">
+      <c r="F77" s="72" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="35" t="s">
@@ -8534,46 +8519,25 @@
       <c r="S77" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T77" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="U77" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="V77" s="42"/>
-      <c r="W77" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="X77" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y77" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z77" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA77" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB77" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC77" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD77" s="40" t="s">
-        <v>15</v>
-      </c>
+      <c r="T77" s="70"/>
+      <c r="U77" s="36"/>
+      <c r="W77" s="40"/>
+      <c r="X77" s="40"/>
+      <c r="Y77" s="40"/>
+      <c r="Z77" s="40"/>
+      <c r="AA77" s="40"/>
+      <c r="AB77" s="40"/>
+      <c r="AC77" s="40"/>
+      <c r="AD77" s="40"/>
     </row>
     <row r="78" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A78" s="33">
-        <v>0</v>
-      </c>
-      <c r="B78" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="74"/>
+      <c r="A78" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="91"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8624,6 +8588,7 @@
       <c r="U78" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="V78" s="42"/>
       <c r="W78" s="40" t="s">
         <v>15</v>
       </c>
@@ -8650,13 +8615,13 @@
       </c>
     </row>
     <row r="79" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A79" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B79" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" s="74"/>
+      <c r="A79" s="33">
+        <v>0</v>
+      </c>
+      <c r="B79" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="91"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8734,12 +8699,12 @@
     </row>
     <row r="80" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A80" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B80" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" s="74"/>
+        <v>135</v>
+      </c>
+      <c r="B80" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="91"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8817,12 +8782,12 @@
     </row>
     <row r="81" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A81" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B81" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="C81" s="74"/>
+        <v>137</v>
+      </c>
+      <c r="B81" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="91"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8899,96 +8864,46 @@
       </c>
     </row>
     <row r="82" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A82" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B82" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="74"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82" s="91"/>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
-      <c r="F82" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I82" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J82" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K82" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L82" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="M82" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N82" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O82" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P82" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q82" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R82" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S82" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="T82" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="U82" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="W82" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="X82" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y82" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z82" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA82" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB82" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC82" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD82" s="40" t="s">
-        <v>15</v>
-      </c>
+      <c r="F82" s="73"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="70"/>
+      <c r="U82" s="36"/>
+      <c r="W82" s="40"/>
+      <c r="X82" s="40"/>
+      <c r="Y82" s="40"/>
+      <c r="Z82" s="40"/>
+      <c r="AA82" s="40"/>
+      <c r="AB82" s="40"/>
+      <c r="AC82" s="40"/>
+      <c r="AD82" s="40"/>
     </row>
     <row r="83" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A83" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B83" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="C83" s="74"/>
+        <v>139</v>
+      </c>
+      <c r="B83" s="91" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83" s="91"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9039,7 +8954,6 @@
       <c r="U83" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V83" s="42"/>
       <c r="W83" s="40" t="s">
         <v>15</v>
       </c>
@@ -9067,12 +8981,12 @@
     </row>
     <row r="84" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A84" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B84" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84" s="74"/>
+        <v>140</v>
+      </c>
+      <c r="B84" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="91"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9123,7 +9037,6 @@
       <c r="U84" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V84" s="42"/>
       <c r="W84" s="40" t="s">
         <v>15</v>
       </c>
@@ -9151,12 +9064,12 @@
     </row>
     <row r="85" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A85" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B85" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="74"/>
+        <v>142</v>
+      </c>
+      <c r="B85" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="91"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9235,12 +9148,12 @@
     </row>
     <row r="86" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A86" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B86" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C86" s="74"/>
+        <v>144</v>
+      </c>
+      <c r="B86" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="91"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9319,12 +9232,12 @@
     </row>
     <row r="87" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A87" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B87" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="C87" s="74"/>
+        <v>146</v>
+      </c>
+      <c r="B87" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" s="91"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9403,12 +9316,12 @@
     </row>
     <row r="88" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A88" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B88" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="C88" s="74"/>
+        <v>148</v>
+      </c>
+      <c r="B88" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="C88" s="91"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9487,12 +9400,12 @@
     </row>
     <row r="89" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A89" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B89" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="74"/>
+        <v>150</v>
+      </c>
+      <c r="B89" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="91"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9543,6 +9456,7 @@
       <c r="U89" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="V89" s="42"/>
       <c r="W89" s="40" t="s">
         <v>15</v>
       </c>
@@ -9570,12 +9484,12 @@
     </row>
     <row r="90" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A90" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B90" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="C90" s="74"/>
+        <v>152</v>
+      </c>
+      <c r="B90" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="91"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9626,6 +9540,7 @@
       <c r="U90" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="V90" s="42"/>
       <c r="W90" s="40" t="s">
         <v>15</v>
       </c>
@@ -9653,12 +9568,12 @@
     </row>
     <row r="91" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A91" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B91" s="74" t="s">
-        <v>249</v>
-      </c>
-      <c r="C91" s="74"/>
+        <v>154</v>
+      </c>
+      <c r="B91" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91" s="91"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9736,12 +9651,12 @@
     </row>
     <row r="92" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A92" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B92" s="74" t="s">
-        <v>257</v>
-      </c>
-      <c r="C92" s="74"/>
+        <v>156</v>
+      </c>
+      <c r="B92" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="91"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9819,12 +9734,12 @@
     </row>
     <row r="93" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A93" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B93" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" s="74"/>
+        <v>158</v>
+      </c>
+      <c r="B93" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="C93" s="91"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9902,12 +9817,12 @@
     </row>
     <row r="94" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A94" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B94" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="C94" s="74"/>
+        <v>159</v>
+      </c>
+      <c r="B94" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="C94" s="91"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9985,12 +9900,12 @@
     </row>
     <row r="95" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A95" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B95" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="74"/>
+      <c r="C95" s="91"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10068,12 +9983,12 @@
     </row>
     <row r="96" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A96" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B96" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B96" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="74"/>
+      <c r="C96" s="91"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10151,12 +10066,12 @@
     </row>
     <row r="97" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A97" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="B97" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="B97" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="74"/>
+      <c r="C97" s="91"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10234,12 +10149,12 @@
     </row>
     <row r="98" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A98" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B98" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B98" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="74"/>
+      <c r="C98" s="91"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10317,12 +10232,12 @@
     </row>
     <row r="99" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A99" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="B99" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="B99" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="74"/>
+      <c r="C99" s="91"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10400,12 +10315,12 @@
     </row>
     <row r="100" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A100" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B100" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="C100" s="77"/>
+        <v>165</v>
+      </c>
+      <c r="B100" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="91"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10483,12 +10398,12 @@
     </row>
     <row r="101" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A101" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B101" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="C101" s="77"/>
+        <v>166</v>
+      </c>
+      <c r="B101" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="91"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10566,12 +10481,12 @@
     </row>
     <row r="102" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A102" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="B102" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="C102" s="79"/>
+        <v>167</v>
+      </c>
+      <c r="B102" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" s="97"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10649,12 +10564,12 @@
     </row>
     <row r="103" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A103" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B103" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="C103" s="77"/>
+        <v>169</v>
+      </c>
+      <c r="B103" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" s="97"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10732,12 +10647,12 @@
     </row>
     <row r="104" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A104" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B104" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="C104" s="77"/>
+        <v>171</v>
+      </c>
+      <c r="B104" s="98" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" s="99"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10815,12 +10730,12 @@
     </row>
     <row r="105" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A105" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B105" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="C105" s="77"/>
+        <v>173</v>
+      </c>
+      <c r="B105" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" s="97"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10898,12 +10813,12 @@
     </row>
     <row r="106" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A106" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="B106" s="76" t="s">
-        <v>182</v>
-      </c>
-      <c r="C106" s="77"/>
+        <v>175</v>
+      </c>
+      <c r="B106" s="96" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" s="97"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10981,12 +10896,12 @@
     </row>
     <row r="107" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A107" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B107" s="76" t="s">
-        <v>184</v>
-      </c>
-      <c r="C107" s="77"/>
+        <v>177</v>
+      </c>
+      <c r="B107" s="96" t="s">
+        <v>178</v>
+      </c>
+      <c r="C107" s="97"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11064,12 +10979,12 @@
     </row>
     <row r="108" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A108" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B108" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="C108" s="74"/>
+        <v>179</v>
+      </c>
+      <c r="B108" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C108" s="97"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11147,12 +11062,12 @@
     </row>
     <row r="109" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A109" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B109" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="C109" s="75"/>
+        <v>181</v>
+      </c>
+      <c r="B109" s="96" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" s="97"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11230,12 +11145,12 @@
     </row>
     <row r="110" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A110" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B110" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="C110" s="75"/>
+        <v>183</v>
+      </c>
+      <c r="B110" s="91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C110" s="91"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11313,12 +11228,12 @@
     </row>
     <row r="111" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A111" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B111" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="C111" s="75"/>
+        <v>185</v>
+      </c>
+      <c r="B111" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="C111" s="100"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11396,12 +11311,12 @@
     </row>
     <row r="112" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A112" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B112" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="C112" s="75"/>
+        <v>187</v>
+      </c>
+      <c r="B112" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="C112" s="100"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11479,12 +11394,12 @@
     </row>
     <row r="113" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A113" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B113" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C113" s="75"/>
+      <c r="B113" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" s="100"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11562,12 +11477,12 @@
     </row>
     <row r="114" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A114" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B114" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="C114" s="75"/>
+        <v>189</v>
+      </c>
+      <c r="B114" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="100"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11645,12 +11560,12 @@
     </row>
     <row r="115" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A115" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B115" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="C115" s="75"/>
+        <v>190</v>
+      </c>
+      <c r="B115" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="C115" s="100"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11728,12 +11643,12 @@
     </row>
     <row r="116" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A116" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B116" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="C116" s="74"/>
+        <v>191</v>
+      </c>
+      <c r="B116" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="C116" s="100"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11811,12 +11726,12 @@
     </row>
     <row r="117" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A117" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="B117" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="C117" s="74"/>
+        <v>192</v>
+      </c>
+      <c r="B117" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="C117" s="100"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11892,14 +11807,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:30" s="10" customFormat="1" ht="38.25" customHeight="1">
+    <row r="118" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A118" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B118" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="C118" s="74"/>
+        <v>193</v>
+      </c>
+      <c r="B118" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" s="91"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11977,12 +11892,12 @@
     </row>
     <row r="119" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A119" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B119" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="C119" s="74"/>
+        <v>195</v>
+      </c>
+      <c r="B119" s="91" t="s">
+        <v>196</v>
+      </c>
+      <c r="C119" s="91"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12058,14 +11973,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
+    <row r="120" spans="1:30" s="10" customFormat="1" ht="38.25" customHeight="1">
       <c r="A120" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B120" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="C120" s="74"/>
+        <v>197</v>
+      </c>
+      <c r="B120" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="C120" s="91"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12143,12 +12058,12 @@
     </row>
     <row r="121" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A121" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B121" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="C121" s="74"/>
+        <v>199</v>
+      </c>
+      <c r="B121" s="91" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121" s="91"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12226,12 +12141,12 @@
     </row>
     <row r="122" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A122" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B122" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="C122" s="74"/>
+        <v>201</v>
+      </c>
+      <c r="B122" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="C122" s="91"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12309,12 +12224,12 @@
     </row>
     <row r="123" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A123" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B123" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="C123" s="74"/>
+        <v>203</v>
+      </c>
+      <c r="B123" s="91" t="s">
+        <v>204</v>
+      </c>
+      <c r="C123" s="91"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12392,12 +12307,12 @@
     </row>
     <row r="124" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A124" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="B124" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="C124" s="74"/>
+        <v>205</v>
+      </c>
+      <c r="B124" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="C124" s="91"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12475,12 +12390,12 @@
     </row>
     <row r="125" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A125" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B125" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="C125" s="74"/>
+        <v>207</v>
+      </c>
+      <c r="B125" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="C125" s="91"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12558,12 +12473,12 @@
     </row>
     <row r="126" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A126" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B126" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="C126" s="74"/>
+        <v>209</v>
+      </c>
+      <c r="B126" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="C126" s="91"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12641,12 +12556,12 @@
     </row>
     <row r="127" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A127" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B127" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="C127" s="74"/>
+        <v>211</v>
+      </c>
+      <c r="B127" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="C127" s="91"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12724,12 +12639,12 @@
     </row>
     <row r="128" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A128" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B128" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C128" s="74"/>
+        <v>213</v>
+      </c>
+      <c r="B128" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="C128" s="91"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12807,12 +12722,12 @@
     </row>
     <row r="129" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A129" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B129" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="C129" s="74"/>
+        <v>215</v>
+      </c>
+      <c r="B129" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="C129" s="91"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12890,12 +12805,12 @@
     </row>
     <row r="130" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A130" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B130" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="C130" s="74"/>
+        <v>217</v>
+      </c>
+      <c r="B130" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="C130" s="91"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12973,12 +12888,12 @@
     </row>
     <row r="131" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A131" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B131" s="74" t="s">
-        <v>226</v>
-      </c>
-      <c r="C131" s="74"/>
+        <v>219</v>
+      </c>
+      <c r="B131" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" s="91"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
       <c r="F131" s="34" t="s">
@@ -13054,16 +12969,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
+    <row r="132" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A132" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="B132" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="C132" s="73"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="34"/>
+        <v>221</v>
+      </c>
+      <c r="B132" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="C132" s="91"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="43"/>
       <c r="F132" s="34" t="s">
         <v>15</v>
       </c>
@@ -13112,7 +13027,6 @@
       <c r="U132" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V132" s="10"/>
       <c r="W132" s="40" t="s">
         <v>15</v>
       </c>
@@ -13137,328 +13051,441 @@
       <c r="AD132" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AE132" s="10"/>
-      <c r="AF132" s="10"/>
-      <c r="AG132" s="10"/>
-      <c r="AH132" s="10"/>
-      <c r="AI132" s="10"/>
-      <c r="AJ132" s="10"/>
-      <c r="AK132" s="10"/>
-      <c r="AL132" s="10"/>
-      <c r="AM132" s="10"/>
-      <c r="AN132" s="10"/>
-      <c r="AO132" s="10"/>
-      <c r="AP132" s="10"/>
-      <c r="AQ132" s="10"/>
-      <c r="AR132" s="10"/>
-      <c r="AS132" s="10"/>
-      <c r="AT132" s="10"/>
-      <c r="AU132" s="10"/>
-      <c r="AV132" s="10"/>
-      <c r="AW132" s="10"/>
-      <c r="AX132" s="10"/>
-      <c r="AY132" s="10"/>
-      <c r="AZ132" s="10"/>
-      <c r="BA132" s="10"/>
-      <c r="BB132" s="10"/>
-      <c r="BC132" s="10"/>
-      <c r="BD132" s="10"/>
-      <c r="BE132" s="10"/>
-      <c r="BF132" s="10"/>
-      <c r="BG132" s="10"/>
-      <c r="BH132" s="10"/>
-      <c r="BI132" s="10"/>
-      <c r="BJ132" s="10"/>
-      <c r="BK132" s="10"/>
-      <c r="BL132" s="10"/>
-      <c r="BM132" s="10"/>
-      <c r="BN132" s="10"/>
-      <c r="BO132" s="10"/>
-      <c r="BP132" s="10"/>
-      <c r="BQ132" s="10"/>
-      <c r="BR132" s="10"/>
-      <c r="BS132" s="10"/>
-      <c r="BT132" s="10"/>
-      <c r="BU132" s="10"/>
-      <c r="BV132" s="10"/>
-      <c r="BW132" s="10"/>
-      <c r="BX132" s="10"/>
-      <c r="BY132" s="10"/>
-      <c r="BZ132" s="10"/>
-      <c r="CA132" s="10"/>
-      <c r="CB132" s="10"/>
-      <c r="CC132" s="10"/>
-      <c r="CD132" s="10"/>
-      <c r="CE132" s="10"/>
-      <c r="CF132" s="10"/>
-      <c r="CG132" s="10"/>
-      <c r="CH132" s="10"/>
-      <c r="CI132" s="10"/>
-      <c r="CJ132" s="10"/>
-      <c r="CK132" s="10"/>
-      <c r="CL132" s="10"/>
-      <c r="CM132" s="10"/>
-      <c r="CN132" s="10"/>
-      <c r="CO132" s="10"/>
-      <c r="CP132" s="10"/>
-      <c r="CQ132" s="10"/>
-      <c r="CR132" s="10"/>
-      <c r="CS132" s="10"/>
-      <c r="CT132" s="10"/>
-      <c r="CU132" s="10"/>
-      <c r="CV132" s="10"/>
-      <c r="CW132" s="10"/>
-      <c r="CX132" s="10"/>
-      <c r="CY132" s="10"/>
-      <c r="CZ132" s="10"/>
-      <c r="DA132" s="10"/>
-      <c r="DB132" s="10"/>
-      <c r="DC132" s="10"/>
-      <c r="DD132" s="10"/>
-      <c r="DE132" s="10"/>
-      <c r="DF132" s="10"/>
-      <c r="DG132" s="10"/>
-      <c r="DH132" s="10"/>
-      <c r="DI132" s="10"/>
-      <c r="DJ132" s="10"/>
-      <c r="DK132" s="10"/>
-      <c r="DL132" s="10"/>
-      <c r="DM132" s="10"/>
-      <c r="DN132" s="10"/>
-      <c r="DO132" s="10"/>
-      <c r="DP132" s="10"/>
-      <c r="DQ132" s="10"/>
-      <c r="DR132" s="10"/>
-      <c r="DS132" s="10"/>
-      <c r="DT132" s="10"/>
-      <c r="DU132" s="10"/>
-      <c r="DV132" s="10"/>
-      <c r="DW132" s="10"/>
-      <c r="DX132" s="10"/>
-      <c r="DY132" s="10"/>
-      <c r="DZ132" s="10"/>
-      <c r="EA132" s="10"/>
-      <c r="EB132" s="10"/>
-      <c r="EC132" s="10"/>
-      <c r="ED132" s="10"/>
-      <c r="EE132" s="10"/>
-      <c r="EF132" s="10"/>
-      <c r="EG132" s="10"/>
-      <c r="EH132" s="10"/>
-      <c r="EI132" s="10"/>
-      <c r="EJ132" s="10"/>
-      <c r="EK132" s="10"/>
-      <c r="EL132" s="10"/>
-      <c r="EM132" s="10"/>
-      <c r="EN132" s="10"/>
-      <c r="EO132" s="10"/>
-      <c r="EP132" s="10"/>
-      <c r="EQ132" s="10"/>
-      <c r="ER132" s="10"/>
-      <c r="ES132" s="10"/>
-      <c r="ET132" s="10"/>
-      <c r="EU132" s="10"/>
-      <c r="EV132" s="10"/>
-      <c r="EW132" s="10"/>
-      <c r="EX132" s="10"/>
-      <c r="EY132" s="10"/>
-      <c r="EZ132" s="10"/>
-      <c r="FA132" s="10"/>
-      <c r="FB132" s="10"/>
-      <c r="FC132" s="10"/>
-      <c r="FD132" s="10"/>
-      <c r="FE132" s="10"/>
-      <c r="FF132" s="10"/>
-      <c r="FG132" s="10"/>
-      <c r="FH132" s="10"/>
-      <c r="FI132" s="10"/>
-      <c r="FJ132" s="10"/>
-      <c r="FK132" s="10"/>
-      <c r="FL132" s="10"/>
-      <c r="FM132" s="10"/>
-      <c r="FN132" s="10"/>
-      <c r="FO132" s="10"/>
-      <c r="FP132" s="10"/>
-      <c r="FQ132" s="10"/>
-      <c r="FR132" s="10"/>
-      <c r="FS132" s="10"/>
-      <c r="FT132" s="10"/>
-      <c r="FU132" s="10"/>
-      <c r="FV132" s="10"/>
-      <c r="FW132" s="10"/>
-      <c r="FX132" s="10"/>
-      <c r="FY132" s="10"/>
-      <c r="FZ132" s="10"/>
-      <c r="GA132" s="10"/>
-      <c r="GB132" s="10"/>
-      <c r="GC132" s="10"/>
-      <c r="GD132" s="10"/>
-      <c r="GE132" s="10"/>
-      <c r="GF132" s="10"/>
-      <c r="GG132" s="10"/>
-      <c r="GH132" s="10"/>
-      <c r="GI132" s="10"/>
-      <c r="GJ132" s="10"/>
-      <c r="GK132" s="10"/>
-      <c r="GL132" s="10"/>
-      <c r="GM132" s="10"/>
-      <c r="GN132" s="10"/>
-      <c r="GO132" s="10"/>
-      <c r="GP132" s="10"/>
-      <c r="GQ132" s="10"/>
-      <c r="GR132" s="10"/>
-      <c r="GS132" s="10"/>
-      <c r="GT132" s="10"/>
-      <c r="GU132" s="10"/>
-      <c r="GV132" s="10"/>
-      <c r="GW132" s="10"/>
-      <c r="GX132" s="10"/>
-      <c r="GY132" s="10"/>
-      <c r="GZ132" s="10"/>
-      <c r="HA132" s="10"/>
-      <c r="HB132" s="10"/>
-      <c r="HC132" s="10"/>
-      <c r="HD132" s="10"/>
-      <c r="HE132" s="10"/>
-      <c r="HF132" s="10"/>
-      <c r="HG132" s="10"/>
-      <c r="HH132" s="10"/>
-      <c r="HI132" s="10"/>
-      <c r="HJ132" s="10"/>
-      <c r="HK132" s="10"/>
-      <c r="HL132" s="10"/>
-      <c r="HM132" s="10"/>
-      <c r="HN132" s="10"/>
-      <c r="HO132" s="10"/>
-      <c r="HP132" s="10"/>
-      <c r="HQ132" s="10"/>
-      <c r="HR132" s="10"/>
-      <c r="HS132" s="10"/>
-      <c r="HT132" s="10"/>
-      <c r="HU132" s="10"/>
-      <c r="HV132" s="10"/>
-      <c r="HW132" s="10"/>
-      <c r="HX132" s="10"/>
-      <c r="HY132" s="10"/>
-      <c r="HZ132" s="10"/>
-      <c r="IA132" s="10"/>
-      <c r="IB132" s="10"/>
-      <c r="IC132" s="10"/>
-      <c r="ID132" s="10"/>
-      <c r="IE132" s="10"/>
-      <c r="IF132" s="10"/>
-      <c r="IG132" s="10"/>
-      <c r="IH132" s="10"/>
-      <c r="II132" s="10"/>
-      <c r="IJ132" s="10"/>
-      <c r="IK132" s="10"/>
-      <c r="IL132" s="10"/>
-      <c r="IM132" s="10"/>
-      <c r="IN132" s="10"/>
-      <c r="IO132" s="10"/>
-      <c r="IP132" s="10"/>
-      <c r="IQ132" s="10"/>
-      <c r="IR132" s="10"/>
-      <c r="IS132" s="10"/>
-      <c r="IT132" s="10"/>
-      <c r="IU132" s="10"/>
-    </row>
-    <row r="133" spans="1:255" s="10" customFormat="1">
-      <c r="A133" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="B133" s="26"/>
-      <c r="C133" s="49"/>
-      <c r="D133" s="50"/>
-      <c r="F133" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="H133" s="52"/>
-      <c r="I133" s="53"/>
-      <c r="J133" s="53"/>
-      <c r="K133" s="53"/>
-      <c r="L133" s="54"/>
-      <c r="M133" s="54"/>
-      <c r="N133" s="54"/>
-      <c r="O133" s="54"/>
-      <c r="P133" s="55"/>
-      <c r="Q133" s="54"/>
-      <c r="R133" s="54"/>
-      <c r="T133" s="56"/>
-      <c r="AP133" s="57"/>
-      <c r="AQ133" s="57"/>
-      <c r="AR133" s="57"/>
-      <c r="AS133" s="57"/>
-      <c r="AT133" s="57"/>
-      <c r="AU133" s="57"/>
-      <c r="AV133" s="57"/>
-      <c r="AW133" s="57"/>
-    </row>
-    <row r="134" spans="1:255" s="10" customFormat="1">
-      <c r="A134" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="B134" s="59"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="59"/>
-      <c r="E134" s="59"/>
-      <c r="F134" s="59"/>
-      <c r="G134" s="59"/>
-      <c r="H134" s="61"/>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
-      <c r="K134" s="54"/>
-      <c r="L134" s="54"/>
-      <c r="M134" s="54"/>
-      <c r="N134" s="54"/>
-      <c r="O134" s="54"/>
-      <c r="AM134" s="57"/>
-      <c r="AN134" s="57"/>
-      <c r="AO134" s="57"/>
-      <c r="AP134" s="57"/>
-      <c r="AQ134" s="57"/>
-      <c r="AR134" s="57"/>
-      <c r="AS134" s="57"/>
-      <c r="AT134" s="57"/>
+    </row>
+    <row r="133" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
+      <c r="A133" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B133" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="C133" s="91"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="T133" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="U133" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="W133" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="X133" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y133" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z133" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA133" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB133" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC133" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD133" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
+      <c r="A134" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B134" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="C134" s="88"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
+      <c r="F134" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="T134" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="U134" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="V134" s="10"/>
+      <c r="W134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="X134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE134" s="10"/>
+      <c r="AF134" s="10"/>
+      <c r="AG134" s="10"/>
+      <c r="AH134" s="10"/>
+      <c r="AI134" s="10"/>
+      <c r="AJ134" s="10"/>
+      <c r="AK134" s="10"/>
+      <c r="AL134" s="10"/>
+      <c r="AM134" s="10"/>
+      <c r="AN134" s="10"/>
+      <c r="AO134" s="10"/>
+      <c r="AP134" s="10"/>
+      <c r="AQ134" s="10"/>
+      <c r="AR134" s="10"/>
+      <c r="AS134" s="10"/>
+      <c r="AT134" s="10"/>
+      <c r="AU134" s="10"/>
+      <c r="AV134" s="10"/>
+      <c r="AW134" s="10"/>
+      <c r="AX134" s="10"/>
+      <c r="AY134" s="10"/>
+      <c r="AZ134" s="10"/>
+      <c r="BA134" s="10"/>
+      <c r="BB134" s="10"/>
+      <c r="BC134" s="10"/>
+      <c r="BD134" s="10"/>
+      <c r="BE134" s="10"/>
+      <c r="BF134" s="10"/>
+      <c r="BG134" s="10"/>
+      <c r="BH134" s="10"/>
+      <c r="BI134" s="10"/>
+      <c r="BJ134" s="10"/>
+      <c r="BK134" s="10"/>
+      <c r="BL134" s="10"/>
+      <c r="BM134" s="10"/>
+      <c r="BN134" s="10"/>
+      <c r="BO134" s="10"/>
+      <c r="BP134" s="10"/>
+      <c r="BQ134" s="10"/>
+      <c r="BR134" s="10"/>
+      <c r="BS134" s="10"/>
+      <c r="BT134" s="10"/>
+      <c r="BU134" s="10"/>
+      <c r="BV134" s="10"/>
+      <c r="BW134" s="10"/>
+      <c r="BX134" s="10"/>
+      <c r="BY134" s="10"/>
+      <c r="BZ134" s="10"/>
+      <c r="CA134" s="10"/>
+      <c r="CB134" s="10"/>
+      <c r="CC134" s="10"/>
+      <c r="CD134" s="10"/>
+      <c r="CE134" s="10"/>
+      <c r="CF134" s="10"/>
+      <c r="CG134" s="10"/>
+      <c r="CH134" s="10"/>
+      <c r="CI134" s="10"/>
+      <c r="CJ134" s="10"/>
+      <c r="CK134" s="10"/>
+      <c r="CL134" s="10"/>
+      <c r="CM134" s="10"/>
+      <c r="CN134" s="10"/>
+      <c r="CO134" s="10"/>
+      <c r="CP134" s="10"/>
+      <c r="CQ134" s="10"/>
+      <c r="CR134" s="10"/>
+      <c r="CS134" s="10"/>
+      <c r="CT134" s="10"/>
+      <c r="CU134" s="10"/>
+      <c r="CV134" s="10"/>
+      <c r="CW134" s="10"/>
+      <c r="CX134" s="10"/>
+      <c r="CY134" s="10"/>
+      <c r="CZ134" s="10"/>
+      <c r="DA134" s="10"/>
+      <c r="DB134" s="10"/>
+      <c r="DC134" s="10"/>
+      <c r="DD134" s="10"/>
+      <c r="DE134" s="10"/>
+      <c r="DF134" s="10"/>
+      <c r="DG134" s="10"/>
+      <c r="DH134" s="10"/>
+      <c r="DI134" s="10"/>
+      <c r="DJ134" s="10"/>
+      <c r="DK134" s="10"/>
+      <c r="DL134" s="10"/>
+      <c r="DM134" s="10"/>
+      <c r="DN134" s="10"/>
+      <c r="DO134" s="10"/>
+      <c r="DP134" s="10"/>
+      <c r="DQ134" s="10"/>
+      <c r="DR134" s="10"/>
+      <c r="DS134" s="10"/>
+      <c r="DT134" s="10"/>
+      <c r="DU134" s="10"/>
+      <c r="DV134" s="10"/>
+      <c r="DW134" s="10"/>
+      <c r="DX134" s="10"/>
+      <c r="DY134" s="10"/>
+      <c r="DZ134" s="10"/>
+      <c r="EA134" s="10"/>
+      <c r="EB134" s="10"/>
+      <c r="EC134" s="10"/>
+      <c r="ED134" s="10"/>
+      <c r="EE134" s="10"/>
+      <c r="EF134" s="10"/>
+      <c r="EG134" s="10"/>
+      <c r="EH134" s="10"/>
+      <c r="EI134" s="10"/>
+      <c r="EJ134" s="10"/>
+      <c r="EK134" s="10"/>
+      <c r="EL134" s="10"/>
+      <c r="EM134" s="10"/>
+      <c r="EN134" s="10"/>
+      <c r="EO134" s="10"/>
+      <c r="EP134" s="10"/>
+      <c r="EQ134" s="10"/>
+      <c r="ER134" s="10"/>
+      <c r="ES134" s="10"/>
+      <c r="ET134" s="10"/>
+      <c r="EU134" s="10"/>
+      <c r="EV134" s="10"/>
+      <c r="EW134" s="10"/>
+      <c r="EX134" s="10"/>
+      <c r="EY134" s="10"/>
+      <c r="EZ134" s="10"/>
+      <c r="FA134" s="10"/>
+      <c r="FB134" s="10"/>
+      <c r="FC134" s="10"/>
+      <c r="FD134" s="10"/>
+      <c r="FE134" s="10"/>
+      <c r="FF134" s="10"/>
+      <c r="FG134" s="10"/>
+      <c r="FH134" s="10"/>
+      <c r="FI134" s="10"/>
+      <c r="FJ134" s="10"/>
+      <c r="FK134" s="10"/>
+      <c r="FL134" s="10"/>
+      <c r="FM134" s="10"/>
+      <c r="FN134" s="10"/>
+      <c r="FO134" s="10"/>
+      <c r="FP134" s="10"/>
+      <c r="FQ134" s="10"/>
+      <c r="FR134" s="10"/>
+      <c r="FS134" s="10"/>
+      <c r="FT134" s="10"/>
+      <c r="FU134" s="10"/>
+      <c r="FV134" s="10"/>
+      <c r="FW134" s="10"/>
+      <c r="FX134" s="10"/>
+      <c r="FY134" s="10"/>
+      <c r="FZ134" s="10"/>
+      <c r="GA134" s="10"/>
+      <c r="GB134" s="10"/>
+      <c r="GC134" s="10"/>
+      <c r="GD134" s="10"/>
+      <c r="GE134" s="10"/>
+      <c r="GF134" s="10"/>
+      <c r="GG134" s="10"/>
+      <c r="GH134" s="10"/>
+      <c r="GI134" s="10"/>
+      <c r="GJ134" s="10"/>
+      <c r="GK134" s="10"/>
+      <c r="GL134" s="10"/>
+      <c r="GM134" s="10"/>
+      <c r="GN134" s="10"/>
+      <c r="GO134" s="10"/>
+      <c r="GP134" s="10"/>
+      <c r="GQ134" s="10"/>
+      <c r="GR134" s="10"/>
+      <c r="GS134" s="10"/>
+      <c r="GT134" s="10"/>
+      <c r="GU134" s="10"/>
+      <c r="GV134" s="10"/>
+      <c r="GW134" s="10"/>
+      <c r="GX134" s="10"/>
+      <c r="GY134" s="10"/>
+      <c r="GZ134" s="10"/>
+      <c r="HA134" s="10"/>
+      <c r="HB134" s="10"/>
+      <c r="HC134" s="10"/>
+      <c r="HD134" s="10"/>
+      <c r="HE134" s="10"/>
+      <c r="HF134" s="10"/>
+      <c r="HG134" s="10"/>
+      <c r="HH134" s="10"/>
+      <c r="HI134" s="10"/>
+      <c r="HJ134" s="10"/>
+      <c r="HK134" s="10"/>
+      <c r="HL134" s="10"/>
+      <c r="HM134" s="10"/>
+      <c r="HN134" s="10"/>
+      <c r="HO134" s="10"/>
+      <c r="HP134" s="10"/>
+      <c r="HQ134" s="10"/>
+      <c r="HR134" s="10"/>
+      <c r="HS134" s="10"/>
+      <c r="HT134" s="10"/>
+      <c r="HU134" s="10"/>
+      <c r="HV134" s="10"/>
+      <c r="HW134" s="10"/>
+      <c r="HX134" s="10"/>
+      <c r="HY134" s="10"/>
+      <c r="HZ134" s="10"/>
+      <c r="IA134" s="10"/>
+      <c r="IB134" s="10"/>
+      <c r="IC134" s="10"/>
+      <c r="ID134" s="10"/>
+      <c r="IE134" s="10"/>
+      <c r="IF134" s="10"/>
+      <c r="IG134" s="10"/>
+      <c r="IH134" s="10"/>
+      <c r="II134" s="10"/>
+      <c r="IJ134" s="10"/>
+      <c r="IK134" s="10"/>
+      <c r="IL134" s="10"/>
+      <c r="IM134" s="10"/>
+      <c r="IN134" s="10"/>
+      <c r="IO134" s="10"/>
+      <c r="IP134" s="10"/>
+      <c r="IQ134" s="10"/>
+      <c r="IR134" s="10"/>
+      <c r="IS134" s="10"/>
+      <c r="IT134" s="10"/>
+      <c r="IU134" s="10"/>
     </row>
     <row r="135" spans="1:255" s="10" customFormat="1">
-      <c r="A135" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="B135" s="59"/>
-      <c r="C135" s="60"/>
-      <c r="D135" s="59"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="59"/>
-      <c r="G135" s="59"/>
-      <c r="H135" s="61"/>
-      <c r="I135" s="54"/>
-      <c r="J135" s="54"/>
-      <c r="K135" s="54"/>
+      <c r="A135" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B135" s="26"/>
+      <c r="C135" s="49"/>
+      <c r="D135" s="50"/>
+      <c r="F135" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="H135" s="52"/>
+      <c r="I135" s="53"/>
+      <c r="J135" s="53"/>
+      <c r="K135" s="53"/>
       <c r="L135" s="54"/>
       <c r="M135" s="54"/>
       <c r="N135" s="54"/>
       <c r="O135" s="54"/>
-      <c r="AM135" s="57"/>
-      <c r="AN135" s="57"/>
-      <c r="AO135" s="57"/>
+      <c r="P135" s="55"/>
+      <c r="Q135" s="54"/>
+      <c r="R135" s="54"/>
+      <c r="T135" s="56"/>
       <c r="AP135" s="57"/>
       <c r="AQ135" s="57"/>
       <c r="AR135" s="57"/>
       <c r="AS135" s="57"/>
       <c r="AT135" s="57"/>
+      <c r="AU135" s="57"/>
+      <c r="AV135" s="57"/>
+      <c r="AW135" s="57"/>
     </row>
     <row r="136" spans="1:255" s="10" customFormat="1">
-      <c r="A136" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="B136" s="62"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="62"/>
+      <c r="A136" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B136" s="59"/>
+      <c r="C136" s="60"/>
+      <c r="D136" s="59"/>
       <c r="E136" s="59"/>
       <c r="F136" s="59"/>
       <c r="G136" s="59"/>
-      <c r="H136" s="63"/>
+      <c r="H136" s="61"/>
       <c r="I136" s="54"/>
       <c r="J136" s="54"/>
       <c r="K136" s="54"/>
@@ -13475,17 +13502,17 @@
       <c r="AS136" s="57"/>
       <c r="AT136" s="57"/>
     </row>
-    <row r="137" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A137" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="B137" s="62"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="62"/>
+    <row r="137" spans="1:255" s="10" customFormat="1">
+      <c r="A137" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="B137" s="59"/>
+      <c r="C137" s="60"/>
+      <c r="D137" s="59"/>
       <c r="E137" s="59"/>
       <c r="F137" s="59"/>
       <c r="G137" s="59"/>
-      <c r="H137" s="63"/>
+      <c r="H137" s="61"/>
       <c r="I137" s="54"/>
       <c r="J137" s="54"/>
       <c r="K137" s="54"/>
@@ -13502,9 +13529,9 @@
       <c r="AS137" s="57"/>
       <c r="AT137" s="57"/>
     </row>
-    <row r="138" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A138" s="58" t="s">
-        <v>247</v>
+    <row r="138" spans="1:255" s="10" customFormat="1">
+      <c r="A138" s="71" t="s">
+        <v>228</v>
       </c>
       <c r="B138" s="62"/>
       <c r="C138" s="1"/>
@@ -13530,8 +13557,8 @@
       <c r="AT138" s="57"/>
     </row>
     <row r="139" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A139" s="58" t="s">
-        <v>232</v>
+      <c r="A139" s="71" t="s">
+        <v>229</v>
       </c>
       <c r="B139" s="62"/>
       <c r="C139" s="1"/>
@@ -13558,7 +13585,7 @@
     </row>
     <row r="140" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A140" s="58" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B140" s="62"/>
       <c r="C140" s="1"/>
@@ -13585,7 +13612,7 @@
     </row>
     <row r="141" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="58" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B141" s="62"/>
       <c r="C141" s="1"/>
@@ -13612,7 +13639,7 @@
     </row>
     <row r="142" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="58" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B142" s="62"/>
       <c r="C142" s="1"/>
@@ -13639,7 +13666,7 @@
     </row>
     <row r="143" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="58" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B143" s="62"/>
       <c r="C143" s="1"/>
@@ -13666,7 +13693,7 @@
     </row>
     <row r="144" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A144" s="58" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B144" s="62"/>
       <c r="C144" s="1"/>
@@ -13691,17 +13718,17 @@
       <c r="AS144" s="57"/>
       <c r="AT144" s="57"/>
     </row>
-    <row r="145" spans="1:46">
-      <c r="A145" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="B145" s="59"/>
-      <c r="C145" s="60"/>
-      <c r="D145" s="59"/>
+    <row r="145" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A145" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="B145" s="62"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="62"/>
       <c r="E145" s="59"/>
       <c r="F145" s="59"/>
       <c r="G145" s="59"/>
-      <c r="H145" s="61"/>
+      <c r="H145" s="63"/>
       <c r="I145" s="54"/>
       <c r="J145" s="54"/>
       <c r="K145" s="54"/>
@@ -13709,45 +13736,49 @@
       <c r="M145" s="54"/>
       <c r="N145" s="54"/>
       <c r="O145" s="54"/>
-      <c r="P145" s="10"/>
-      <c r="Q145" s="10"/>
-      <c r="R145" s="10"/>
-      <c r="S145"/>
-    </row>
-    <row r="146" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="A146" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="B146" s="59"/>
-      <c r="C146" s="60"/>
-      <c r="D146" s="59"/>
+      <c r="AM145" s="57"/>
+      <c r="AN145" s="57"/>
+      <c r="AO145" s="57"/>
+      <c r="AP145" s="57"/>
+      <c r="AQ145" s="57"/>
+      <c r="AR145" s="57"/>
+      <c r="AS145" s="57"/>
+      <c r="AT145" s="57"/>
+    </row>
+    <row r="146" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A146" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="B146" s="62"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="62"/>
       <c r="E146" s="59"/>
       <c r="F146" s="59"/>
-      <c r="G146" s="64"/>
+      <c r="G146" s="59"/>
       <c r="H146" s="63"/>
-      <c r="I146" s="55"/>
-      <c r="J146" s="55"/>
-      <c r="K146" s="55"/>
-      <c r="L146" s="55"/>
-      <c r="M146" s="55"/>
-      <c r="N146" s="55"/>
-      <c r="O146" s="55"/>
-      <c r="AM146" s="65"/>
-      <c r="AN146" s="65"/>
-      <c r="AO146" s="65"/>
-      <c r="AP146" s="65"/>
-      <c r="AQ146" s="65"/>
-      <c r="AR146" s="65"/>
-      <c r="AS146" s="65"/>
-      <c r="AT146" s="65"/>
-    </row>
-    <row r="147" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="I146" s="54"/>
+      <c r="J146" s="54"/>
+      <c r="K146" s="54"/>
+      <c r="L146" s="54"/>
+      <c r="M146" s="54"/>
+      <c r="N146" s="54"/>
+      <c r="O146" s="54"/>
+      <c r="AM146" s="57"/>
+      <c r="AN146" s="57"/>
+      <c r="AO146" s="57"/>
+      <c r="AP146" s="57"/>
+      <c r="AQ146" s="57"/>
+      <c r="AR146" s="57"/>
+      <c r="AS146" s="57"/>
+      <c r="AT146" s="57"/>
+    </row>
+    <row r="147" spans="1:46">
       <c r="A147" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="B147" s="66"/>
-      <c r="C147" s="67"/>
-      <c r="D147" s="68"/>
+        <v>243</v>
+      </c>
+      <c r="B147" s="59"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="59"/>
       <c r="E147" s="59"/>
       <c r="F147" s="59"/>
       <c r="G147" s="59"/>
@@ -13759,25 +13790,21 @@
       <c r="M147" s="54"/>
       <c r="N147" s="54"/>
       <c r="O147" s="54"/>
-      <c r="AM147" s="57"/>
-      <c r="AN147" s="57"/>
-      <c r="AO147" s="57"/>
-      <c r="AP147" s="57"/>
-      <c r="AQ147" s="57"/>
-      <c r="AR147" s="57"/>
-      <c r="AS147" s="57"/>
-      <c r="AT147" s="57"/>
+      <c r="P147" s="10"/>
+      <c r="Q147" s="10"/>
+      <c r="R147" s="10"/>
+      <c r="S147"/>
     </row>
     <row r="148" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A148" s="71" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B148" s="59"/>
       <c r="C148" s="60"/>
       <c r="D148" s="59"/>
       <c r="E148" s="59"/>
       <c r="F148" s="59"/>
-      <c r="G148" s="59"/>
+      <c r="G148" s="64"/>
       <c r="H148" s="63"/>
       <c r="I148" s="55"/>
       <c r="J148" s="55"/>
@@ -13797,11 +13824,11 @@
     </row>
     <row r="149" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A149" s="71" t="s">
-        <v>241</v>
-      </c>
-      <c r="B149" s="59"/>
-      <c r="C149" s="60"/>
-      <c r="D149" s="59"/>
+        <v>236</v>
+      </c>
+      <c r="B149" s="66"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="68"/>
       <c r="E149" s="59"/>
       <c r="F149" s="59"/>
       <c r="G149" s="59"/>
@@ -13822,9 +13849,9 @@
       <c r="AS149" s="57"/>
       <c r="AT149" s="57"/>
     </row>
-    <row r="150" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+    <row r="150" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A150" s="71" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B150" s="59"/>
       <c r="C150" s="60"/>
@@ -13832,34 +13859,76 @@
       <c r="E150" s="59"/>
       <c r="F150" s="59"/>
       <c r="G150" s="59"/>
-      <c r="H150" s="61"/>
-      <c r="I150" s="54"/>
-      <c r="J150" s="54"/>
-      <c r="K150" s="54"/>
-      <c r="L150" s="54"/>
-      <c r="M150" s="54"/>
-      <c r="N150" s="54"/>
-      <c r="O150" s="54"/>
-      <c r="AM150" s="57"/>
-      <c r="AN150" s="57"/>
-      <c r="AO150" s="57"/>
-      <c r="AP150" s="57"/>
-      <c r="AQ150" s="57"/>
-      <c r="AR150" s="57"/>
-      <c r="AS150" s="57"/>
-      <c r="AT150" s="57"/>
-    </row>
-    <row r="151" spans="1:46">
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="69"/>
-    </row>
-    <row r="152" spans="1:46">
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="69"/>
+      <c r="H150" s="63"/>
+      <c r="I150" s="55"/>
+      <c r="J150" s="55"/>
+      <c r="K150" s="55"/>
+      <c r="L150" s="55"/>
+      <c r="M150" s="55"/>
+      <c r="N150" s="55"/>
+      <c r="O150" s="55"/>
+      <c r="AM150" s="65"/>
+      <c r="AN150" s="65"/>
+      <c r="AO150" s="65"/>
+      <c r="AP150" s="65"/>
+      <c r="AQ150" s="65"/>
+      <c r="AR150" s="65"/>
+      <c r="AS150" s="65"/>
+      <c r="AT150" s="65"/>
+    </row>
+    <row r="151" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A151" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="B151" s="59"/>
+      <c r="C151" s="60"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="59"/>
+      <c r="H151" s="61"/>
+      <c r="I151" s="54"/>
+      <c r="J151" s="54"/>
+      <c r="K151" s="54"/>
+      <c r="L151" s="54"/>
+      <c r="M151" s="54"/>
+      <c r="N151" s="54"/>
+      <c r="O151" s="54"/>
+      <c r="AM151" s="57"/>
+      <c r="AN151" s="57"/>
+      <c r="AO151" s="57"/>
+      <c r="AP151" s="57"/>
+      <c r="AQ151" s="57"/>
+      <c r="AR151" s="57"/>
+      <c r="AS151" s="57"/>
+      <c r="AT151" s="57"/>
+    </row>
+    <row r="152" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A152" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="B152" s="59"/>
+      <c r="C152" s="60"/>
+      <c r="D152" s="59"/>
+      <c r="E152" s="59"/>
+      <c r="F152" s="59"/>
+      <c r="G152" s="59"/>
+      <c r="H152" s="61"/>
+      <c r="I152" s="54"/>
+      <c r="J152" s="54"/>
+      <c r="K152" s="54"/>
+      <c r="L152" s="54"/>
+      <c r="M152" s="54"/>
+      <c r="N152" s="54"/>
+      <c r="O152" s="54"/>
+      <c r="AM152" s="57"/>
+      <c r="AN152" s="57"/>
+      <c r="AO152" s="57"/>
+      <c r="AP152" s="57"/>
+      <c r="AQ152" s="57"/>
+      <c r="AR152" s="57"/>
+      <c r="AS152" s="57"/>
+      <c r="AT152" s="57"/>
     </row>
     <row r="153" spans="1:46">
       <c r="D153" s="1"/>
@@ -14228,13 +14297,19 @@
       <c r="G213" s="69"/>
     </row>
     <row r="214" spans="4:7">
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="69"/>
     </row>
     <row r="215" spans="4:7">
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
       <c r="G215" s="69"/>
     </row>
     <row r="216" spans="4:7">
+      <c r="F216" s="1"/>
       <c r="G216" s="69"/>
     </row>
     <row r="217" spans="4:7">
@@ -14243,11 +14318,11 @@
     <row r="218" spans="4:7">
       <c r="G218" s="69"/>
     </row>
-    <row r="223" spans="4:7">
-      <c r="G223"/>
-    </row>
-    <row r="224" spans="4:7">
-      <c r="G224"/>
+    <row r="219" spans="4:7">
+      <c r="G219" s="69"/>
+    </row>
+    <row r="220" spans="4:7">
+      <c r="G220" s="69"/>
     </row>
     <row r="225" spans="7:7">
       <c r="G225"/>
@@ -14351,8 +14426,144 @@
     <row r="258" spans="7:7">
       <c r="G258"/>
     </row>
+    <row r="259" spans="7:7">
+      <c r="G259"/>
+    </row>
+    <row r="260" spans="7:7">
+      <c r="G260"/>
+    </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="144">
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14367,134 +14578,6 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14503,8 +14586,9 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;20&amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="99" max="20" man="1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="82" max="16383" man="1"/>
+    <brk id="101" max="20" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD942957-AF93-430B-859D-012B07C00211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D8EF3C-0D80-42D0-A358-DD9E2BAEBBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="5685" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a week" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier">"'24a7b5fc-9de7-4bbf-a971-8358f80d3098'"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'a week'!$A$1:$U$152</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'a week'!$A$1:$U$150</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'a week'!$A:$E,'a week'!$1:$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="258">
   <si>
     <t>重要農產品價格日報表</t>
   </si>
@@ -456,6 +456,9 @@
     <t>41-1</t>
   </si>
   <si>
+    <t>世紀梨</t>
+  </si>
+  <si>
     <t>41-2</t>
   </si>
   <si>
@@ -534,6 +537,9 @@
   </si>
   <si>
     <t>53</t>
+  </si>
+  <si>
+    <t>愛文芒果</t>
   </si>
   <si>
     <t>54</t>
@@ -1049,6 +1055,9 @@
     <t xml:space="preserve">  之簡單平均)；竿採梅產地價格(國姓、六龜和甲仙等農會查報價格之簡單平均) —農產品價格查報，本會農糧署。</t>
   </si>
   <si>
+    <t>4.新興梨、豐水梨及甜柿交易量價(東勢果菜市場價格)－農產品行情報導，本會農糧署。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -1435,6 +1444,10 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
+    <t>珍珠芭</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
     <t>資料來源：</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1475,30 +1488,6 @@
   </si>
   <si>
     <t>(新增品項)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍珠芭(產地)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍珠芭(台北市場批發價)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>愛文芒果(產地)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>愛文芒果(台北市場批發價)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>寶島甘露梨</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.豐水梨、新興梨及寶島甘露梨交易量價(東勢果菜市場價格)－農產品行情報導，本會農糧署。</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -1875,7 +1864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2077,6 +2066,45 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2118,48 +2146,6 @@
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2571,11 +2557,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IU260"/>
+  <dimension ref="A1:IU258"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <pane ySplit="8" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2608,35 +2594,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2685,8 +2671,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2695,41 +2681,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="77" t="s">
+      <c r="T5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="77"/>
+      <c r="U5" s="90"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="91"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2741,36 +2727,36 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83" t="s">
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="M7" s="85" t="s">
+      <c r="L7" s="97" t="s">
+        <v>243</v>
+      </c>
+      <c r="M7" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="86" t="s">
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="86"/>
-      <c r="V7" s="87"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="84"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
@@ -2781,14 +2767,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2801,9 +2787,9 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="84"/>
+      <c r="L8" s="97"/>
       <c r="M8" s="30" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N8" s="30" t="s">
         <v>10</v>
@@ -2827,9 +2813,9 @@
         <v>11</v>
       </c>
       <c r="U8" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="V8" s="87"/>
+        <v>245</v>
+      </c>
+      <c r="V8" s="84"/>
       <c r="W8" s="32" t="s">
         <v>12</v>
       </c>
@@ -2859,13 +2845,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2942,13 +2928,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -3023,10 +3009,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="88"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3110,10 +3096,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="88"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3197,10 +3183,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="88"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3284,10 +3270,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="91"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3368,10 +3354,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="91"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3451,10 +3437,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="91"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3534,10 +3520,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="91"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3617,10 +3603,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="92"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3700,10 +3686,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="91"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3783,10 +3769,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="91"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3866,10 +3852,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="91"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3949,10 +3935,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="91"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -4032,10 +4018,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="91"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4115,10 +4101,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="91"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4198,10 +4184,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="92"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4281,10 +4267,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="91"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4364,10 +4350,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="91"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4447,10 +4433,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="91"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4530,10 +4516,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="92"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4614,10 +4600,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="92"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4698,10 +4684,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="91"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4781,10 +4767,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="91"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4864,10 +4850,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="91"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4948,10 +4934,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="91"/>
+      <c r="C34" s="74"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -5031,10 +5017,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="91"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5114,10 +5100,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="91"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5197,10 +5183,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="91"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5280,10 +5266,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="91"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5363,10 +5349,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="91"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5446,10 +5432,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="91"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5529,10 +5515,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="91" t="s">
+      <c r="B41" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="91"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5612,10 +5598,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="91"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5696,10 +5682,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="93"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5779,10 +5765,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="93" t="s">
+      <c r="B44" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="93"/>
+      <c r="C44" s="82"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5862,10 +5848,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="91"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5945,10 +5931,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="91" t="s">
+      <c r="B46" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="91"/>
+      <c r="C46" s="74"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -6028,10 +6014,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="91"/>
+      <c r="C47" s="74"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6111,10 +6097,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="91" t="s">
+      <c r="B48" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="91"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6194,10 +6180,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="91" t="s">
+      <c r="B49" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="91"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6277,10 +6263,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="91"/>
+      <c r="C50" s="74"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6360,10 +6346,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="91" t="s">
+      <c r="B51" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="91"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6443,10 +6429,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="91" t="s">
+      <c r="B52" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="91"/>
+      <c r="C52" s="74"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6526,10 +6512,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="91" t="s">
+      <c r="B53" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="91"/>
+      <c r="C53" s="74"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6609,10 +6595,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="91" t="s">
+      <c r="B54" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="91"/>
+      <c r="C54" s="74"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6692,10 +6678,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="91" t="s">
+      <c r="B55" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="91"/>
+      <c r="C55" s="74"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6775,10 +6761,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="C56" s="91"/>
+      <c r="B56" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="74"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6856,12 +6842,12 @@
     </row>
     <row r="57" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A57" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="91"/>
+        <v>101</v>
+      </c>
+      <c r="B57" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="74"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6939,12 +6925,12 @@
     </row>
     <row r="58" spans="1:30" s="44" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A58" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="91"/>
+        <v>102</v>
+      </c>
+      <c r="B58" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="74"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -7022,12 +7008,12 @@
     </row>
     <row r="59" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A59" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B59" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="91"/>
+      <c r="B59" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="74"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7105,12 +7091,12 @@
     </row>
     <row r="60" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A60" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="91"/>
+      <c r="B60" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="74"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7188,12 +7174,12 @@
     </row>
     <row r="61" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A61" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="91"/>
+      <c r="B61" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="74"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7271,12 +7257,12 @@
     </row>
     <row r="62" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A62" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="91"/>
+      <c r="B62" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="74"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7355,12 +7341,12 @@
     </row>
     <row r="63" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A63" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="C63" s="91"/>
+        <v>112</v>
+      </c>
+      <c r="B63" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" s="74"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7438,12 +7424,12 @@
     </row>
     <row r="64" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A64" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="91"/>
+      <c r="B64" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="74"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7522,12 +7508,12 @@
     </row>
     <row r="65" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A65" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="91"/>
+      <c r="B65" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="74"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7605,12 +7591,12 @@
     </row>
     <row r="66" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A66" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="91"/>
+      <c r="B66" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="74"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7689,12 +7675,12 @@
     </row>
     <row r="67" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A67" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B67" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="91"/>
+      <c r="B67" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="74"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7772,12 +7758,12 @@
     </row>
     <row r="68" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A68" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="91"/>
+      <c r="B68" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="74"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7855,12 +7841,12 @@
     </row>
     <row r="69" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A69" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="91"/>
+      <c r="B69" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="74"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7938,49 +7924,98 @@
       </c>
     </row>
     <row r="70" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A70" s="33"/>
-      <c r="B70" s="91" t="s">
-        <v>256</v>
-      </c>
-      <c r="C70" s="91"/>
+      <c r="A70" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="74"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="70"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="42"/>
-      <c r="W70" s="40"/>
-      <c r="X70" s="40"/>
-      <c r="Y70" s="40"/>
-      <c r="Z70" s="40"/>
-      <c r="AA70" s="40"/>
-      <c r="AB70" s="40"/>
-      <c r="AC70" s="40"/>
-      <c r="AD70" s="40"/>
+      <c r="F70" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S70" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="T70" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="U70" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="W70" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="X70" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y70" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z70" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA70" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB70" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC70" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD70" s="40" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="71" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A71" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" s="91" t="s">
-        <v>257</v>
-      </c>
-      <c r="C71" s="91"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
+        <v>127</v>
+      </c>
+      <c r="B71" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="80"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
       <c r="F71" s="34" t="s">
         <v>15</v>
       </c>
@@ -8029,6 +8064,7 @@
       <c r="U71" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="V71" s="42"/>
       <c r="W71" s="40" t="s">
         <v>15</v>
       </c>
@@ -8055,15 +8091,13 @@
       </c>
     </row>
     <row r="72" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A72" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B72" s="94" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="94"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="74"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
       <c r="F72" s="34" t="s">
         <v>15</v>
       </c>
@@ -8139,13 +8173,15 @@
       </c>
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A73" s="46"/>
-      <c r="B73" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="C73" s="91"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="81" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" s="81"/>
+      <c r="D73" s="81">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E73" s="81"/>
       <c r="F73" s="34" t="s">
         <v>15</v>
       </c>
@@ -8194,7 +8230,6 @@
       <c r="U73" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V73" s="42"/>
       <c r="W73" s="40" t="s">
         <v>15</v>
       </c>
@@ -8221,15 +8256,15 @@
       </c>
     </row>
     <row r="74" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A74" s="38"/>
-      <c r="B74" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C74" s="95"/>
-      <c r="D74" s="95">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E74" s="95"/>
+      <c r="A74" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="74"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
       <c r="F74" s="34" t="s">
         <v>15</v>
       </c>
@@ -8305,12 +8340,12 @@
     </row>
     <row r="75" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A75" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="91" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="91"/>
+        <v>132</v>
+      </c>
+      <c r="B75" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="74"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8387,16 +8422,14 @@
       </c>
     </row>
     <row r="76" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A76" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B76" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="C76" s="91"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="C76" s="74"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
-      <c r="F76" s="34" t="s">
+      <c r="F76" s="72" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="35" t="s">
@@ -8438,46 +8471,28 @@
       <c r="S76" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T76" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="U76" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="W76" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="X76" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y76" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z76" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA76" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB76" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC76" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD76" s="40" t="s">
-        <v>15</v>
-      </c>
+      <c r="T76" s="70"/>
+      <c r="U76" s="36"/>
+      <c r="W76" s="40"/>
+      <c r="X76" s="40"/>
+      <c r="Y76" s="40"/>
+      <c r="Z76" s="40"/>
+      <c r="AA76" s="40"/>
+      <c r="AB76" s="40"/>
+      <c r="AC76" s="40"/>
+      <c r="AD76" s="40"/>
     </row>
     <row r="77" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A77" s="33"/>
-      <c r="B77" s="91" t="s">
-        <v>252</v>
-      </c>
-      <c r="C77" s="91"/>
+      <c r="A77" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="74"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
-      <c r="F77" s="72" t="s">
+      <c r="F77" s="34" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="35" t="s">
@@ -8519,25 +8534,46 @@
       <c r="S77" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T77" s="70"/>
-      <c r="U77" s="36"/>
-      <c r="W77" s="40"/>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="40"/>
-      <c r="Z77" s="40"/>
-      <c r="AA77" s="40"/>
-      <c r="AB77" s="40"/>
-      <c r="AC77" s="40"/>
-      <c r="AD77" s="40"/>
+      <c r="T77" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="U77" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="V77" s="42"/>
+      <c r="W77" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="X77" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y77" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z77" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA77" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB77" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC77" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD77" s="40" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="78" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A78" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B78" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" s="91"/>
+      <c r="A78" s="33">
+        <v>0</v>
+      </c>
+      <c r="B78" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="74"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8588,7 +8624,6 @@
       <c r="U78" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V78" s="42"/>
       <c r="W78" s="40" t="s">
         <v>15</v>
       </c>
@@ -8615,13 +8650,13 @@
       </c>
     </row>
     <row r="79" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A79" s="33">
-        <v>0</v>
-      </c>
-      <c r="B79" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="91"/>
+      <c r="A79" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="74"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8699,12 +8734,12 @@
     </row>
     <row r="80" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A80" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B80" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="C80" s="91"/>
+        <v>139</v>
+      </c>
+      <c r="B80" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="74"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8782,12 +8817,12 @@
     </row>
     <row r="81" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A81" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B81" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="C81" s="91"/>
+        <v>141</v>
+      </c>
+      <c r="B81" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" s="74"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8864,46 +8899,96 @@
       </c>
     </row>
     <row r="82" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A82" s="33"/>
-      <c r="B82" s="91" t="s">
-        <v>254</v>
-      </c>
-      <c r="C82" s="91"/>
+      <c r="A82" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="74"/>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="70"/>
-      <c r="U82" s="36"/>
-      <c r="W82" s="40"/>
-      <c r="X82" s="40"/>
-      <c r="Y82" s="40"/>
-      <c r="Z82" s="40"/>
-      <c r="AA82" s="40"/>
-      <c r="AB82" s="40"/>
-      <c r="AC82" s="40"/>
-      <c r="AD82" s="40"/>
+      <c r="F82" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="T82" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="U82" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="W82" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="X82" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y82" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z82" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA82" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB82" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC82" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD82" s="40" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="83" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A83" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B83" s="91" t="s">
-        <v>255</v>
-      </c>
-      <c r="C83" s="91"/>
+        <v>144</v>
+      </c>
+      <c r="B83" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="74"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -8954,6 +9039,7 @@
       <c r="U83" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="V83" s="42"/>
       <c r="W83" s="40" t="s">
         <v>15</v>
       </c>
@@ -8981,12 +9067,12 @@
     </row>
     <row r="84" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A84" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B84" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="C84" s="91"/>
+        <v>146</v>
+      </c>
+      <c r="B84" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="74"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9037,6 +9123,7 @@
       <c r="U84" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="V84" s="42"/>
       <c r="W84" s="40" t="s">
         <v>15</v>
       </c>
@@ -9064,12 +9151,12 @@
     </row>
     <row r="85" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A85" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B85" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="C85" s="91"/>
+        <v>148</v>
+      </c>
+      <c r="B85" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="74"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9148,12 +9235,12 @@
     </row>
     <row r="86" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A86" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B86" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="C86" s="91"/>
+        <v>150</v>
+      </c>
+      <c r="B86" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="74"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9232,12 +9319,12 @@
     </row>
     <row r="87" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A87" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B87" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="C87" s="91"/>
+        <v>152</v>
+      </c>
+      <c r="B87" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" s="74"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9316,12 +9403,12 @@
     </row>
     <row r="88" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A88" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B88" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="C88" s="91"/>
+        <v>154</v>
+      </c>
+      <c r="B88" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="74"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9400,12 +9487,12 @@
     </row>
     <row r="89" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A89" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B89" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="C89" s="91"/>
+        <v>156</v>
+      </c>
+      <c r="B89" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="74"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9456,7 +9543,6 @@
       <c r="U89" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V89" s="42"/>
       <c r="W89" s="40" t="s">
         <v>15</v>
       </c>
@@ -9484,12 +9570,12 @@
     </row>
     <row r="90" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A90" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B90" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="C90" s="91"/>
+        <v>158</v>
+      </c>
+      <c r="B90" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="74"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9540,7 +9626,6 @@
       <c r="U90" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V90" s="42"/>
       <c r="W90" s="40" t="s">
         <v>15</v>
       </c>
@@ -9568,12 +9653,12 @@
     </row>
     <row r="91" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A91" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B91" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="C91" s="91"/>
+        <v>160</v>
+      </c>
+      <c r="B91" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="74"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9651,12 +9736,12 @@
     </row>
     <row r="92" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A92" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B92" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="C92" s="91"/>
+        <v>161</v>
+      </c>
+      <c r="B92" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" s="74"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9734,12 +9819,12 @@
     </row>
     <row r="93" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A93" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B93" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="C93" s="91"/>
+        <v>162</v>
+      </c>
+      <c r="B93" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="74"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9817,12 +9902,12 @@
     </row>
     <row r="94" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A94" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B94" s="91" t="s">
-        <v>253</v>
-      </c>
-      <c r="C94" s="91"/>
+        <v>163</v>
+      </c>
+      <c r="B94" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="74"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9900,12 +9985,12 @@
     </row>
     <row r="95" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A95" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B95" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="91"/>
+      <c r="C95" s="74"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -9983,12 +10068,12 @@
     </row>
     <row r="96" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A96" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B96" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="B96" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="91"/>
+      <c r="C96" s="74"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10066,12 +10151,12 @@
     </row>
     <row r="97" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A97" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B97" s="91" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="91"/>
+      <c r="C97" s="74"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10149,12 +10234,12 @@
     </row>
     <row r="98" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A98" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B98" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="91"/>
+      <c r="C98" s="74"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10232,12 +10317,12 @@
     </row>
     <row r="99" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A99" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B99" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="91"/>
+      <c r="C99" s="74"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10315,12 +10400,12 @@
     </row>
     <row r="100" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A100" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B100" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="C100" s="91"/>
+        <v>169</v>
+      </c>
+      <c r="B100" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="77"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10398,12 +10483,12 @@
     </row>
     <row r="101" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A101" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="B101" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="C101" s="91"/>
+        <v>171</v>
+      </c>
+      <c r="B101" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="77"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10481,12 +10566,12 @@
     </row>
     <row r="102" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A102" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B102" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="C102" s="97"/>
+        <v>173</v>
+      </c>
+      <c r="B102" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="79"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10564,12 +10649,12 @@
     </row>
     <row r="103" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A103" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B103" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="C103" s="97"/>
+        <v>175</v>
+      </c>
+      <c r="B103" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" s="77"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10647,12 +10732,12 @@
     </row>
     <row r="104" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A104" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B104" s="98" t="s">
-        <v>172</v>
-      </c>
-      <c r="C104" s="99"/>
+        <v>177</v>
+      </c>
+      <c r="B104" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="77"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10730,12 +10815,12 @@
     </row>
     <row r="105" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A105" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="B105" s="96" t="s">
-        <v>174</v>
-      </c>
-      <c r="C105" s="97"/>
+        <v>179</v>
+      </c>
+      <c r="B105" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" s="77"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10813,12 +10898,12 @@
     </row>
     <row r="106" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A106" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B106" s="96" t="s">
-        <v>176</v>
-      </c>
-      <c r="C106" s="97"/>
+        <v>181</v>
+      </c>
+      <c r="B106" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="C106" s="77"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10896,12 +10981,12 @@
     </row>
     <row r="107" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A107" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B107" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="C107" s="97"/>
+        <v>183</v>
+      </c>
+      <c r="B107" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C107" s="77"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -10979,12 +11064,12 @@
     </row>
     <row r="108" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A108" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B108" s="96" t="s">
-        <v>180</v>
-      </c>
-      <c r="C108" s="97"/>
+        <v>185</v>
+      </c>
+      <c r="B108" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" s="74"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11062,12 +11147,12 @@
     </row>
     <row r="109" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A109" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="B109" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="C109" s="97"/>
+        <v>187</v>
+      </c>
+      <c r="B109" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" s="75"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11145,12 +11230,12 @@
     </row>
     <row r="110" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A110" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B110" s="91" t="s">
-        <v>184</v>
-      </c>
-      <c r="C110" s="91"/>
+        <v>189</v>
+      </c>
+      <c r="B110" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C110" s="75"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11228,12 +11313,12 @@
     </row>
     <row r="111" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A111" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B111" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="C111" s="100"/>
+        <v>190</v>
+      </c>
+      <c r="B111" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" s="75"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11311,12 +11396,12 @@
     </row>
     <row r="112" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A112" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B112" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="C112" s="100"/>
+        <v>191</v>
+      </c>
+      <c r="B112" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C112" s="75"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11394,12 +11479,12 @@
     </row>
     <row r="113" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A113" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B113" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="B113" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="C113" s="100"/>
+      <c r="C113" s="75"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11477,12 +11562,12 @@
     </row>
     <row r="114" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A114" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B114" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="C114" s="100"/>
+        <v>193</v>
+      </c>
+      <c r="B114" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" s="75"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11560,12 +11645,12 @@
     </row>
     <row r="115" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A115" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B115" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="C115" s="100"/>
+        <v>194</v>
+      </c>
+      <c r="B115" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="75"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11643,12 +11728,12 @@
     </row>
     <row r="116" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A116" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B116" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="C116" s="100"/>
+        <v>195</v>
+      </c>
+      <c r="B116" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="C116" s="74"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11726,12 +11811,12 @@
     </row>
     <row r="117" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A117" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B117" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="C117" s="100"/>
+        <v>197</v>
+      </c>
+      <c r="B117" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C117" s="74"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11807,14 +11892,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
+    <row r="118" spans="1:30" s="10" customFormat="1" ht="38.25" customHeight="1">
       <c r="A118" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B118" s="91" t="s">
-        <v>194</v>
-      </c>
-      <c r="C118" s="91"/>
+        <v>199</v>
+      </c>
+      <c r="B118" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="C118" s="74"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11892,12 +11977,12 @@
     </row>
     <row r="119" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A119" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B119" s="91" t="s">
-        <v>196</v>
-      </c>
-      <c r="C119" s="91"/>
+        <v>201</v>
+      </c>
+      <c r="B119" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" s="74"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -11973,14 +12058,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:30" s="10" customFormat="1" ht="38.25" customHeight="1">
+    <row r="120" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A120" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="B120" s="91" t="s">
-        <v>198</v>
-      </c>
-      <c r="C120" s="91"/>
+        <v>203</v>
+      </c>
+      <c r="B120" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C120" s="74"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12058,12 +12143,12 @@
     </row>
     <row r="121" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A121" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B121" s="91" t="s">
-        <v>200</v>
-      </c>
-      <c r="C121" s="91"/>
+        <v>205</v>
+      </c>
+      <c r="B121" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="C121" s="74"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12141,12 +12226,12 @@
     </row>
     <row r="122" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A122" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B122" s="91" t="s">
-        <v>202</v>
-      </c>
-      <c r="C122" s="91"/>
+        <v>207</v>
+      </c>
+      <c r="B122" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="C122" s="74"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12224,12 +12309,12 @@
     </row>
     <row r="123" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A123" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B123" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="C123" s="91"/>
+        <v>209</v>
+      </c>
+      <c r="B123" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C123" s="74"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12307,12 +12392,12 @@
     </row>
     <row r="124" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A124" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B124" s="91" t="s">
-        <v>206</v>
-      </c>
-      <c r="C124" s="91"/>
+        <v>211</v>
+      </c>
+      <c r="B124" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C124" s="74"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12390,12 +12475,12 @@
     </row>
     <row r="125" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A125" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B125" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="C125" s="91"/>
+        <v>213</v>
+      </c>
+      <c r="B125" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C125" s="74"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12473,12 +12558,12 @@
     </row>
     <row r="126" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A126" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B126" s="91" t="s">
-        <v>210</v>
-      </c>
-      <c r="C126" s="91"/>
+        <v>215</v>
+      </c>
+      <c r="B126" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C126" s="74"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12556,12 +12641,12 @@
     </row>
     <row r="127" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A127" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="B127" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="C127" s="91"/>
+        <v>217</v>
+      </c>
+      <c r="B127" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="C127" s="74"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12639,12 +12724,12 @@
     </row>
     <row r="128" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A128" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B128" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="C128" s="91"/>
+        <v>219</v>
+      </c>
+      <c r="B128" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C128" s="74"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12722,12 +12807,12 @@
     </row>
     <row r="129" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A129" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B129" s="91" t="s">
-        <v>216</v>
-      </c>
-      <c r="C129" s="91"/>
+        <v>221</v>
+      </c>
+      <c r="B129" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C129" s="74"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12805,12 +12890,12 @@
     </row>
     <row r="130" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A130" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B130" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="C130" s="91"/>
+        <v>223</v>
+      </c>
+      <c r="B130" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="C130" s="74"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12888,12 +12973,12 @@
     </row>
     <row r="131" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A131" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B131" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="C131" s="91"/>
+        <v>225</v>
+      </c>
+      <c r="B131" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="C131" s="74"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
       <c r="F131" s="34" t="s">
@@ -12969,16 +13054,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
+    <row r="132" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A132" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B132" s="91" t="s">
-        <v>222</v>
-      </c>
-      <c r="C132" s="91"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="43"/>
+        <v>227</v>
+      </c>
+      <c r="B132" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="C132" s="73"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="34"/>
       <c r="F132" s="34" t="s">
         <v>15</v>
       </c>
@@ -13027,6 +13112,7 @@
       <c r="U132" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="V132" s="10"/>
       <c r="W132" s="40" t="s">
         <v>15</v>
       </c>
@@ -13051,441 +13137,328 @@
       <c r="AD132" s="40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="133" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A133" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B133" s="91" t="s">
-        <v>224</v>
-      </c>
-      <c r="C133" s="91"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="43"/>
-      <c r="F133" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="M133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S133" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="T133" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="U133" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="W133" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="X133" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y133" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z133" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA133" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB133" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC133" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD133" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A134" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B134" s="88" t="s">
-        <v>226</v>
-      </c>
-      <c r="C134" s="88"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34"/>
-      <c r="F134" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H134" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I134" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J134" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K134" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L134" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="M134" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N134" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O134" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P134" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q134" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R134" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S134" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="T134" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="U134" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="V134" s="10"/>
-      <c r="W134" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="X134" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y134" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z134" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA134" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB134" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC134" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD134" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE134" s="10"/>
-      <c r="AF134" s="10"/>
-      <c r="AG134" s="10"/>
-      <c r="AH134" s="10"/>
-      <c r="AI134" s="10"/>
-      <c r="AJ134" s="10"/>
-      <c r="AK134" s="10"/>
-      <c r="AL134" s="10"/>
-      <c r="AM134" s="10"/>
-      <c r="AN134" s="10"/>
-      <c r="AO134" s="10"/>
-      <c r="AP134" s="10"/>
-      <c r="AQ134" s="10"/>
-      <c r="AR134" s="10"/>
-      <c r="AS134" s="10"/>
-      <c r="AT134" s="10"/>
-      <c r="AU134" s="10"/>
-      <c r="AV134" s="10"/>
-      <c r="AW134" s="10"/>
-      <c r="AX134" s="10"/>
-      <c r="AY134" s="10"/>
-      <c r="AZ134" s="10"/>
-      <c r="BA134" s="10"/>
-      <c r="BB134" s="10"/>
-      <c r="BC134" s="10"/>
-      <c r="BD134" s="10"/>
-      <c r="BE134" s="10"/>
-      <c r="BF134" s="10"/>
-      <c r="BG134" s="10"/>
-      <c r="BH134" s="10"/>
-      <c r="BI134" s="10"/>
-      <c r="BJ134" s="10"/>
-      <c r="BK134" s="10"/>
-      <c r="BL134" s="10"/>
-      <c r="BM134" s="10"/>
-      <c r="BN134" s="10"/>
-      <c r="BO134" s="10"/>
-      <c r="BP134" s="10"/>
-      <c r="BQ134" s="10"/>
-      <c r="BR134" s="10"/>
-      <c r="BS134" s="10"/>
-      <c r="BT134" s="10"/>
-      <c r="BU134" s="10"/>
-      <c r="BV134" s="10"/>
-      <c r="BW134" s="10"/>
-      <c r="BX134" s="10"/>
-      <c r="BY134" s="10"/>
-      <c r="BZ134" s="10"/>
-      <c r="CA134" s="10"/>
-      <c r="CB134" s="10"/>
-      <c r="CC134" s="10"/>
-      <c r="CD134" s="10"/>
-      <c r="CE134" s="10"/>
-      <c r="CF134" s="10"/>
-      <c r="CG134" s="10"/>
-      <c r="CH134" s="10"/>
-      <c r="CI134" s="10"/>
-      <c r="CJ134" s="10"/>
-      <c r="CK134" s="10"/>
-      <c r="CL134" s="10"/>
-      <c r="CM134" s="10"/>
-      <c r="CN134" s="10"/>
-      <c r="CO134" s="10"/>
-      <c r="CP134" s="10"/>
-      <c r="CQ134" s="10"/>
-      <c r="CR134" s="10"/>
-      <c r="CS134" s="10"/>
-      <c r="CT134" s="10"/>
-      <c r="CU134" s="10"/>
-      <c r="CV134" s="10"/>
-      <c r="CW134" s="10"/>
-      <c r="CX134" s="10"/>
-      <c r="CY134" s="10"/>
-      <c r="CZ134" s="10"/>
-      <c r="DA134" s="10"/>
-      <c r="DB134" s="10"/>
-      <c r="DC134" s="10"/>
-      <c r="DD134" s="10"/>
-      <c r="DE134" s="10"/>
-      <c r="DF134" s="10"/>
-      <c r="DG134" s="10"/>
-      <c r="DH134" s="10"/>
-      <c r="DI134" s="10"/>
-      <c r="DJ134" s="10"/>
-      <c r="DK134" s="10"/>
-      <c r="DL134" s="10"/>
-      <c r="DM134" s="10"/>
-      <c r="DN134" s="10"/>
-      <c r="DO134" s="10"/>
-      <c r="DP134" s="10"/>
-      <c r="DQ134" s="10"/>
-      <c r="DR134" s="10"/>
-      <c r="DS134" s="10"/>
-      <c r="DT134" s="10"/>
-      <c r="DU134" s="10"/>
-      <c r="DV134" s="10"/>
-      <c r="DW134" s="10"/>
-      <c r="DX134" s="10"/>
-      <c r="DY134" s="10"/>
-      <c r="DZ134" s="10"/>
-      <c r="EA134" s="10"/>
-      <c r="EB134" s="10"/>
-      <c r="EC134" s="10"/>
-      <c r="ED134" s="10"/>
-      <c r="EE134" s="10"/>
-      <c r="EF134" s="10"/>
-      <c r="EG134" s="10"/>
-      <c r="EH134" s="10"/>
-      <c r="EI134" s="10"/>
-      <c r="EJ134" s="10"/>
-      <c r="EK134" s="10"/>
-      <c r="EL134" s="10"/>
-      <c r="EM134" s="10"/>
-      <c r="EN134" s="10"/>
-      <c r="EO134" s="10"/>
-      <c r="EP134" s="10"/>
-      <c r="EQ134" s="10"/>
-      <c r="ER134" s="10"/>
-      <c r="ES134" s="10"/>
-      <c r="ET134" s="10"/>
-      <c r="EU134" s="10"/>
-      <c r="EV134" s="10"/>
-      <c r="EW134" s="10"/>
-      <c r="EX134" s="10"/>
-      <c r="EY134" s="10"/>
-      <c r="EZ134" s="10"/>
-      <c r="FA134" s="10"/>
-      <c r="FB134" s="10"/>
-      <c r="FC134" s="10"/>
-      <c r="FD134" s="10"/>
-      <c r="FE134" s="10"/>
-      <c r="FF134" s="10"/>
-      <c r="FG134" s="10"/>
-      <c r="FH134" s="10"/>
-      <c r="FI134" s="10"/>
-      <c r="FJ134" s="10"/>
-      <c r="FK134" s="10"/>
-      <c r="FL134" s="10"/>
-      <c r="FM134" s="10"/>
-      <c r="FN134" s="10"/>
-      <c r="FO134" s="10"/>
-      <c r="FP134" s="10"/>
-      <c r="FQ134" s="10"/>
-      <c r="FR134" s="10"/>
-      <c r="FS134" s="10"/>
-      <c r="FT134" s="10"/>
-      <c r="FU134" s="10"/>
-      <c r="FV134" s="10"/>
-      <c r="FW134" s="10"/>
-      <c r="FX134" s="10"/>
-      <c r="FY134" s="10"/>
-      <c r="FZ134" s="10"/>
-      <c r="GA134" s="10"/>
-      <c r="GB134" s="10"/>
-      <c r="GC134" s="10"/>
-      <c r="GD134" s="10"/>
-      <c r="GE134" s="10"/>
-      <c r="GF134" s="10"/>
-      <c r="GG134" s="10"/>
-      <c r="GH134" s="10"/>
-      <c r="GI134" s="10"/>
-      <c r="GJ134" s="10"/>
-      <c r="GK134" s="10"/>
-      <c r="GL134" s="10"/>
-      <c r="GM134" s="10"/>
-      <c r="GN134" s="10"/>
-      <c r="GO134" s="10"/>
-      <c r="GP134" s="10"/>
-      <c r="GQ134" s="10"/>
-      <c r="GR134" s="10"/>
-      <c r="GS134" s="10"/>
-      <c r="GT134" s="10"/>
-      <c r="GU134" s="10"/>
-      <c r="GV134" s="10"/>
-      <c r="GW134" s="10"/>
-      <c r="GX134" s="10"/>
-      <c r="GY134" s="10"/>
-      <c r="GZ134" s="10"/>
-      <c r="HA134" s="10"/>
-      <c r="HB134" s="10"/>
-      <c r="HC134" s="10"/>
-      <c r="HD134" s="10"/>
-      <c r="HE134" s="10"/>
-      <c r="HF134" s="10"/>
-      <c r="HG134" s="10"/>
-      <c r="HH134" s="10"/>
-      <c r="HI134" s="10"/>
-      <c r="HJ134" s="10"/>
-      <c r="HK134" s="10"/>
-      <c r="HL134" s="10"/>
-      <c r="HM134" s="10"/>
-      <c r="HN134" s="10"/>
-      <c r="HO134" s="10"/>
-      <c r="HP134" s="10"/>
-      <c r="HQ134" s="10"/>
-      <c r="HR134" s="10"/>
-      <c r="HS134" s="10"/>
-      <c r="HT134" s="10"/>
-      <c r="HU134" s="10"/>
-      <c r="HV134" s="10"/>
-      <c r="HW134" s="10"/>
-      <c r="HX134" s="10"/>
-      <c r="HY134" s="10"/>
-      <c r="HZ134" s="10"/>
-      <c r="IA134" s="10"/>
-      <c r="IB134" s="10"/>
-      <c r="IC134" s="10"/>
-      <c r="ID134" s="10"/>
-      <c r="IE134" s="10"/>
-      <c r="IF134" s="10"/>
-      <c r="IG134" s="10"/>
-      <c r="IH134" s="10"/>
-      <c r="II134" s="10"/>
-      <c r="IJ134" s="10"/>
-      <c r="IK134" s="10"/>
-      <c r="IL134" s="10"/>
-      <c r="IM134" s="10"/>
-      <c r="IN134" s="10"/>
-      <c r="IO134" s="10"/>
-      <c r="IP134" s="10"/>
-      <c r="IQ134" s="10"/>
-      <c r="IR134" s="10"/>
-      <c r="IS134" s="10"/>
-      <c r="IT134" s="10"/>
-      <c r="IU134" s="10"/>
+      <c r="AE132" s="10"/>
+      <c r="AF132" s="10"/>
+      <c r="AG132" s="10"/>
+      <c r="AH132" s="10"/>
+      <c r="AI132" s="10"/>
+      <c r="AJ132" s="10"/>
+      <c r="AK132" s="10"/>
+      <c r="AL132" s="10"/>
+      <c r="AM132" s="10"/>
+      <c r="AN132" s="10"/>
+      <c r="AO132" s="10"/>
+      <c r="AP132" s="10"/>
+      <c r="AQ132" s="10"/>
+      <c r="AR132" s="10"/>
+      <c r="AS132" s="10"/>
+      <c r="AT132" s="10"/>
+      <c r="AU132" s="10"/>
+      <c r="AV132" s="10"/>
+      <c r="AW132" s="10"/>
+      <c r="AX132" s="10"/>
+      <c r="AY132" s="10"/>
+      <c r="AZ132" s="10"/>
+      <c r="BA132" s="10"/>
+      <c r="BB132" s="10"/>
+      <c r="BC132" s="10"/>
+      <c r="BD132" s="10"/>
+      <c r="BE132" s="10"/>
+      <c r="BF132" s="10"/>
+      <c r="BG132" s="10"/>
+      <c r="BH132" s="10"/>
+      <c r="BI132" s="10"/>
+      <c r="BJ132" s="10"/>
+      <c r="BK132" s="10"/>
+      <c r="BL132" s="10"/>
+      <c r="BM132" s="10"/>
+      <c r="BN132" s="10"/>
+      <c r="BO132" s="10"/>
+      <c r="BP132" s="10"/>
+      <c r="BQ132" s="10"/>
+      <c r="BR132" s="10"/>
+      <c r="BS132" s="10"/>
+      <c r="BT132" s="10"/>
+      <c r="BU132" s="10"/>
+      <c r="BV132" s="10"/>
+      <c r="BW132" s="10"/>
+      <c r="BX132" s="10"/>
+      <c r="BY132" s="10"/>
+      <c r="BZ132" s="10"/>
+      <c r="CA132" s="10"/>
+      <c r="CB132" s="10"/>
+      <c r="CC132" s="10"/>
+      <c r="CD132" s="10"/>
+      <c r="CE132" s="10"/>
+      <c r="CF132" s="10"/>
+      <c r="CG132" s="10"/>
+      <c r="CH132" s="10"/>
+      <c r="CI132" s="10"/>
+      <c r="CJ132" s="10"/>
+      <c r="CK132" s="10"/>
+      <c r="CL132" s="10"/>
+      <c r="CM132" s="10"/>
+      <c r="CN132" s="10"/>
+      <c r="CO132" s="10"/>
+      <c r="CP132" s="10"/>
+      <c r="CQ132" s="10"/>
+      <c r="CR132" s="10"/>
+      <c r="CS132" s="10"/>
+      <c r="CT132" s="10"/>
+      <c r="CU132" s="10"/>
+      <c r="CV132" s="10"/>
+      <c r="CW132" s="10"/>
+      <c r="CX132" s="10"/>
+      <c r="CY132" s="10"/>
+      <c r="CZ132" s="10"/>
+      <c r="DA132" s="10"/>
+      <c r="DB132" s="10"/>
+      <c r="DC132" s="10"/>
+      <c r="DD132" s="10"/>
+      <c r="DE132" s="10"/>
+      <c r="DF132" s="10"/>
+      <c r="DG132" s="10"/>
+      <c r="DH132" s="10"/>
+      <c r="DI132" s="10"/>
+      <c r="DJ132" s="10"/>
+      <c r="DK132" s="10"/>
+      <c r="DL132" s="10"/>
+      <c r="DM132" s="10"/>
+      <c r="DN132" s="10"/>
+      <c r="DO132" s="10"/>
+      <c r="DP132" s="10"/>
+      <c r="DQ132" s="10"/>
+      <c r="DR132" s="10"/>
+      <c r="DS132" s="10"/>
+      <c r="DT132" s="10"/>
+      <c r="DU132" s="10"/>
+      <c r="DV132" s="10"/>
+      <c r="DW132" s="10"/>
+      <c r="DX132" s="10"/>
+      <c r="DY132" s="10"/>
+      <c r="DZ132" s="10"/>
+      <c r="EA132" s="10"/>
+      <c r="EB132" s="10"/>
+      <c r="EC132" s="10"/>
+      <c r="ED132" s="10"/>
+      <c r="EE132" s="10"/>
+      <c r="EF132" s="10"/>
+      <c r="EG132" s="10"/>
+      <c r="EH132" s="10"/>
+      <c r="EI132" s="10"/>
+      <c r="EJ132" s="10"/>
+      <c r="EK132" s="10"/>
+      <c r="EL132" s="10"/>
+      <c r="EM132" s="10"/>
+      <c r="EN132" s="10"/>
+      <c r="EO132" s="10"/>
+      <c r="EP132" s="10"/>
+      <c r="EQ132" s="10"/>
+      <c r="ER132" s="10"/>
+      <c r="ES132" s="10"/>
+      <c r="ET132" s="10"/>
+      <c r="EU132" s="10"/>
+      <c r="EV132" s="10"/>
+      <c r="EW132" s="10"/>
+      <c r="EX132" s="10"/>
+      <c r="EY132" s="10"/>
+      <c r="EZ132" s="10"/>
+      <c r="FA132" s="10"/>
+      <c r="FB132" s="10"/>
+      <c r="FC132" s="10"/>
+      <c r="FD132" s="10"/>
+      <c r="FE132" s="10"/>
+      <c r="FF132" s="10"/>
+      <c r="FG132" s="10"/>
+      <c r="FH132" s="10"/>
+      <c r="FI132" s="10"/>
+      <c r="FJ132" s="10"/>
+      <c r="FK132" s="10"/>
+      <c r="FL132" s="10"/>
+      <c r="FM132" s="10"/>
+      <c r="FN132" s="10"/>
+      <c r="FO132" s="10"/>
+      <c r="FP132" s="10"/>
+      <c r="FQ132" s="10"/>
+      <c r="FR132" s="10"/>
+      <c r="FS132" s="10"/>
+      <c r="FT132" s="10"/>
+      <c r="FU132" s="10"/>
+      <c r="FV132" s="10"/>
+      <c r="FW132" s="10"/>
+      <c r="FX132" s="10"/>
+      <c r="FY132" s="10"/>
+      <c r="FZ132" s="10"/>
+      <c r="GA132" s="10"/>
+      <c r="GB132" s="10"/>
+      <c r="GC132" s="10"/>
+      <c r="GD132" s="10"/>
+      <c r="GE132" s="10"/>
+      <c r="GF132" s="10"/>
+      <c r="GG132" s="10"/>
+      <c r="GH132" s="10"/>
+      <c r="GI132" s="10"/>
+      <c r="GJ132" s="10"/>
+      <c r="GK132" s="10"/>
+      <c r="GL132" s="10"/>
+      <c r="GM132" s="10"/>
+      <c r="GN132" s="10"/>
+      <c r="GO132" s="10"/>
+      <c r="GP132" s="10"/>
+      <c r="GQ132" s="10"/>
+      <c r="GR132" s="10"/>
+      <c r="GS132" s="10"/>
+      <c r="GT132" s="10"/>
+      <c r="GU132" s="10"/>
+      <c r="GV132" s="10"/>
+      <c r="GW132" s="10"/>
+      <c r="GX132" s="10"/>
+      <c r="GY132" s="10"/>
+      <c r="GZ132" s="10"/>
+      <c r="HA132" s="10"/>
+      <c r="HB132" s="10"/>
+      <c r="HC132" s="10"/>
+      <c r="HD132" s="10"/>
+      <c r="HE132" s="10"/>
+      <c r="HF132" s="10"/>
+      <c r="HG132" s="10"/>
+      <c r="HH132" s="10"/>
+      <c r="HI132" s="10"/>
+      <c r="HJ132" s="10"/>
+      <c r="HK132" s="10"/>
+      <c r="HL132" s="10"/>
+      <c r="HM132" s="10"/>
+      <c r="HN132" s="10"/>
+      <c r="HO132" s="10"/>
+      <c r="HP132" s="10"/>
+      <c r="HQ132" s="10"/>
+      <c r="HR132" s="10"/>
+      <c r="HS132" s="10"/>
+      <c r="HT132" s="10"/>
+      <c r="HU132" s="10"/>
+      <c r="HV132" s="10"/>
+      <c r="HW132" s="10"/>
+      <c r="HX132" s="10"/>
+      <c r="HY132" s="10"/>
+      <c r="HZ132" s="10"/>
+      <c r="IA132" s="10"/>
+      <c r="IB132" s="10"/>
+      <c r="IC132" s="10"/>
+      <c r="ID132" s="10"/>
+      <c r="IE132" s="10"/>
+      <c r="IF132" s="10"/>
+      <c r="IG132" s="10"/>
+      <c r="IH132" s="10"/>
+      <c r="II132" s="10"/>
+      <c r="IJ132" s="10"/>
+      <c r="IK132" s="10"/>
+      <c r="IL132" s="10"/>
+      <c r="IM132" s="10"/>
+      <c r="IN132" s="10"/>
+      <c r="IO132" s="10"/>
+      <c r="IP132" s="10"/>
+      <c r="IQ132" s="10"/>
+      <c r="IR132" s="10"/>
+      <c r="IS132" s="10"/>
+      <c r="IT132" s="10"/>
+      <c r="IU132" s="10"/>
+    </row>
+    <row r="133" spans="1:255" s="10" customFormat="1">
+      <c r="A133" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="B133" s="26"/>
+      <c r="C133" s="49"/>
+      <c r="D133" s="50"/>
+      <c r="F133" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="H133" s="52"/>
+      <c r="I133" s="53"/>
+      <c r="J133" s="53"/>
+      <c r="K133" s="53"/>
+      <c r="L133" s="54"/>
+      <c r="M133" s="54"/>
+      <c r="N133" s="54"/>
+      <c r="O133" s="54"/>
+      <c r="P133" s="55"/>
+      <c r="Q133" s="54"/>
+      <c r="R133" s="54"/>
+      <c r="T133" s="56"/>
+      <c r="AP133" s="57"/>
+      <c r="AQ133" s="57"/>
+      <c r="AR133" s="57"/>
+      <c r="AS133" s="57"/>
+      <c r="AT133" s="57"/>
+      <c r="AU133" s="57"/>
+      <c r="AV133" s="57"/>
+      <c r="AW133" s="57"/>
+    </row>
+    <row r="134" spans="1:255" s="10" customFormat="1">
+      <c r="A134" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="B134" s="59"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="59"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="59"/>
+      <c r="G134" s="59"/>
+      <c r="H134" s="61"/>
+      <c r="I134" s="54"/>
+      <c r="J134" s="54"/>
+      <c r="K134" s="54"/>
+      <c r="L134" s="54"/>
+      <c r="M134" s="54"/>
+      <c r="N134" s="54"/>
+      <c r="O134" s="54"/>
+      <c r="AM134" s="57"/>
+      <c r="AN134" s="57"/>
+      <c r="AO134" s="57"/>
+      <c r="AP134" s="57"/>
+      <c r="AQ134" s="57"/>
+      <c r="AR134" s="57"/>
+      <c r="AS134" s="57"/>
+      <c r="AT134" s="57"/>
     </row>
     <row r="135" spans="1:255" s="10" customFormat="1">
-      <c r="A135" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="B135" s="26"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="50"/>
-      <c r="F135" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="H135" s="52"/>
-      <c r="I135" s="53"/>
-      <c r="J135" s="53"/>
-      <c r="K135" s="53"/>
+      <c r="A135" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="B135" s="59"/>
+      <c r="C135" s="60"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="59"/>
+      <c r="F135" s="59"/>
+      <c r="G135" s="59"/>
+      <c r="H135" s="61"/>
+      <c r="I135" s="54"/>
+      <c r="J135" s="54"/>
+      <c r="K135" s="54"/>
       <c r="L135" s="54"/>
       <c r="M135" s="54"/>
       <c r="N135" s="54"/>
       <c r="O135" s="54"/>
-      <c r="P135" s="55"/>
-      <c r="Q135" s="54"/>
-      <c r="R135" s="54"/>
-      <c r="T135" s="56"/>
+      <c r="AM135" s="57"/>
+      <c r="AN135" s="57"/>
+      <c r="AO135" s="57"/>
       <c r="AP135" s="57"/>
       <c r="AQ135" s="57"/>
       <c r="AR135" s="57"/>
       <c r="AS135" s="57"/>
       <c r="AT135" s="57"/>
-      <c r="AU135" s="57"/>
-      <c r="AV135" s="57"/>
-      <c r="AW135" s="57"/>
     </row>
     <row r="136" spans="1:255" s="10" customFormat="1">
-      <c r="A136" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="B136" s="59"/>
-      <c r="C136" s="60"/>
-      <c r="D136" s="59"/>
+      <c r="A136" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="B136" s="62"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="62"/>
       <c r="E136" s="59"/>
       <c r="F136" s="59"/>
       <c r="G136" s="59"/>
-      <c r="H136" s="61"/>
+      <c r="H136" s="63"/>
       <c r="I136" s="54"/>
       <c r="J136" s="54"/>
       <c r="K136" s="54"/>
@@ -13502,17 +13475,17 @@
       <c r="AS136" s="57"/>
       <c r="AT136" s="57"/>
     </row>
-    <row r="137" spans="1:255" s="10" customFormat="1">
-      <c r="A137" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="B137" s="59"/>
-      <c r="C137" s="60"/>
-      <c r="D137" s="59"/>
+    <row r="137" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A137" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="B137" s="62"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="62"/>
       <c r="E137" s="59"/>
       <c r="F137" s="59"/>
       <c r="G137" s="59"/>
-      <c r="H137" s="61"/>
+      <c r="H137" s="63"/>
       <c r="I137" s="54"/>
       <c r="J137" s="54"/>
       <c r="K137" s="54"/>
@@ -13529,9 +13502,9 @@
       <c r="AS137" s="57"/>
       <c r="AT137" s="57"/>
     </row>
-    <row r="138" spans="1:255" s="10" customFormat="1">
-      <c r="A138" s="71" t="s">
-        <v>228</v>
+    <row r="138" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A138" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="B138" s="62"/>
       <c r="C138" s="1"/>
@@ -13557,8 +13530,8 @@
       <c r="AT138" s="57"/>
     </row>
     <row r="139" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A139" s="71" t="s">
-        <v>229</v>
+      <c r="A139" s="58" t="s">
+        <v>232</v>
       </c>
       <c r="B139" s="62"/>
       <c r="C139" s="1"/>
@@ -13585,7 +13558,7 @@
     </row>
     <row r="140" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A140" s="58" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B140" s="62"/>
       <c r="C140" s="1"/>
@@ -13612,7 +13585,7 @@
     </row>
     <row r="141" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="58" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B141" s="62"/>
       <c r="C141" s="1"/>
@@ -13639,7 +13612,7 @@
     </row>
     <row r="142" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="58" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B142" s="62"/>
       <c r="C142" s="1"/>
@@ -13666,7 +13639,7 @@
     </row>
     <row r="143" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="58" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B143" s="62"/>
       <c r="C143" s="1"/>
@@ -13693,7 +13666,7 @@
     </row>
     <row r="144" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A144" s="58" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B144" s="62"/>
       <c r="C144" s="1"/>
@@ -13718,17 +13691,17 @@
       <c r="AS144" s="57"/>
       <c r="AT144" s="57"/>
     </row>
-    <row r="145" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A145" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="B145" s="62"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="62"/>
+    <row r="145" spans="1:46">
+      <c r="A145" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="B145" s="59"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="59"/>
       <c r="E145" s="59"/>
       <c r="F145" s="59"/>
       <c r="G145" s="59"/>
-      <c r="H145" s="63"/>
+      <c r="H145" s="61"/>
       <c r="I145" s="54"/>
       <c r="J145" s="54"/>
       <c r="K145" s="54"/>
@@ -13736,49 +13709,45 @@
       <c r="M145" s="54"/>
       <c r="N145" s="54"/>
       <c r="O145" s="54"/>
-      <c r="AM145" s="57"/>
-      <c r="AN145" s="57"/>
-      <c r="AO145" s="57"/>
-      <c r="AP145" s="57"/>
-      <c r="AQ145" s="57"/>
-      <c r="AR145" s="57"/>
-      <c r="AS145" s="57"/>
-      <c r="AT145" s="57"/>
-    </row>
-    <row r="146" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A146" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="B146" s="62"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="62"/>
+      <c r="P145" s="10"/>
+      <c r="Q145" s="10"/>
+      <c r="R145" s="10"/>
+      <c r="S145"/>
+    </row>
+    <row r="146" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
+      <c r="A146" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="B146" s="59"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="59"/>
       <c r="E146" s="59"/>
       <c r="F146" s="59"/>
-      <c r="G146" s="59"/>
+      <c r="G146" s="64"/>
       <c r="H146" s="63"/>
-      <c r="I146" s="54"/>
-      <c r="J146" s="54"/>
-      <c r="K146" s="54"/>
-      <c r="L146" s="54"/>
-      <c r="M146" s="54"/>
-      <c r="N146" s="54"/>
-      <c r="O146" s="54"/>
-      <c r="AM146" s="57"/>
-      <c r="AN146" s="57"/>
-      <c r="AO146" s="57"/>
-      <c r="AP146" s="57"/>
-      <c r="AQ146" s="57"/>
-      <c r="AR146" s="57"/>
-      <c r="AS146" s="57"/>
-      <c r="AT146" s="57"/>
-    </row>
-    <row r="147" spans="1:46">
+      <c r="I146" s="55"/>
+      <c r="J146" s="55"/>
+      <c r="K146" s="55"/>
+      <c r="L146" s="55"/>
+      <c r="M146" s="55"/>
+      <c r="N146" s="55"/>
+      <c r="O146" s="55"/>
+      <c r="AM146" s="65"/>
+      <c r="AN146" s="65"/>
+      <c r="AO146" s="65"/>
+      <c r="AP146" s="65"/>
+      <c r="AQ146" s="65"/>
+      <c r="AR146" s="65"/>
+      <c r="AS146" s="65"/>
+      <c r="AT146" s="65"/>
+    </row>
+    <row r="147" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A147" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="B147" s="59"/>
-      <c r="C147" s="60"/>
-      <c r="D147" s="59"/>
+        <v>239</v>
+      </c>
+      <c r="B147" s="66"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="68"/>
       <c r="E147" s="59"/>
       <c r="F147" s="59"/>
       <c r="G147" s="59"/>
@@ -13790,21 +13759,25 @@
       <c r="M147" s="54"/>
       <c r="N147" s="54"/>
       <c r="O147" s="54"/>
-      <c r="P147" s="10"/>
-      <c r="Q147" s="10"/>
-      <c r="R147" s="10"/>
-      <c r="S147"/>
+      <c r="AM147" s="57"/>
+      <c r="AN147" s="57"/>
+      <c r="AO147" s="57"/>
+      <c r="AP147" s="57"/>
+      <c r="AQ147" s="57"/>
+      <c r="AR147" s="57"/>
+      <c r="AS147" s="57"/>
+      <c r="AT147" s="57"/>
     </row>
     <row r="148" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A148" s="71" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B148" s="59"/>
       <c r="C148" s="60"/>
       <c r="D148" s="59"/>
       <c r="E148" s="59"/>
       <c r="F148" s="59"/>
-      <c r="G148" s="64"/>
+      <c r="G148" s="59"/>
       <c r="H148" s="63"/>
       <c r="I148" s="55"/>
       <c r="J148" s="55"/>
@@ -13824,11 +13797,11 @@
     </row>
     <row r="149" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A149" s="71" t="s">
-        <v>236</v>
-      </c>
-      <c r="B149" s="66"/>
-      <c r="C149" s="67"/>
-      <c r="D149" s="68"/>
+        <v>241</v>
+      </c>
+      <c r="B149" s="59"/>
+      <c r="C149" s="60"/>
+      <c r="D149" s="59"/>
       <c r="E149" s="59"/>
       <c r="F149" s="59"/>
       <c r="G149" s="59"/>
@@ -13849,9 +13822,9 @@
       <c r="AS149" s="57"/>
       <c r="AT149" s="57"/>
     </row>
-    <row r="150" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
+    <row r="150" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A150" s="71" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B150" s="59"/>
       <c r="C150" s="60"/>
@@ -13859,76 +13832,34 @@
       <c r="E150" s="59"/>
       <c r="F150" s="59"/>
       <c r="G150" s="59"/>
-      <c r="H150" s="63"/>
-      <c r="I150" s="55"/>
-      <c r="J150" s="55"/>
-      <c r="K150" s="55"/>
-      <c r="L150" s="55"/>
-      <c r="M150" s="55"/>
-      <c r="N150" s="55"/>
-      <c r="O150" s="55"/>
-      <c r="AM150" s="65"/>
-      <c r="AN150" s="65"/>
-      <c r="AO150" s="65"/>
-      <c r="AP150" s="65"/>
-      <c r="AQ150" s="65"/>
-      <c r="AR150" s="65"/>
-      <c r="AS150" s="65"/>
-      <c r="AT150" s="65"/>
-    </row>
-    <row r="151" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A151" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="B151" s="59"/>
-      <c r="C151" s="60"/>
-      <c r="D151" s="59"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="59"/>
-      <c r="G151" s="59"/>
-      <c r="H151" s="61"/>
-      <c r="I151" s="54"/>
-      <c r="J151" s="54"/>
-      <c r="K151" s="54"/>
-      <c r="L151" s="54"/>
-      <c r="M151" s="54"/>
-      <c r="N151" s="54"/>
-      <c r="O151" s="54"/>
-      <c r="AM151" s="57"/>
-      <c r="AN151" s="57"/>
-      <c r="AO151" s="57"/>
-      <c r="AP151" s="57"/>
-      <c r="AQ151" s="57"/>
-      <c r="AR151" s="57"/>
-      <c r="AS151" s="57"/>
-      <c r="AT151" s="57"/>
-    </row>
-    <row r="152" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A152" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="B152" s="59"/>
-      <c r="C152" s="60"/>
-      <c r="D152" s="59"/>
-      <c r="E152" s="59"/>
-      <c r="F152" s="59"/>
-      <c r="G152" s="59"/>
-      <c r="H152" s="61"/>
-      <c r="I152" s="54"/>
-      <c r="J152" s="54"/>
-      <c r="K152" s="54"/>
-      <c r="L152" s="54"/>
-      <c r="M152" s="54"/>
-      <c r="N152" s="54"/>
-      <c r="O152" s="54"/>
-      <c r="AM152" s="57"/>
-      <c r="AN152" s="57"/>
-      <c r="AO152" s="57"/>
-      <c r="AP152" s="57"/>
-      <c r="AQ152" s="57"/>
-      <c r="AR152" s="57"/>
-      <c r="AS152" s="57"/>
-      <c r="AT152" s="57"/>
+      <c r="H150" s="61"/>
+      <c r="I150" s="54"/>
+      <c r="J150" s="54"/>
+      <c r="K150" s="54"/>
+      <c r="L150" s="54"/>
+      <c r="M150" s="54"/>
+      <c r="N150" s="54"/>
+      <c r="O150" s="54"/>
+      <c r="AM150" s="57"/>
+      <c r="AN150" s="57"/>
+      <c r="AO150" s="57"/>
+      <c r="AP150" s="57"/>
+      <c r="AQ150" s="57"/>
+      <c r="AR150" s="57"/>
+      <c r="AS150" s="57"/>
+      <c r="AT150" s="57"/>
+    </row>
+    <row r="151" spans="1:46">
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="69"/>
+    </row>
+    <row r="152" spans="1:46">
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="69"/>
     </row>
     <row r="153" spans="1:46">
       <c r="D153" s="1"/>
@@ -14297,19 +14228,13 @@
       <c r="G213" s="69"/>
     </row>
     <row r="214" spans="4:7">
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="69"/>
     </row>
     <row r="215" spans="4:7">
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
       <c r="G215" s="69"/>
     </row>
     <row r="216" spans="4:7">
-      <c r="F216" s="1"/>
       <c r="G216" s="69"/>
     </row>
     <row r="217" spans="4:7">
@@ -14318,11 +14243,11 @@
     <row r="218" spans="4:7">
       <c r="G218" s="69"/>
     </row>
-    <row r="219" spans="4:7">
-      <c r="G219" s="69"/>
-    </row>
-    <row r="220" spans="4:7">
-      <c r="G220" s="69"/>
+    <row r="223" spans="4:7">
+      <c r="G223"/>
+    </row>
+    <row r="224" spans="4:7">
+      <c r="G224"/>
     </row>
     <row r="225" spans="7:7">
       <c r="G225"/>
@@ -14426,144 +14351,8 @@
     <row r="258" spans="7:7">
       <c r="G258"/>
     </row>
-    <row r="259" spans="7:7">
-      <c r="G259"/>
-    </row>
-    <row r="260" spans="7:7">
-      <c r="G260"/>
-    </row>
   </sheetData>
-  <mergeCells count="144">
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="142">
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14578,6 +14367,134 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14586,9 +14503,8 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;20&amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="82" max="16383" man="1"/>
-    <brk id="101" max="20" man="1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="99" max="20" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D8EF3C-0D80-42D0-A358-DD9E2BAEBBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840711FA-348B-419D-ADBD-578851795F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier">"'24a7b5fc-9de7-4bbf-a971-8358f80d3098'"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'a week'!$A$1:$U$150</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'a week'!$A$1:$U$151</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'a week'!$A:$E,'a week'!$1:$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="259">
   <si>
     <t>重要農產品價格日報表</t>
   </si>
@@ -456,9 +456,6 @@
     <t>41-1</t>
   </si>
   <si>
-    <t>世紀梨</t>
-  </si>
-  <si>
     <t>41-2</t>
   </si>
   <si>
@@ -537,9 +534,6 @@
   </si>
   <si>
     <t>53</t>
-  </si>
-  <si>
-    <t>愛文芒果</t>
   </si>
   <si>
     <t>54</t>
@@ -1055,9 +1049,6 @@
     <t xml:space="preserve">  之簡單平均)；竿採梅產地價格(國姓、六龜和甲仙等農會查報價格之簡單平均) —農產品價格查報，本會農糧署。</t>
   </si>
   <si>
-    <t>4.新興梨、豐水梨及甜柿交易量價(東勢果菜市場價格)－農產品行情報導，本會農糧署。</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -1444,10 +1435,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>珍珠芭</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>資料來源：</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1488,6 +1475,26 @@
   </si>
   <si>
     <t>(新增品項)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠芭(台北市場批發價)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>愛文芒果(產地)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>愛文芒果(台北市場批發價)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>寶島甘露梨</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.豐水梨、新興梨及寶島甘露梨交易量價(東勢果菜市場價格)－農產品行情報導，本會農糧署。</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -1864,7 +1871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2062,6 +2069,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2557,11 +2567,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IU258"/>
+  <dimension ref="A1:IU259"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100:C100"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2594,35 +2604,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2671,8 +2681,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2681,41 +2691,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="90" t="s">
+      <c r="T5" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="90"/>
+      <c r="U5" s="91"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2727,36 +2737,36 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="97" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="97" t="s">
-        <v>243</v>
-      </c>
-      <c r="M7" s="98" t="s">
+      <c r="L7" s="98" t="s">
+        <v>240</v>
+      </c>
+      <c r="M7" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="99" t="s">
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="99"/>
-      <c r="V7" s="84"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="85"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
@@ -2767,14 +2777,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2787,9 +2797,9 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="97"/>
+      <c r="L8" s="98"/>
       <c r="M8" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N8" s="30" t="s">
         <v>10</v>
@@ -2813,9 +2823,9 @@
         <v>11</v>
       </c>
       <c r="U8" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="V8" s="84"/>
+        <v>242</v>
+      </c>
+      <c r="V8" s="85"/>
       <c r="W8" s="32" t="s">
         <v>12</v>
       </c>
@@ -2845,13 +2855,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2928,13 +2938,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -3009,10 +3019,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3096,10 +3106,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3183,10 +3193,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="73"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3270,10 +3280,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3354,10 +3364,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3437,10 +3447,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3520,10 +3530,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3603,10 +3613,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="84"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3686,10 +3696,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="74"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3769,10 +3779,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3852,10 +3862,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3935,10 +3945,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="74"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -4018,10 +4028,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4101,10 +4111,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="74"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4184,10 +4194,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="83"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4267,10 +4277,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="74"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4350,10 +4360,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4433,10 +4443,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="74"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4516,10 +4526,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="83"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4600,10 +4610,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4684,10 +4694,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4767,10 +4777,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="74"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4850,10 +4860,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="74"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4934,10 +4944,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="74"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -5017,10 +5027,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="74"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5100,10 +5110,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5183,10 +5193,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="74"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5266,10 +5276,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="74"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5349,10 +5359,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="74"/>
+      <c r="C39" s="75"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5432,10 +5442,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="74" t="s">
+      <c r="B40" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="74"/>
+      <c r="C40" s="75"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5515,10 +5525,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5598,10 +5608,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="74"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5682,10 +5692,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="82" t="s">
+      <c r="B43" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="82"/>
+      <c r="C43" s="83"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5765,10 +5775,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="82"/>
+      <c r="C44" s="83"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5848,10 +5858,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="74"/>
+      <c r="C45" s="75"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5931,10 +5941,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="74"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -6014,10 +6024,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="74"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6097,10 +6107,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="74" t="s">
+      <c r="B48" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="74"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6180,10 +6190,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="74"/>
+      <c r="C49" s="75"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6263,10 +6273,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="74"/>
+      <c r="C50" s="75"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6346,10 +6356,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="75"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6429,10 +6439,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="74" t="s">
+      <c r="B52" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="74"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6512,10 +6522,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="74"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6595,10 +6605,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="74" t="s">
+      <c r="B54" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="74"/>
+      <c r="C54" s="75"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6678,10 +6688,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="74" t="s">
+      <c r="B55" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="74"/>
+      <c r="C55" s="75"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6761,10 +6771,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="74"/>
+      <c r="B56" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="C56" s="75"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6842,12 +6852,12 @@
     </row>
     <row r="57" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A57" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="74"/>
+        <v>100</v>
+      </c>
+      <c r="B57" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="75"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6925,12 +6935,12 @@
     </row>
     <row r="58" spans="1:30" s="44" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A58" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="74"/>
+        <v>101</v>
+      </c>
+      <c r="B58" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="75"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -7008,12 +7018,12 @@
     </row>
     <row r="59" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A59" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="74"/>
+      <c r="C59" s="75"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7091,12 +7101,12 @@
     </row>
     <row r="60" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A60" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="74"/>
+      <c r="C60" s="75"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7174,12 +7184,12 @@
     </row>
     <row r="61" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A61" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="74"/>
+      <c r="C61" s="75"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7257,12 +7267,12 @@
     </row>
     <row r="62" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A62" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="74"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7341,12 +7351,12 @@
     </row>
     <row r="63" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A63" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="C63" s="74"/>
+        <v>111</v>
+      </c>
+      <c r="B63" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" s="75"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7424,12 +7434,12 @@
     </row>
     <row r="64" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A64" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" s="74"/>
+      <c r="C64" s="75"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7508,12 +7518,12 @@
     </row>
     <row r="65" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A65" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="74"/>
+      <c r="C65" s="75"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7591,12 +7601,12 @@
     </row>
     <row r="66" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A66" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="74"/>
+      <c r="C66" s="75"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7675,12 +7685,12 @@
     </row>
     <row r="67" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A67" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="74"/>
+      <c r="C67" s="75"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7758,12 +7768,12 @@
     </row>
     <row r="68" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A68" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="74"/>
+      <c r="C68" s="75"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7841,12 +7851,12 @@
     </row>
     <row r="69" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A69" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="74"/>
+      <c r="C69" s="75"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7924,16 +7934,14 @@
       </c>
     </row>
     <row r="70" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A70" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="74"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C70" s="75"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
-      <c r="F70" s="34" t="s">
+      <c r="F70" s="73" t="s">
         <v>15</v>
       </c>
       <c r="G70" s="35" t="s">
@@ -7981,41 +7989,26 @@
       <c r="U70" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="W70" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="X70" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y70" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z70" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA70" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB70" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC70" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD70" s="40" t="s">
-        <v>15</v>
-      </c>
+      <c r="V70" s="42"/>
+      <c r="W70" s="40"/>
+      <c r="X70" s="40"/>
+      <c r="Y70" s="40"/>
+      <c r="Z70" s="40"/>
+      <c r="AA70" s="40"/>
+      <c r="AB70" s="40"/>
+      <c r="AC70" s="40"/>
+      <c r="AD70" s="40"/>
     </row>
     <row r="71" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A71" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B71" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="80"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
+        <v>124</v>
+      </c>
+      <c r="B71" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="C71" s="75"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
       <c r="F71" s="34" t="s">
         <v>15</v>
       </c>
@@ -8064,7 +8057,6 @@
       <c r="U71" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V71" s="42"/>
       <c r="W71" s="40" t="s">
         <v>15</v>
       </c>
@@ -8091,13 +8083,15 @@
       </c>
     </row>
     <row r="72" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A72" s="46"/>
-      <c r="B72" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="74"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
+      <c r="A72" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="81"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
       <c r="F72" s="34" t="s">
         <v>15</v>
       </c>
@@ -8173,15 +8167,13 @@
       </c>
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A73" s="38"/>
-      <c r="B73" s="81" t="s">
-        <v>255</v>
-      </c>
-      <c r="C73" s="81"/>
-      <c r="D73" s="81">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E73" s="81"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="75"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
       <c r="F73" s="34" t="s">
         <v>15</v>
       </c>
@@ -8230,6 +8222,7 @@
       <c r="U73" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="V73" s="42"/>
       <c r="W73" s="40" t="s">
         <v>15</v>
       </c>
@@ -8256,15 +8249,15 @@
       </c>
     </row>
     <row r="74" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A74" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="74"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="C74" s="82"/>
+      <c r="D74" s="82">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E74" s="82"/>
       <c r="F74" s="34" t="s">
         <v>15</v>
       </c>
@@ -8340,12 +8333,12 @@
     </row>
     <row r="75" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A75" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="74"/>
+        <v>128</v>
+      </c>
+      <c r="B75" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="75"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8422,14 +8415,16 @@
       </c>
     </row>
     <row r="76" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A76" s="33"/>
-      <c r="B76" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="C76" s="74"/>
+      <c r="A76" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="75"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
-      <c r="F76" s="72" t="s">
+      <c r="F76" s="34" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="35" t="s">
@@ -8471,28 +8466,46 @@
       <c r="S76" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T76" s="70"/>
-      <c r="U76" s="36"/>
-      <c r="W76" s="40"/>
-      <c r="X76" s="40"/>
-      <c r="Y76" s="40"/>
-      <c r="Z76" s="40"/>
-      <c r="AA76" s="40"/>
-      <c r="AB76" s="40"/>
-      <c r="AC76" s="40"/>
-      <c r="AD76" s="40"/>
+      <c r="T76" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="U76" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="W76" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="X76" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y76" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z76" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA76" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB76" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC76" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD76" s="40" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="77" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A77" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="74"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" s="75"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
-      <c r="F77" s="34" t="s">
+      <c r="F77" s="72" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="35" t="s">
@@ -8534,46 +8547,25 @@
       <c r="S77" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T77" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="U77" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="V77" s="42"/>
-      <c r="W77" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="X77" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y77" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z77" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA77" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB77" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC77" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD77" s="40" t="s">
-        <v>15</v>
-      </c>
+      <c r="T77" s="70"/>
+      <c r="U77" s="36"/>
+      <c r="W77" s="40"/>
+      <c r="X77" s="40"/>
+      <c r="Y77" s="40"/>
+      <c r="Z77" s="40"/>
+      <c r="AA77" s="40"/>
+      <c r="AB77" s="40"/>
+      <c r="AC77" s="40"/>
+      <c r="AD77" s="40"/>
     </row>
     <row r="78" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A78" s="33">
-        <v>0</v>
-      </c>
-      <c r="B78" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="74"/>
+      <c r="A78" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="75"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8624,6 +8616,7 @@
       <c r="U78" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="V78" s="42"/>
       <c r="W78" s="40" t="s">
         <v>15</v>
       </c>
@@ -8650,13 +8643,13 @@
       </c>
     </row>
     <row r="79" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A79" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B79" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" s="74"/>
+      <c r="A79" s="33">
+        <v>0</v>
+      </c>
+      <c r="B79" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="75"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8734,12 +8727,12 @@
     </row>
     <row r="80" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A80" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B80" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" s="74"/>
+        <v>135</v>
+      </c>
+      <c r="B80" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="75"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8817,12 +8810,12 @@
     </row>
     <row r="81" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A81" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B81" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="C81" s="74"/>
+        <v>137</v>
+      </c>
+      <c r="B81" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="75"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8900,12 +8893,12 @@
     </row>
     <row r="82" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A82" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B82" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="74"/>
+        <v>139</v>
+      </c>
+      <c r="B82" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82" s="78"/>
       <c r="D82" s="43"/>
       <c r="E82" s="43"/>
       <c r="F82" s="34" t="s">
@@ -8983,12 +8976,12 @@
     </row>
     <row r="83" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A83" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B83" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="C83" s="74"/>
+        <v>140</v>
+      </c>
+      <c r="B83" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="75"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9039,7 +9032,6 @@
       <c r="U83" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V83" s="42"/>
       <c r="W83" s="40" t="s">
         <v>15</v>
       </c>
@@ -9067,12 +9059,12 @@
     </row>
     <row r="84" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A84" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B84" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84" s="74"/>
+        <v>142</v>
+      </c>
+      <c r="B84" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="75"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9151,12 +9143,12 @@
     </row>
     <row r="85" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A85" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B85" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="74"/>
+        <v>144</v>
+      </c>
+      <c r="B85" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="75"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9235,12 +9227,12 @@
     </row>
     <row r="86" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A86" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B86" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C86" s="74"/>
+        <v>146</v>
+      </c>
+      <c r="B86" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="75"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9319,12 +9311,12 @@
     </row>
     <row r="87" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A87" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B87" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="C87" s="74"/>
+        <v>148</v>
+      </c>
+      <c r="B87" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" s="75"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9403,12 +9395,12 @@
     </row>
     <row r="88" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A88" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B88" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="C88" s="74"/>
+        <v>150</v>
+      </c>
+      <c r="B88" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="75"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9487,12 +9479,12 @@
     </row>
     <row r="89" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A89" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B89" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="74"/>
+        <v>152</v>
+      </c>
+      <c r="B89" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="75"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9543,6 +9535,7 @@
       <c r="U89" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="V89" s="42"/>
       <c r="W89" s="40" t="s">
         <v>15</v>
       </c>
@@ -9570,12 +9563,12 @@
     </row>
     <row r="90" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A90" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B90" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="C90" s="74"/>
+        <v>154</v>
+      </c>
+      <c r="B90" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" s="75"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9653,12 +9646,12 @@
     </row>
     <row r="91" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A91" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B91" s="74" t="s">
-        <v>249</v>
-      </c>
-      <c r="C91" s="74"/>
+        <v>156</v>
+      </c>
+      <c r="B91" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="75"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9736,12 +9729,12 @@
     </row>
     <row r="92" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A92" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B92" s="74" t="s">
-        <v>257</v>
-      </c>
-      <c r="C92" s="74"/>
+        <v>158</v>
+      </c>
+      <c r="B92" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="C92" s="75"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9819,12 +9812,12 @@
     </row>
     <row r="93" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A93" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B93" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" s="74"/>
+        <v>159</v>
+      </c>
+      <c r="B93" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="75"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9902,12 +9895,12 @@
     </row>
     <row r="94" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A94" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B94" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="74"/>
+      <c r="C94" s="75"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9985,12 +9978,12 @@
     </row>
     <row r="95" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A95" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B95" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B95" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="74"/>
+      <c r="C95" s="75"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10068,12 +10061,12 @@
     </row>
     <row r="96" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A96" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B96" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="74"/>
+      <c r="C96" s="75"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10151,12 +10144,12 @@
     </row>
     <row r="97" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A97" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="B97" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B97" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="74"/>
+      <c r="C97" s="75"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10234,12 +10227,12 @@
     </row>
     <row r="98" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A98" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B98" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="74"/>
+      <c r="C98" s="75"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10317,12 +10310,12 @@
     </row>
     <row r="99" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A99" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="B99" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="B99" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="74"/>
+      <c r="C99" s="75"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10400,12 +10393,12 @@
     </row>
     <row r="100" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A100" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B100" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="C100" s="77"/>
+        <v>166</v>
+      </c>
+      <c r="B100" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="75"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10483,12 +10476,12 @@
     </row>
     <row r="101" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A101" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B101" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="C101" s="77"/>
+        <v>167</v>
+      </c>
+      <c r="B101" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" s="78"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10566,12 +10559,12 @@
     </row>
     <row r="102" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A102" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="B102" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="C102" s="79"/>
+        <v>169</v>
+      </c>
+      <c r="B102" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" s="78"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10649,12 +10642,12 @@
     </row>
     <row r="103" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A103" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B103" s="76" t="s">
-        <v>176</v>
-      </c>
-      <c r="C103" s="77"/>
+        <v>171</v>
+      </c>
+      <c r="B103" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" s="80"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10732,12 +10725,12 @@
     </row>
     <row r="104" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A104" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B104" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="C104" s="77"/>
+        <v>173</v>
+      </c>
+      <c r="B104" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="C104" s="78"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10815,12 +10808,12 @@
     </row>
     <row r="105" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A105" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B105" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="C105" s="77"/>
+        <v>175</v>
+      </c>
+      <c r="B105" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" s="78"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10898,12 +10891,12 @@
     </row>
     <row r="106" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A106" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="B106" s="76" t="s">
-        <v>182</v>
-      </c>
-      <c r="C106" s="77"/>
+        <v>177</v>
+      </c>
+      <c r="B106" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" s="78"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10981,12 +10974,12 @@
     </row>
     <row r="107" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A107" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B107" s="76" t="s">
-        <v>184</v>
-      </c>
-      <c r="C107" s="77"/>
+        <v>179</v>
+      </c>
+      <c r="B107" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="C107" s="78"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11064,12 +11057,12 @@
     </row>
     <row r="108" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A108" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B108" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="C108" s="74"/>
+        <v>181</v>
+      </c>
+      <c r="B108" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108" s="78"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11147,10 +11140,10 @@
     </row>
     <row r="109" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A109" s="33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B109" s="75" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C109" s="75"/>
       <c r="D109" s="43"/>
@@ -11230,12 +11223,12 @@
     </row>
     <row r="110" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A110" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B110" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="C110" s="75"/>
+        <v>185</v>
+      </c>
+      <c r="B110" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C110" s="76"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11313,12 +11306,12 @@
     </row>
     <row r="111" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A111" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B111" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="C111" s="75"/>
+        <v>187</v>
+      </c>
+      <c r="B111" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C111" s="76"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11396,12 +11389,12 @@
     </row>
     <row r="112" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A112" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B112" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C112" s="75"/>
+      <c r="B112" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C112" s="76"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11479,12 +11472,12 @@
     </row>
     <row r="113" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A113" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B113" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="C113" s="75"/>
+        <v>189</v>
+      </c>
+      <c r="B113" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" s="76"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11562,12 +11555,12 @@
     </row>
     <row r="114" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A114" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B114" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="C114" s="75"/>
+        <v>190</v>
+      </c>
+      <c r="B114" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="76"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11645,12 +11638,12 @@
     </row>
     <row r="115" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A115" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B115" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="C115" s="75"/>
+        <v>191</v>
+      </c>
+      <c r="B115" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C115" s="76"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11728,12 +11721,12 @@
     </row>
     <row r="116" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A116" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B116" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="C116" s="74"/>
+        <v>192</v>
+      </c>
+      <c r="B116" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C116" s="76"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11811,12 +11804,12 @@
     </row>
     <row r="117" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A117" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="B117" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="C117" s="74"/>
+        <v>193</v>
+      </c>
+      <c r="B117" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="C117" s="75"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11892,14 +11885,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:30" s="10" customFormat="1" ht="38.25" customHeight="1">
+    <row r="118" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A118" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B118" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="C118" s="74"/>
+        <v>195</v>
+      </c>
+      <c r="B118" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C118" s="75"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11975,14 +11968,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
+    <row r="119" spans="1:30" s="10" customFormat="1" ht="38.25" customHeight="1">
       <c r="A119" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B119" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="C119" s="74"/>
+        <v>197</v>
+      </c>
+      <c r="B119" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C119" s="75"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12060,12 +12053,12 @@
     </row>
     <row r="120" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A120" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B120" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="C120" s="74"/>
+        <v>199</v>
+      </c>
+      <c r="B120" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C120" s="75"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12143,12 +12136,12 @@
     </row>
     <row r="121" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A121" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B121" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="C121" s="74"/>
+        <v>201</v>
+      </c>
+      <c r="B121" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C121" s="75"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12226,12 +12219,12 @@
     </row>
     <row r="122" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A122" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B122" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="C122" s="74"/>
+        <v>203</v>
+      </c>
+      <c r="B122" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C122" s="75"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12309,12 +12302,12 @@
     </row>
     <row r="123" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A123" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B123" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="C123" s="74"/>
+        <v>205</v>
+      </c>
+      <c r="B123" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C123" s="75"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12392,12 +12385,12 @@
     </row>
     <row r="124" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A124" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="B124" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="C124" s="74"/>
+        <v>207</v>
+      </c>
+      <c r="B124" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="C124" s="75"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12475,12 +12468,12 @@
     </row>
     <row r="125" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A125" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B125" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="C125" s="74"/>
+        <v>209</v>
+      </c>
+      <c r="B125" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" s="75"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12558,12 +12551,12 @@
     </row>
     <row r="126" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A126" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B126" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="C126" s="74"/>
+        <v>211</v>
+      </c>
+      <c r="B126" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="C126" s="75"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12641,12 +12634,12 @@
     </row>
     <row r="127" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A127" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B127" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="C127" s="74"/>
+        <v>213</v>
+      </c>
+      <c r="B127" s="75" t="s">
+        <v>214</v>
+      </c>
+      <c r="C127" s="75"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12724,12 +12717,12 @@
     </row>
     <row r="128" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A128" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B128" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="C128" s="74"/>
+        <v>215</v>
+      </c>
+      <c r="B128" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="C128" s="75"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12807,12 +12800,12 @@
     </row>
     <row r="129" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A129" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B129" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="C129" s="74"/>
+        <v>217</v>
+      </c>
+      <c r="B129" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129" s="75"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12890,12 +12883,12 @@
     </row>
     <row r="130" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A130" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B130" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="C130" s="74"/>
+        <v>219</v>
+      </c>
+      <c r="B130" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="C130" s="75"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12973,12 +12966,12 @@
     </row>
     <row r="131" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A131" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B131" s="74" t="s">
-        <v>226</v>
-      </c>
-      <c r="C131" s="74"/>
+        <v>221</v>
+      </c>
+      <c r="B131" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="C131" s="75"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
       <c r="F131" s="34" t="s">
@@ -13054,16 +13047,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
+    <row r="132" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A132" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="B132" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="C132" s="73"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="34"/>
+        <v>223</v>
+      </c>
+      <c r="B132" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="C132" s="75"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="43"/>
       <c r="F132" s="34" t="s">
         <v>15</v>
       </c>
@@ -13112,7 +13105,6 @@
       <c r="U132" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V132" s="10"/>
       <c r="W132" s="40" t="s">
         <v>15</v>
       </c>
@@ -13137,293 +13129,350 @@
       <c r="AD132" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AE132" s="10"/>
-      <c r="AF132" s="10"/>
-      <c r="AG132" s="10"/>
-      <c r="AH132" s="10"/>
-      <c r="AI132" s="10"/>
-      <c r="AJ132" s="10"/>
-      <c r="AK132" s="10"/>
-      <c r="AL132" s="10"/>
-      <c r="AM132" s="10"/>
-      <c r="AN132" s="10"/>
-      <c r="AO132" s="10"/>
-      <c r="AP132" s="10"/>
-      <c r="AQ132" s="10"/>
-      <c r="AR132" s="10"/>
-      <c r="AS132" s="10"/>
-      <c r="AT132" s="10"/>
-      <c r="AU132" s="10"/>
-      <c r="AV132" s="10"/>
-      <c r="AW132" s="10"/>
-      <c r="AX132" s="10"/>
-      <c r="AY132" s="10"/>
-      <c r="AZ132" s="10"/>
-      <c r="BA132" s="10"/>
-      <c r="BB132" s="10"/>
-      <c r="BC132" s="10"/>
-      <c r="BD132" s="10"/>
-      <c r="BE132" s="10"/>
-      <c r="BF132" s="10"/>
-      <c r="BG132" s="10"/>
-      <c r="BH132" s="10"/>
-      <c r="BI132" s="10"/>
-      <c r="BJ132" s="10"/>
-      <c r="BK132" s="10"/>
-      <c r="BL132" s="10"/>
-      <c r="BM132" s="10"/>
-      <c r="BN132" s="10"/>
-      <c r="BO132" s="10"/>
-      <c r="BP132" s="10"/>
-      <c r="BQ132" s="10"/>
-      <c r="BR132" s="10"/>
-      <c r="BS132" s="10"/>
-      <c r="BT132" s="10"/>
-      <c r="BU132" s="10"/>
-      <c r="BV132" s="10"/>
-      <c r="BW132" s="10"/>
-      <c r="BX132" s="10"/>
-      <c r="BY132" s="10"/>
-      <c r="BZ132" s="10"/>
-      <c r="CA132" s="10"/>
-      <c r="CB132" s="10"/>
-      <c r="CC132" s="10"/>
-      <c r="CD132" s="10"/>
-      <c r="CE132" s="10"/>
-      <c r="CF132" s="10"/>
-      <c r="CG132" s="10"/>
-      <c r="CH132" s="10"/>
-      <c r="CI132" s="10"/>
-      <c r="CJ132" s="10"/>
-      <c r="CK132" s="10"/>
-      <c r="CL132" s="10"/>
-      <c r="CM132" s="10"/>
-      <c r="CN132" s="10"/>
-      <c r="CO132" s="10"/>
-      <c r="CP132" s="10"/>
-      <c r="CQ132" s="10"/>
-      <c r="CR132" s="10"/>
-      <c r="CS132" s="10"/>
-      <c r="CT132" s="10"/>
-      <c r="CU132" s="10"/>
-      <c r="CV132" s="10"/>
-      <c r="CW132" s="10"/>
-      <c r="CX132" s="10"/>
-      <c r="CY132" s="10"/>
-      <c r="CZ132" s="10"/>
-      <c r="DA132" s="10"/>
-      <c r="DB132" s="10"/>
-      <c r="DC132" s="10"/>
-      <c r="DD132" s="10"/>
-      <c r="DE132" s="10"/>
-      <c r="DF132" s="10"/>
-      <c r="DG132" s="10"/>
-      <c r="DH132" s="10"/>
-      <c r="DI132" s="10"/>
-      <c r="DJ132" s="10"/>
-      <c r="DK132" s="10"/>
-      <c r="DL132" s="10"/>
-      <c r="DM132" s="10"/>
-      <c r="DN132" s="10"/>
-      <c r="DO132" s="10"/>
-      <c r="DP132" s="10"/>
-      <c r="DQ132" s="10"/>
-      <c r="DR132" s="10"/>
-      <c r="DS132" s="10"/>
-      <c r="DT132" s="10"/>
-      <c r="DU132" s="10"/>
-      <c r="DV132" s="10"/>
-      <c r="DW132" s="10"/>
-      <c r="DX132" s="10"/>
-      <c r="DY132" s="10"/>
-      <c r="DZ132" s="10"/>
-      <c r="EA132" s="10"/>
-      <c r="EB132" s="10"/>
-      <c r="EC132" s="10"/>
-      <c r="ED132" s="10"/>
-      <c r="EE132" s="10"/>
-      <c r="EF132" s="10"/>
-      <c r="EG132" s="10"/>
-      <c r="EH132" s="10"/>
-      <c r="EI132" s="10"/>
-      <c r="EJ132" s="10"/>
-      <c r="EK132" s="10"/>
-      <c r="EL132" s="10"/>
-      <c r="EM132" s="10"/>
-      <c r="EN132" s="10"/>
-      <c r="EO132" s="10"/>
-      <c r="EP132" s="10"/>
-      <c r="EQ132" s="10"/>
-      <c r="ER132" s="10"/>
-      <c r="ES132" s="10"/>
-      <c r="ET132" s="10"/>
-      <c r="EU132" s="10"/>
-      <c r="EV132" s="10"/>
-      <c r="EW132" s="10"/>
-      <c r="EX132" s="10"/>
-      <c r="EY132" s="10"/>
-      <c r="EZ132" s="10"/>
-      <c r="FA132" s="10"/>
-      <c r="FB132" s="10"/>
-      <c r="FC132" s="10"/>
-      <c r="FD132" s="10"/>
-      <c r="FE132" s="10"/>
-      <c r="FF132" s="10"/>
-      <c r="FG132" s="10"/>
-      <c r="FH132" s="10"/>
-      <c r="FI132" s="10"/>
-      <c r="FJ132" s="10"/>
-      <c r="FK132" s="10"/>
-      <c r="FL132" s="10"/>
-      <c r="FM132" s="10"/>
-      <c r="FN132" s="10"/>
-      <c r="FO132" s="10"/>
-      <c r="FP132" s="10"/>
-      <c r="FQ132" s="10"/>
-      <c r="FR132" s="10"/>
-      <c r="FS132" s="10"/>
-      <c r="FT132" s="10"/>
-      <c r="FU132" s="10"/>
-      <c r="FV132" s="10"/>
-      <c r="FW132" s="10"/>
-      <c r="FX132" s="10"/>
-      <c r="FY132" s="10"/>
-      <c r="FZ132" s="10"/>
-      <c r="GA132" s="10"/>
-      <c r="GB132" s="10"/>
-      <c r="GC132" s="10"/>
-      <c r="GD132" s="10"/>
-      <c r="GE132" s="10"/>
-      <c r="GF132" s="10"/>
-      <c r="GG132" s="10"/>
-      <c r="GH132" s="10"/>
-      <c r="GI132" s="10"/>
-      <c r="GJ132" s="10"/>
-      <c r="GK132" s="10"/>
-      <c r="GL132" s="10"/>
-      <c r="GM132" s="10"/>
-      <c r="GN132" s="10"/>
-      <c r="GO132" s="10"/>
-      <c r="GP132" s="10"/>
-      <c r="GQ132" s="10"/>
-      <c r="GR132" s="10"/>
-      <c r="GS132" s="10"/>
-      <c r="GT132" s="10"/>
-      <c r="GU132" s="10"/>
-      <c r="GV132" s="10"/>
-      <c r="GW132" s="10"/>
-      <c r="GX132" s="10"/>
-      <c r="GY132" s="10"/>
-      <c r="GZ132" s="10"/>
-      <c r="HA132" s="10"/>
-      <c r="HB132" s="10"/>
-      <c r="HC132" s="10"/>
-      <c r="HD132" s="10"/>
-      <c r="HE132" s="10"/>
-      <c r="HF132" s="10"/>
-      <c r="HG132" s="10"/>
-      <c r="HH132" s="10"/>
-      <c r="HI132" s="10"/>
-      <c r="HJ132" s="10"/>
-      <c r="HK132" s="10"/>
-      <c r="HL132" s="10"/>
-      <c r="HM132" s="10"/>
-      <c r="HN132" s="10"/>
-      <c r="HO132" s="10"/>
-      <c r="HP132" s="10"/>
-      <c r="HQ132" s="10"/>
-      <c r="HR132" s="10"/>
-      <c r="HS132" s="10"/>
-      <c r="HT132" s="10"/>
-      <c r="HU132" s="10"/>
-      <c r="HV132" s="10"/>
-      <c r="HW132" s="10"/>
-      <c r="HX132" s="10"/>
-      <c r="HY132" s="10"/>
-      <c r="HZ132" s="10"/>
-      <c r="IA132" s="10"/>
-      <c r="IB132" s="10"/>
-      <c r="IC132" s="10"/>
-      <c r="ID132" s="10"/>
-      <c r="IE132" s="10"/>
-      <c r="IF132" s="10"/>
-      <c r="IG132" s="10"/>
-      <c r="IH132" s="10"/>
-      <c r="II132" s="10"/>
-      <c r="IJ132" s="10"/>
-      <c r="IK132" s="10"/>
-      <c r="IL132" s="10"/>
-      <c r="IM132" s="10"/>
-      <c r="IN132" s="10"/>
-      <c r="IO132" s="10"/>
-      <c r="IP132" s="10"/>
-      <c r="IQ132" s="10"/>
-      <c r="IR132" s="10"/>
-      <c r="IS132" s="10"/>
-      <c r="IT132" s="10"/>
-      <c r="IU132" s="10"/>
-    </row>
-    <row r="133" spans="1:255" s="10" customFormat="1">
-      <c r="A133" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="B133" s="26"/>
-      <c r="C133" s="49"/>
-      <c r="D133" s="50"/>
-      <c r="F133" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="H133" s="52"/>
-      <c r="I133" s="53"/>
-      <c r="J133" s="53"/>
-      <c r="K133" s="53"/>
-      <c r="L133" s="54"/>
-      <c r="M133" s="54"/>
-      <c r="N133" s="54"/>
-      <c r="O133" s="54"/>
-      <c r="P133" s="55"/>
-      <c r="Q133" s="54"/>
-      <c r="R133" s="54"/>
-      <c r="T133" s="56"/>
-      <c r="AP133" s="57"/>
-      <c r="AQ133" s="57"/>
-      <c r="AR133" s="57"/>
-      <c r="AS133" s="57"/>
-      <c r="AT133" s="57"/>
-      <c r="AU133" s="57"/>
-      <c r="AV133" s="57"/>
-      <c r="AW133" s="57"/>
+    </row>
+    <row r="133" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
+      <c r="A133" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B133" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="C133" s="74"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="34"/>
+      <c r="F133" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S133" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="T133" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="U133" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="V133" s="10"/>
+      <c r="W133" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="X133" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y133" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z133" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA133" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB133" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC133" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD133" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE133" s="10"/>
+      <c r="AF133" s="10"/>
+      <c r="AG133" s="10"/>
+      <c r="AH133" s="10"/>
+      <c r="AI133" s="10"/>
+      <c r="AJ133" s="10"/>
+      <c r="AK133" s="10"/>
+      <c r="AL133" s="10"/>
+      <c r="AM133" s="10"/>
+      <c r="AN133" s="10"/>
+      <c r="AO133" s="10"/>
+      <c r="AP133" s="10"/>
+      <c r="AQ133" s="10"/>
+      <c r="AR133" s="10"/>
+      <c r="AS133" s="10"/>
+      <c r="AT133" s="10"/>
+      <c r="AU133" s="10"/>
+      <c r="AV133" s="10"/>
+      <c r="AW133" s="10"/>
+      <c r="AX133" s="10"/>
+      <c r="AY133" s="10"/>
+      <c r="AZ133" s="10"/>
+      <c r="BA133" s="10"/>
+      <c r="BB133" s="10"/>
+      <c r="BC133" s="10"/>
+      <c r="BD133" s="10"/>
+      <c r="BE133" s="10"/>
+      <c r="BF133" s="10"/>
+      <c r="BG133" s="10"/>
+      <c r="BH133" s="10"/>
+      <c r="BI133" s="10"/>
+      <c r="BJ133" s="10"/>
+      <c r="BK133" s="10"/>
+      <c r="BL133" s="10"/>
+      <c r="BM133" s="10"/>
+      <c r="BN133" s="10"/>
+      <c r="BO133" s="10"/>
+      <c r="BP133" s="10"/>
+      <c r="BQ133" s="10"/>
+      <c r="BR133" s="10"/>
+      <c r="BS133" s="10"/>
+      <c r="BT133" s="10"/>
+      <c r="BU133" s="10"/>
+      <c r="BV133" s="10"/>
+      <c r="BW133" s="10"/>
+      <c r="BX133" s="10"/>
+      <c r="BY133" s="10"/>
+      <c r="BZ133" s="10"/>
+      <c r="CA133" s="10"/>
+      <c r="CB133" s="10"/>
+      <c r="CC133" s="10"/>
+      <c r="CD133" s="10"/>
+      <c r="CE133" s="10"/>
+      <c r="CF133" s="10"/>
+      <c r="CG133" s="10"/>
+      <c r="CH133" s="10"/>
+      <c r="CI133" s="10"/>
+      <c r="CJ133" s="10"/>
+      <c r="CK133" s="10"/>
+      <c r="CL133" s="10"/>
+      <c r="CM133" s="10"/>
+      <c r="CN133" s="10"/>
+      <c r="CO133" s="10"/>
+      <c r="CP133" s="10"/>
+      <c r="CQ133" s="10"/>
+      <c r="CR133" s="10"/>
+      <c r="CS133" s="10"/>
+      <c r="CT133" s="10"/>
+      <c r="CU133" s="10"/>
+      <c r="CV133" s="10"/>
+      <c r="CW133" s="10"/>
+      <c r="CX133" s="10"/>
+      <c r="CY133" s="10"/>
+      <c r="CZ133" s="10"/>
+      <c r="DA133" s="10"/>
+      <c r="DB133" s="10"/>
+      <c r="DC133" s="10"/>
+      <c r="DD133" s="10"/>
+      <c r="DE133" s="10"/>
+      <c r="DF133" s="10"/>
+      <c r="DG133" s="10"/>
+      <c r="DH133" s="10"/>
+      <c r="DI133" s="10"/>
+      <c r="DJ133" s="10"/>
+      <c r="DK133" s="10"/>
+      <c r="DL133" s="10"/>
+      <c r="DM133" s="10"/>
+      <c r="DN133" s="10"/>
+      <c r="DO133" s="10"/>
+      <c r="DP133" s="10"/>
+      <c r="DQ133" s="10"/>
+      <c r="DR133" s="10"/>
+      <c r="DS133" s="10"/>
+      <c r="DT133" s="10"/>
+      <c r="DU133" s="10"/>
+      <c r="DV133" s="10"/>
+      <c r="DW133" s="10"/>
+      <c r="DX133" s="10"/>
+      <c r="DY133" s="10"/>
+      <c r="DZ133" s="10"/>
+      <c r="EA133" s="10"/>
+      <c r="EB133" s="10"/>
+      <c r="EC133" s="10"/>
+      <c r="ED133" s="10"/>
+      <c r="EE133" s="10"/>
+      <c r="EF133" s="10"/>
+      <c r="EG133" s="10"/>
+      <c r="EH133" s="10"/>
+      <c r="EI133" s="10"/>
+      <c r="EJ133" s="10"/>
+      <c r="EK133" s="10"/>
+      <c r="EL133" s="10"/>
+      <c r="EM133" s="10"/>
+      <c r="EN133" s="10"/>
+      <c r="EO133" s="10"/>
+      <c r="EP133" s="10"/>
+      <c r="EQ133" s="10"/>
+      <c r="ER133" s="10"/>
+      <c r="ES133" s="10"/>
+      <c r="ET133" s="10"/>
+      <c r="EU133" s="10"/>
+      <c r="EV133" s="10"/>
+      <c r="EW133" s="10"/>
+      <c r="EX133" s="10"/>
+      <c r="EY133" s="10"/>
+      <c r="EZ133" s="10"/>
+      <c r="FA133" s="10"/>
+      <c r="FB133" s="10"/>
+      <c r="FC133" s="10"/>
+      <c r="FD133" s="10"/>
+      <c r="FE133" s="10"/>
+      <c r="FF133" s="10"/>
+      <c r="FG133" s="10"/>
+      <c r="FH133" s="10"/>
+      <c r="FI133" s="10"/>
+      <c r="FJ133" s="10"/>
+      <c r="FK133" s="10"/>
+      <c r="FL133" s="10"/>
+      <c r="FM133" s="10"/>
+      <c r="FN133" s="10"/>
+      <c r="FO133" s="10"/>
+      <c r="FP133" s="10"/>
+      <c r="FQ133" s="10"/>
+      <c r="FR133" s="10"/>
+      <c r="FS133" s="10"/>
+      <c r="FT133" s="10"/>
+      <c r="FU133" s="10"/>
+      <c r="FV133" s="10"/>
+      <c r="FW133" s="10"/>
+      <c r="FX133" s="10"/>
+      <c r="FY133" s="10"/>
+      <c r="FZ133" s="10"/>
+      <c r="GA133" s="10"/>
+      <c r="GB133" s="10"/>
+      <c r="GC133" s="10"/>
+      <c r="GD133" s="10"/>
+      <c r="GE133" s="10"/>
+      <c r="GF133" s="10"/>
+      <c r="GG133" s="10"/>
+      <c r="GH133" s="10"/>
+      <c r="GI133" s="10"/>
+      <c r="GJ133" s="10"/>
+      <c r="GK133" s="10"/>
+      <c r="GL133" s="10"/>
+      <c r="GM133" s="10"/>
+      <c r="GN133" s="10"/>
+      <c r="GO133" s="10"/>
+      <c r="GP133" s="10"/>
+      <c r="GQ133" s="10"/>
+      <c r="GR133" s="10"/>
+      <c r="GS133" s="10"/>
+      <c r="GT133" s="10"/>
+      <c r="GU133" s="10"/>
+      <c r="GV133" s="10"/>
+      <c r="GW133" s="10"/>
+      <c r="GX133" s="10"/>
+      <c r="GY133" s="10"/>
+      <c r="GZ133" s="10"/>
+      <c r="HA133" s="10"/>
+      <c r="HB133" s="10"/>
+      <c r="HC133" s="10"/>
+      <c r="HD133" s="10"/>
+      <c r="HE133" s="10"/>
+      <c r="HF133" s="10"/>
+      <c r="HG133" s="10"/>
+      <c r="HH133" s="10"/>
+      <c r="HI133" s="10"/>
+      <c r="HJ133" s="10"/>
+      <c r="HK133" s="10"/>
+      <c r="HL133" s="10"/>
+      <c r="HM133" s="10"/>
+      <c r="HN133" s="10"/>
+      <c r="HO133" s="10"/>
+      <c r="HP133" s="10"/>
+      <c r="HQ133" s="10"/>
+      <c r="HR133" s="10"/>
+      <c r="HS133" s="10"/>
+      <c r="HT133" s="10"/>
+      <c r="HU133" s="10"/>
+      <c r="HV133" s="10"/>
+      <c r="HW133" s="10"/>
+      <c r="HX133" s="10"/>
+      <c r="HY133" s="10"/>
+      <c r="HZ133" s="10"/>
+      <c r="IA133" s="10"/>
+      <c r="IB133" s="10"/>
+      <c r="IC133" s="10"/>
+      <c r="ID133" s="10"/>
+      <c r="IE133" s="10"/>
+      <c r="IF133" s="10"/>
+      <c r="IG133" s="10"/>
+      <c r="IH133" s="10"/>
+      <c r="II133" s="10"/>
+      <c r="IJ133" s="10"/>
+      <c r="IK133" s="10"/>
+      <c r="IL133" s="10"/>
+      <c r="IM133" s="10"/>
+      <c r="IN133" s="10"/>
+      <c r="IO133" s="10"/>
+      <c r="IP133" s="10"/>
+      <c r="IQ133" s="10"/>
+      <c r="IR133" s="10"/>
+      <c r="IS133" s="10"/>
+      <c r="IT133" s="10"/>
+      <c r="IU133" s="10"/>
     </row>
     <row r="134" spans="1:255" s="10" customFormat="1">
-      <c r="A134" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="B134" s="59"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="59"/>
-      <c r="E134" s="59"/>
-      <c r="F134" s="59"/>
-      <c r="G134" s="59"/>
-      <c r="H134" s="61"/>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
-      <c r="K134" s="54"/>
+      <c r="A134" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B134" s="26"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="50"/>
+      <c r="F134" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="H134" s="52"/>
+      <c r="I134" s="53"/>
+      <c r="J134" s="53"/>
+      <c r="K134" s="53"/>
       <c r="L134" s="54"/>
       <c r="M134" s="54"/>
       <c r="N134" s="54"/>
       <c r="O134" s="54"/>
-      <c r="AM134" s="57"/>
-      <c r="AN134" s="57"/>
-      <c r="AO134" s="57"/>
+      <c r="P134" s="55"/>
+      <c r="Q134" s="54"/>
+      <c r="R134" s="54"/>
+      <c r="T134" s="56"/>
       <c r="AP134" s="57"/>
       <c r="AQ134" s="57"/>
       <c r="AR134" s="57"/>
       <c r="AS134" s="57"/>
       <c r="AT134" s="57"/>
+      <c r="AU134" s="57"/>
+      <c r="AV134" s="57"/>
+      <c r="AW134" s="57"/>
     </row>
     <row r="135" spans="1:255" s="10" customFormat="1">
       <c r="A135" s="58" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B135" s="59"/>
       <c r="C135" s="60"/>
@@ -13449,16 +13498,16 @@
       <c r="AT135" s="57"/>
     </row>
     <row r="136" spans="1:255" s="10" customFormat="1">
-      <c r="A136" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="B136" s="62"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="62"/>
+      <c r="A136" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="B136" s="59"/>
+      <c r="C136" s="60"/>
+      <c r="D136" s="59"/>
       <c r="E136" s="59"/>
       <c r="F136" s="59"/>
       <c r="G136" s="59"/>
-      <c r="H136" s="63"/>
+      <c r="H136" s="61"/>
       <c r="I136" s="54"/>
       <c r="J136" s="54"/>
       <c r="K136" s="54"/>
@@ -13475,9 +13524,9 @@
       <c r="AS136" s="57"/>
       <c r="AT136" s="57"/>
     </row>
-    <row r="137" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
+    <row r="137" spans="1:255" s="10" customFormat="1">
       <c r="A137" s="71" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B137" s="62"/>
       <c r="C137" s="1"/>
@@ -13503,8 +13552,8 @@
       <c r="AT137" s="57"/>
     </row>
     <row r="138" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A138" s="58" t="s">
-        <v>247</v>
+      <c r="A138" s="71" t="s">
+        <v>229</v>
       </c>
       <c r="B138" s="62"/>
       <c r="C138" s="1"/>
@@ -13531,7 +13580,7 @@
     </row>
     <row r="139" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A139" s="58" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B139" s="62"/>
       <c r="C139" s="1"/>
@@ -13558,7 +13607,7 @@
     </row>
     <row r="140" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A140" s="58" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B140" s="62"/>
       <c r="C140" s="1"/>
@@ -13585,7 +13634,7 @@
     </row>
     <row r="141" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="58" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B141" s="62"/>
       <c r="C141" s="1"/>
@@ -13612,7 +13661,7 @@
     </row>
     <row r="142" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="58" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B142" s="62"/>
       <c r="C142" s="1"/>
@@ -13639,7 +13688,7 @@
     </row>
     <row r="143" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="58" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B143" s="62"/>
       <c r="C143" s="1"/>
@@ -13666,7 +13715,7 @@
     </row>
     <row r="144" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A144" s="58" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B144" s="62"/>
       <c r="C144" s="1"/>
@@ -13691,17 +13740,17 @@
       <c r="AS144" s="57"/>
       <c r="AT144" s="57"/>
     </row>
-    <row r="145" spans="1:46">
-      <c r="A145" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="B145" s="59"/>
-      <c r="C145" s="60"/>
-      <c r="D145" s="59"/>
+    <row r="145" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A145" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" s="62"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="62"/>
       <c r="E145" s="59"/>
       <c r="F145" s="59"/>
       <c r="G145" s="59"/>
-      <c r="H145" s="61"/>
+      <c r="H145" s="63"/>
       <c r="I145" s="54"/>
       <c r="J145" s="54"/>
       <c r="K145" s="54"/>
@@ -13709,95 +13758,95 @@
       <c r="M145" s="54"/>
       <c r="N145" s="54"/>
       <c r="O145" s="54"/>
-      <c r="P145" s="10"/>
-      <c r="Q145" s="10"/>
-      <c r="R145" s="10"/>
-      <c r="S145"/>
-    </row>
-    <row r="146" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
+      <c r="AM145" s="57"/>
+      <c r="AN145" s="57"/>
+      <c r="AO145" s="57"/>
+      <c r="AP145" s="57"/>
+      <c r="AQ145" s="57"/>
+      <c r="AR145" s="57"/>
+      <c r="AS145" s="57"/>
+      <c r="AT145" s="57"/>
+    </row>
+    <row r="146" spans="1:46">
       <c r="A146" s="71" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B146" s="59"/>
       <c r="C146" s="60"/>
       <c r="D146" s="59"/>
       <c r="E146" s="59"/>
       <c r="F146" s="59"/>
-      <c r="G146" s="64"/>
-      <c r="H146" s="63"/>
-      <c r="I146" s="55"/>
-      <c r="J146" s="55"/>
-      <c r="K146" s="55"/>
-      <c r="L146" s="55"/>
-      <c r="M146" s="55"/>
-      <c r="N146" s="55"/>
-      <c r="O146" s="55"/>
-      <c r="AM146" s="65"/>
-      <c r="AN146" s="65"/>
-      <c r="AO146" s="65"/>
-      <c r="AP146" s="65"/>
-      <c r="AQ146" s="65"/>
-      <c r="AR146" s="65"/>
-      <c r="AS146" s="65"/>
-      <c r="AT146" s="65"/>
-    </row>
-    <row r="147" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="G146" s="59"/>
+      <c r="H146" s="61"/>
+      <c r="I146" s="54"/>
+      <c r="J146" s="54"/>
+      <c r="K146" s="54"/>
+      <c r="L146" s="54"/>
+      <c r="M146" s="54"/>
+      <c r="N146" s="54"/>
+      <c r="O146" s="54"/>
+      <c r="P146" s="10"/>
+      <c r="Q146" s="10"/>
+      <c r="R146" s="10"/>
+      <c r="S146"/>
+    </row>
+    <row r="147" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A147" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="B147" s="66"/>
-      <c r="C147" s="67"/>
-      <c r="D147" s="68"/>
+        <v>235</v>
+      </c>
+      <c r="B147" s="59"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="59"/>
       <c r="E147" s="59"/>
       <c r="F147" s="59"/>
-      <c r="G147" s="59"/>
-      <c r="H147" s="61"/>
-      <c r="I147" s="54"/>
-      <c r="J147" s="54"/>
-      <c r="K147" s="54"/>
-      <c r="L147" s="54"/>
-      <c r="M147" s="54"/>
-      <c r="N147" s="54"/>
-      <c r="O147" s="54"/>
-      <c r="AM147" s="57"/>
-      <c r="AN147" s="57"/>
-      <c r="AO147" s="57"/>
-      <c r="AP147" s="57"/>
-      <c r="AQ147" s="57"/>
-      <c r="AR147" s="57"/>
-      <c r="AS147" s="57"/>
-      <c r="AT147" s="57"/>
-    </row>
-    <row r="148" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
+      <c r="G147" s="64"/>
+      <c r="H147" s="63"/>
+      <c r="I147" s="55"/>
+      <c r="J147" s="55"/>
+      <c r="K147" s="55"/>
+      <c r="L147" s="55"/>
+      <c r="M147" s="55"/>
+      <c r="N147" s="55"/>
+      <c r="O147" s="55"/>
+      <c r="AM147" s="65"/>
+      <c r="AN147" s="65"/>
+      <c r="AO147" s="65"/>
+      <c r="AP147" s="65"/>
+      <c r="AQ147" s="65"/>
+      <c r="AR147" s="65"/>
+      <c r="AS147" s="65"/>
+      <c r="AT147" s="65"/>
+    </row>
+    <row r="148" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A148" s="71" t="s">
-        <v>240</v>
-      </c>
-      <c r="B148" s="59"/>
-      <c r="C148" s="60"/>
-      <c r="D148" s="59"/>
+        <v>236</v>
+      </c>
+      <c r="B148" s="66"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="68"/>
       <c r="E148" s="59"/>
       <c r="F148" s="59"/>
       <c r="G148" s="59"/>
-      <c r="H148" s="63"/>
-      <c r="I148" s="55"/>
-      <c r="J148" s="55"/>
-      <c r="K148" s="55"/>
-      <c r="L148" s="55"/>
-      <c r="M148" s="55"/>
-      <c r="N148" s="55"/>
-      <c r="O148" s="55"/>
-      <c r="AM148" s="65"/>
-      <c r="AN148" s="65"/>
-      <c r="AO148" s="65"/>
-      <c r="AP148" s="65"/>
-      <c r="AQ148" s="65"/>
-      <c r="AR148" s="65"/>
-      <c r="AS148" s="65"/>
-      <c r="AT148" s="65"/>
-    </row>
-    <row r="149" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="H148" s="61"/>
+      <c r="I148" s="54"/>
+      <c r="J148" s="54"/>
+      <c r="K148" s="54"/>
+      <c r="L148" s="54"/>
+      <c r="M148" s="54"/>
+      <c r="N148" s="54"/>
+      <c r="O148" s="54"/>
+      <c r="AM148" s="57"/>
+      <c r="AN148" s="57"/>
+      <c r="AO148" s="57"/>
+      <c r="AP148" s="57"/>
+      <c r="AQ148" s="57"/>
+      <c r="AR148" s="57"/>
+      <c r="AS148" s="57"/>
+      <c r="AT148" s="57"/>
+    </row>
+    <row r="149" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A149" s="71" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B149" s="59"/>
       <c r="C149" s="60"/>
@@ -13805,26 +13854,26 @@
       <c r="E149" s="59"/>
       <c r="F149" s="59"/>
       <c r="G149" s="59"/>
-      <c r="H149" s="61"/>
-      <c r="I149" s="54"/>
-      <c r="J149" s="54"/>
-      <c r="K149" s="54"/>
-      <c r="L149" s="54"/>
-      <c r="M149" s="54"/>
-      <c r="N149" s="54"/>
-      <c r="O149" s="54"/>
-      <c r="AM149" s="57"/>
-      <c r="AN149" s="57"/>
-      <c r="AO149" s="57"/>
-      <c r="AP149" s="57"/>
-      <c r="AQ149" s="57"/>
-      <c r="AR149" s="57"/>
-      <c r="AS149" s="57"/>
-      <c r="AT149" s="57"/>
+      <c r="H149" s="63"/>
+      <c r="I149" s="55"/>
+      <c r="J149" s="55"/>
+      <c r="K149" s="55"/>
+      <c r="L149" s="55"/>
+      <c r="M149" s="55"/>
+      <c r="N149" s="55"/>
+      <c r="O149" s="55"/>
+      <c r="AM149" s="65"/>
+      <c r="AN149" s="65"/>
+      <c r="AO149" s="65"/>
+      <c r="AP149" s="65"/>
+      <c r="AQ149" s="65"/>
+      <c r="AR149" s="65"/>
+      <c r="AS149" s="65"/>
+      <c r="AT149" s="65"/>
     </row>
     <row r="150" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A150" s="71" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B150" s="59"/>
       <c r="C150" s="60"/>
@@ -13849,11 +13898,32 @@
       <c r="AS150" s="57"/>
       <c r="AT150" s="57"/>
     </row>
-    <row r="151" spans="1:46">
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="69"/>
+    <row r="151" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A151" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="B151" s="59"/>
+      <c r="C151" s="60"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="59"/>
+      <c r="H151" s="61"/>
+      <c r="I151" s="54"/>
+      <c r="J151" s="54"/>
+      <c r="K151" s="54"/>
+      <c r="L151" s="54"/>
+      <c r="M151" s="54"/>
+      <c r="N151" s="54"/>
+      <c r="O151" s="54"/>
+      <c r="AM151" s="57"/>
+      <c r="AN151" s="57"/>
+      <c r="AO151" s="57"/>
+      <c r="AP151" s="57"/>
+      <c r="AQ151" s="57"/>
+      <c r="AR151" s="57"/>
+      <c r="AS151" s="57"/>
+      <c r="AT151" s="57"/>
     </row>
     <row r="152" spans="1:46">
       <c r="D152" s="1"/>
@@ -14228,10 +14298,13 @@
       <c r="G213" s="69"/>
     </row>
     <row r="214" spans="4:7">
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="69"/>
     </row>
     <row r="215" spans="4:7">
+      <c r="F215" s="1"/>
       <c r="G215" s="69"/>
     </row>
     <row r="216" spans="4:7">
@@ -14243,8 +14316,8 @@
     <row r="218" spans="4:7">
       <c r="G218" s="69"/>
     </row>
-    <row r="223" spans="4:7">
-      <c r="G223"/>
+    <row r="219" spans="4:7">
+      <c r="G219" s="69"/>
     </row>
     <row r="224" spans="4:7">
       <c r="G224"/>
@@ -14351,8 +14424,11 @@
     <row r="258" spans="7:7">
       <c r="G258"/>
     </row>
+    <row r="259" spans="7:7">
+      <c r="G259"/>
+    </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="143">
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14432,15 +14508,15 @@
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:E74"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:C77"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
@@ -14485,8 +14561,8 @@
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B132:C132"/>
     <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B133:C133"/>
     <mergeCell ref="B124:C124"/>
     <mergeCell ref="B125:C125"/>
     <mergeCell ref="B126:C126"/>
@@ -14495,6 +14571,7 @@
     <mergeCell ref="B129:C129"/>
     <mergeCell ref="B130:C130"/>
     <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14503,8 +14580,9 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;20&amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="99" max="20" man="1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="81" max="16383" man="1"/>
+    <brk id="100" max="20" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840711FA-348B-419D-ADBD-578851795F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744B2D8F-03ED-4E6F-95E0-CF6E7C451D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier">"'24a7b5fc-9de7-4bbf-a971-8358f80d3098'"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'a week'!$A$1:$U$151</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'a week'!$A$1:$U$152</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'a week'!$A:$E,'a week'!$1:$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="260">
   <si>
     <t>重要農產品價格日報表</t>
   </si>
@@ -565,10 +565,6 @@
   <si>
     <t>檸檬
 (產地)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    檸檬
-    台北市場批發價</t>
   </si>
   <si>
     <t>58</t>
@@ -1495,6 +1491,14 @@
   </si>
   <si>
     <t>4.豐水梨、新興梨及寶島甘露梨交易量價(東勢果菜市場價格)－農產品行情報導，本會農糧署。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠芭(產地)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>檸檬(台北市場批發價)</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -1719,7 +1723,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1866,12 +1870,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2076,45 +2091,6 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2156,6 +2132,51 @@
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2567,11 +2588,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IU259"/>
+  <dimension ref="A1:IU260"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2604,35 +2625,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2681,8 +2702,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2691,41 +2712,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="91" t="s">
+      <c r="T5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="91"/>
+      <c r="U5" s="78"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="96" t="s">
+      <c r="G6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2737,36 +2758,36 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="97" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="98" t="s">
-        <v>240</v>
-      </c>
-      <c r="M7" s="99" t="s">
+      <c r="L7" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="M7" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="100" t="s">
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="100"/>
-      <c r="V7" s="85"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="88"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
@@ -2777,14 +2798,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2797,9 +2818,9 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="98"/>
+      <c r="L8" s="85"/>
       <c r="M8" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N8" s="30" t="s">
         <v>10</v>
@@ -2823,9 +2844,9 @@
         <v>11</v>
       </c>
       <c r="U8" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="V8" s="85"/>
+        <v>241</v>
+      </c>
+      <c r="V8" s="88"/>
       <c r="W8" s="32" t="s">
         <v>12</v>
       </c>
@@ -2855,13 +2876,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87" t="s">
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2938,13 +2959,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -3019,10 +3040,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3106,10 +3127,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3193,10 +3214,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3280,10 +3301,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="75"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3364,10 +3385,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="75"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3447,10 +3468,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3530,10 +3551,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3613,10 +3634,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="84"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3696,10 +3717,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="75"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3779,10 +3800,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="75"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3862,10 +3883,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="75"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3945,10 +3966,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -4028,10 +4049,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4111,10 +4132,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="75"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4194,10 +4215,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="84"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4277,10 +4298,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="75"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4360,10 +4381,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4443,10 +4464,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4526,10 +4547,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="84"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4610,10 +4631,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="84"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4694,10 +4715,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="75"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4777,10 +4798,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4860,10 +4881,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="92"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4944,10 +4965,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="75"/>
+      <c r="C34" s="92"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -5027,10 +5048,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="75"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5110,10 +5131,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="75"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5193,10 +5214,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5276,10 +5297,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="92"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5359,10 +5380,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="75"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5442,10 +5463,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="75"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5525,10 +5546,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="75"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5608,10 +5629,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="92"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5692,10 +5713,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="83"/>
+      <c r="C43" s="94"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5775,10 +5796,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="83"/>
+      <c r="C44" s="94"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5858,10 +5879,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="75"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5941,10 +5962,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="75"/>
+      <c r="C46" s="92"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -6024,10 +6045,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="75"/>
+      <c r="C47" s="92"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6107,10 +6128,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="92"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6190,10 +6211,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="75"/>
+      <c r="C49" s="92"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6273,10 +6294,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="75" t="s">
+      <c r="B50" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="75"/>
+      <c r="C50" s="92"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6356,10 +6377,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="75"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6439,10 +6460,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="75" t="s">
+      <c r="B52" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6522,10 +6543,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="75" t="s">
+      <c r="B53" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6605,10 +6626,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="75" t="s">
+      <c r="B54" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="75"/>
+      <c r="C54" s="92"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6688,10 +6709,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="75" t="s">
+      <c r="B55" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="75"/>
+      <c r="C55" s="92"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6771,10 +6792,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="C56" s="75"/>
+      <c r="B56" s="92" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="92"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6854,10 +6875,10 @@
       <c r="A57" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="75" t="s">
+      <c r="B57" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="75"/>
+      <c r="C57" s="92"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6937,10 +6958,10 @@
       <c r="A58" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="75"/>
+      <c r="B58" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="92"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -7020,10 +7041,10 @@
       <c r="A59" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="75" t="s">
+      <c r="B59" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="75"/>
+      <c r="C59" s="92"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7103,10 +7124,10 @@
       <c r="A60" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="75"/>
+      <c r="C60" s="92"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7186,10 +7207,10 @@
       <c r="A61" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="75" t="s">
+      <c r="B61" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="75"/>
+      <c r="C61" s="92"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7269,10 +7290,10 @@
       <c r="A62" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="75" t="s">
+      <c r="B62" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="92"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7353,10 +7374,10 @@
       <c r="A63" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="75" t="s">
-        <v>245</v>
-      </c>
-      <c r="C63" s="75"/>
+      <c r="B63" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" s="92"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7436,10 +7457,10 @@
       <c r="A64" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B64" s="75" t="s">
+      <c r="B64" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="75"/>
+      <c r="C64" s="92"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7520,10 +7541,10 @@
       <c r="A65" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="75" t="s">
+      <c r="B65" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="75"/>
+      <c r="C65" s="92"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7603,10 +7624,10 @@
       <c r="A66" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="75" t="s">
+      <c r="B66" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="75"/>
+      <c r="C66" s="92"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7687,10 +7708,10 @@
       <c r="A67" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="75" t="s">
+      <c r="B67" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="75"/>
+      <c r="C67" s="92"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7770,10 +7791,10 @@
       <c r="A68" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="75" t="s">
+      <c r="B68" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="75"/>
+      <c r="C68" s="92"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7853,10 +7874,10 @@
       <c r="A69" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="75" t="s">
+      <c r="B69" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="75"/>
+      <c r="C69" s="92"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7935,10 +7956,10 @@
     </row>
     <row r="70" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A70" s="33"/>
-      <c r="B70" s="75" t="s">
-        <v>255</v>
-      </c>
-      <c r="C70" s="75"/>
+      <c r="B70" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" s="92"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="73" t="s">
@@ -8003,10 +8024,10 @@
       <c r="A71" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="C71" s="75"/>
+      <c r="B71" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="C71" s="92"/>
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
       <c r="F71" s="34" t="s">
@@ -8086,10 +8107,10 @@
       <c r="A72" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="81" t="s">
+      <c r="B72" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="81"/>
+      <c r="C72" s="95"/>
       <c r="D72" s="45"/>
       <c r="E72" s="45"/>
       <c r="F72" s="34" t="s">
@@ -8168,10 +8189,10 @@
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A73" s="46"/>
-      <c r="B73" s="75" t="s">
+      <c r="B73" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="75"/>
+      <c r="C73" s="92"/>
       <c r="D73" s="43"/>
       <c r="E73" s="43"/>
       <c r="F73" s="34" t="s">
@@ -8250,14 +8271,14 @@
     </row>
     <row r="74" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A74" s="38"/>
-      <c r="B74" s="82" t="s">
-        <v>251</v>
-      </c>
-      <c r="C74" s="82"/>
-      <c r="D74" s="82">
+      <c r="B74" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96">
         <v>35.200000000000003</v>
       </c>
-      <c r="E74" s="82"/>
+      <c r="E74" s="96"/>
       <c r="F74" s="34" t="s">
         <v>15</v>
       </c>
@@ -8335,10 +8356,10 @@
       <c r="A75" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="75" t="s">
+      <c r="B75" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="75"/>
+      <c r="C75" s="92"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8418,10 +8439,10 @@
       <c r="A76" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="75" t="s">
+      <c r="B76" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="75"/>
+      <c r="C76" s="92"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="34" t="s">
@@ -8499,10 +8520,10 @@
     </row>
     <row r="77" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A77" s="33"/>
-      <c r="B77" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="C77" s="75"/>
+      <c r="B77" s="92" t="s">
+        <v>251</v>
+      </c>
+      <c r="C77" s="92"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="72" t="s">
@@ -8562,10 +8583,10 @@
       <c r="A78" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B78" s="75" t="s">
+      <c r="B78" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="75"/>
+      <c r="C78" s="92"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8646,10 +8667,10 @@
       <c r="A79" s="33">
         <v>0</v>
       </c>
-      <c r="B79" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="75"/>
+      <c r="B79" s="92" t="s">
+        <v>259</v>
+      </c>
+      <c r="C79" s="92"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8727,12 +8748,12 @@
     </row>
     <row r="80" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A80" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="B80" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="C80" s="75"/>
+      <c r="C80" s="92"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8810,12 +8831,12 @@
     </row>
     <row r="81" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A81" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="B81" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="C81" s="75"/>
+      <c r="C81" s="92"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8892,16 +8913,14 @@
       </c>
     </row>
     <row r="82" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A82" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B82" s="77" t="s">
-        <v>254</v>
-      </c>
-      <c r="C82" s="78"/>
-      <c r="D82" s="43"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="C82" s="102"/>
+      <c r="D82" s="98"/>
       <c r="E82" s="43"/>
-      <c r="F82" s="34" t="s">
+      <c r="F82" s="74" t="s">
         <v>15</v>
       </c>
       <c r="G82" s="35" t="s">
@@ -8949,39 +8968,23 @@
       <c r="U82" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="W82" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="X82" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y82" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z82" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA82" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB82" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC82" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD82" s="40" t="s">
-        <v>15</v>
-      </c>
+      <c r="W82" s="40"/>
+      <c r="X82" s="40"/>
+      <c r="Y82" s="40"/>
+      <c r="Z82" s="40"/>
+      <c r="AA82" s="40"/>
+      <c r="AB82" s="40"/>
+      <c r="AC82" s="40"/>
+      <c r="AD82" s="40"/>
     </row>
     <row r="83" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A83" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B83" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="C83" s="75"/>
+        <v>138</v>
+      </c>
+      <c r="B83" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="C83" s="98"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9059,12 +9062,12 @@
     </row>
     <row r="84" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A84" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B84" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="75"/>
+        <v>139</v>
+      </c>
+      <c r="B84" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="92"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9115,7 +9118,6 @@
       <c r="U84" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V84" s="42"/>
       <c r="W84" s="40" t="s">
         <v>15</v>
       </c>
@@ -9143,12 +9145,12 @@
     </row>
     <row r="85" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A85" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B85" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="C85" s="75"/>
+        <v>141</v>
+      </c>
+      <c r="B85" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="92"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9227,12 +9229,12 @@
     </row>
     <row r="86" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A86" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B86" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="C86" s="75"/>
+        <v>143</v>
+      </c>
+      <c r="B86" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="92"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9311,12 +9313,12 @@
     </row>
     <row r="87" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A87" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B87" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="C87" s="75"/>
+        <v>145</v>
+      </c>
+      <c r="B87" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="92"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9395,12 +9397,12 @@
     </row>
     <row r="88" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A88" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B88" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="C88" s="75"/>
+        <v>147</v>
+      </c>
+      <c r="B88" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88" s="92"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9479,12 +9481,12 @@
     </row>
     <row r="89" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A89" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B89" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="C89" s="75"/>
+        <v>149</v>
+      </c>
+      <c r="B89" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="92"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9563,12 +9565,12 @@
     </row>
     <row r="90" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A90" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B90" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="C90" s="75"/>
+        <v>151</v>
+      </c>
+      <c r="B90" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="92"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9619,6 +9621,7 @@
       <c r="U90" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="V90" s="42"/>
       <c r="W90" s="40" t="s">
         <v>15</v>
       </c>
@@ -9646,12 +9649,12 @@
     </row>
     <row r="91" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A91" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B91" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="75"/>
+        <v>153</v>
+      </c>
+      <c r="B91" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="92"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9729,12 +9732,12 @@
     </row>
     <row r="92" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A92" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B92" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="C92" s="75"/>
+        <v>155</v>
+      </c>
+      <c r="B92" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="92"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9812,12 +9815,12 @@
     </row>
     <row r="93" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A93" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B93" s="75" t="s">
-        <v>253</v>
-      </c>
-      <c r="C93" s="75"/>
+        <v>157</v>
+      </c>
+      <c r="B93" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="C93" s="92"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9895,12 +9898,12 @@
     </row>
     <row r="94" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A94" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B94" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="C94" s="75"/>
+        <v>158</v>
+      </c>
+      <c r="B94" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="C94" s="92"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9978,12 +9981,12 @@
     </row>
     <row r="95" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A95" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B95" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="75"/>
+      <c r="C95" s="92"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10061,12 +10064,12 @@
     </row>
     <row r="96" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A96" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B96" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="B96" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="75"/>
+      <c r="C96" s="92"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10144,12 +10147,12 @@
     </row>
     <row r="97" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A97" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B97" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="75"/>
+      <c r="C97" s="92"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10227,12 +10230,12 @@
     </row>
     <row r="98" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A98" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B98" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="75"/>
+      <c r="C98" s="92"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10310,12 +10313,12 @@
     </row>
     <row r="99" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A99" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B99" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="75"/>
+      <c r="C99" s="92"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10393,12 +10396,12 @@
     </row>
     <row r="100" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A100" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="B100" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C100" s="75"/>
+      <c r="C100" s="92"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10476,12 +10479,12 @@
     </row>
     <row r="101" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A101" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B101" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="C101" s="78"/>
+        <v>165</v>
+      </c>
+      <c r="B101" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="92"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10559,12 +10562,12 @@
     </row>
     <row r="102" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A102" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B102" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="C102" s="78"/>
+        <v>166</v>
+      </c>
+      <c r="B102" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="C102" s="98"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10642,12 +10645,12 @@
     </row>
     <row r="103" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A103" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B103" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="C103" s="80"/>
+        <v>168</v>
+      </c>
+      <c r="B103" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" s="98"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10725,12 +10728,12 @@
     </row>
     <row r="104" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A104" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="B104" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="C104" s="78"/>
+        <v>170</v>
+      </c>
+      <c r="B104" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" s="100"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10808,12 +10811,12 @@
     </row>
     <row r="105" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A105" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B105" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="C105" s="78"/>
+        <v>172</v>
+      </c>
+      <c r="B105" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="C105" s="98"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10891,12 +10894,12 @@
     </row>
     <row r="106" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A106" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B106" s="77" t="s">
-        <v>178</v>
-      </c>
-      <c r="C106" s="78"/>
+        <v>174</v>
+      </c>
+      <c r="B106" s="97" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="98"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10974,12 +10977,12 @@
     </row>
     <row r="107" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A107" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B107" s="77" t="s">
-        <v>180</v>
-      </c>
-      <c r="C107" s="78"/>
+        <v>176</v>
+      </c>
+      <c r="B107" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" s="98"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11057,12 +11060,12 @@
     </row>
     <row r="108" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A108" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="B108" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="C108" s="78"/>
+        <v>178</v>
+      </c>
+      <c r="B108" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" s="98"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11140,12 +11143,12 @@
     </row>
     <row r="109" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A109" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B109" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="C109" s="75"/>
+        <v>180</v>
+      </c>
+      <c r="B109" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="98"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11223,12 +11226,12 @@
     </row>
     <row r="110" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A110" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B110" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="C110" s="76"/>
+        <v>182</v>
+      </c>
+      <c r="B110" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C110" s="92"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11306,12 +11309,12 @@
     </row>
     <row r="111" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A111" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B111" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="C111" s="76"/>
+        <v>184</v>
+      </c>
+      <c r="B111" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111" s="101"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11389,12 +11392,12 @@
     </row>
     <row r="112" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A112" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="B112" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="C112" s="76"/>
+      <c r="B112" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="C112" s="101"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11472,12 +11475,12 @@
     </row>
     <row r="113" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A113" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B113" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="C113" s="76"/>
+        <v>187</v>
+      </c>
+      <c r="B113" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="101"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11555,12 +11558,12 @@
     </row>
     <row r="114" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A114" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B114" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="C114" s="76"/>
+        <v>188</v>
+      </c>
+      <c r="B114" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="C114" s="101"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11638,12 +11641,12 @@
     </row>
     <row r="115" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A115" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B115" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="C115" s="76"/>
+        <v>189</v>
+      </c>
+      <c r="B115" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="C115" s="101"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11721,12 +11724,12 @@
     </row>
     <row r="116" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A116" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B116" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="C116" s="76"/>
+        <v>190</v>
+      </c>
+      <c r="B116" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="C116" s="101"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11804,12 +11807,12 @@
     </row>
     <row r="117" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A117" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B117" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="C117" s="75"/>
+        <v>191</v>
+      </c>
+      <c r="B117" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="C117" s="101"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11887,12 +11890,12 @@
     </row>
     <row r="118" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A118" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B118" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="C118" s="75"/>
+        <v>192</v>
+      </c>
+      <c r="B118" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="C118" s="92"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11968,14 +11971,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:30" s="10" customFormat="1" ht="38.25" customHeight="1">
+    <row r="119" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A119" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="B119" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="C119" s="75"/>
+        <v>194</v>
+      </c>
+      <c r="B119" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" s="92"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12051,14 +12054,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
+    <row r="120" spans="1:30" s="10" customFormat="1" ht="38.25" customHeight="1">
       <c r="A120" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B120" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="C120" s="75"/>
+        <v>196</v>
+      </c>
+      <c r="B120" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C120" s="92"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12136,12 +12139,12 @@
     </row>
     <row r="121" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A121" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B121" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="C121" s="75"/>
+        <v>198</v>
+      </c>
+      <c r="B121" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C121" s="92"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12219,12 +12222,12 @@
     </row>
     <row r="122" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A122" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B122" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="C122" s="75"/>
+        <v>200</v>
+      </c>
+      <c r="B122" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="C122" s="92"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12302,12 +12305,12 @@
     </row>
     <row r="123" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A123" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B123" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="C123" s="75"/>
+        <v>202</v>
+      </c>
+      <c r="B123" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="C123" s="92"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12385,12 +12388,12 @@
     </row>
     <row r="124" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A124" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B124" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="C124" s="75"/>
+        <v>204</v>
+      </c>
+      <c r="B124" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="C124" s="92"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12468,12 +12471,12 @@
     </row>
     <row r="125" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A125" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B125" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="C125" s="75"/>
+        <v>206</v>
+      </c>
+      <c r="B125" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="C125" s="92"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12551,12 +12554,12 @@
     </row>
     <row r="126" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A126" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="B126" s="75" t="s">
-        <v>212</v>
-      </c>
-      <c r="C126" s="75"/>
+        <v>208</v>
+      </c>
+      <c r="B126" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="C126" s="92"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12634,12 +12637,12 @@
     </row>
     <row r="127" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A127" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B127" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="C127" s="75"/>
+        <v>210</v>
+      </c>
+      <c r="B127" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="C127" s="92"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12717,12 +12720,12 @@
     </row>
     <row r="128" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A128" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B128" s="75" t="s">
-        <v>216</v>
-      </c>
-      <c r="C128" s="75"/>
+        <v>212</v>
+      </c>
+      <c r="B128" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="C128" s="92"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12800,12 +12803,12 @@
     </row>
     <row r="129" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A129" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B129" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="C129" s="75"/>
+        <v>214</v>
+      </c>
+      <c r="B129" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="C129" s="92"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12883,12 +12886,12 @@
     </row>
     <row r="130" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A130" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B130" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="C130" s="75"/>
+        <v>216</v>
+      </c>
+      <c r="B130" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="C130" s="92"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12966,12 +12969,12 @@
     </row>
     <row r="131" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A131" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B131" s="75" t="s">
-        <v>222</v>
-      </c>
-      <c r="C131" s="75"/>
+        <v>218</v>
+      </c>
+      <c r="B131" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="C131" s="92"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
       <c r="F131" s="34" t="s">
@@ -13049,12 +13052,12 @@
     </row>
     <row r="132" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A132" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B132" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="C132" s="75"/>
+        <v>220</v>
+      </c>
+      <c r="B132" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="C132" s="92"/>
       <c r="D132" s="43"/>
       <c r="E132" s="43"/>
       <c r="F132" s="34" t="s">
@@ -13130,16 +13133,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
+    <row r="133" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A133" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B133" s="74" t="s">
-        <v>226</v>
-      </c>
-      <c r="C133" s="74"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="34"/>
+        <v>222</v>
+      </c>
+      <c r="B133" s="92" t="s">
+        <v>223</v>
+      </c>
+      <c r="C133" s="92"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="43"/>
       <c r="F133" s="34" t="s">
         <v>15</v>
       </c>
@@ -13188,7 +13191,6 @@
       <c r="U133" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V133" s="10"/>
       <c r="W133" s="40" t="s">
         <v>15</v>
       </c>
@@ -13213,293 +13215,350 @@
       <c r="AD133" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AE133" s="10"/>
-      <c r="AF133" s="10"/>
-      <c r="AG133" s="10"/>
-      <c r="AH133" s="10"/>
-      <c r="AI133" s="10"/>
-      <c r="AJ133" s="10"/>
-      <c r="AK133" s="10"/>
-      <c r="AL133" s="10"/>
-      <c r="AM133" s="10"/>
-      <c r="AN133" s="10"/>
-      <c r="AO133" s="10"/>
-      <c r="AP133" s="10"/>
-      <c r="AQ133" s="10"/>
-      <c r="AR133" s="10"/>
-      <c r="AS133" s="10"/>
-      <c r="AT133" s="10"/>
-      <c r="AU133" s="10"/>
-      <c r="AV133" s="10"/>
-      <c r="AW133" s="10"/>
-      <c r="AX133" s="10"/>
-      <c r="AY133" s="10"/>
-      <c r="AZ133" s="10"/>
-      <c r="BA133" s="10"/>
-      <c r="BB133" s="10"/>
-      <c r="BC133" s="10"/>
-      <c r="BD133" s="10"/>
-      <c r="BE133" s="10"/>
-      <c r="BF133" s="10"/>
-      <c r="BG133" s="10"/>
-      <c r="BH133" s="10"/>
-      <c r="BI133" s="10"/>
-      <c r="BJ133" s="10"/>
-      <c r="BK133" s="10"/>
-      <c r="BL133" s="10"/>
-      <c r="BM133" s="10"/>
-      <c r="BN133" s="10"/>
-      <c r="BO133" s="10"/>
-      <c r="BP133" s="10"/>
-      <c r="BQ133" s="10"/>
-      <c r="BR133" s="10"/>
-      <c r="BS133" s="10"/>
-      <c r="BT133" s="10"/>
-      <c r="BU133" s="10"/>
-      <c r="BV133" s="10"/>
-      <c r="BW133" s="10"/>
-      <c r="BX133" s="10"/>
-      <c r="BY133" s="10"/>
-      <c r="BZ133" s="10"/>
-      <c r="CA133" s="10"/>
-      <c r="CB133" s="10"/>
-      <c r="CC133" s="10"/>
-      <c r="CD133" s="10"/>
-      <c r="CE133" s="10"/>
-      <c r="CF133" s="10"/>
-      <c r="CG133" s="10"/>
-      <c r="CH133" s="10"/>
-      <c r="CI133" s="10"/>
-      <c r="CJ133" s="10"/>
-      <c r="CK133" s="10"/>
-      <c r="CL133" s="10"/>
-      <c r="CM133" s="10"/>
-      <c r="CN133" s="10"/>
-      <c r="CO133" s="10"/>
-      <c r="CP133" s="10"/>
-      <c r="CQ133" s="10"/>
-      <c r="CR133" s="10"/>
-      <c r="CS133" s="10"/>
-      <c r="CT133" s="10"/>
-      <c r="CU133" s="10"/>
-      <c r="CV133" s="10"/>
-      <c r="CW133" s="10"/>
-      <c r="CX133" s="10"/>
-      <c r="CY133" s="10"/>
-      <c r="CZ133" s="10"/>
-      <c r="DA133" s="10"/>
-      <c r="DB133" s="10"/>
-      <c r="DC133" s="10"/>
-      <c r="DD133" s="10"/>
-      <c r="DE133" s="10"/>
-      <c r="DF133" s="10"/>
-      <c r="DG133" s="10"/>
-      <c r="DH133" s="10"/>
-      <c r="DI133" s="10"/>
-      <c r="DJ133" s="10"/>
-      <c r="DK133" s="10"/>
-      <c r="DL133" s="10"/>
-      <c r="DM133" s="10"/>
-      <c r="DN133" s="10"/>
-      <c r="DO133" s="10"/>
-      <c r="DP133" s="10"/>
-      <c r="DQ133" s="10"/>
-      <c r="DR133" s="10"/>
-      <c r="DS133" s="10"/>
-      <c r="DT133" s="10"/>
-      <c r="DU133" s="10"/>
-      <c r="DV133" s="10"/>
-      <c r="DW133" s="10"/>
-      <c r="DX133" s="10"/>
-      <c r="DY133" s="10"/>
-      <c r="DZ133" s="10"/>
-      <c r="EA133" s="10"/>
-      <c r="EB133" s="10"/>
-      <c r="EC133" s="10"/>
-      <c r="ED133" s="10"/>
-      <c r="EE133" s="10"/>
-      <c r="EF133" s="10"/>
-      <c r="EG133" s="10"/>
-      <c r="EH133" s="10"/>
-      <c r="EI133" s="10"/>
-      <c r="EJ133" s="10"/>
-      <c r="EK133" s="10"/>
-      <c r="EL133" s="10"/>
-      <c r="EM133" s="10"/>
-      <c r="EN133" s="10"/>
-      <c r="EO133" s="10"/>
-      <c r="EP133" s="10"/>
-      <c r="EQ133" s="10"/>
-      <c r="ER133" s="10"/>
-      <c r="ES133" s="10"/>
-      <c r="ET133" s="10"/>
-      <c r="EU133" s="10"/>
-      <c r="EV133" s="10"/>
-      <c r="EW133" s="10"/>
-      <c r="EX133" s="10"/>
-      <c r="EY133" s="10"/>
-      <c r="EZ133" s="10"/>
-      <c r="FA133" s="10"/>
-      <c r="FB133" s="10"/>
-      <c r="FC133" s="10"/>
-      <c r="FD133" s="10"/>
-      <c r="FE133" s="10"/>
-      <c r="FF133" s="10"/>
-      <c r="FG133" s="10"/>
-      <c r="FH133" s="10"/>
-      <c r="FI133" s="10"/>
-      <c r="FJ133" s="10"/>
-      <c r="FK133" s="10"/>
-      <c r="FL133" s="10"/>
-      <c r="FM133" s="10"/>
-      <c r="FN133" s="10"/>
-      <c r="FO133" s="10"/>
-      <c r="FP133" s="10"/>
-      <c r="FQ133" s="10"/>
-      <c r="FR133" s="10"/>
-      <c r="FS133" s="10"/>
-      <c r="FT133" s="10"/>
-      <c r="FU133" s="10"/>
-      <c r="FV133" s="10"/>
-      <c r="FW133" s="10"/>
-      <c r="FX133" s="10"/>
-      <c r="FY133" s="10"/>
-      <c r="FZ133" s="10"/>
-      <c r="GA133" s="10"/>
-      <c r="GB133" s="10"/>
-      <c r="GC133" s="10"/>
-      <c r="GD133" s="10"/>
-      <c r="GE133" s="10"/>
-      <c r="GF133" s="10"/>
-      <c r="GG133" s="10"/>
-      <c r="GH133" s="10"/>
-      <c r="GI133" s="10"/>
-      <c r="GJ133" s="10"/>
-      <c r="GK133" s="10"/>
-      <c r="GL133" s="10"/>
-      <c r="GM133" s="10"/>
-      <c r="GN133" s="10"/>
-      <c r="GO133" s="10"/>
-      <c r="GP133" s="10"/>
-      <c r="GQ133" s="10"/>
-      <c r="GR133" s="10"/>
-      <c r="GS133" s="10"/>
-      <c r="GT133" s="10"/>
-      <c r="GU133" s="10"/>
-      <c r="GV133" s="10"/>
-      <c r="GW133" s="10"/>
-      <c r="GX133" s="10"/>
-      <c r="GY133" s="10"/>
-      <c r="GZ133" s="10"/>
-      <c r="HA133" s="10"/>
-      <c r="HB133" s="10"/>
-      <c r="HC133" s="10"/>
-      <c r="HD133" s="10"/>
-      <c r="HE133" s="10"/>
-      <c r="HF133" s="10"/>
-      <c r="HG133" s="10"/>
-      <c r="HH133" s="10"/>
-      <c r="HI133" s="10"/>
-      <c r="HJ133" s="10"/>
-      <c r="HK133" s="10"/>
-      <c r="HL133" s="10"/>
-      <c r="HM133" s="10"/>
-      <c r="HN133" s="10"/>
-      <c r="HO133" s="10"/>
-      <c r="HP133" s="10"/>
-      <c r="HQ133" s="10"/>
-      <c r="HR133" s="10"/>
-      <c r="HS133" s="10"/>
-      <c r="HT133" s="10"/>
-      <c r="HU133" s="10"/>
-      <c r="HV133" s="10"/>
-      <c r="HW133" s="10"/>
-      <c r="HX133" s="10"/>
-      <c r="HY133" s="10"/>
-      <c r="HZ133" s="10"/>
-      <c r="IA133" s="10"/>
-      <c r="IB133" s="10"/>
-      <c r="IC133" s="10"/>
-      <c r="ID133" s="10"/>
-      <c r="IE133" s="10"/>
-      <c r="IF133" s="10"/>
-      <c r="IG133" s="10"/>
-      <c r="IH133" s="10"/>
-      <c r="II133" s="10"/>
-      <c r="IJ133" s="10"/>
-      <c r="IK133" s="10"/>
-      <c r="IL133" s="10"/>
-      <c r="IM133" s="10"/>
-      <c r="IN133" s="10"/>
-      <c r="IO133" s="10"/>
-      <c r="IP133" s="10"/>
-      <c r="IQ133" s="10"/>
-      <c r="IR133" s="10"/>
-      <c r="IS133" s="10"/>
-      <c r="IT133" s="10"/>
-      <c r="IU133" s="10"/>
-    </row>
-    <row r="134" spans="1:255" s="10" customFormat="1">
-      <c r="A134" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="B134" s="26"/>
-      <c r="C134" s="49"/>
-      <c r="D134" s="50"/>
-      <c r="F134" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="H134" s="52"/>
-      <c r="I134" s="53"/>
-      <c r="J134" s="53"/>
-      <c r="K134" s="53"/>
-      <c r="L134" s="54"/>
-      <c r="M134" s="54"/>
-      <c r="N134" s="54"/>
-      <c r="O134" s="54"/>
-      <c r="P134" s="55"/>
-      <c r="Q134" s="54"/>
-      <c r="R134" s="54"/>
-      <c r="T134" s="56"/>
-      <c r="AP134" s="57"/>
-      <c r="AQ134" s="57"/>
-      <c r="AR134" s="57"/>
-      <c r="AS134" s="57"/>
-      <c r="AT134" s="57"/>
-      <c r="AU134" s="57"/>
-      <c r="AV134" s="57"/>
-      <c r="AW134" s="57"/>
+    </row>
+    <row r="134" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
+      <c r="A134" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B134" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="C134" s="89"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
+      <c r="F134" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S134" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="T134" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="U134" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="V134" s="10"/>
+      <c r="W134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="X134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD134" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE134" s="10"/>
+      <c r="AF134" s="10"/>
+      <c r="AG134" s="10"/>
+      <c r="AH134" s="10"/>
+      <c r="AI134" s="10"/>
+      <c r="AJ134" s="10"/>
+      <c r="AK134" s="10"/>
+      <c r="AL134" s="10"/>
+      <c r="AM134" s="10"/>
+      <c r="AN134" s="10"/>
+      <c r="AO134" s="10"/>
+      <c r="AP134" s="10"/>
+      <c r="AQ134" s="10"/>
+      <c r="AR134" s="10"/>
+      <c r="AS134" s="10"/>
+      <c r="AT134" s="10"/>
+      <c r="AU134" s="10"/>
+      <c r="AV134" s="10"/>
+      <c r="AW134" s="10"/>
+      <c r="AX134" s="10"/>
+      <c r="AY134" s="10"/>
+      <c r="AZ134" s="10"/>
+      <c r="BA134" s="10"/>
+      <c r="BB134" s="10"/>
+      <c r="BC134" s="10"/>
+      <c r="BD134" s="10"/>
+      <c r="BE134" s="10"/>
+      <c r="BF134" s="10"/>
+      <c r="BG134" s="10"/>
+      <c r="BH134" s="10"/>
+      <c r="BI134" s="10"/>
+      <c r="BJ134" s="10"/>
+      <c r="BK134" s="10"/>
+      <c r="BL134" s="10"/>
+      <c r="BM134" s="10"/>
+      <c r="BN134" s="10"/>
+      <c r="BO134" s="10"/>
+      <c r="BP134" s="10"/>
+      <c r="BQ134" s="10"/>
+      <c r="BR134" s="10"/>
+      <c r="BS134" s="10"/>
+      <c r="BT134" s="10"/>
+      <c r="BU134" s="10"/>
+      <c r="BV134" s="10"/>
+      <c r="BW134" s="10"/>
+      <c r="BX134" s="10"/>
+      <c r="BY134" s="10"/>
+      <c r="BZ134" s="10"/>
+      <c r="CA134" s="10"/>
+      <c r="CB134" s="10"/>
+      <c r="CC134" s="10"/>
+      <c r="CD134" s="10"/>
+      <c r="CE134" s="10"/>
+      <c r="CF134" s="10"/>
+      <c r="CG134" s="10"/>
+      <c r="CH134" s="10"/>
+      <c r="CI134" s="10"/>
+      <c r="CJ134" s="10"/>
+      <c r="CK134" s="10"/>
+      <c r="CL134" s="10"/>
+      <c r="CM134" s="10"/>
+      <c r="CN134" s="10"/>
+      <c r="CO134" s="10"/>
+      <c r="CP134" s="10"/>
+      <c r="CQ134" s="10"/>
+      <c r="CR134" s="10"/>
+      <c r="CS134" s="10"/>
+      <c r="CT134" s="10"/>
+      <c r="CU134" s="10"/>
+      <c r="CV134" s="10"/>
+      <c r="CW134" s="10"/>
+      <c r="CX134" s="10"/>
+      <c r="CY134" s="10"/>
+      <c r="CZ134" s="10"/>
+      <c r="DA134" s="10"/>
+      <c r="DB134" s="10"/>
+      <c r="DC134" s="10"/>
+      <c r="DD134" s="10"/>
+      <c r="DE134" s="10"/>
+      <c r="DF134" s="10"/>
+      <c r="DG134" s="10"/>
+      <c r="DH134" s="10"/>
+      <c r="DI134" s="10"/>
+      <c r="DJ134" s="10"/>
+      <c r="DK134" s="10"/>
+      <c r="DL134" s="10"/>
+      <c r="DM134" s="10"/>
+      <c r="DN134" s="10"/>
+      <c r="DO134" s="10"/>
+      <c r="DP134" s="10"/>
+      <c r="DQ134" s="10"/>
+      <c r="DR134" s="10"/>
+      <c r="DS134" s="10"/>
+      <c r="DT134" s="10"/>
+      <c r="DU134" s="10"/>
+      <c r="DV134" s="10"/>
+      <c r="DW134" s="10"/>
+      <c r="DX134" s="10"/>
+      <c r="DY134" s="10"/>
+      <c r="DZ134" s="10"/>
+      <c r="EA134" s="10"/>
+      <c r="EB134" s="10"/>
+      <c r="EC134" s="10"/>
+      <c r="ED134" s="10"/>
+      <c r="EE134" s="10"/>
+      <c r="EF134" s="10"/>
+      <c r="EG134" s="10"/>
+      <c r="EH134" s="10"/>
+      <c r="EI134" s="10"/>
+      <c r="EJ134" s="10"/>
+      <c r="EK134" s="10"/>
+      <c r="EL134" s="10"/>
+      <c r="EM134" s="10"/>
+      <c r="EN134" s="10"/>
+      <c r="EO134" s="10"/>
+      <c r="EP134" s="10"/>
+      <c r="EQ134" s="10"/>
+      <c r="ER134" s="10"/>
+      <c r="ES134" s="10"/>
+      <c r="ET134" s="10"/>
+      <c r="EU134" s="10"/>
+      <c r="EV134" s="10"/>
+      <c r="EW134" s="10"/>
+      <c r="EX134" s="10"/>
+      <c r="EY134" s="10"/>
+      <c r="EZ134" s="10"/>
+      <c r="FA134" s="10"/>
+      <c r="FB134" s="10"/>
+      <c r="FC134" s="10"/>
+      <c r="FD134" s="10"/>
+      <c r="FE134" s="10"/>
+      <c r="FF134" s="10"/>
+      <c r="FG134" s="10"/>
+      <c r="FH134" s="10"/>
+      <c r="FI134" s="10"/>
+      <c r="FJ134" s="10"/>
+      <c r="FK134" s="10"/>
+      <c r="FL134" s="10"/>
+      <c r="FM134" s="10"/>
+      <c r="FN134" s="10"/>
+      <c r="FO134" s="10"/>
+      <c r="FP134" s="10"/>
+      <c r="FQ134" s="10"/>
+      <c r="FR134" s="10"/>
+      <c r="FS134" s="10"/>
+      <c r="FT134" s="10"/>
+      <c r="FU134" s="10"/>
+      <c r="FV134" s="10"/>
+      <c r="FW134" s="10"/>
+      <c r="FX134" s="10"/>
+      <c r="FY134" s="10"/>
+      <c r="FZ134" s="10"/>
+      <c r="GA134" s="10"/>
+      <c r="GB134" s="10"/>
+      <c r="GC134" s="10"/>
+      <c r="GD134" s="10"/>
+      <c r="GE134" s="10"/>
+      <c r="GF134" s="10"/>
+      <c r="GG134" s="10"/>
+      <c r="GH134" s="10"/>
+      <c r="GI134" s="10"/>
+      <c r="GJ134" s="10"/>
+      <c r="GK134" s="10"/>
+      <c r="GL134" s="10"/>
+      <c r="GM134" s="10"/>
+      <c r="GN134" s="10"/>
+      <c r="GO134" s="10"/>
+      <c r="GP134" s="10"/>
+      <c r="GQ134" s="10"/>
+      <c r="GR134" s="10"/>
+      <c r="GS134" s="10"/>
+      <c r="GT134" s="10"/>
+      <c r="GU134" s="10"/>
+      <c r="GV134" s="10"/>
+      <c r="GW134" s="10"/>
+      <c r="GX134" s="10"/>
+      <c r="GY134" s="10"/>
+      <c r="GZ134" s="10"/>
+      <c r="HA134" s="10"/>
+      <c r="HB134" s="10"/>
+      <c r="HC134" s="10"/>
+      <c r="HD134" s="10"/>
+      <c r="HE134" s="10"/>
+      <c r="HF134" s="10"/>
+      <c r="HG134" s="10"/>
+      <c r="HH134" s="10"/>
+      <c r="HI134" s="10"/>
+      <c r="HJ134" s="10"/>
+      <c r="HK134" s="10"/>
+      <c r="HL134" s="10"/>
+      <c r="HM134" s="10"/>
+      <c r="HN134" s="10"/>
+      <c r="HO134" s="10"/>
+      <c r="HP134" s="10"/>
+      <c r="HQ134" s="10"/>
+      <c r="HR134" s="10"/>
+      <c r="HS134" s="10"/>
+      <c r="HT134" s="10"/>
+      <c r="HU134" s="10"/>
+      <c r="HV134" s="10"/>
+      <c r="HW134" s="10"/>
+      <c r="HX134" s="10"/>
+      <c r="HY134" s="10"/>
+      <c r="HZ134" s="10"/>
+      <c r="IA134" s="10"/>
+      <c r="IB134" s="10"/>
+      <c r="IC134" s="10"/>
+      <c r="ID134" s="10"/>
+      <c r="IE134" s="10"/>
+      <c r="IF134" s="10"/>
+      <c r="IG134" s="10"/>
+      <c r="IH134" s="10"/>
+      <c r="II134" s="10"/>
+      <c r="IJ134" s="10"/>
+      <c r="IK134" s="10"/>
+      <c r="IL134" s="10"/>
+      <c r="IM134" s="10"/>
+      <c r="IN134" s="10"/>
+      <c r="IO134" s="10"/>
+      <c r="IP134" s="10"/>
+      <c r="IQ134" s="10"/>
+      <c r="IR134" s="10"/>
+      <c r="IS134" s="10"/>
+      <c r="IT134" s="10"/>
+      <c r="IU134" s="10"/>
     </row>
     <row r="135" spans="1:255" s="10" customFormat="1">
-      <c r="A135" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="B135" s="59"/>
-      <c r="C135" s="60"/>
-      <c r="D135" s="59"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="59"/>
-      <c r="G135" s="59"/>
-      <c r="H135" s="61"/>
-      <c r="I135" s="54"/>
-      <c r="J135" s="54"/>
-      <c r="K135" s="54"/>
+      <c r="A135" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B135" s="26"/>
+      <c r="C135" s="49"/>
+      <c r="D135" s="50"/>
+      <c r="F135" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="H135" s="52"/>
+      <c r="I135" s="53"/>
+      <c r="J135" s="53"/>
+      <c r="K135" s="53"/>
       <c r="L135" s="54"/>
       <c r="M135" s="54"/>
       <c r="N135" s="54"/>
       <c r="O135" s="54"/>
-      <c r="AM135" s="57"/>
-      <c r="AN135" s="57"/>
-      <c r="AO135" s="57"/>
+      <c r="P135" s="55"/>
+      <c r="Q135" s="54"/>
+      <c r="R135" s="54"/>
+      <c r="T135" s="56"/>
       <c r="AP135" s="57"/>
       <c r="AQ135" s="57"/>
       <c r="AR135" s="57"/>
       <c r="AS135" s="57"/>
       <c r="AT135" s="57"/>
+      <c r="AU135" s="57"/>
+      <c r="AV135" s="57"/>
+      <c r="AW135" s="57"/>
     </row>
     <row r="136" spans="1:255" s="10" customFormat="1">
       <c r="A136" s="58" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B136" s="59"/>
       <c r="C136" s="60"/>
@@ -13525,16 +13584,16 @@
       <c r="AT136" s="57"/>
     </row>
     <row r="137" spans="1:255" s="10" customFormat="1">
-      <c r="A137" s="71" t="s">
-        <v>228</v>
-      </c>
-      <c r="B137" s="62"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="62"/>
+      <c r="A137" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B137" s="59"/>
+      <c r="C137" s="60"/>
+      <c r="D137" s="59"/>
       <c r="E137" s="59"/>
       <c r="F137" s="59"/>
       <c r="G137" s="59"/>
-      <c r="H137" s="63"/>
+      <c r="H137" s="61"/>
       <c r="I137" s="54"/>
       <c r="J137" s="54"/>
       <c r="K137" s="54"/>
@@ -13551,9 +13610,9 @@
       <c r="AS137" s="57"/>
       <c r="AT137" s="57"/>
     </row>
-    <row r="138" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
+    <row r="138" spans="1:255" s="10" customFormat="1">
       <c r="A138" s="71" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B138" s="62"/>
       <c r="C138" s="1"/>
@@ -13579,8 +13638,8 @@
       <c r="AT138" s="57"/>
     </row>
     <row r="139" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A139" s="58" t="s">
-        <v>244</v>
+      <c r="A139" s="71" t="s">
+        <v>228</v>
       </c>
       <c r="B139" s="62"/>
       <c r="C139" s="1"/>
@@ -13607,7 +13666,7 @@
     </row>
     <row r="140" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A140" s="58" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B140" s="62"/>
       <c r="C140" s="1"/>
@@ -13634,7 +13693,7 @@
     </row>
     <row r="141" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B141" s="62"/>
       <c r="C141" s="1"/>
@@ -13661,7 +13720,7 @@
     </row>
     <row r="142" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="58" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B142" s="62"/>
       <c r="C142" s="1"/>
@@ -13688,7 +13747,7 @@
     </row>
     <row r="143" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="58" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B143" s="62"/>
       <c r="C143" s="1"/>
@@ -13715,7 +13774,7 @@
     </row>
     <row r="144" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A144" s="58" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B144" s="62"/>
       <c r="C144" s="1"/>
@@ -13742,7 +13801,7 @@
     </row>
     <row r="145" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A145" s="58" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B145" s="62"/>
       <c r="C145" s="1"/>
@@ -13767,17 +13826,17 @@
       <c r="AS145" s="57"/>
       <c r="AT145" s="57"/>
     </row>
-    <row r="146" spans="1:46">
-      <c r="A146" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="B146" s="59"/>
-      <c r="C146" s="60"/>
-      <c r="D146" s="59"/>
+    <row r="146" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A146" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B146" s="62"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="62"/>
       <c r="E146" s="59"/>
       <c r="F146" s="59"/>
       <c r="G146" s="59"/>
-      <c r="H146" s="61"/>
+      <c r="H146" s="63"/>
       <c r="I146" s="54"/>
       <c r="J146" s="54"/>
       <c r="K146" s="54"/>
@@ -13785,95 +13844,95 @@
       <c r="M146" s="54"/>
       <c r="N146" s="54"/>
       <c r="O146" s="54"/>
-      <c r="P146" s="10"/>
-      <c r="Q146" s="10"/>
-      <c r="R146" s="10"/>
-      <c r="S146"/>
-    </row>
-    <row r="147" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
+      <c r="AM146" s="57"/>
+      <c r="AN146" s="57"/>
+      <c r="AO146" s="57"/>
+      <c r="AP146" s="57"/>
+      <c r="AQ146" s="57"/>
+      <c r="AR146" s="57"/>
+      <c r="AS146" s="57"/>
+      <c r="AT146" s="57"/>
+    </row>
+    <row r="147" spans="1:46">
       <c r="A147" s="71" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B147" s="59"/>
       <c r="C147" s="60"/>
       <c r="D147" s="59"/>
       <c r="E147" s="59"/>
       <c r="F147" s="59"/>
-      <c r="G147" s="64"/>
-      <c r="H147" s="63"/>
-      <c r="I147" s="55"/>
-      <c r="J147" s="55"/>
-      <c r="K147" s="55"/>
-      <c r="L147" s="55"/>
-      <c r="M147" s="55"/>
-      <c r="N147" s="55"/>
-      <c r="O147" s="55"/>
-      <c r="AM147" s="65"/>
-      <c r="AN147" s="65"/>
-      <c r="AO147" s="65"/>
-      <c r="AP147" s="65"/>
-      <c r="AQ147" s="65"/>
-      <c r="AR147" s="65"/>
-      <c r="AS147" s="65"/>
-      <c r="AT147" s="65"/>
-    </row>
-    <row r="148" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="G147" s="59"/>
+      <c r="H147" s="61"/>
+      <c r="I147" s="54"/>
+      <c r="J147" s="54"/>
+      <c r="K147" s="54"/>
+      <c r="L147" s="54"/>
+      <c r="M147" s="54"/>
+      <c r="N147" s="54"/>
+      <c r="O147" s="54"/>
+      <c r="P147" s="10"/>
+      <c r="Q147" s="10"/>
+      <c r="R147" s="10"/>
+      <c r="S147"/>
+    </row>
+    <row r="148" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A148" s="71" t="s">
-        <v>236</v>
-      </c>
-      <c r="B148" s="66"/>
-      <c r="C148" s="67"/>
-      <c r="D148" s="68"/>
+        <v>234</v>
+      </c>
+      <c r="B148" s="59"/>
+      <c r="C148" s="60"/>
+      <c r="D148" s="59"/>
       <c r="E148" s="59"/>
       <c r="F148" s="59"/>
-      <c r="G148" s="59"/>
-      <c r="H148" s="61"/>
-      <c r="I148" s="54"/>
-      <c r="J148" s="54"/>
-      <c r="K148" s="54"/>
-      <c r="L148" s="54"/>
-      <c r="M148" s="54"/>
-      <c r="N148" s="54"/>
-      <c r="O148" s="54"/>
-      <c r="AM148" s="57"/>
-      <c r="AN148" s="57"/>
-      <c r="AO148" s="57"/>
-      <c r="AP148" s="57"/>
-      <c r="AQ148" s="57"/>
-      <c r="AR148" s="57"/>
-      <c r="AS148" s="57"/>
-      <c r="AT148" s="57"/>
-    </row>
-    <row r="149" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
+      <c r="G148" s="64"/>
+      <c r="H148" s="63"/>
+      <c r="I148" s="55"/>
+      <c r="J148" s="55"/>
+      <c r="K148" s="55"/>
+      <c r="L148" s="55"/>
+      <c r="M148" s="55"/>
+      <c r="N148" s="55"/>
+      <c r="O148" s="55"/>
+      <c r="AM148" s="65"/>
+      <c r="AN148" s="65"/>
+      <c r="AO148" s="65"/>
+      <c r="AP148" s="65"/>
+      <c r="AQ148" s="65"/>
+      <c r="AR148" s="65"/>
+      <c r="AS148" s="65"/>
+      <c r="AT148" s="65"/>
+    </row>
+    <row r="149" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A149" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="B149" s="59"/>
-      <c r="C149" s="60"/>
-      <c r="D149" s="59"/>
+        <v>235</v>
+      </c>
+      <c r="B149" s="66"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="68"/>
       <c r="E149" s="59"/>
       <c r="F149" s="59"/>
       <c r="G149" s="59"/>
-      <c r="H149" s="63"/>
-      <c r="I149" s="55"/>
-      <c r="J149" s="55"/>
-      <c r="K149" s="55"/>
-      <c r="L149" s="55"/>
-      <c r="M149" s="55"/>
-      <c r="N149" s="55"/>
-      <c r="O149" s="55"/>
-      <c r="AM149" s="65"/>
-      <c r="AN149" s="65"/>
-      <c r="AO149" s="65"/>
-      <c r="AP149" s="65"/>
-      <c r="AQ149" s="65"/>
-      <c r="AR149" s="65"/>
-      <c r="AS149" s="65"/>
-      <c r="AT149" s="65"/>
-    </row>
-    <row r="150" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="H149" s="61"/>
+      <c r="I149" s="54"/>
+      <c r="J149" s="54"/>
+      <c r="K149" s="54"/>
+      <c r="L149" s="54"/>
+      <c r="M149" s="54"/>
+      <c r="N149" s="54"/>
+      <c r="O149" s="54"/>
+      <c r="AM149" s="57"/>
+      <c r="AN149" s="57"/>
+      <c r="AO149" s="57"/>
+      <c r="AP149" s="57"/>
+      <c r="AQ149" s="57"/>
+      <c r="AR149" s="57"/>
+      <c r="AS149" s="57"/>
+      <c r="AT149" s="57"/>
+    </row>
+    <row r="150" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A150" s="71" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B150" s="59"/>
       <c r="C150" s="60"/>
@@ -13881,26 +13940,26 @@
       <c r="E150" s="59"/>
       <c r="F150" s="59"/>
       <c r="G150" s="59"/>
-      <c r="H150" s="61"/>
-      <c r="I150" s="54"/>
-      <c r="J150" s="54"/>
-      <c r="K150" s="54"/>
-      <c r="L150" s="54"/>
-      <c r="M150" s="54"/>
-      <c r="N150" s="54"/>
-      <c r="O150" s="54"/>
-      <c r="AM150" s="57"/>
-      <c r="AN150" s="57"/>
-      <c r="AO150" s="57"/>
-      <c r="AP150" s="57"/>
-      <c r="AQ150" s="57"/>
-      <c r="AR150" s="57"/>
-      <c r="AS150" s="57"/>
-      <c r="AT150" s="57"/>
+      <c r="H150" s="63"/>
+      <c r="I150" s="55"/>
+      <c r="J150" s="55"/>
+      <c r="K150" s="55"/>
+      <c r="L150" s="55"/>
+      <c r="M150" s="55"/>
+      <c r="N150" s="55"/>
+      <c r="O150" s="55"/>
+      <c r="AM150" s="65"/>
+      <c r="AN150" s="65"/>
+      <c r="AO150" s="65"/>
+      <c r="AP150" s="65"/>
+      <c r="AQ150" s="65"/>
+      <c r="AR150" s="65"/>
+      <c r="AS150" s="65"/>
+      <c r="AT150" s="65"/>
     </row>
     <row r="151" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A151" s="71" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B151" s="59"/>
       <c r="C151" s="60"/>
@@ -13925,11 +13984,32 @@
       <c r="AS151" s="57"/>
       <c r="AT151" s="57"/>
     </row>
-    <row r="152" spans="1:46">
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="69"/>
+    <row r="152" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A152" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="B152" s="59"/>
+      <c r="C152" s="60"/>
+      <c r="D152" s="59"/>
+      <c r="E152" s="59"/>
+      <c r="F152" s="59"/>
+      <c r="G152" s="59"/>
+      <c r="H152" s="61"/>
+      <c r="I152" s="54"/>
+      <c r="J152" s="54"/>
+      <c r="K152" s="54"/>
+      <c r="L152" s="54"/>
+      <c r="M152" s="54"/>
+      <c r="N152" s="54"/>
+      <c r="O152" s="54"/>
+      <c r="AM152" s="57"/>
+      <c r="AN152" s="57"/>
+      <c r="AO152" s="57"/>
+      <c r="AP152" s="57"/>
+      <c r="AQ152" s="57"/>
+      <c r="AR152" s="57"/>
+      <c r="AS152" s="57"/>
+      <c r="AT152" s="57"/>
     </row>
     <row r="153" spans="1:46">
       <c r="D153" s="1"/>
@@ -14304,10 +14384,13 @@
       <c r="G214" s="69"/>
     </row>
     <row r="215" spans="4:7">
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="69"/>
     </row>
     <row r="216" spans="4:7">
+      <c r="F216" s="1"/>
       <c r="G216" s="69"/>
     </row>
     <row r="217" spans="4:7">
@@ -14319,8 +14402,8 @@
     <row r="219" spans="4:7">
       <c r="G219" s="69"/>
     </row>
-    <row r="224" spans="4:7">
-      <c r="G224"/>
+    <row r="220" spans="4:7">
+      <c r="G220" s="69"/>
     </row>
     <row r="225" spans="7:7">
       <c r="G225"/>
@@ -14427,8 +14510,141 @@
     <row r="259" spans="7:7">
       <c r="G259"/>
     </row>
+    <row r="260" spans="7:7">
+      <c r="G260"/>
+    </row>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="144">
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14443,135 +14659,6 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14581,8 +14668,8 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;20&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="81" max="16383" man="1"/>
-    <brk id="100" max="20" man="1"/>
+    <brk id="82" max="16383" man="1"/>
+    <brk id="101" max="20" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744B2D8F-03ED-4E6F-95E0-CF6E7C451D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61F754F-12C2-4E94-9C46-88B3C05D4A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="259">
   <si>
     <t>重要農產品價格日報表</t>
   </si>
@@ -673,55 +673,28 @@
     <t>80-1</t>
   </si>
   <si>
-    <t xml:space="preserve">  火鶴花</t>
-  </si>
-  <si>
     <t>80-2</t>
   </si>
   <si>
-    <t xml:space="preserve">  菊花(大菊)</t>
-  </si>
-  <si>
     <t>80-3</t>
   </si>
   <si>
-    <t xml:space="preserve">  劍蘭</t>
-  </si>
-  <si>
     <t>80-4</t>
   </si>
   <si>
-    <t xml:space="preserve">  文心蘭</t>
-  </si>
-  <si>
     <t>80-5</t>
   </si>
   <si>
-    <t xml:space="preserve">  洋桔梗</t>
-  </si>
-  <si>
     <t>80-6</t>
   </si>
   <si>
-    <t xml:space="preserve">  康乃馨</t>
-  </si>
-  <si>
     <t>80-7</t>
   </si>
   <si>
-    <t xml:space="preserve">  玫瑰</t>
-  </si>
-  <si>
     <t>80-8</t>
   </si>
   <si>
-    <t xml:space="preserve">  香水百合</t>
-  </si>
-  <si>
     <t>80-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (新增品項)</t>
   </si>
   <si>
     <t>80-10</t>
@@ -1283,7 +1256,7 @@
       </rPr>
       <t>(%)</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1317,13 +1290,13 @@
       </rPr>
       <t>日</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>與前
 一週
 比較(%)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1410,29 +1383,29 @@
       </rPr>
       <t>枝─農產品行情報導，本會農糧署。</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  價格之簡單平均)；乾蒜頭產地價格(虎尾、土庫、元長及四湖等農會查報價格之簡單平均)；甘藷產地價格(大城及水林等農會查報價</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>番荔枝
 (大目)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>鳳梨釋迦
 (產地)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>表該產品最近連續一週價格低或高於監控價格；</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>資料來源：</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1455,51 +1428,83 @@
       </rPr>
       <t>台灣地區各縣米穀價格調查日報表，本會農糧署。</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>新興梨</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>香蕉 (台北市場批發價)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>金鑽鳯梨(台北市場批發價)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>(新增品項)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>珍珠芭(台北市場批發價)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>愛文芒果(產地)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>愛文芒果(台北市場批發價)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>寶島甘露梨</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>4.豐水梨、新興梨及寶島甘露梨交易量價(東勢果菜市場價格)－農產品行情報導，本會農糧署。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>珍珠芭(產地)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>檸檬(台北市場批發價)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鶴花</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>菊花(大菊)</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>劍蘭</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>文心蘭</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋桔梗</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>康乃馨</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>香水百合</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1516,7 +1521,7 @@
     <numFmt numFmtId="182" formatCode="0.0"/>
     <numFmt numFmtId="183" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -1650,12 +1655,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <strike/>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -1697,7 +1696,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1719,6 +1718,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -1884,9 +1889,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2007,7 +2012,7 @@
     <xf numFmtId="180" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2077,18 +2082,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2133,49 +2174,16 @@
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2592,7 +2600,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80:C80"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2625,35 +2633,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2702,8 +2710,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2712,41 +2720,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="78" t="s">
+      <c r="T5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="78"/>
+      <c r="U5" s="90"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="91"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2758,36 +2766,36 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84" t="s">
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="M7" s="86" t="s">
+      <c r="L7" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="87" t="s">
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="87"/>
-      <c r="V7" s="88"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="84"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
@@ -2798,14 +2806,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2818,9 +2826,9 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="85"/>
+      <c r="L8" s="97"/>
       <c r="M8" s="30" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N8" s="30" t="s">
         <v>10</v>
@@ -2844,9 +2852,9 @@
         <v>11</v>
       </c>
       <c r="U8" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="V8" s="88"/>
+        <v>232</v>
+      </c>
+      <c r="V8" s="84"/>
       <c r="W8" s="32" t="s">
         <v>12</v>
       </c>
@@ -2876,13 +2884,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2959,13 +2967,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -3040,10 +3048,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3127,10 +3135,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="89"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3214,10 +3222,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="89"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3301,10 +3309,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="92"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3385,10 +3393,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="92"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3468,10 +3476,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3551,10 +3559,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="92"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3634,10 +3642,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="93"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3717,10 +3725,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="92"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3800,10 +3808,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="92"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3883,10 +3891,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="92"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3966,10 +3974,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="92"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -4049,10 +4057,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="92"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4132,10 +4140,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="92"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4215,10 +4223,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="93"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4298,10 +4306,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="92"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4381,10 +4389,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="92"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4464,10 +4472,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="92"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4547,10 +4555,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="93"/>
+      <c r="C29" s="103"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4631,10 +4639,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="93"/>
+      <c r="C30" s="103"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4715,10 +4723,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="92"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4798,10 +4806,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="92"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4881,10 +4889,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="92"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4965,10 +4973,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="92"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -5048,10 +5056,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="92" t="s">
+      <c r="B35" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="92"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5131,10 +5139,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="92"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5214,10 +5222,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="92" t="s">
+      <c r="B37" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="92"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5297,10 +5305,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="92"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5380,10 +5388,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="92"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5463,10 +5471,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="92"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5546,10 +5554,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="92"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5629,10 +5637,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="92"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5713,10 +5721,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="94"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5796,10 +5804,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="94" t="s">
+      <c r="B44" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="94"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5879,10 +5887,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="92"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5962,10 +5970,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="92"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -6045,10 +6053,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="92"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6128,10 +6136,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="92" t="s">
+      <c r="B48" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="92"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6211,10 +6219,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="92" t="s">
+      <c r="B49" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="92"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6294,10 +6302,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="92" t="s">
+      <c r="B50" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="92"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6377,10 +6385,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="92"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6460,10 +6468,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="92" t="s">
+      <c r="B52" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="92"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6543,10 +6551,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="92"/>
+      <c r="C53" s="76"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6626,10 +6634,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="92" t="s">
+      <c r="B54" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="92"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6709,10 +6717,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="92"/>
+      <c r="C55" s="76"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6792,10 +6800,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="92" t="s">
-        <v>256</v>
-      </c>
-      <c r="C56" s="92"/>
+      <c r="B56" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="76"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6875,10 +6883,10 @@
       <c r="A57" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="92"/>
+      <c r="C57" s="76"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6958,10 +6966,10 @@
       <c r="A58" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="92" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="92"/>
+      <c r="B58" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="76"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -7041,10 +7049,10 @@
       <c r="A59" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="92" t="s">
+      <c r="B59" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="92"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7124,10 +7132,10 @@
       <c r="A60" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="92" t="s">
+      <c r="B60" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="92"/>
+      <c r="C60" s="76"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7207,10 +7215,10 @@
       <c r="A61" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="92"/>
+      <c r="C61" s="76"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7290,10 +7298,10 @@
       <c r="A62" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="92" t="s">
+      <c r="B62" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="92"/>
+      <c r="C62" s="76"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7374,10 +7382,10 @@
       <c r="A63" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="92" t="s">
-        <v>244</v>
-      </c>
-      <c r="C63" s="92"/>
+      <c r="B63" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="76"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7457,10 +7465,10 @@
       <c r="A64" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B64" s="92" t="s">
+      <c r="B64" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="92"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7541,10 +7549,10 @@
       <c r="A65" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="92"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7624,10 +7632,10 @@
       <c r="A66" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="92"/>
+      <c r="C66" s="76"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7708,10 +7716,10 @@
       <c r="A67" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="92" t="s">
+      <c r="B67" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="92"/>
+      <c r="C67" s="76"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7791,10 +7799,10 @@
       <c r="A68" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="92" t="s">
+      <c r="B68" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="92"/>
+      <c r="C68" s="76"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7874,10 +7882,10 @@
       <c r="A69" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="92" t="s">
+      <c r="B69" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="92"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7956,10 +7964,10 @@
     </row>
     <row r="70" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A70" s="33"/>
-      <c r="B70" s="92" t="s">
-        <v>254</v>
-      </c>
-      <c r="C70" s="92"/>
+      <c r="B70" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="C70" s="76"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="73" t="s">
@@ -8024,10 +8032,10 @@
       <c r="A71" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="92" t="s">
-        <v>255</v>
-      </c>
-      <c r="C71" s="92"/>
+      <c r="B71" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" s="76"/>
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
       <c r="F71" s="34" t="s">
@@ -8107,10 +8115,10 @@
       <c r="A72" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="95" t="s">
+      <c r="B72" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="95"/>
+      <c r="C72" s="82"/>
       <c r="D72" s="45"/>
       <c r="E72" s="45"/>
       <c r="F72" s="34" t="s">
@@ -8189,10 +8197,10 @@
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A73" s="46"/>
-      <c r="B73" s="92" t="s">
+      <c r="B73" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="92"/>
+      <c r="C73" s="76"/>
       <c r="D73" s="43"/>
       <c r="E73" s="43"/>
       <c r="F73" s="34" t="s">
@@ -8271,14 +8279,14 @@
     </row>
     <row r="74" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A74" s="38"/>
-      <c r="B74" s="96" t="s">
-        <v>250</v>
-      </c>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96">
+      <c r="B74" s="83" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83">
         <v>35.200000000000003</v>
       </c>
-      <c r="E74" s="96"/>
+      <c r="E74" s="83"/>
       <c r="F74" s="34" t="s">
         <v>15</v>
       </c>
@@ -8356,10 +8364,10 @@
       <c r="A75" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="92"/>
+      <c r="C75" s="76"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8439,10 +8447,10 @@
       <c r="A76" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="92" t="s">
+      <c r="B76" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="92"/>
+      <c r="C76" s="76"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="34" t="s">
@@ -8520,10 +8528,10 @@
     </row>
     <row r="77" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A77" s="33"/>
-      <c r="B77" s="92" t="s">
-        <v>251</v>
-      </c>
-      <c r="C77" s="92"/>
+      <c r="B77" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" s="76"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="72" t="s">
@@ -8583,10 +8591,10 @@
       <c r="A78" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B78" s="92" t="s">
+      <c r="B78" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="92"/>
+      <c r="C78" s="76"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8667,10 +8675,10 @@
       <c r="A79" s="33">
         <v>0</v>
       </c>
-      <c r="B79" s="92" t="s">
-        <v>259</v>
-      </c>
-      <c r="C79" s="92"/>
+      <c r="B79" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="C79" s="76"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8750,10 +8758,10 @@
       <c r="A80" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B80" s="92" t="s">
+      <c r="B80" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="92"/>
+      <c r="C80" s="76"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8833,10 +8841,10 @@
       <c r="A81" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B81" s="92" t="s">
+      <c r="B81" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="92"/>
+      <c r="C81" s="76"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8914,11 +8922,11 @@
     </row>
     <row r="82" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A82" s="33"/>
-      <c r="B82" s="97" t="s">
-        <v>258</v>
-      </c>
-      <c r="C82" s="102"/>
-      <c r="D82" s="98"/>
+      <c r="B82" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82" s="81"/>
+      <c r="D82" s="78"/>
       <c r="E82" s="43"/>
       <c r="F82" s="74" t="s">
         <v>15</v>
@@ -8981,10 +8989,10 @@
       <c r="A83" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="97" t="s">
-        <v>253</v>
-      </c>
-      <c r="C83" s="98"/>
+      <c r="B83" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" s="78"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9064,10 +9072,10 @@
       <c r="A84" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="92" t="s">
+      <c r="B84" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="92"/>
+      <c r="C84" s="76"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9147,10 +9155,10 @@
       <c r="A85" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="92"/>
+      <c r="C85" s="76"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9231,10 +9239,10 @@
       <c r="A86" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B86" s="92" t="s">
+      <c r="B86" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="C86" s="92"/>
+      <c r="C86" s="76"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9315,10 +9323,10 @@
       <c r="A87" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B87" s="92" t="s">
+      <c r="B87" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C87" s="92"/>
+      <c r="C87" s="76"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9399,10 +9407,10 @@
       <c r="A88" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B88" s="92" t="s">
+      <c r="B88" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="92"/>
+      <c r="C88" s="76"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9483,10 +9491,10 @@
       <c r="A89" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="92" t="s">
+      <c r="B89" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="C89" s="92"/>
+      <c r="C89" s="76"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9567,10 +9575,10 @@
       <c r="A90" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B90" s="92" t="s">
+      <c r="B90" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="92"/>
+      <c r="C90" s="76"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9651,10 +9659,10 @@
       <c r="A91" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B91" s="92" t="s">
+      <c r="B91" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C91" s="92"/>
+      <c r="C91" s="76"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9734,10 +9742,10 @@
       <c r="A92" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B92" s="92" t="s">
+      <c r="B92" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="92"/>
+      <c r="C92" s="76"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9817,10 +9825,10 @@
       <c r="A93" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="92" t="s">
-        <v>245</v>
-      </c>
-      <c r="C93" s="92"/>
+      <c r="B93" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" s="76"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9900,10 +9908,10 @@
       <c r="A94" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="92" t="s">
-        <v>252</v>
-      </c>
-      <c r="C94" s="92"/>
+      <c r="B94" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94" s="76"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9983,10 +9991,10 @@
       <c r="A95" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="92"/>
+      <c r="C95" s="76"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10066,10 +10074,10 @@
       <c r="A96" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="92"/>
+      <c r="C96" s="76"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10149,10 +10157,10 @@
       <c r="A97" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B97" s="92" t="s">
+      <c r="B97" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="92"/>
+      <c r="C97" s="76"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10232,10 +10240,10 @@
       <c r="A98" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B98" s="92" t="s">
+      <c r="B98" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="92"/>
+      <c r="C98" s="76"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10315,10 +10323,10 @@
       <c r="A99" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B99" s="92" t="s">
+      <c r="B99" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="92"/>
+      <c r="C99" s="76"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10398,10 +10406,10 @@
       <c r="A100" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B100" s="92" t="s">
+      <c r="B100" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C100" s="92"/>
+      <c r="C100" s="76"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10481,10 +10489,10 @@
       <c r="A101" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="92" t="s">
+      <c r="B101" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C101" s="92"/>
+      <c r="C101" s="76"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10564,10 +10572,10 @@
       <c r="A102" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B102" s="97" t="s">
+      <c r="B102" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="C102" s="98"/>
+      <c r="C102" s="78"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10647,10 +10655,10 @@
       <c r="A103" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B103" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="C103" s="98"/>
+      <c r="B103" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="C103" s="78"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10728,12 +10736,12 @@
     </row>
     <row r="104" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A104" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="B104" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="C104" s="100"/>
+        <v>169</v>
+      </c>
+      <c r="B104" s="79" t="s">
+        <v>252</v>
+      </c>
+      <c r="C104" s="80"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10811,12 +10819,12 @@
     </row>
     <row r="105" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A105" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="B105" s="97" t="s">
-        <v>173</v>
-      </c>
-      <c r="C105" s="98"/>
+        <v>170</v>
+      </c>
+      <c r="B105" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="C105" s="78"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10894,12 +10902,12 @@
     </row>
     <row r="106" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A106" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B106" s="97" t="s">
-        <v>175</v>
-      </c>
-      <c r="C106" s="98"/>
+        <v>171</v>
+      </c>
+      <c r="B106" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="C106" s="78"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10977,12 +10985,12 @@
     </row>
     <row r="107" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A107" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B107" s="97" t="s">
-        <v>177</v>
-      </c>
-      <c r="C107" s="98"/>
+        <v>172</v>
+      </c>
+      <c r="B107" s="100" t="s">
+        <v>255</v>
+      </c>
+      <c r="C107" s="101"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11060,12 +11068,12 @@
     </row>
     <row r="108" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A108" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="B108" s="97" t="s">
-        <v>179</v>
-      </c>
-      <c r="C108" s="98"/>
+        <v>173</v>
+      </c>
+      <c r="B108" s="100" t="s">
+        <v>256</v>
+      </c>
+      <c r="C108" s="101"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11143,12 +11151,12 @@
     </row>
     <row r="109" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A109" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B109" s="97" t="s">
-        <v>181</v>
-      </c>
-      <c r="C109" s="98"/>
+        <v>174</v>
+      </c>
+      <c r="B109" s="100" t="s">
+        <v>257</v>
+      </c>
+      <c r="C109" s="101"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11226,12 +11234,12 @@
     </row>
     <row r="110" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A110" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B110" s="92" t="s">
-        <v>183</v>
-      </c>
-      <c r="C110" s="92"/>
+        <v>175</v>
+      </c>
+      <c r="B110" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="C110" s="102"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11309,12 +11317,12 @@
     </row>
     <row r="111" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A111" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B111" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="C111" s="101"/>
+        <v>176</v>
+      </c>
+      <c r="B111" s="102" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" s="102"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11392,12 +11400,12 @@
     </row>
     <row r="112" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A112" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B112" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="C112" s="101"/>
+        <v>177</v>
+      </c>
+      <c r="B112" s="102" t="s">
+        <v>243</v>
+      </c>
+      <c r="C112" s="102"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11475,12 +11483,12 @@
     </row>
     <row r="113" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A113" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B113" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="C113" s="101"/>
+        <v>178</v>
+      </c>
+      <c r="B113" s="102" t="s">
+        <v>243</v>
+      </c>
+      <c r="C113" s="102"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11558,12 +11566,12 @@
     </row>
     <row r="114" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A114" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="B114" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="C114" s="101"/>
+        <v>179</v>
+      </c>
+      <c r="B114" s="102" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" s="102"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11641,12 +11649,12 @@
     </row>
     <row r="115" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A115" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B115" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="C115" s="101"/>
+        <v>180</v>
+      </c>
+      <c r="B115" s="102" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="102"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11724,12 +11732,12 @@
     </row>
     <row r="116" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A116" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B116" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="C116" s="101"/>
+        <v>181</v>
+      </c>
+      <c r="B116" s="102" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" s="102"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11807,12 +11815,12 @@
     </row>
     <row r="117" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A117" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B117" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="C117" s="101"/>
+        <v>182</v>
+      </c>
+      <c r="B117" s="102" t="s">
+        <v>243</v>
+      </c>
+      <c r="C117" s="102"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11890,12 +11898,12 @@
     </row>
     <row r="118" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A118" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B118" s="92" t="s">
-        <v>193</v>
-      </c>
-      <c r="C118" s="92"/>
+        <v>183</v>
+      </c>
+      <c r="B118" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C118" s="76"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11973,12 +11981,12 @@
     </row>
     <row r="119" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A119" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B119" s="92" t="s">
-        <v>195</v>
-      </c>
-      <c r="C119" s="92"/>
+        <v>185</v>
+      </c>
+      <c r="B119" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" s="76"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12056,12 +12064,12 @@
     </row>
     <row r="120" spans="1:30" s="10" customFormat="1" ht="38.25" customHeight="1">
       <c r="A120" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="B120" s="92" t="s">
-        <v>197</v>
-      </c>
-      <c r="C120" s="92"/>
+        <v>187</v>
+      </c>
+      <c r="B120" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="C120" s="76"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12139,12 +12147,12 @@
     </row>
     <row r="121" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A121" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="B121" s="92" t="s">
-        <v>199</v>
-      </c>
-      <c r="C121" s="92"/>
+        <v>189</v>
+      </c>
+      <c r="B121" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" s="76"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12222,12 +12230,12 @@
     </row>
     <row r="122" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A122" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="B122" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="C122" s="92"/>
+        <v>191</v>
+      </c>
+      <c r="B122" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="C122" s="76"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12305,12 +12313,12 @@
     </row>
     <row r="123" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A123" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B123" s="92" t="s">
-        <v>203</v>
-      </c>
-      <c r="C123" s="92"/>
+        <v>193</v>
+      </c>
+      <c r="B123" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="C123" s="76"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12388,12 +12396,12 @@
     </row>
     <row r="124" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A124" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="B124" s="92" t="s">
-        <v>205</v>
-      </c>
-      <c r="C124" s="92"/>
+        <v>195</v>
+      </c>
+      <c r="B124" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="C124" s="76"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12471,12 +12479,12 @@
     </row>
     <row r="125" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A125" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B125" s="92" t="s">
-        <v>207</v>
-      </c>
-      <c r="C125" s="92"/>
+        <v>197</v>
+      </c>
+      <c r="B125" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="C125" s="76"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12554,12 +12562,12 @@
     </row>
     <row r="126" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A126" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B126" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="C126" s="92"/>
+        <v>199</v>
+      </c>
+      <c r="B126" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="C126" s="76"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12637,12 +12645,12 @@
     </row>
     <row r="127" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A127" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="B127" s="92" t="s">
-        <v>211</v>
-      </c>
-      <c r="C127" s="92"/>
+        <v>201</v>
+      </c>
+      <c r="B127" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="C127" s="76"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12720,12 +12728,12 @@
     </row>
     <row r="128" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A128" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B128" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="C128" s="92"/>
+        <v>203</v>
+      </c>
+      <c r="B128" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128" s="76"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12803,12 +12811,12 @@
     </row>
     <row r="129" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A129" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="B129" s="92" t="s">
-        <v>215</v>
-      </c>
-      <c r="C129" s="92"/>
+        <v>205</v>
+      </c>
+      <c r="B129" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="C129" s="76"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12886,12 +12894,12 @@
     </row>
     <row r="130" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A130" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B130" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="C130" s="92"/>
+        <v>207</v>
+      </c>
+      <c r="B130" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" s="76"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12969,12 +12977,12 @@
     </row>
     <row r="131" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A131" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B131" s="92" t="s">
-        <v>219</v>
-      </c>
-      <c r="C131" s="92"/>
+        <v>209</v>
+      </c>
+      <c r="B131" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="C131" s="76"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
       <c r="F131" s="34" t="s">
@@ -13052,12 +13060,12 @@
     </row>
     <row r="132" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A132" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B132" s="92" t="s">
-        <v>221</v>
-      </c>
-      <c r="C132" s="92"/>
+        <v>211</v>
+      </c>
+      <c r="B132" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="C132" s="76"/>
       <c r="D132" s="43"/>
       <c r="E132" s="43"/>
       <c r="F132" s="34" t="s">
@@ -13135,12 +13143,12 @@
     </row>
     <row r="133" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A133" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="B133" s="92" t="s">
-        <v>223</v>
-      </c>
-      <c r="C133" s="92"/>
+        <v>213</v>
+      </c>
+      <c r="B133" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="C133" s="76"/>
       <c r="D133" s="43"/>
       <c r="E133" s="43"/>
       <c r="F133" s="34" t="s">
@@ -13218,12 +13226,12 @@
     </row>
     <row r="134" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A134" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="B134" s="89" t="s">
-        <v>225</v>
-      </c>
-      <c r="C134" s="89"/>
+        <v>215</v>
+      </c>
+      <c r="B134" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="C134" s="75"/>
       <c r="D134" s="34"/>
       <c r="E134" s="34"/>
       <c r="F134" s="34" t="s">
@@ -13527,13 +13535,13 @@
     </row>
     <row r="135" spans="1:255" s="10" customFormat="1">
       <c r="A135" s="48" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B135" s="26"/>
       <c r="C135" s="49"/>
       <c r="D135" s="50"/>
       <c r="F135" s="51" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H135" s="52"/>
       <c r="I135" s="53"/>
@@ -13558,7 +13566,7 @@
     </row>
     <row r="136" spans="1:255" s="10" customFormat="1">
       <c r="A136" s="58" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B136" s="59"/>
       <c r="C136" s="60"/>
@@ -13585,7 +13593,7 @@
     </row>
     <row r="137" spans="1:255" s="10" customFormat="1">
       <c r="A137" s="58" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B137" s="59"/>
       <c r="C137" s="60"/>
@@ -13612,7 +13620,7 @@
     </row>
     <row r="138" spans="1:255" s="10" customFormat="1">
       <c r="A138" s="71" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B138" s="62"/>
       <c r="C138" s="1"/>
@@ -13639,7 +13647,7 @@
     </row>
     <row r="139" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A139" s="71" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B139" s="62"/>
       <c r="C139" s="1"/>
@@ -13666,7 +13674,7 @@
     </row>
     <row r="140" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A140" s="58" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B140" s="62"/>
       <c r="C140" s="1"/>
@@ -13693,7 +13701,7 @@
     </row>
     <row r="141" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="58" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B141" s="62"/>
       <c r="C141" s="1"/>
@@ -13720,7 +13728,7 @@
     </row>
     <row r="142" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="58" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B142" s="62"/>
       <c r="C142" s="1"/>
@@ -13747,7 +13755,7 @@
     </row>
     <row r="143" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="58" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B143" s="62"/>
       <c r="C143" s="1"/>
@@ -13774,7 +13782,7 @@
     </row>
     <row r="144" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A144" s="58" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B144" s="62"/>
       <c r="C144" s="1"/>
@@ -13801,7 +13809,7 @@
     </row>
     <row r="145" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A145" s="58" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B145" s="62"/>
       <c r="C145" s="1"/>
@@ -13828,7 +13836,7 @@
     </row>
     <row r="146" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A146" s="58" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B146" s="62"/>
       <c r="C146" s="1"/>
@@ -13855,7 +13863,7 @@
     </row>
     <row r="147" spans="1:46">
       <c r="A147" s="71" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B147" s="59"/>
       <c r="C147" s="60"/>
@@ -13878,7 +13886,7 @@
     </row>
     <row r="148" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A148" s="71" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B148" s="59"/>
       <c r="C148" s="60"/>
@@ -13905,7 +13913,7 @@
     </row>
     <row r="149" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A149" s="71" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B149" s="66"/>
       <c r="C149" s="67"/>
@@ -13932,7 +13940,7 @@
     </row>
     <row r="150" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A150" s="71" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B150" s="59"/>
       <c r="C150" s="60"/>
@@ -13959,7 +13967,7 @@
     </row>
     <row r="151" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A151" s="71" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B151" s="59"/>
       <c r="C151" s="60"/>
@@ -13986,7 +13994,7 @@
     </row>
     <row r="152" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A152" s="71" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B152" s="59"/>
       <c r="C152" s="60"/>
@@ -14515,136 +14523,6 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14659,8 +14537,138 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
   </mergeCells>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="52" firstPageNumber="3" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61F754F-12C2-4E94-9C46-88B3C05D4A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D779446-B5CB-4F3A-B885-833CF419396D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1459,10 +1459,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>寶島甘露梨</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>4.豐水梨、新興梨及寶島甘露梨交易量價(東勢果菜市場價格)－農產品行情報導，本會農糧署。</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -1504,6 +1500,10 @@
   </si>
   <si>
     <t>香水百合</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>世紀梨</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2099,42 +2099,6 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2174,6 +2138,45 @@
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2182,9 +2185,6 @@
     </xf>
     <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2600,7 +2600,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17:C17"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2633,35 +2633,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2710,8 +2710,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2720,41 +2720,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="90" t="s">
+      <c r="T5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="90"/>
+      <c r="U5" s="78"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2766,36 +2766,36 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="97" t="s">
+      <c r="L7" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="98" t="s">
+      <c r="M7" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="99" t="s">
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="99"/>
-      <c r="V7" s="84"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="88"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
@@ -2806,14 +2806,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2826,7 +2826,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="97"/>
+      <c r="L8" s="85"/>
       <c r="M8" s="30" t="s">
         <v>231</v>
       </c>
@@ -2854,7 +2854,7 @@
       <c r="U8" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="V8" s="84"/>
+      <c r="V8" s="88"/>
       <c r="W8" s="32" t="s">
         <v>12</v>
       </c>
@@ -2884,13 +2884,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86" t="s">
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2967,13 +2967,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -3048,10 +3048,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="75"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3135,10 +3135,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3222,10 +3222,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3309,10 +3309,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3393,10 +3393,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3476,10 +3476,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="76"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3559,10 +3559,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="76"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3642,10 +3642,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3725,10 +3725,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3808,10 +3808,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3891,10 +3891,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="76"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3974,10 +3974,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -4057,10 +4057,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4140,10 +4140,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4223,10 +4223,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="103"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4306,10 +4306,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="76"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4389,10 +4389,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4472,10 +4472,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="76"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4555,10 +4555,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="103"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4639,10 +4639,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="103"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4723,10 +4723,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="76"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4806,10 +4806,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4889,10 +4889,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="76"/>
+      <c r="C33" s="92"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4973,10 +4973,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="92"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -5056,10 +5056,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5139,10 +5139,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="76"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5222,10 +5222,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="76"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5305,10 +5305,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="76"/>
+      <c r="C38" s="92"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5388,10 +5388,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5471,10 +5471,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="76"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5554,10 +5554,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="76"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5637,10 +5637,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="76"/>
+      <c r="C42" s="92"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5721,10 +5721,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="76"/>
+      <c r="C43" s="92"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5804,10 +5804,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5887,10 +5887,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="B45" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="76"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5970,10 +5970,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="92"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -6053,10 +6053,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="76"/>
+      <c r="C47" s="92"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6136,10 +6136,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="76" t="s">
+      <c r="B48" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="76"/>
+      <c r="C48" s="92"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6219,10 +6219,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="76" t="s">
+      <c r="B49" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="92"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6302,10 +6302,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="76" t="s">
+      <c r="B50" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="76"/>
+      <c r="C50" s="92"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6385,10 +6385,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="76" t="s">
+      <c r="B51" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="76"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6468,10 +6468,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="76" t="s">
+      <c r="B52" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="76"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6551,10 +6551,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="76" t="s">
+      <c r="B53" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="76"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6634,10 +6634,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="76" t="s">
+      <c r="B54" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="92"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6717,10 +6717,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="76" t="s">
+      <c r="B55" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="76"/>
+      <c r="C55" s="92"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6800,10 +6800,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="C56" s="76"/>
+      <c r="B56" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="C56" s="92"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6883,10 +6883,10 @@
       <c r="A57" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="76" t="s">
+      <c r="B57" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="76"/>
+      <c r="C57" s="92"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6966,10 +6966,10 @@
       <c r="A58" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="76" t="s">
+      <c r="B58" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="76"/>
+      <c r="C58" s="92"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -7049,10 +7049,10 @@
       <c r="A59" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="76" t="s">
+      <c r="B59" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="92"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7132,10 +7132,10 @@
       <c r="A60" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="76"/>
+      <c r="C60" s="92"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7215,10 +7215,10 @@
       <c r="A61" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="76" t="s">
+      <c r="B61" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="76"/>
+      <c r="C61" s="92"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7298,10 +7298,10 @@
       <c r="A62" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="76" t="s">
+      <c r="B62" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="76"/>
+      <c r="C62" s="92"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7382,10 +7382,10 @@
       <c r="A63" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="76" t="s">
+      <c r="B63" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="C63" s="76"/>
+      <c r="C63" s="92"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7465,10 +7465,10 @@
       <c r="A64" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B64" s="76" t="s">
+      <c r="B64" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="92"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7549,10 +7549,10 @@
       <c r="A65" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="76" t="s">
+      <c r="B65" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="76"/>
+      <c r="C65" s="92"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7632,10 +7632,10 @@
       <c r="A66" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="76" t="s">
+      <c r="B66" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="76"/>
+      <c r="C66" s="92"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7716,10 +7716,10 @@
       <c r="A67" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="76" t="s">
+      <c r="B67" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="76"/>
+      <c r="C67" s="92"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7799,10 +7799,10 @@
       <c r="A68" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="76" t="s">
+      <c r="B68" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="76"/>
+      <c r="C68" s="92"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7882,10 +7882,10 @@
       <c r="A69" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="76" t="s">
+      <c r="B69" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="76"/>
+      <c r="C69" s="92"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7964,10 +7964,10 @@
     </row>
     <row r="70" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A70" s="33"/>
-      <c r="B70" s="76" t="s">
+      <c r="B70" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="76"/>
+      <c r="C70" s="92"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="73" t="s">
@@ -8032,10 +8032,10 @@
       <c r="A71" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="76" t="s">
+      <c r="B71" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="76"/>
+      <c r="C71" s="92"/>
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
       <c r="F71" s="34" t="s">
@@ -8115,10 +8115,10 @@
       <c r="A72" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="82" t="s">
+      <c r="B72" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="82"/>
+      <c r="C72" s="94"/>
       <c r="D72" s="45"/>
       <c r="E72" s="45"/>
       <c r="F72" s="34" t="s">
@@ -8197,10 +8197,10 @@
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A73" s="46"/>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="76"/>
+      <c r="C73" s="92"/>
       <c r="D73" s="43"/>
       <c r="E73" s="43"/>
       <c r="F73" s="34" t="s">
@@ -8279,14 +8279,14 @@
     </row>
     <row r="74" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A74" s="38"/>
-      <c r="B74" s="83" t="s">
+      <c r="B74" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83">
+      <c r="C74" s="95"/>
+      <c r="D74" s="95">
         <v>35.200000000000003</v>
       </c>
-      <c r="E74" s="83"/>
+      <c r="E74" s="95"/>
       <c r="F74" s="34" t="s">
         <v>15</v>
       </c>
@@ -8364,10 +8364,10 @@
       <c r="A75" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="76" t="s">
+      <c r="B75" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="76"/>
+      <c r="C75" s="92"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8447,10 +8447,10 @@
       <c r="A76" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="76" t="s">
+      <c r="B76" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="76"/>
+      <c r="C76" s="92"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="34" t="s">
@@ -8528,10 +8528,10 @@
     </row>
     <row r="77" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A77" s="33"/>
-      <c r="B77" s="76" t="s">
+      <c r="B77" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="C77" s="76"/>
+      <c r="C77" s="92"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="72" t="s">
@@ -8591,10 +8591,10 @@
       <c r="A78" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B78" s="76" t="s">
+      <c r="B78" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="76"/>
+      <c r="C78" s="92"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8675,10 +8675,10 @@
       <c r="A79" s="33">
         <v>0</v>
       </c>
-      <c r="B79" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="C79" s="76"/>
+      <c r="B79" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="92"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8758,10 +8758,10 @@
       <c r="A80" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B80" s="76" t="s">
+      <c r="B80" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="76"/>
+      <c r="C80" s="92"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8841,10 +8841,10 @@
       <c r="A81" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B81" s="76" t="s">
+      <c r="B81" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="76"/>
+      <c r="C81" s="92"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8922,11 +8922,11 @@
     </row>
     <row r="82" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A82" s="33"/>
-      <c r="B82" s="77" t="s">
-        <v>249</v>
-      </c>
-      <c r="C82" s="81"/>
-      <c r="D82" s="78"/>
+      <c r="B82" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82" s="98"/>
+      <c r="D82" s="97"/>
       <c r="E82" s="43"/>
       <c r="F82" s="74" t="s">
         <v>15</v>
@@ -8989,10 +8989,10 @@
       <c r="A83" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="77" t="s">
+      <c r="B83" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="C83" s="78"/>
+      <c r="C83" s="97"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9072,10 +9072,10 @@
       <c r="A84" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="76" t="s">
+      <c r="B84" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="76"/>
+      <c r="C84" s="92"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9155,10 +9155,10 @@
       <c r="A85" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B85" s="76" t="s">
+      <c r="B85" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="76"/>
+      <c r="C85" s="92"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9239,10 +9239,10 @@
       <c r="A86" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B86" s="76" t="s">
+      <c r="B86" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="C86" s="76"/>
+      <c r="C86" s="92"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9323,10 +9323,10 @@
       <c r="A87" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B87" s="76" t="s">
+      <c r="B87" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="C87" s="76"/>
+      <c r="C87" s="92"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9407,10 +9407,10 @@
       <c r="A88" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B88" s="76" t="s">
+      <c r="B88" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="76"/>
+      <c r="C88" s="92"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9491,10 +9491,10 @@
       <c r="A89" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="76" t="s">
+      <c r="B89" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="C89" s="76"/>
+      <c r="C89" s="92"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9575,10 +9575,10 @@
       <c r="A90" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B90" s="76" t="s">
+      <c r="B90" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="76"/>
+      <c r="C90" s="92"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9659,10 +9659,10 @@
       <c r="A91" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B91" s="76" t="s">
+      <c r="B91" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="C91" s="76"/>
+      <c r="C91" s="92"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9742,10 +9742,10 @@
       <c r="A92" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B92" s="76" t="s">
+      <c r="B92" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="76"/>
+      <c r="C92" s="92"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9825,10 +9825,10 @@
       <c r="A93" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="76" t="s">
+      <c r="B93" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="C93" s="76"/>
+      <c r="C93" s="92"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9908,10 +9908,10 @@
       <c r="A94" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="76" t="s">
+      <c r="B94" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="C94" s="76"/>
+      <c r="C94" s="92"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9991,10 +9991,10 @@
       <c r="A95" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B95" s="76" t="s">
+      <c r="B95" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="76"/>
+      <c r="C95" s="92"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10074,10 +10074,10 @@
       <c r="A96" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B96" s="76" t="s">
+      <c r="B96" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="76"/>
+      <c r="C96" s="92"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10157,10 +10157,10 @@
       <c r="A97" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B97" s="76" t="s">
+      <c r="B97" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="76"/>
+      <c r="C97" s="92"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10240,10 +10240,10 @@
       <c r="A98" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B98" s="76" t="s">
+      <c r="B98" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="76"/>
+      <c r="C98" s="92"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10323,10 +10323,10 @@
       <c r="A99" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B99" s="76" t="s">
+      <c r="B99" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="76"/>
+      <c r="C99" s="92"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10406,10 +10406,10 @@
       <c r="A100" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B100" s="76" t="s">
+      <c r="B100" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C100" s="76"/>
+      <c r="C100" s="92"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10489,10 +10489,10 @@
       <c r="A101" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="76" t="s">
+      <c r="B101" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C101" s="76"/>
+      <c r="C101" s="92"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10572,10 +10572,10 @@
       <c r="A102" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B102" s="77" t="s">
+      <c r="B102" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="C102" s="78"/>
+      <c r="C102" s="97"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10655,10 +10655,10 @@
       <c r="A103" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B103" s="77" t="s">
-        <v>251</v>
-      </c>
-      <c r="C103" s="78"/>
+      <c r="B103" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="C103" s="97"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10738,10 +10738,10 @@
       <c r="A104" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B104" s="79" t="s">
-        <v>252</v>
-      </c>
-      <c r="C104" s="80"/>
+      <c r="B104" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="C104" s="100"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10821,10 +10821,10 @@
       <c r="A105" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B105" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="C105" s="78"/>
+      <c r="B105" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="C105" s="97"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10904,10 +10904,10 @@
       <c r="A106" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B106" s="77" t="s">
-        <v>254</v>
-      </c>
-      <c r="C106" s="78"/>
+      <c r="B106" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="C106" s="97"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10987,10 +10987,10 @@
       <c r="A107" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B107" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="C107" s="101"/>
+      <c r="B107" s="101" t="s">
+        <v>254</v>
+      </c>
+      <c r="C107" s="102"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11070,10 +11070,10 @@
       <c r="A108" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B108" s="100" t="s">
-        <v>256</v>
-      </c>
-      <c r="C108" s="101"/>
+      <c r="B108" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C108" s="102"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11153,10 +11153,10 @@
       <c r="A109" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B109" s="100" t="s">
-        <v>257</v>
-      </c>
-      <c r="C109" s="101"/>
+      <c r="B109" s="101" t="s">
+        <v>256</v>
+      </c>
+      <c r="C109" s="102"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11236,10 +11236,10 @@
       <c r="A110" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B110" s="102" t="s">
-        <v>258</v>
-      </c>
-      <c r="C110" s="102"/>
+      <c r="B110" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="C110" s="103"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11319,10 +11319,10 @@
       <c r="A111" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B111" s="102" t="s">
+      <c r="B111" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="C111" s="102"/>
+      <c r="C111" s="103"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11402,10 +11402,10 @@
       <c r="A112" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B112" s="102" t="s">
+      <c r="B112" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="C112" s="102"/>
+      <c r="C112" s="103"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11485,10 +11485,10 @@
       <c r="A113" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B113" s="102" t="s">
+      <c r="B113" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="C113" s="102"/>
+      <c r="C113" s="103"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11568,10 +11568,10 @@
       <c r="A114" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B114" s="102" t="s">
+      <c r="B114" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="C114" s="102"/>
+      <c r="C114" s="103"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11651,10 +11651,10 @@
       <c r="A115" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B115" s="102" t="s">
+      <c r="B115" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="C115" s="102"/>
+      <c r="C115" s="103"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11734,10 +11734,10 @@
       <c r="A116" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B116" s="102" t="s">
+      <c r="B116" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="C116" s="102"/>
+      <c r="C116" s="103"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11817,10 +11817,10 @@
       <c r="A117" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B117" s="102" t="s">
+      <c r="B117" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="C117" s="102"/>
+      <c r="C117" s="103"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11900,10 +11900,10 @@
       <c r="A118" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B118" s="76" t="s">
+      <c r="B118" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="C118" s="76"/>
+      <c r="C118" s="92"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11983,10 +11983,10 @@
       <c r="A119" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B119" s="76" t="s">
+      <c r="B119" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="C119" s="76"/>
+      <c r="C119" s="92"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12066,10 +12066,10 @@
       <c r="A120" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B120" s="76" t="s">
+      <c r="B120" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="C120" s="76"/>
+      <c r="C120" s="92"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12149,10 +12149,10 @@
       <c r="A121" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B121" s="76" t="s">
+      <c r="B121" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="C121" s="76"/>
+      <c r="C121" s="92"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12232,10 +12232,10 @@
       <c r="A122" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B122" s="76" t="s">
+      <c r="B122" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="C122" s="76"/>
+      <c r="C122" s="92"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12315,10 +12315,10 @@
       <c r="A123" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B123" s="76" t="s">
+      <c r="B123" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="C123" s="76"/>
+      <c r="C123" s="92"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12398,10 +12398,10 @@
       <c r="A124" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B124" s="76" t="s">
+      <c r="B124" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="C124" s="76"/>
+      <c r="C124" s="92"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12481,10 +12481,10 @@
       <c r="A125" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B125" s="76" t="s">
+      <c r="B125" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="C125" s="76"/>
+      <c r="C125" s="92"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12564,10 +12564,10 @@
       <c r="A126" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B126" s="76" t="s">
+      <c r="B126" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="C126" s="76"/>
+      <c r="C126" s="92"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12647,10 +12647,10 @@
       <c r="A127" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B127" s="76" t="s">
+      <c r="B127" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="C127" s="76"/>
+      <c r="C127" s="92"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12730,10 +12730,10 @@
       <c r="A128" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B128" s="76" t="s">
+      <c r="B128" s="92" t="s">
         <v>204</v>
       </c>
-      <c r="C128" s="76"/>
+      <c r="C128" s="92"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12813,10 +12813,10 @@
       <c r="A129" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="B129" s="76" t="s">
+      <c r="B129" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="C129" s="76"/>
+      <c r="C129" s="92"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12896,10 +12896,10 @@
       <c r="A130" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B130" s="76" t="s">
+      <c r="B130" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="C130" s="76"/>
+      <c r="C130" s="92"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12979,10 +12979,10 @@
       <c r="A131" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B131" s="76" t="s">
+      <c r="B131" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="C131" s="76"/>
+      <c r="C131" s="92"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
       <c r="F131" s="34" t="s">
@@ -13062,10 +13062,10 @@
       <c r="A132" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="B132" s="76" t="s">
+      <c r="B132" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="C132" s="76"/>
+      <c r="C132" s="92"/>
       <c r="D132" s="43"/>
       <c r="E132" s="43"/>
       <c r="F132" s="34" t="s">
@@ -13145,10 +13145,10 @@
       <c r="A133" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B133" s="76" t="s">
+      <c r="B133" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="C133" s="76"/>
+      <c r="C133" s="92"/>
       <c r="D133" s="43"/>
       <c r="E133" s="43"/>
       <c r="F133" s="34" t="s">
@@ -13228,10 +13228,10 @@
       <c r="A134" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B134" s="75" t="s">
+      <c r="B134" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="C134" s="75"/>
+      <c r="C134" s="89"/>
       <c r="D134" s="34"/>
       <c r="E134" s="34"/>
       <c r="F134" s="34" t="s">
@@ -13836,7 +13836,7 @@
     </row>
     <row r="146" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A146" s="58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B146" s="62"/>
       <c r="C146" s="1"/>
@@ -14523,6 +14523,136 @@
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14537,136 +14667,6 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D779446-B5CB-4F3A-B885-833CF419396D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBD245F-62CE-4BDF-BA6D-800A41BAB666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1503,7 +1503,7 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>世紀梨</t>
+    <t>寶島甘露梨</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2099,6 +2099,54 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2137,54 +2185,6 @@
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2633,35 +2633,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2710,8 +2710,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2720,41 +2720,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="78" t="s">
+      <c r="T5" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="78"/>
+      <c r="U5" s="94"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2766,35 +2766,35 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84" t="s">
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="100" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="86" t="s">
+      <c r="M7" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="87" t="s">
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="87"/>
+      <c r="U7" s="103"/>
       <c r="V7" s="88"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
@@ -2806,14 +2806,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="100"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2826,7 +2826,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="85"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="30" t="s">
         <v>231</v>
       </c>
@@ -2884,13 +2884,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2967,13 +2967,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -3048,10 +3048,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3135,10 +3135,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="89"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3222,10 +3222,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="89"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3309,10 +3309,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="92"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3393,10 +3393,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="92"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3476,10 +3476,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3559,10 +3559,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="92"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3642,10 +3642,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="93"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3725,10 +3725,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="92"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3808,10 +3808,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="92"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3891,10 +3891,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="92"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3974,10 +3974,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="92"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -4057,10 +4057,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="92"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4140,10 +4140,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="92"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4223,10 +4223,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="93"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4306,10 +4306,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="92"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4389,10 +4389,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="92"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4472,10 +4472,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="92"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4555,10 +4555,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="93"/>
+      <c r="C29" s="87"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4639,10 +4639,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="93"/>
+      <c r="C30" s="87"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4723,10 +4723,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="92"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4806,10 +4806,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="92"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4889,10 +4889,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="92"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4973,10 +4973,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="92"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -5056,10 +5056,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="92" t="s">
+      <c r="B35" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="92"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5139,10 +5139,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="92"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5222,10 +5222,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="92" t="s">
+      <c r="B37" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="92"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5305,10 +5305,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="92"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5388,10 +5388,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="92"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5471,10 +5471,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="92"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5554,10 +5554,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="92"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5637,10 +5637,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="92"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5721,10 +5721,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="92" t="s">
+      <c r="B43" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="92"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5804,10 +5804,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="92"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5887,10 +5887,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="92"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5970,10 +5970,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="92"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -6053,10 +6053,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="92"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6136,10 +6136,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="92" t="s">
+      <c r="B48" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="92"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6219,10 +6219,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="92" t="s">
+      <c r="B49" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="92"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6302,10 +6302,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="92" t="s">
+      <c r="B50" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="92"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6385,10 +6385,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="92"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6468,10 +6468,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="92" t="s">
+      <c r="B52" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="92"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6551,10 +6551,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="92"/>
+      <c r="C53" s="76"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6634,10 +6634,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="92" t="s">
+      <c r="B54" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="92"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6717,10 +6717,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="92"/>
+      <c r="C55" s="76"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6800,10 +6800,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="76" t="s">
         <v>258</v>
       </c>
-      <c r="C56" s="92"/>
+      <c r="C56" s="76"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6883,10 +6883,10 @@
       <c r="A57" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="92"/>
+      <c r="C57" s="76"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6966,10 +6966,10 @@
       <c r="A58" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="92" t="s">
+      <c r="B58" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="92"/>
+      <c r="C58" s="76"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -7049,10 +7049,10 @@
       <c r="A59" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="92" t="s">
+      <c r="B59" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="92"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7132,10 +7132,10 @@
       <c r="A60" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="92" t="s">
+      <c r="B60" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="92"/>
+      <c r="C60" s="76"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7215,10 +7215,10 @@
       <c r="A61" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="92"/>
+      <c r="C61" s="76"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7298,10 +7298,10 @@
       <c r="A62" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="92" t="s">
+      <c r="B62" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="92"/>
+      <c r="C62" s="76"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7382,10 +7382,10 @@
       <c r="A63" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="92" t="s">
+      <c r="B63" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="C63" s="92"/>
+      <c r="C63" s="76"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7465,10 +7465,10 @@
       <c r="A64" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B64" s="92" t="s">
+      <c r="B64" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="92"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7549,10 +7549,10 @@
       <c r="A65" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="92"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7632,10 +7632,10 @@
       <c r="A66" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="92"/>
+      <c r="C66" s="76"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7716,10 +7716,10 @@
       <c r="A67" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="92" t="s">
+      <c r="B67" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="92"/>
+      <c r="C67" s="76"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7799,10 +7799,10 @@
       <c r="A68" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="92" t="s">
+      <c r="B68" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="92"/>
+      <c r="C68" s="76"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7882,10 +7882,10 @@
       <c r="A69" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="92" t="s">
+      <c r="B69" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="92"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7964,10 +7964,10 @@
     </row>
     <row r="70" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A70" s="33"/>
-      <c r="B70" s="92" t="s">
+      <c r="B70" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="92"/>
+      <c r="C70" s="76"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="73" t="s">
@@ -8032,10 +8032,10 @@
       <c r="A71" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="92" t="s">
+      <c r="B71" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="92"/>
+      <c r="C71" s="76"/>
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
       <c r="F71" s="34" t="s">
@@ -8115,10 +8115,10 @@
       <c r="A72" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="94" t="s">
+      <c r="B72" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="94"/>
+      <c r="C72" s="85"/>
       <c r="D72" s="45"/>
       <c r="E72" s="45"/>
       <c r="F72" s="34" t="s">
@@ -8197,10 +8197,10 @@
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A73" s="46"/>
-      <c r="B73" s="92" t="s">
+      <c r="B73" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="92"/>
+      <c r="C73" s="76"/>
       <c r="D73" s="43"/>
       <c r="E73" s="43"/>
       <c r="F73" s="34" t="s">
@@ -8279,14 +8279,14 @@
     </row>
     <row r="74" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A74" s="38"/>
-      <c r="B74" s="95" t="s">
+      <c r="B74" s="86" t="s">
         <v>241</v>
       </c>
-      <c r="C74" s="95"/>
-      <c r="D74" s="95">
+      <c r="C74" s="86"/>
+      <c r="D74" s="86">
         <v>35.200000000000003</v>
       </c>
-      <c r="E74" s="95"/>
+      <c r="E74" s="86"/>
       <c r="F74" s="34" t="s">
         <v>15</v>
       </c>
@@ -8364,10 +8364,10 @@
       <c r="A75" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="92"/>
+      <c r="C75" s="76"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8447,10 +8447,10 @@
       <c r="A76" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="92" t="s">
+      <c r="B76" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="92"/>
+      <c r="C76" s="76"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="34" t="s">
@@ -8528,10 +8528,10 @@
     </row>
     <row r="77" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A77" s="33"/>
-      <c r="B77" s="92" t="s">
+      <c r="B77" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="C77" s="92"/>
+      <c r="C77" s="76"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="72" t="s">
@@ -8591,10 +8591,10 @@
       <c r="A78" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B78" s="92" t="s">
+      <c r="B78" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="92"/>
+      <c r="C78" s="76"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8675,10 +8675,10 @@
       <c r="A79" s="33">
         <v>0</v>
       </c>
-      <c r="B79" s="92" t="s">
+      <c r="B79" s="76" t="s">
         <v>249</v>
       </c>
-      <c r="C79" s="92"/>
+      <c r="C79" s="76"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8758,10 +8758,10 @@
       <c r="A80" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B80" s="92" t="s">
+      <c r="B80" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="92"/>
+      <c r="C80" s="76"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8841,10 +8841,10 @@
       <c r="A81" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B81" s="92" t="s">
+      <c r="B81" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="92"/>
+      <c r="C81" s="76"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8922,11 +8922,11 @@
     </row>
     <row r="82" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A82" s="33"/>
-      <c r="B82" s="96" t="s">
+      <c r="B82" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="C82" s="98"/>
-      <c r="D82" s="97"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="81"/>
       <c r="E82" s="43"/>
       <c r="F82" s="74" t="s">
         <v>15</v>
@@ -8989,10 +8989,10 @@
       <c r="A83" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="96" t="s">
+      <c r="B83" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="C83" s="97"/>
+      <c r="C83" s="81"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9072,10 +9072,10 @@
       <c r="A84" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="92" t="s">
+      <c r="B84" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="92"/>
+      <c r="C84" s="76"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9155,10 +9155,10 @@
       <c r="A85" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="92"/>
+      <c r="C85" s="76"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9239,10 +9239,10 @@
       <c r="A86" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B86" s="92" t="s">
+      <c r="B86" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="C86" s="92"/>
+      <c r="C86" s="76"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9323,10 +9323,10 @@
       <c r="A87" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B87" s="92" t="s">
+      <c r="B87" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C87" s="92"/>
+      <c r="C87" s="76"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9407,10 +9407,10 @@
       <c r="A88" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B88" s="92" t="s">
+      <c r="B88" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="92"/>
+      <c r="C88" s="76"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9491,10 +9491,10 @@
       <c r="A89" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="92" t="s">
+      <c r="B89" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="C89" s="92"/>
+      <c r="C89" s="76"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9575,10 +9575,10 @@
       <c r="A90" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B90" s="92" t="s">
+      <c r="B90" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="92"/>
+      <c r="C90" s="76"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9659,10 +9659,10 @@
       <c r="A91" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B91" s="92" t="s">
+      <c r="B91" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C91" s="92"/>
+      <c r="C91" s="76"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9742,10 +9742,10 @@
       <c r="A92" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B92" s="92" t="s">
+      <c r="B92" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="92"/>
+      <c r="C92" s="76"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9825,10 +9825,10 @@
       <c r="A93" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="92" t="s">
+      <c r="B93" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="C93" s="92"/>
+      <c r="C93" s="76"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9908,10 +9908,10 @@
       <c r="A94" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="92" t="s">
+      <c r="B94" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="C94" s="92"/>
+      <c r="C94" s="76"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9991,10 +9991,10 @@
       <c r="A95" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="92"/>
+      <c r="C95" s="76"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10074,10 +10074,10 @@
       <c r="A96" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="92"/>
+      <c r="C96" s="76"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10157,10 +10157,10 @@
       <c r="A97" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B97" s="92" t="s">
+      <c r="B97" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="92"/>
+      <c r="C97" s="76"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10240,10 +10240,10 @@
       <c r="A98" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B98" s="92" t="s">
+      <c r="B98" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="92"/>
+      <c r="C98" s="76"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10323,10 +10323,10 @@
       <c r="A99" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B99" s="92" t="s">
+      <c r="B99" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="92"/>
+      <c r="C99" s="76"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10406,10 +10406,10 @@
       <c r="A100" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B100" s="92" t="s">
+      <c r="B100" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C100" s="92"/>
+      <c r="C100" s="76"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10489,10 +10489,10 @@
       <c r="A101" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="92" t="s">
+      <c r="B101" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C101" s="92"/>
+      <c r="C101" s="76"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10572,10 +10572,10 @@
       <c r="A102" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B102" s="96" t="s">
+      <c r="B102" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="C102" s="97"/>
+      <c r="C102" s="81"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10655,10 +10655,10 @@
       <c r="A103" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B103" s="96" t="s">
+      <c r="B103" s="80" t="s">
         <v>250</v>
       </c>
-      <c r="C103" s="97"/>
+      <c r="C103" s="81"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10738,10 +10738,10 @@
       <c r="A104" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B104" s="99" t="s">
+      <c r="B104" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="C104" s="100"/>
+      <c r="C104" s="83"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10821,10 +10821,10 @@
       <c r="A105" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B105" s="96" t="s">
+      <c r="B105" s="80" t="s">
         <v>252</v>
       </c>
-      <c r="C105" s="97"/>
+      <c r="C105" s="81"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10904,10 +10904,10 @@
       <c r="A106" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B106" s="96" t="s">
+      <c r="B106" s="80" t="s">
         <v>253</v>
       </c>
-      <c r="C106" s="97"/>
+      <c r="C106" s="81"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10987,10 +10987,10 @@
       <c r="A107" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B107" s="101" t="s">
+      <c r="B107" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="C107" s="102"/>
+      <c r="C107" s="79"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11070,10 +11070,10 @@
       <c r="A108" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B108" s="101" t="s">
+      <c r="B108" s="78" t="s">
         <v>255</v>
       </c>
-      <c r="C108" s="102"/>
+      <c r="C108" s="79"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11153,10 +11153,10 @@
       <c r="A109" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B109" s="101" t="s">
+      <c r="B109" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="C109" s="102"/>
+      <c r="C109" s="79"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11236,10 +11236,10 @@
       <c r="A110" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B110" s="103" t="s">
+      <c r="B110" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="C110" s="103"/>
+      <c r="C110" s="77"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11319,10 +11319,10 @@
       <c r="A111" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B111" s="103" t="s">
+      <c r="B111" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="C111" s="103"/>
+      <c r="C111" s="77"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11402,10 +11402,10 @@
       <c r="A112" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B112" s="103" t="s">
+      <c r="B112" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="C112" s="103"/>
+      <c r="C112" s="77"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11485,10 +11485,10 @@
       <c r="A113" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B113" s="103" t="s">
+      <c r="B113" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="C113" s="103"/>
+      <c r="C113" s="77"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11568,10 +11568,10 @@
       <c r="A114" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B114" s="103" t="s">
+      <c r="B114" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="C114" s="103"/>
+      <c r="C114" s="77"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11651,10 +11651,10 @@
       <c r="A115" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B115" s="103" t="s">
+      <c r="B115" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="C115" s="103"/>
+      <c r="C115" s="77"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11734,10 +11734,10 @@
       <c r="A116" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B116" s="103" t="s">
+      <c r="B116" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="C116" s="103"/>
+      <c r="C116" s="77"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11817,10 +11817,10 @@
       <c r="A117" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B117" s="103" t="s">
+      <c r="B117" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="C117" s="103"/>
+      <c r="C117" s="77"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11900,10 +11900,10 @@
       <c r="A118" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B118" s="92" t="s">
+      <c r="B118" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="C118" s="92"/>
+      <c r="C118" s="76"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11983,10 +11983,10 @@
       <c r="A119" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B119" s="92" t="s">
+      <c r="B119" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="C119" s="92"/>
+      <c r="C119" s="76"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12066,10 +12066,10 @@
       <c r="A120" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B120" s="92" t="s">
+      <c r="B120" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="C120" s="92"/>
+      <c r="C120" s="76"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12149,10 +12149,10 @@
       <c r="A121" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B121" s="92" t="s">
+      <c r="B121" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="C121" s="92"/>
+      <c r="C121" s="76"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12232,10 +12232,10 @@
       <c r="A122" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B122" s="92" t="s">
+      <c r="B122" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="C122" s="92"/>
+      <c r="C122" s="76"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12315,10 +12315,10 @@
       <c r="A123" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B123" s="92" t="s">
+      <c r="B123" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="C123" s="92"/>
+      <c r="C123" s="76"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12398,10 +12398,10 @@
       <c r="A124" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B124" s="92" t="s">
+      <c r="B124" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="C124" s="92"/>
+      <c r="C124" s="76"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12481,10 +12481,10 @@
       <c r="A125" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B125" s="92" t="s">
+      <c r="B125" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="C125" s="92"/>
+      <c r="C125" s="76"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12564,10 +12564,10 @@
       <c r="A126" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B126" s="92" t="s">
+      <c r="B126" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="C126" s="92"/>
+      <c r="C126" s="76"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12647,10 +12647,10 @@
       <c r="A127" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B127" s="92" t="s">
+      <c r="B127" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="C127" s="92"/>
+      <c r="C127" s="76"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12730,10 +12730,10 @@
       <c r="A128" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B128" s="92" t="s">
+      <c r="B128" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="C128" s="92"/>
+      <c r="C128" s="76"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12813,10 +12813,10 @@
       <c r="A129" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="B129" s="92" t="s">
+      <c r="B129" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="C129" s="92"/>
+      <c r="C129" s="76"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12896,10 +12896,10 @@
       <c r="A130" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B130" s="92" t="s">
+      <c r="B130" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="C130" s="92"/>
+      <c r="C130" s="76"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12979,10 +12979,10 @@
       <c r="A131" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B131" s="92" t="s">
+      <c r="B131" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="C131" s="92"/>
+      <c r="C131" s="76"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
       <c r="F131" s="34" t="s">
@@ -13062,10 +13062,10 @@
       <c r="A132" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="B132" s="92" t="s">
+      <c r="B132" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="C132" s="92"/>
+      <c r="C132" s="76"/>
       <c r="D132" s="43"/>
       <c r="E132" s="43"/>
       <c r="F132" s="34" t="s">
@@ -13145,10 +13145,10 @@
       <c r="A133" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B133" s="92" t="s">
+      <c r="B133" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="C133" s="92"/>
+      <c r="C133" s="76"/>
       <c r="D133" s="43"/>
       <c r="E133" s="43"/>
       <c r="F133" s="34" t="s">
@@ -13228,10 +13228,10 @@
       <c r="A134" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B134" s="89" t="s">
+      <c r="B134" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="C134" s="89"/>
+      <c r="C134" s="75"/>
       <c r="D134" s="34"/>
       <c r="E134" s="34"/>
       <c r="F134" s="34" t="s">
@@ -14523,136 +14523,6 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14667,6 +14537,136 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBD245F-62CE-4BDF-BA6D-800A41BAB666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{364D9E50-7402-4327-B489-7968F53F578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2099,54 +2099,6 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2185,6 +2137,54 @@
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2599,8 +2599,8 @@
   <dimension ref="A1:IU260"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57:C57"/>
+      <pane ySplit="8" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2633,35 +2633,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2710,8 +2710,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2720,41 +2720,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="94" t="s">
+      <c r="T5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="94"/>
+      <c r="U5" s="78"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="99" t="s">
+      <c r="G6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="H6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2766,35 +2766,35 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="95"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="100" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="101" t="s">
+      <c r="L7" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="102" t="s">
+      <c r="M7" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="103" t="s">
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="103"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="88"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
@@ -2806,14 +2806,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="100"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2826,7 +2826,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="101"/>
+      <c r="L8" s="85"/>
       <c r="M8" s="30" t="s">
         <v>231</v>
       </c>
@@ -2884,13 +2884,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90" t="s">
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2967,13 +2967,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -3048,10 +3048,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="75"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3135,10 +3135,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3222,10 +3222,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3309,10 +3309,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3393,10 +3393,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3476,10 +3476,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="76"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3559,10 +3559,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="76"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3642,10 +3642,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="87"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3725,10 +3725,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3808,10 +3808,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3891,10 +3891,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="76"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3974,10 +3974,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -4057,10 +4057,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4140,10 +4140,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4223,10 +4223,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="87"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4306,10 +4306,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="76"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4389,10 +4389,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4472,10 +4472,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="76"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4555,10 +4555,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="87"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4639,10 +4639,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="87"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4723,10 +4723,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="76"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4806,10 +4806,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4889,10 +4889,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="76"/>
+      <c r="C33" s="92"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4973,10 +4973,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="92"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -5056,10 +5056,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5139,10 +5139,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="76"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5222,10 +5222,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="76"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5305,10 +5305,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="76"/>
+      <c r="C38" s="92"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5388,10 +5388,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5471,10 +5471,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="76"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5554,10 +5554,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="76"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5637,10 +5637,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="76"/>
+      <c r="C42" s="92"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5721,10 +5721,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="76"/>
+      <c r="C43" s="92"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5804,10 +5804,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5887,10 +5887,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="B45" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="76"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5970,10 +5970,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="92"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -6053,10 +6053,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="76"/>
+      <c r="C47" s="92"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6136,10 +6136,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="76" t="s">
+      <c r="B48" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="76"/>
+      <c r="C48" s="92"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6219,10 +6219,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="76" t="s">
+      <c r="B49" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="92"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6302,10 +6302,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="76" t="s">
+      <c r="B50" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="76"/>
+      <c r="C50" s="92"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6385,10 +6385,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="76" t="s">
+      <c r="B51" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="76"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6468,10 +6468,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="76" t="s">
+      <c r="B52" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="76"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6551,10 +6551,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="76" t="s">
+      <c r="B53" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="76"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6634,10 +6634,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="76" t="s">
+      <c r="B54" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="92"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6717,10 +6717,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="76" t="s">
+      <c r="B55" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="76"/>
+      <c r="C55" s="92"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6800,10 +6800,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="C56" s="76"/>
+      <c r="C56" s="92"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6883,10 +6883,10 @@
       <c r="A57" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="76" t="s">
+      <c r="B57" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="76"/>
+      <c r="C57" s="92"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6966,10 +6966,10 @@
       <c r="A58" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="76" t="s">
+      <c r="B58" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="76"/>
+      <c r="C58" s="92"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -7049,10 +7049,10 @@
       <c r="A59" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="76" t="s">
+      <c r="B59" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="92"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7132,10 +7132,10 @@
       <c r="A60" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="76"/>
+      <c r="C60" s="92"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7215,10 +7215,10 @@
       <c r="A61" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="76" t="s">
+      <c r="B61" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="76"/>
+      <c r="C61" s="92"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7298,10 +7298,10 @@
       <c r="A62" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="76" t="s">
+      <c r="B62" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="76"/>
+      <c r="C62" s="92"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7382,10 +7382,10 @@
       <c r="A63" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="76" t="s">
+      <c r="B63" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="C63" s="76"/>
+      <c r="C63" s="92"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7465,10 +7465,10 @@
       <c r="A64" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B64" s="76" t="s">
+      <c r="B64" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="92"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7549,10 +7549,10 @@
       <c r="A65" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="76" t="s">
+      <c r="B65" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="76"/>
+      <c r="C65" s="92"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7632,10 +7632,10 @@
       <c r="A66" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="76" t="s">
+      <c r="B66" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="76"/>
+      <c r="C66" s="92"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7716,10 +7716,10 @@
       <c r="A67" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="76" t="s">
+      <c r="B67" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="76"/>
+      <c r="C67" s="92"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7799,10 +7799,10 @@
       <c r="A68" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="76" t="s">
+      <c r="B68" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="76"/>
+      <c r="C68" s="92"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7882,10 +7882,10 @@
       <c r="A69" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="76" t="s">
+      <c r="B69" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="76"/>
+      <c r="C69" s="92"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7964,10 +7964,10 @@
     </row>
     <row r="70" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A70" s="33"/>
-      <c r="B70" s="76" t="s">
+      <c r="B70" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="76"/>
+      <c r="C70" s="92"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
       <c r="F70" s="73" t="s">
@@ -8032,10 +8032,10 @@
       <c r="A71" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="76" t="s">
+      <c r="B71" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="76"/>
+      <c r="C71" s="92"/>
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
       <c r="F71" s="34" t="s">
@@ -8115,10 +8115,10 @@
       <c r="A72" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="85" t="s">
+      <c r="B72" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="85"/>
+      <c r="C72" s="94"/>
       <c r="D72" s="45"/>
       <c r="E72" s="45"/>
       <c r="F72" s="34" t="s">
@@ -8197,10 +8197,10 @@
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A73" s="46"/>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="76"/>
+      <c r="C73" s="92"/>
       <c r="D73" s="43"/>
       <c r="E73" s="43"/>
       <c r="F73" s="34" t="s">
@@ -8279,14 +8279,14 @@
     </row>
     <row r="74" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A74" s="38"/>
-      <c r="B74" s="86" t="s">
+      <c r="B74" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="C74" s="86"/>
-      <c r="D74" s="86">
+      <c r="C74" s="95"/>
+      <c r="D74" s="95">
         <v>35.200000000000003</v>
       </c>
-      <c r="E74" s="86"/>
+      <c r="E74" s="95"/>
       <c r="F74" s="34" t="s">
         <v>15</v>
       </c>
@@ -8364,10 +8364,10 @@
       <c r="A75" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="76" t="s">
+      <c r="B75" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="76"/>
+      <c r="C75" s="92"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8447,10 +8447,10 @@
       <c r="A76" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="76" t="s">
+      <c r="B76" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="76"/>
+      <c r="C76" s="92"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="34" t="s">
@@ -8528,10 +8528,10 @@
     </row>
     <row r="77" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A77" s="33"/>
-      <c r="B77" s="76" t="s">
+      <c r="B77" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="C77" s="76"/>
+      <c r="C77" s="92"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
       <c r="F77" s="72" t="s">
@@ -8591,10 +8591,10 @@
       <c r="A78" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B78" s="76" t="s">
+      <c r="B78" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="76"/>
+      <c r="C78" s="92"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8675,10 +8675,10 @@
       <c r="A79" s="33">
         <v>0</v>
       </c>
-      <c r="B79" s="76" t="s">
+      <c r="B79" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="C79" s="76"/>
+      <c r="C79" s="92"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8758,10 +8758,10 @@
       <c r="A80" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B80" s="76" t="s">
+      <c r="B80" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="76"/>
+      <c r="C80" s="92"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8841,10 +8841,10 @@
       <c r="A81" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B81" s="76" t="s">
+      <c r="B81" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="76"/>
+      <c r="C81" s="92"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8922,11 +8922,11 @@
     </row>
     <row r="82" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A82" s="33"/>
-      <c r="B82" s="80" t="s">
+      <c r="B82" s="96" t="s">
         <v>248</v>
       </c>
-      <c r="C82" s="84"/>
-      <c r="D82" s="81"/>
+      <c r="C82" s="98"/>
+      <c r="D82" s="97"/>
       <c r="E82" s="43"/>
       <c r="F82" s="74" t="s">
         <v>15</v>
@@ -8989,10 +8989,10 @@
       <c r="A83" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="80" t="s">
+      <c r="B83" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="C83" s="81"/>
+      <c r="C83" s="97"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9072,10 +9072,10 @@
       <c r="A84" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="76" t="s">
+      <c r="B84" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="76"/>
+      <c r="C84" s="92"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9155,10 +9155,10 @@
       <c r="A85" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B85" s="76" t="s">
+      <c r="B85" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="76"/>
+      <c r="C85" s="92"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9239,10 +9239,10 @@
       <c r="A86" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B86" s="76" t="s">
+      <c r="B86" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="C86" s="76"/>
+      <c r="C86" s="92"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9323,10 +9323,10 @@
       <c r="A87" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B87" s="76" t="s">
+      <c r="B87" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="C87" s="76"/>
+      <c r="C87" s="92"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9407,10 +9407,10 @@
       <c r="A88" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B88" s="76" t="s">
+      <c r="B88" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="76"/>
+      <c r="C88" s="92"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9491,10 +9491,10 @@
       <c r="A89" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="76" t="s">
+      <c r="B89" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="C89" s="76"/>
+      <c r="C89" s="92"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9575,10 +9575,10 @@
       <c r="A90" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B90" s="76" t="s">
+      <c r="B90" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="76"/>
+      <c r="C90" s="92"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9659,10 +9659,10 @@
       <c r="A91" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B91" s="76" t="s">
+      <c r="B91" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="C91" s="76"/>
+      <c r="C91" s="92"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9742,10 +9742,10 @@
       <c r="A92" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B92" s="76" t="s">
+      <c r="B92" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="76"/>
+      <c r="C92" s="92"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9825,10 +9825,10 @@
       <c r="A93" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="76" t="s">
+      <c r="B93" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="C93" s="76"/>
+      <c r="C93" s="92"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9908,10 +9908,10 @@
       <c r="A94" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="76" t="s">
+      <c r="B94" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="C94" s="76"/>
+      <c r="C94" s="92"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9991,10 +9991,10 @@
       <c r="A95" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B95" s="76" t="s">
+      <c r="B95" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="76"/>
+      <c r="C95" s="92"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10074,10 +10074,10 @@
       <c r="A96" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B96" s="76" t="s">
+      <c r="B96" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="76"/>
+      <c r="C96" s="92"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10157,10 +10157,10 @@
       <c r="A97" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B97" s="76" t="s">
+      <c r="B97" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="76"/>
+      <c r="C97" s="92"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10240,10 +10240,10 @@
       <c r="A98" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B98" s="76" t="s">
+      <c r="B98" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="76"/>
+      <c r="C98" s="92"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10323,10 +10323,10 @@
       <c r="A99" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B99" s="76" t="s">
+      <c r="B99" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="76"/>
+      <c r="C99" s="92"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10406,10 +10406,10 @@
       <c r="A100" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B100" s="76" t="s">
+      <c r="B100" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C100" s="76"/>
+      <c r="C100" s="92"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10489,10 +10489,10 @@
       <c r="A101" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="76" t="s">
+      <c r="B101" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C101" s="76"/>
+      <c r="C101" s="92"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10572,10 +10572,10 @@
       <c r="A102" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B102" s="80" t="s">
+      <c r="B102" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="C102" s="81"/>
+      <c r="C102" s="97"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10655,10 +10655,10 @@
       <c r="A103" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B103" s="80" t="s">
+      <c r="B103" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="C103" s="81"/>
+      <c r="C103" s="97"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10738,10 +10738,10 @@
       <c r="A104" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B104" s="82" t="s">
+      <c r="B104" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="C104" s="83"/>
+      <c r="C104" s="100"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10821,10 +10821,10 @@
       <c r="A105" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B105" s="80" t="s">
+      <c r="B105" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="C105" s="81"/>
+      <c r="C105" s="97"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10904,10 +10904,10 @@
       <c r="A106" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B106" s="80" t="s">
+      <c r="B106" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="C106" s="81"/>
+      <c r="C106" s="97"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10987,10 +10987,10 @@
       <c r="A107" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B107" s="78" t="s">
+      <c r="B107" s="101" t="s">
         <v>254</v>
       </c>
-      <c r="C107" s="79"/>
+      <c r="C107" s="102"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11070,10 +11070,10 @@
       <c r="A108" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B108" s="78" t="s">
+      <c r="B108" s="101" t="s">
         <v>255</v>
       </c>
-      <c r="C108" s="79"/>
+      <c r="C108" s="102"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11153,10 +11153,10 @@
       <c r="A109" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B109" s="78" t="s">
+      <c r="B109" s="101" t="s">
         <v>256</v>
       </c>
-      <c r="C109" s="79"/>
+      <c r="C109" s="102"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11236,10 +11236,10 @@
       <c r="A110" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B110" s="77" t="s">
+      <c r="B110" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="C110" s="77"/>
+      <c r="C110" s="103"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11319,10 +11319,10 @@
       <c r="A111" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="C111" s="77"/>
+      <c r="C111" s="103"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11402,10 +11402,10 @@
       <c r="A112" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B112" s="77" t="s">
+      <c r="B112" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="C112" s="77"/>
+      <c r="C112" s="103"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11485,10 +11485,10 @@
       <c r="A113" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B113" s="77" t="s">
+      <c r="B113" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="C113" s="77"/>
+      <c r="C113" s="103"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11568,10 +11568,10 @@
       <c r="A114" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B114" s="77" t="s">
+      <c r="B114" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="C114" s="77"/>
+      <c r="C114" s="103"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11651,10 +11651,10 @@
       <c r="A115" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B115" s="77" t="s">
+      <c r="B115" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="C115" s="77"/>
+      <c r="C115" s="103"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11734,10 +11734,10 @@
       <c r="A116" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B116" s="77" t="s">
+      <c r="B116" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="C116" s="77"/>
+      <c r="C116" s="103"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11817,10 +11817,10 @@
       <c r="A117" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B117" s="77" t="s">
+      <c r="B117" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="C117" s="77"/>
+      <c r="C117" s="103"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11900,10 +11900,10 @@
       <c r="A118" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B118" s="76" t="s">
+      <c r="B118" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="C118" s="76"/>
+      <c r="C118" s="92"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11983,10 +11983,10 @@
       <c r="A119" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B119" s="76" t="s">
+      <c r="B119" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="C119" s="76"/>
+      <c r="C119" s="92"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12066,10 +12066,10 @@
       <c r="A120" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B120" s="76" t="s">
+      <c r="B120" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="C120" s="76"/>
+      <c r="C120" s="92"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12149,10 +12149,10 @@
       <c r="A121" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B121" s="76" t="s">
+      <c r="B121" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="C121" s="76"/>
+      <c r="C121" s="92"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12232,10 +12232,10 @@
       <c r="A122" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B122" s="76" t="s">
+      <c r="B122" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="C122" s="76"/>
+      <c r="C122" s="92"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12315,10 +12315,10 @@
       <c r="A123" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B123" s="76" t="s">
+      <c r="B123" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="C123" s="76"/>
+      <c r="C123" s="92"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12398,10 +12398,10 @@
       <c r="A124" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B124" s="76" t="s">
+      <c r="B124" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="C124" s="76"/>
+      <c r="C124" s="92"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12481,10 +12481,10 @@
       <c r="A125" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B125" s="76" t="s">
+      <c r="B125" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="C125" s="76"/>
+      <c r="C125" s="92"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12564,10 +12564,10 @@
       <c r="A126" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B126" s="76" t="s">
+      <c r="B126" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="C126" s="76"/>
+      <c r="C126" s="92"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12647,10 +12647,10 @@
       <c r="A127" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B127" s="76" t="s">
+      <c r="B127" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="C127" s="76"/>
+      <c r="C127" s="92"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12730,10 +12730,10 @@
       <c r="A128" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B128" s="76" t="s">
+      <c r="B128" s="92" t="s">
         <v>204</v>
       </c>
-      <c r="C128" s="76"/>
+      <c r="C128" s="92"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12813,10 +12813,10 @@
       <c r="A129" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="B129" s="76" t="s">
+      <c r="B129" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="C129" s="76"/>
+      <c r="C129" s="92"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12896,10 +12896,10 @@
       <c r="A130" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B130" s="76" t="s">
+      <c r="B130" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="C130" s="76"/>
+      <c r="C130" s="92"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12979,10 +12979,10 @@
       <c r="A131" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B131" s="76" t="s">
+      <c r="B131" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="C131" s="76"/>
+      <c r="C131" s="92"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
       <c r="F131" s="34" t="s">
@@ -13062,10 +13062,10 @@
       <c r="A132" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="B132" s="76" t="s">
+      <c r="B132" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="C132" s="76"/>
+      <c r="C132" s="92"/>
       <c r="D132" s="43"/>
       <c r="E132" s="43"/>
       <c r="F132" s="34" t="s">
@@ -13145,10 +13145,10 @@
       <c r="A133" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B133" s="76" t="s">
+      <c r="B133" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="C133" s="76"/>
+      <c r="C133" s="92"/>
       <c r="D133" s="43"/>
       <c r="E133" s="43"/>
       <c r="F133" s="34" t="s">
@@ -13228,10 +13228,10 @@
       <c r="A134" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B134" s="75" t="s">
+      <c r="B134" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="C134" s="75"/>
+      <c r="C134" s="89"/>
       <c r="D134" s="34"/>
       <c r="E134" s="34"/>
       <c r="F134" s="34" t="s">
@@ -14523,6 +14523,136 @@
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14537,147 +14667,20 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="52" firstPageNumber="3" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;20&amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="82" max="16383" man="1"/>
+  <rowBreaks count="5" manualBreakCount="5">
+    <brk id="42" max="20" man="1"/>
+    <brk id="77" max="20" man="1"/>
+    <brk id="93" max="20" man="1"/>
     <brk id="101" max="20" man="1"/>
+    <brk id="134" max="20" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{364D9E50-7402-4327-B489-7968F53F578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF42F916-6192-4409-AF69-FCC622DB1535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3291" uniqueCount="257">
   <si>
     <t>重要農產品價格日報表</t>
   </si>
@@ -533,9 +533,6 @@
 (產地)</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
@@ -577,9 +574,6 @@
   </si>
   <si>
     <t>粉殼龍眼</t>
-  </si>
-  <si>
-    <t>60</t>
   </si>
   <si>
     <t>61</t>
@@ -1891,7 +1885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2185,6 +2179,9 @@
     </xf>
     <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2599,8 +2596,8 @@
   <dimension ref="A1:IU260"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2780,7 +2777,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="85" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M7" s="86" t="s">
         <v>8</v>
@@ -2828,7 +2825,7 @@
       </c>
       <c r="L8" s="85"/>
       <c r="M8" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N8" s="30" t="s">
         <v>10</v>
@@ -2852,7 +2849,7 @@
         <v>11</v>
       </c>
       <c r="U8" s="31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V8" s="88"/>
       <c r="W8" s="32" t="s">
@@ -6801,7 +6798,7 @@
         <v>99</v>
       </c>
       <c r="B56" s="92" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C56" s="92"/>
       <c r="D56" s="43"/>
@@ -6967,7 +6964,7 @@
         <v>101</v>
       </c>
       <c r="B58" s="92" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C58" s="92"/>
       <c r="D58" s="43"/>
@@ -7383,7 +7380,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="92" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C63" s="92"/>
       <c r="D63" s="43"/>
@@ -7963,9 +7960,11 @@
       </c>
     </row>
     <row r="70" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A70" s="33"/>
+      <c r="A70" s="104">
+        <v>53</v>
+      </c>
       <c r="B70" s="92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C70" s="92"/>
       <c r="D70" s="43"/>
@@ -8029,11 +8028,9 @@
       <c r="AD70" s="40"/>
     </row>
     <row r="71" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A71" s="33" t="s">
-        <v>124</v>
-      </c>
+      <c r="A71" s="33"/>
       <c r="B71" s="92" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C71" s="92"/>
       <c r="D71" s="43"/>
@@ -8113,10 +8110,10 @@
     </row>
     <row r="72" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A72" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="94" t="s">
         <v>125</v>
-      </c>
-      <c r="B72" s="94" t="s">
-        <v>126</v>
       </c>
       <c r="C72" s="94"/>
       <c r="D72" s="45"/>
@@ -8198,7 +8195,7 @@
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A73" s="46"/>
       <c r="B73" s="92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C73" s="92"/>
       <c r="D73" s="43"/>
@@ -8280,7 +8277,7 @@
     <row r="74" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A74" s="38"/>
       <c r="B74" s="95" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C74" s="95"/>
       <c r="D74" s="95">
@@ -8362,10 +8359,10 @@
     </row>
     <row r="75" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A75" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="92" t="s">
         <v>128</v>
-      </c>
-      <c r="B75" s="92" t="s">
-        <v>129</v>
       </c>
       <c r="C75" s="92"/>
       <c r="D75" s="43"/>
@@ -8445,10 +8442,10 @@
     </row>
     <row r="76" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A76" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="92" t="s">
         <v>130</v>
-      </c>
-      <c r="B76" s="92" t="s">
-        <v>131</v>
       </c>
       <c r="C76" s="92"/>
       <c r="D76" s="43"/>
@@ -8529,7 +8526,7 @@
     <row r="77" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A77" s="33"/>
       <c r="B77" s="92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C77" s="92"/>
       <c r="D77" s="43"/>
@@ -8589,10 +8586,10 @@
     </row>
     <row r="78" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A78" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" s="92" t="s">
         <v>132</v>
-      </c>
-      <c r="B78" s="92" t="s">
-        <v>133</v>
       </c>
       <c r="C78" s="92"/>
       <c r="D78" s="43"/>
@@ -8676,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="B79" s="92" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C79" s="92"/>
       <c r="D79" s="43"/>
@@ -8756,10 +8753,10 @@
     </row>
     <row r="80" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A80" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="92" t="s">
         <v>134</v>
-      </c>
-      <c r="B80" s="92" t="s">
-        <v>135</v>
       </c>
       <c r="C80" s="92"/>
       <c r="D80" s="43"/>
@@ -8839,10 +8836,10 @@
     </row>
     <row r="81" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A81" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" s="92" t="s">
         <v>136</v>
-      </c>
-      <c r="B81" s="92" t="s">
-        <v>137</v>
       </c>
       <c r="C81" s="92"/>
       <c r="D81" s="43"/>
@@ -8921,9 +8918,11 @@
       </c>
     </row>
     <row r="82" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A82" s="33"/>
+      <c r="A82" s="104">
+        <v>60</v>
+      </c>
       <c r="B82" s="96" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C82" s="98"/>
       <c r="D82" s="97"/>
@@ -8986,11 +8985,9 @@
       <c r="AD82" s="40"/>
     </row>
     <row r="83" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A83" s="33" t="s">
-        <v>138</v>
-      </c>
+      <c r="A83" s="33"/>
       <c r="B83" s="96" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C83" s="97"/>
       <c r="D83" s="43"/>
@@ -9070,10 +9067,10 @@
     </row>
     <row r="84" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A84" s="33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B84" s="92" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C84" s="92"/>
       <c r="D84" s="43"/>
@@ -9153,10 +9150,10 @@
     </row>
     <row r="85" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A85" s="33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B85" s="92" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C85" s="92"/>
       <c r="D85" s="43"/>
@@ -9237,10 +9234,10 @@
     </row>
     <row r="86" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A86" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B86" s="92" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C86" s="92"/>
       <c r="D86" s="43"/>
@@ -9321,10 +9318,10 @@
     </row>
     <row r="87" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A87" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B87" s="92" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C87" s="92"/>
       <c r="D87" s="43"/>
@@ -9405,10 +9402,10 @@
     </row>
     <row r="88" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A88" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B88" s="92" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C88" s="92"/>
       <c r="D88" s="43"/>
@@ -9489,10 +9486,10 @@
     </row>
     <row r="89" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A89" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B89" s="92" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C89" s="92"/>
       <c r="D89" s="43"/>
@@ -9573,10 +9570,10 @@
     </row>
     <row r="90" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A90" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B90" s="92" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C90" s="92"/>
       <c r="D90" s="43"/>
@@ -9657,10 +9654,10 @@
     </row>
     <row r="91" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A91" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B91" s="92" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C91" s="92"/>
       <c r="D91" s="43"/>
@@ -9740,10 +9737,10 @@
     </row>
     <row r="92" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A92" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B92" s="92" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C92" s="92"/>
       <c r="D92" s="43"/>
@@ -9823,10 +9820,10 @@
     </row>
     <row r="93" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A93" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B93" s="92" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C93" s="92"/>
       <c r="D93" s="43"/>
@@ -9906,10 +9903,10 @@
     </row>
     <row r="94" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A94" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B94" s="92" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C94" s="92"/>
       <c r="D94" s="43"/>
@@ -9989,7 +9986,7 @@
     </row>
     <row r="95" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A95" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B95" s="92" t="s">
         <v>88</v>
@@ -10072,7 +10069,7 @@
     </row>
     <row r="96" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A96" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B96" s="92" t="s">
         <v>88</v>
@@ -10155,7 +10152,7 @@
     </row>
     <row r="97" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A97" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B97" s="92" t="s">
         <v>88</v>
@@ -10238,7 +10235,7 @@
     </row>
     <row r="98" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A98" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B98" s="92" t="s">
         <v>88</v>
@@ -10321,7 +10318,7 @@
     </row>
     <row r="99" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A99" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B99" s="92" t="s">
         <v>88</v>
@@ -10404,7 +10401,7 @@
     </row>
     <row r="100" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A100" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B100" s="92" t="s">
         <v>88</v>
@@ -10487,7 +10484,7 @@
     </row>
     <row r="101" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A101" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B101" s="92" t="s">
         <v>88</v>
@@ -10570,10 +10567,10 @@
     </row>
     <row r="102" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A102" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B102" s="96" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C102" s="97"/>
       <c r="D102" s="43"/>
@@ -10653,10 +10650,10 @@
     </row>
     <row r="103" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A103" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B103" s="96" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C103" s="97"/>
       <c r="D103" s="43"/>
@@ -10736,10 +10733,10 @@
     </row>
     <row r="104" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A104" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B104" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C104" s="100"/>
       <c r="D104" s="43"/>
@@ -10819,10 +10816,10 @@
     </row>
     <row r="105" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A105" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B105" s="96" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C105" s="97"/>
       <c r="D105" s="43"/>
@@ -10902,10 +10899,10 @@
     </row>
     <row r="106" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A106" s="33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B106" s="96" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C106" s="97"/>
       <c r="D106" s="43"/>
@@ -10985,10 +10982,10 @@
     </row>
     <row r="107" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A107" s="33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B107" s="101" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C107" s="102"/>
       <c r="D107" s="43"/>
@@ -11068,10 +11065,10 @@
     </row>
     <row r="108" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A108" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B108" s="101" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C108" s="102"/>
       <c r="D108" s="43"/>
@@ -11151,10 +11148,10 @@
     </row>
     <row r="109" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A109" s="33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B109" s="101" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C109" s="102"/>
       <c r="D109" s="43"/>
@@ -11234,10 +11231,10 @@
     </row>
     <row r="110" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A110" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B110" s="103" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C110" s="103"/>
       <c r="D110" s="43"/>
@@ -11317,10 +11314,10 @@
     </row>
     <row r="111" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A111" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B111" s="103" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C111" s="103"/>
       <c r="D111" s="43"/>
@@ -11400,10 +11397,10 @@
     </row>
     <row r="112" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A112" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B112" s="103" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C112" s="103"/>
       <c r="D112" s="43"/>
@@ -11483,10 +11480,10 @@
     </row>
     <row r="113" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A113" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B113" s="103" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C113" s="103"/>
       <c r="D113" s="43"/>
@@ -11566,10 +11563,10 @@
     </row>
     <row r="114" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A114" s="33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B114" s="103" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C114" s="103"/>
       <c r="D114" s="43"/>
@@ -11649,10 +11646,10 @@
     </row>
     <row r="115" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A115" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B115" s="103" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C115" s="103"/>
       <c r="D115" s="43"/>
@@ -11732,10 +11729,10 @@
     </row>
     <row r="116" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A116" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B116" s="103" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C116" s="103"/>
       <c r="D116" s="43"/>
@@ -11815,10 +11812,10 @@
     </row>
     <row r="117" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A117" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B117" s="103" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C117" s="103"/>
       <c r="D117" s="43"/>
@@ -11898,10 +11895,10 @@
     </row>
     <row r="118" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A118" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B118" s="92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C118" s="92"/>
       <c r="D118" s="43"/>
@@ -11981,10 +11978,10 @@
     </row>
     <row r="119" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A119" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B119" s="92" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C119" s="92"/>
       <c r="D119" s="43"/>
@@ -12064,10 +12061,10 @@
     </row>
     <row r="120" spans="1:30" s="10" customFormat="1" ht="38.25" customHeight="1">
       <c r="A120" s="33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B120" s="92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C120" s="92"/>
       <c r="D120" s="43"/>
@@ -12147,10 +12144,10 @@
     </row>
     <row r="121" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A121" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B121" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C121" s="92"/>
       <c r="D121" s="43"/>
@@ -12230,10 +12227,10 @@
     </row>
     <row r="122" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A122" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B122" s="92" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C122" s="92"/>
       <c r="D122" s="43"/>
@@ -12313,10 +12310,10 @@
     </row>
     <row r="123" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A123" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B123" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C123" s="92"/>
       <c r="D123" s="43"/>
@@ -12396,10 +12393,10 @@
     </row>
     <row r="124" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A124" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B124" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C124" s="92"/>
       <c r="D124" s="43"/>
@@ -12479,10 +12476,10 @@
     </row>
     <row r="125" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A125" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B125" s="92" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C125" s="92"/>
       <c r="D125" s="43"/>
@@ -12562,10 +12559,10 @@
     </row>
     <row r="126" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A126" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B126" s="92" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C126" s="92"/>
       <c r="D126" s="43"/>
@@ -12645,10 +12642,10 @@
     </row>
     <row r="127" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A127" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B127" s="92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C127" s="92"/>
       <c r="D127" s="43"/>
@@ -12728,10 +12725,10 @@
     </row>
     <row r="128" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A128" s="33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B128" s="92" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C128" s="92"/>
       <c r="D128" s="43"/>
@@ -12811,10 +12808,10 @@
     </row>
     <row r="129" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A129" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B129" s="92" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C129" s="92"/>
       <c r="D129" s="43"/>
@@ -12894,10 +12891,10 @@
     </row>
     <row r="130" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A130" s="33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B130" s="92" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C130" s="92"/>
       <c r="D130" s="43"/>
@@ -12977,10 +12974,10 @@
     </row>
     <row r="131" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A131" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B131" s="92" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C131" s="92"/>
       <c r="D131" s="43"/>
@@ -13060,10 +13057,10 @@
     </row>
     <row r="132" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A132" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B132" s="92" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C132" s="92"/>
       <c r="D132" s="43"/>
@@ -13143,10 +13140,10 @@
     </row>
     <row r="133" spans="1:255" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A133" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B133" s="92" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C133" s="92"/>
       <c r="D133" s="43"/>
@@ -13226,10 +13223,10 @@
     </row>
     <row r="134" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A134" s="33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B134" s="89" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C134" s="89"/>
       <c r="D134" s="34"/>
@@ -13535,13 +13532,13 @@
     </row>
     <row r="135" spans="1:255" s="10" customFormat="1">
       <c r="A135" s="48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B135" s="26"/>
       <c r="C135" s="49"/>
       <c r="D135" s="50"/>
       <c r="F135" s="51" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H135" s="52"/>
       <c r="I135" s="53"/>
@@ -13566,7 +13563,7 @@
     </row>
     <row r="136" spans="1:255" s="10" customFormat="1">
       <c r="A136" s="58" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B136" s="59"/>
       <c r="C136" s="60"/>
@@ -13593,7 +13590,7 @@
     </row>
     <row r="137" spans="1:255" s="10" customFormat="1">
       <c r="A137" s="58" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B137" s="59"/>
       <c r="C137" s="60"/>
@@ -13620,7 +13617,7 @@
     </row>
     <row r="138" spans="1:255" s="10" customFormat="1">
       <c r="A138" s="71" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B138" s="62"/>
       <c r="C138" s="1"/>
@@ -13647,7 +13644,7 @@
     </row>
     <row r="139" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A139" s="71" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B139" s="62"/>
       <c r="C139" s="1"/>
@@ -13674,7 +13671,7 @@
     </row>
     <row r="140" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A140" s="58" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B140" s="62"/>
       <c r="C140" s="1"/>
@@ -13701,7 +13698,7 @@
     </row>
     <row r="141" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B141" s="62"/>
       <c r="C141" s="1"/>
@@ -13728,7 +13725,7 @@
     </row>
     <row r="142" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="58" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B142" s="62"/>
       <c r="C142" s="1"/>
@@ -13755,7 +13752,7 @@
     </row>
     <row r="143" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="58" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B143" s="62"/>
       <c r="C143" s="1"/>
@@ -13782,7 +13779,7 @@
     </row>
     <row r="144" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A144" s="58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B144" s="62"/>
       <c r="C144" s="1"/>
@@ -13809,7 +13806,7 @@
     </row>
     <row r="145" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A145" s="58" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B145" s="62"/>
       <c r="C145" s="1"/>
@@ -13836,7 +13833,7 @@
     </row>
     <row r="146" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A146" s="58" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B146" s="62"/>
       <c r="C146" s="1"/>
@@ -13863,7 +13860,7 @@
     </row>
     <row r="147" spans="1:46">
       <c r="A147" s="71" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B147" s="59"/>
       <c r="C147" s="60"/>
@@ -13886,7 +13883,7 @@
     </row>
     <row r="148" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A148" s="71" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B148" s="59"/>
       <c r="C148" s="60"/>
@@ -13913,7 +13910,7 @@
     </row>
     <row r="149" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A149" s="71" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B149" s="66"/>
       <c r="C149" s="67"/>
@@ -13940,7 +13937,7 @@
     </row>
     <row r="150" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A150" s="71" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B150" s="59"/>
       <c r="C150" s="60"/>
@@ -13967,7 +13964,7 @@
     </row>
     <row r="151" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A151" s="71" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B151" s="59"/>
       <c r="C151" s="60"/>
@@ -13994,7 +13991,7 @@
     </row>
     <row r="152" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
       <c r="A152" s="71" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B152" s="59"/>
       <c r="C152" s="60"/>
@@ -14670,17 +14667,14 @@
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="52" firstPageNumber="3" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;20&amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="5" manualBreakCount="5">
-    <brk id="42" max="20" man="1"/>
-    <brk id="77" max="20" man="1"/>
-    <brk id="93" max="20" man="1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="82" max="16383" man="1"/>
     <brk id="101" max="20" man="1"/>
-    <brk id="134" max="20" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/src/apps/dailytrans/reports/template.xlsx
+++ b/src/apps/dailytrans/reports/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SO6372\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF42F916-6192-4409-AF69-FCC622DB1535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0407F973-AFCC-4B8D-9354-E71020F3AE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3291" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="262">
   <si>
     <t>重要農產品價格日報表</t>
   </si>
@@ -1498,6 +1498,26 @@
   </si>
   <si>
     <t>寶島甘露梨</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>53-1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>54-1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>54-2</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>56-1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-1</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2012,9 +2032,6 @@
     <xf numFmtId="180" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2093,6 +2110,57 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2132,55 +2200,7 @@
     <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2597,7 +2617,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2630,35 +2650,35 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="51" customHeight="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
     </row>
     <row r="3" spans="1:30" ht="11.45" customHeight="1">
       <c r="A3" s="11"/>
@@ -2707,8 +2727,8 @@
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -2717,41 +2737,41 @@
       <c r="S5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="78" t="s">
+      <c r="T5" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="78"/>
+      <c r="U5" s="94"/>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
       <c r="V6"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
@@ -2763,35 +2783,35 @@
       <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="1:30" s="10" customFormat="1" ht="50.45" customHeight="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84" t="s">
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="100" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="101" t="s">
         <v>228</v>
       </c>
-      <c r="M7" s="86" t="s">
+      <c r="M7" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="87" t="s">
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="87"/>
+      <c r="U7" s="103"/>
       <c r="V7" s="88"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
@@ -2803,14 +2823,14 @@
       <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="1:30" s="10" customFormat="1" ht="49.5">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="100"/>
       <c r="I8" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2823,7 +2843,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="85"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="30" t="s">
         <v>229</v>
       </c>
@@ -2881,13 +2901,13 @@
       <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2929,7 +2949,7 @@
       <c r="S9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="70" t="s">
+      <c r="T9" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U9" s="36" t="s">
@@ -2964,13 +2984,13 @@
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
       <c r="G10" s="35" t="s">
         <v>15</v>
       </c>
@@ -3010,7 +3030,7 @@
       <c r="S10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="T10" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U10" s="36" t="s">
@@ -3045,10 +3065,10 @@
       <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
@@ -3097,7 +3117,7 @@
       <c r="S11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T11" s="70" t="s">
+      <c r="T11" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U11" s="36" t="s">
@@ -3132,10 +3152,10 @@
       <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="89"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="34" t="s">
         <v>15</v>
       </c>
@@ -3184,7 +3204,7 @@
       <c r="S12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T12" s="70" t="s">
+      <c r="T12" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U12" s="36" t="s">
@@ -3219,10 +3239,10 @@
       <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="89"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
@@ -3271,7 +3291,7 @@
       <c r="S13" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T13" s="70" t="s">
+      <c r="T13" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U13" s="36" t="s">
@@ -3306,10 +3326,10 @@
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="92"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="34" t="s">
@@ -3354,7 +3374,7 @@
       <c r="S14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T14" s="70" t="s">
+      <c r="T14" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U14" s="36" t="s">
@@ -3390,10 +3410,10 @@
       <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="92"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="34" t="s">
@@ -3438,7 +3458,7 @@
       <c r="S15" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T15" s="70" t="s">
+      <c r="T15" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U15" s="36" t="s">
@@ -3473,10 +3493,10 @@
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="34" t="s">
@@ -3521,7 +3541,7 @@
       <c r="S16" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T16" s="70" t="s">
+      <c r="T16" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U16" s="36" t="s">
@@ -3556,10 +3576,10 @@
       <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="92"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="34" t="s">
@@ -3604,7 +3624,7 @@
       <c r="S17" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T17" s="70" t="s">
+      <c r="T17" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U17" s="36" t="s">
@@ -3639,10 +3659,10 @@
       <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="93"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="34" t="s">
@@ -3687,7 +3707,7 @@
       <c r="S18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T18" s="70" t="s">
+      <c r="T18" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U18" s="36" t="s">
@@ -3722,10 +3742,10 @@
       <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="92"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="34" t="s">
@@ -3770,7 +3790,7 @@
       <c r="S19" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T19" s="70" t="s">
+      <c r="T19" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U19" s="36" t="s">
@@ -3805,10 +3825,10 @@
       <c r="A20" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="92"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="34" t="s">
@@ -3853,7 +3873,7 @@
       <c r="S20" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T20" s="70" t="s">
+      <c r="T20" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U20" s="36" t="s">
@@ -3888,10 +3908,10 @@
       <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="92"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="34" t="s">
@@ -3936,7 +3956,7 @@
       <c r="S21" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T21" s="70" t="s">
+      <c r="T21" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U21" s="36" t="s">
@@ -3971,10 +3991,10 @@
       <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="92"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="34" t="s">
@@ -4019,7 +4039,7 @@
       <c r="S22" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T22" s="70" t="s">
+      <c r="T22" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U22" s="36" t="s">
@@ -4054,10 +4074,10 @@
       <c r="A23" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="92"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="34" t="s">
@@ -4102,7 +4122,7 @@
       <c r="S23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T23" s="70" t="s">
+      <c r="T23" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U23" s="36" t="s">
@@ -4137,10 +4157,10 @@
       <c r="A24" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="92"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="34" t="s">
@@ -4185,7 +4205,7 @@
       <c r="S24" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T24" s="70" t="s">
+      <c r="T24" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U24" s="36" t="s">
@@ -4220,10 +4240,10 @@
       <c r="A25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="93"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="34" t="s">
@@ -4268,7 +4288,7 @@
       <c r="S25" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T25" s="70" t="s">
+      <c r="T25" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U25" s="36" t="s">
@@ -4303,10 +4323,10 @@
       <c r="A26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="92"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="34" t="s">
@@ -4351,7 +4371,7 @@
       <c r="S26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T26" s="70" t="s">
+      <c r="T26" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U26" s="36" t="s">
@@ -4386,10 +4406,10 @@
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="92"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="34" t="s">
@@ -4434,7 +4454,7 @@
       <c r="S27" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T27" s="70" t="s">
+      <c r="T27" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U27" s="36" t="s">
@@ -4469,10 +4489,10 @@
       <c r="A28" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="92"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="34" t="s">
@@ -4517,7 +4537,7 @@
       <c r="S28" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T28" s="70" t="s">
+      <c r="T28" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U28" s="36" t="s">
@@ -4552,10 +4572,10 @@
       <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="93"/>
+      <c r="C29" s="87"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="34" t="s">
@@ -4600,7 +4620,7 @@
       <c r="S29" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T29" s="70" t="s">
+      <c r="T29" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U29" s="36" t="s">
@@ -4636,10 +4656,10 @@
       <c r="A30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="93"/>
+      <c r="C30" s="87"/>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="34" t="s">
@@ -4684,7 +4704,7 @@
       <c r="S30" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T30" s="70" t="s">
+      <c r="T30" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U30" s="36" t="s">
@@ -4720,10 +4740,10 @@
       <c r="A31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="92"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="34" t="s">
@@ -4768,7 +4788,7 @@
       <c r="S31" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T31" s="70" t="s">
+      <c r="T31" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U31" s="36" t="s">
@@ -4803,10 +4823,10 @@
       <c r="A32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="92"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="34" t="s">
@@ -4851,7 +4871,7 @@
       <c r="S32" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T32" s="70" t="s">
+      <c r="T32" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U32" s="36" t="s">
@@ -4886,10 +4906,10 @@
       <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="92"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="34" t="s">
@@ -4934,7 +4954,7 @@
       <c r="S33" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T33" s="70" t="s">
+      <c r="T33" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U33" s="36" t="s">
@@ -4970,10 +4990,10 @@
       <c r="A34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="92"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="34" t="s">
@@ -5018,7 +5038,7 @@
       <c r="S34" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T34" s="70" t="s">
+      <c r="T34" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U34" s="36" t="s">
@@ -5053,10 +5073,10 @@
       <c r="A35" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="92" t="s">
+      <c r="B35" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="92"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="34" t="s">
@@ -5101,7 +5121,7 @@
       <c r="S35" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T35" s="70" t="s">
+      <c r="T35" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U35" s="36" t="s">
@@ -5136,10 +5156,10 @@
       <c r="A36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="92"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="34" t="s">
@@ -5184,7 +5204,7 @@
       <c r="S36" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T36" s="70" t="s">
+      <c r="T36" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U36" s="36" t="s">
@@ -5219,10 +5239,10 @@
       <c r="A37" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="92" t="s">
+      <c r="B37" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="92"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="34" t="s">
@@ -5267,7 +5287,7 @@
       <c r="S37" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T37" s="70" t="s">
+      <c r="T37" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U37" s="36" t="s">
@@ -5302,10 +5322,10 @@
       <c r="A38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="92"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="34" t="s">
@@ -5350,7 +5370,7 @@
       <c r="S38" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T38" s="70" t="s">
+      <c r="T38" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U38" s="36" t="s">
@@ -5385,10 +5405,10 @@
       <c r="A39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="92"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="34" t="s">
@@ -5433,7 +5453,7 @@
       <c r="S39" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T39" s="70" t="s">
+      <c r="T39" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U39" s="36" t="s">
@@ -5468,10 +5488,10 @@
       <c r="A40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="92"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="34" t="s">
@@ -5516,7 +5536,7 @@
       <c r="S40" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T40" s="70" t="s">
+      <c r="T40" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U40" s="36" t="s">
@@ -5551,10 +5571,10 @@
       <c r="A41" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="92"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="34" t="s">
@@ -5599,7 +5619,7 @@
       <c r="S41" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T41" s="70" t="s">
+      <c r="T41" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U41" s="36" t="s">
@@ -5634,10 +5654,10 @@
       <c r="A42" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="92"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="34" t="s">
@@ -5682,7 +5702,7 @@
       <c r="S42" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T42" s="70" t="s">
+      <c r="T42" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U42" s="36" t="s">
@@ -5718,10 +5738,10 @@
       <c r="A43" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="92" t="s">
+      <c r="B43" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="92"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="34" t="s">
@@ -5766,7 +5786,7 @@
       <c r="S43" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T43" s="70" t="s">
+      <c r="T43" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U43" s="36" t="s">
@@ -5801,10 +5821,10 @@
       <c r="A44" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="92"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="34" t="s">
@@ -5849,7 +5869,7 @@
       <c r="S44" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T44" s="70" t="s">
+      <c r="T44" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U44" s="36" t="s">
@@ -5884,10 +5904,10 @@
       <c r="A45" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="92"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="34" t="s">
@@ -5932,7 +5952,7 @@
       <c r="S45" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T45" s="70" t="s">
+      <c r="T45" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U45" s="36" t="s">
@@ -5967,10 +5987,10 @@
       <c r="A46" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="92"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="34" t="s">
@@ -6015,7 +6035,7 @@
       <c r="S46" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T46" s="70" t="s">
+      <c r="T46" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U46" s="36" t="s">
@@ -6050,10 +6070,10 @@
       <c r="A47" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="92"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="34" t="s">
@@ -6098,7 +6118,7 @@
       <c r="S47" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T47" s="70" t="s">
+      <c r="T47" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U47" s="36" t="s">
@@ -6133,10 +6153,10 @@
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="92" t="s">
+      <c r="B48" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="92"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="34" t="s">
@@ -6181,7 +6201,7 @@
       <c r="S48" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T48" s="70" t="s">
+      <c r="T48" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U48" s="36" t="s">
@@ -6216,10 +6236,10 @@
       <c r="A49" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="92" t="s">
+      <c r="B49" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="92"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="34" t="s">
@@ -6264,7 +6284,7 @@
       <c r="S49" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T49" s="70" t="s">
+      <c r="T49" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U49" s="36" t="s">
@@ -6299,10 +6319,10 @@
       <c r="A50" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="92" t="s">
+      <c r="B50" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="92"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="34" t="s">
@@ -6347,7 +6367,7 @@
       <c r="S50" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T50" s="70" t="s">
+      <c r="T50" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U50" s="36" t="s">
@@ -6382,10 +6402,10 @@
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="92"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="34" t="s">
@@ -6430,7 +6450,7 @@
       <c r="S51" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T51" s="70" t="s">
+      <c r="T51" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U51" s="36" t="s">
@@ -6465,10 +6485,10 @@
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="92" t="s">
+      <c r="B52" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="92"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="34" t="s">
@@ -6513,7 +6533,7 @@
       <c r="S52" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T52" s="70" t="s">
+      <c r="T52" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U52" s="36" t="s">
@@ -6548,10 +6568,10 @@
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="92"/>
+      <c r="C53" s="76"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="34" t="s">
@@ -6596,7 +6616,7 @@
       <c r="S53" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T53" s="70" t="s">
+      <c r="T53" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U53" s="36" t="s">
@@ -6631,10 +6651,10 @@
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="92" t="s">
+      <c r="B54" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="92"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
       <c r="F54" s="34" t="s">
@@ -6679,7 +6699,7 @@
       <c r="S54" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T54" s="70" t="s">
+      <c r="T54" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U54" s="36" t="s">
@@ -6714,10 +6734,10 @@
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="92"/>
+      <c r="C55" s="76"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="34" t="s">
@@ -6762,7 +6782,7 @@
       <c r="S55" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T55" s="70" t="s">
+      <c r="T55" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U55" s="36" t="s">
@@ -6797,10 +6817,10 @@
       <c r="A56" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="76" t="s">
         <v>256</v>
       </c>
-      <c r="C56" s="92"/>
+      <c r="C56" s="76"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="34" t="s">
@@ -6845,7 +6865,7 @@
       <c r="S56" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T56" s="70" t="s">
+      <c r="T56" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U56" s="36" t="s">
@@ -6880,10 +6900,10 @@
       <c r="A57" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="92"/>
+      <c r="C57" s="76"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="34" t="s">
@@ -6928,7 +6948,7 @@
       <c r="S57" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T57" s="70" t="s">
+      <c r="T57" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U57" s="36" t="s">
@@ -6963,10 +6983,10 @@
       <c r="A58" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="92" t="s">
+      <c r="B58" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="C58" s="92"/>
+      <c r="C58" s="76"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="34" t="s">
@@ -7011,7 +7031,7 @@
       <c r="S58" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T58" s="70" t="s">
+      <c r="T58" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U58" s="36" t="s">
@@ -7046,10 +7066,10 @@
       <c r="A59" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="92" t="s">
+      <c r="B59" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="92"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="34" t="s">
@@ -7094,7 +7114,7 @@
       <c r="S59" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T59" s="70" t="s">
+      <c r="T59" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U59" s="36" t="s">
@@ -7129,10 +7149,10 @@
       <c r="A60" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="92" t="s">
+      <c r="B60" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="92"/>
+      <c r="C60" s="76"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="34" t="s">
@@ -7177,7 +7197,7 @@
       <c r="S60" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T60" s="70" t="s">
+      <c r="T60" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U60" s="36" t="s">
@@ -7212,10 +7232,10 @@
       <c r="A61" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="92"/>
+      <c r="C61" s="76"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="34" t="s">
@@ -7260,7 +7280,7 @@
       <c r="S61" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T61" s="70" t="s">
+      <c r="T61" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U61" s="36" t="s">
@@ -7295,10 +7315,10 @@
       <c r="A62" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="92" t="s">
+      <c r="B62" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="92"/>
+      <c r="C62" s="76"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="34" t="s">
@@ -7343,7 +7363,7 @@
       <c r="S62" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T62" s="70" t="s">
+      <c r="T62" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U62" s="36" t="s">
@@ -7379,10 +7399,10 @@
       <c r="A63" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="92" t="s">
+      <c r="B63" s="76" t="s">
         <v>233</v>
       </c>
-      <c r="C63" s="92"/>
+      <c r="C63" s="76"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="34" t="s">
@@ -7427,7 +7447,7 @@
       <c r="S63" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T63" s="70" t="s">
+      <c r="T63" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U63" s="36" t="s">
@@ -7462,10 +7482,10 @@
       <c r="A64" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B64" s="92" t="s">
+      <c r="B64" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="92"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="34" t="s">
@@ -7510,7 +7530,7 @@
       <c r="S64" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T64" s="70" t="s">
+      <c r="T64" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U64" s="36" t="s">
@@ -7546,10 +7566,10 @@
       <c r="A65" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="92"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="34" t="s">
@@ -7594,7 +7614,7 @@
       <c r="S65" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T65" s="70" t="s">
+      <c r="T65" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U65" s="36" t="s">
@@ -7629,10 +7649,10 @@
       <c r="A66" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="92"/>
+      <c r="C66" s="76"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
       <c r="F66" s="34" t="s">
@@ -7677,7 +7697,7 @@
       <c r="S66" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T66" s="70" t="s">
+      <c r="T66" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U66" s="36" t="s">
@@ -7713,10 +7733,10 @@
       <c r="A67" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="92" t="s">
+      <c r="B67" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="92"/>
+      <c r="C67" s="76"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="34" t="s">
@@ -7761,7 +7781,7 @@
       <c r="S67" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T67" s="70" t="s">
+      <c r="T67" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U67" s="36" t="s">
@@ -7796,10 +7816,10 @@
       <c r="A68" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="92" t="s">
+      <c r="B68" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="92"/>
+      <c r="C68" s="76"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="34" t="s">
@@ -7844,7 +7864,7 @@
       <c r="S68" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T68" s="70" t="s">
+      <c r="T68" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U68" s="36" t="s">
@@ -7879,10 +7899,10 @@
       <c r="A69" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="92" t="s">
+      <c r="B69" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="92"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="34" t="s">
@@ -7927,7 +7947,7 @@
       <c r="S69" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T69" s="70" t="s">
+      <c r="T69" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U69" s="36" t="s">
@@ -7960,16 +7980,16 @@
       </c>
     </row>
     <row r="70" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A70" s="104">
+      <c r="A70" s="74">
         <v>53</v>
       </c>
-      <c r="B70" s="92" t="s">
+      <c r="B70" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="C70" s="92"/>
+      <c r="C70" s="76"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
-      <c r="F70" s="73" t="s">
+      <c r="F70" s="72" t="s">
         <v>15</v>
       </c>
       <c r="G70" s="35" t="s">
@@ -8011,7 +8031,7 @@
       <c r="S70" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T70" s="70" t="s">
+      <c r="T70" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U70" s="36" t="s">
@@ -8028,11 +8048,13 @@
       <c r="AD70" s="40"/>
     </row>
     <row r="71" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A71" s="33"/>
-      <c r="B71" s="92" t="s">
+      <c r="A71" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="B71" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="C71" s="92"/>
+      <c r="C71" s="76"/>
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
       <c r="F71" s="34" t="s">
@@ -8077,7 +8099,7 @@
       <c r="S71" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T71" s="70" t="s">
+      <c r="T71" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U71" s="36" t="s">
@@ -8112,10 +8134,10 @@
       <c r="A72" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B72" s="94" t="s">
+      <c r="B72" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="94"/>
+      <c r="C72" s="85"/>
       <c r="D72" s="45"/>
       <c r="E72" s="45"/>
       <c r="F72" s="34" t="s">
@@ -8160,7 +8182,7 @@
       <c r="S72" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T72" s="70" t="s">
+      <c r="T72" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U72" s="36" t="s">
@@ -8193,11 +8215,13 @@
       </c>
     </row>
     <row r="73" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A73" s="46"/>
-      <c r="B73" s="92" t="s">
+      <c r="A73" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="B73" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="92"/>
+      <c r="C73" s="76"/>
       <c r="D73" s="43"/>
       <c r="E73" s="43"/>
       <c r="F73" s="34" t="s">
@@ -8242,7 +8266,7 @@
       <c r="S73" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T73" s="70" t="s">
+      <c r="T73" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U73" s="36" t="s">
@@ -8275,15 +8299,17 @@
       </c>
     </row>
     <row r="74" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A74" s="38"/>
-      <c r="B74" s="95" t="s">
+      <c r="A74" s="104" t="s">
+        <v>259</v>
+      </c>
+      <c r="B74" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="C74" s="95"/>
-      <c r="D74" s="95">
+      <c r="C74" s="86"/>
+      <c r="D74" s="86">
         <v>35.200000000000003</v>
       </c>
-      <c r="E74" s="95"/>
+      <c r="E74" s="86"/>
       <c r="F74" s="34" t="s">
         <v>15</v>
       </c>
@@ -8326,7 +8352,7 @@
       <c r="S74" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T74" s="70" t="s">
+      <c r="T74" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U74" s="36" t="s">
@@ -8361,10 +8387,10 @@
       <c r="A75" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="92"/>
+      <c r="C75" s="76"/>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="34" t="s">
@@ -8409,7 +8435,7 @@
       <c r="S75" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T75" s="70" t="s">
+      <c r="T75" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U75" s="36" t="s">
@@ -8444,10 +8470,10 @@
       <c r="A76" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="92" t="s">
+      <c r="B76" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="92"/>
+      <c r="C76" s="76"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="34" t="s">
@@ -8492,7 +8518,7 @@
       <c r="S76" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T76" s="70" t="s">
+      <c r="T76" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U76" s="36" t="s">
@@ -8524,14 +8550,16 @@
       </c>
     </row>
     <row r="77" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A77" s="33"/>
-      <c r="B77" s="92" t="s">
+      <c r="A77" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="B77" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="C77" s="92"/>
+      <c r="C77" s="76"/>
       <c r="D77" s="43"/>
       <c r="E77" s="43"/>
-      <c r="F77" s="72" t="s">
+      <c r="F77" s="71" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="35" t="s">
@@ -8573,7 +8601,7 @@
       <c r="S77" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T77" s="70"/>
+      <c r="T77" s="69"/>
       <c r="U77" s="36"/>
       <c r="W77" s="40"/>
       <c r="X77" s="40"/>
@@ -8588,10 +8616,10 @@
       <c r="A78" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B78" s="92" t="s">
+      <c r="B78" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="C78" s="92"/>
+      <c r="C78" s="76"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
       <c r="F78" s="34" t="s">
@@ -8636,7 +8664,7 @@
       <c r="S78" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T78" s="70" t="s">
+      <c r="T78" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U78" s="36" t="s">
@@ -8669,13 +8697,11 @@
       </c>
     </row>
     <row r="79" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A79" s="33">
-        <v>0</v>
-      </c>
-      <c r="B79" s="92" t="s">
+      <c r="A79" s="74"/>
+      <c r="B79" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="92"/>
+      <c r="C79" s="76"/>
       <c r="D79" s="43"/>
       <c r="E79" s="43"/>
       <c r="F79" s="34" t="s">
@@ -8720,7 +8746,7 @@
       <c r="S79" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T79" s="70" t="s">
+      <c r="T79" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U79" s="36" t="s">
@@ -8755,10 +8781,10 @@
       <c r="A80" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B80" s="92" t="s">
+      <c r="B80" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="C80" s="92"/>
+      <c r="C80" s="76"/>
       <c r="D80" s="43"/>
       <c r="E80" s="43"/>
       <c r="F80" s="34" t="s">
@@ -8803,7 +8829,7 @@
       <c r="S80" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T80" s="70" t="s">
+      <c r="T80" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U80" s="36" t="s">
@@ -8838,10 +8864,10 @@
       <c r="A81" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B81" s="92" t="s">
+      <c r="B81" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="C81" s="92"/>
+      <c r="C81" s="76"/>
       <c r="D81" s="43"/>
       <c r="E81" s="43"/>
       <c r="F81" s="34" t="s">
@@ -8886,7 +8912,7 @@
       <c r="S81" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T81" s="70" t="s">
+      <c r="T81" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U81" s="36" t="s">
@@ -8918,16 +8944,16 @@
       </c>
     </row>
     <row r="82" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A82" s="104">
+      <c r="A82" s="74">
         <v>60</v>
       </c>
-      <c r="B82" s="96" t="s">
+      <c r="B82" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="C82" s="98"/>
-      <c r="D82" s="97"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="81"/>
       <c r="E82" s="43"/>
-      <c r="F82" s="74" t="s">
+      <c r="F82" s="73" t="s">
         <v>15</v>
       </c>
       <c r="G82" s="35" t="s">
@@ -8969,7 +8995,7 @@
       <c r="S82" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T82" s="70" t="s">
+      <c r="T82" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U82" s="36" t="s">
@@ -8985,11 +9011,13 @@
       <c r="AD82" s="40"/>
     </row>
     <row r="83" spans="1:30" s="10" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A83" s="33"/>
-      <c r="B83" s="96" t="s">
+      <c r="A83" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="B83" s="80" t="s">
         <v>242</v>
       </c>
-      <c r="C83" s="97"/>
+      <c r="C83" s="81"/>
       <c r="D83" s="43"/>
       <c r="E83" s="43"/>
       <c r="F83" s="34" t="s">
@@ -9034,7 +9062,7 @@
       <c r="S83" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T83" s="70" t="s">
+      <c r="T83" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U83" s="36" t="s">
@@ -9069,10 +9097,10 @@
       <c r="A84" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B84" s="92" t="s">
+      <c r="B84" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="C84" s="92"/>
+      <c r="C84" s="76"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
       <c r="F84" s="34" t="s">
@@ -9117,7 +9145,7 @@
       <c r="S84" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T84" s="70" t="s">
+      <c r="T84" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U84" s="36" t="s">
@@ -9152,10 +9180,10 @@
       <c r="A85" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="C85" s="92"/>
+      <c r="C85" s="76"/>
       <c r="D85" s="43"/>
       <c r="E85" s="43"/>
       <c r="F85" s="34" t="s">
@@ -9200,7 +9228,7 @@
       <c r="S85" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T85" s="70" t="s">
+      <c r="T85" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U85" s="36" t="s">
@@ -9236,10 +9264,10 @@
       <c r="A86" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B86" s="92" t="s">
+      <c r="B86" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="C86" s="92"/>
+      <c r="C86" s="76"/>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
       <c r="F86" s="34" t="s">
@@ -9284,7 +9312,7 @@
       <c r="S86" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T86" s="70" t="s">
+      <c r="T86" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U86" s="36" t="s">
@@ -9320,10 +9348,10 @@
       <c r="A87" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B87" s="92" t="s">
+      <c r="B87" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="C87" s="92"/>
+      <c r="C87" s="76"/>
       <c r="D87" s="43"/>
       <c r="E87" s="43"/>
       <c r="F87" s="34" t="s">
@@ -9368,7 +9396,7 @@
       <c r="S87" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T87" s="70" t="s">
+      <c r="T87" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U87" s="36" t="s">
@@ -9404,10 +9432,10 @@
       <c r="A88" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B88" s="92" t="s">
+      <c r="B88" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C88" s="92"/>
+      <c r="C88" s="76"/>
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
       <c r="F88" s="34" t="s">
@@ -9452,7 +9480,7 @@
       <c r="S88" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T88" s="70" t="s">
+      <c r="T88" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U88" s="36" t="s">
@@ -9488,10 +9516,10 @@
       <c r="A89" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B89" s="92" t="s">
+      <c r="B89" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="C89" s="92"/>
+      <c r="C89" s="76"/>
       <c r="D89" s="43"/>
       <c r="E89" s="43"/>
       <c r="F89" s="34" t="s">
@@ -9536,7 +9564,7 @@
       <c r="S89" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T89" s="70" t="s">
+      <c r="T89" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U89" s="36" t="s">
@@ -9572,10 +9600,10 @@
       <c r="A90" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B90" s="92" t="s">
+      <c r="B90" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="C90" s="92"/>
+      <c r="C90" s="76"/>
       <c r="D90" s="43"/>
       <c r="E90" s="43"/>
       <c r="F90" s="34" t="s">
@@ -9620,7 +9648,7 @@
       <c r="S90" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T90" s="70" t="s">
+      <c r="T90" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U90" s="36" t="s">
@@ -9656,10 +9684,10 @@
       <c r="A91" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B91" s="92" t="s">
+      <c r="B91" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="92"/>
+      <c r="C91" s="76"/>
       <c r="D91" s="43"/>
       <c r="E91" s="43"/>
       <c r="F91" s="34" t="s">
@@ -9704,7 +9732,7 @@
       <c r="S91" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T91" s="70" t="s">
+      <c r="T91" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U91" s="36" t="s">
@@ -9739,10 +9767,10 @@
       <c r="A92" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B92" s="92" t="s">
+      <c r="B92" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C92" s="92"/>
+      <c r="C92" s="76"/>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
       <c r="F92" s="34" t="s">
@@ -9787,7 +9815,7 @@
       <c r="S92" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T92" s="70" t="s">
+      <c r="T92" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U92" s="36" t="s">
@@ -9822,10 +9850,10 @@
       <c r="A93" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B93" s="92" t="s">
+      <c r="B93" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="C93" s="92"/>
+      <c r="C93" s="76"/>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
       <c r="F93" s="34" t="s">
@@ -9870,7 +9898,7 @@
       <c r="S93" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T93" s="70" t="s">
+      <c r="T93" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U93" s="36" t="s">
@@ -9905,10 +9933,10 @@
       <c r="A94" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B94" s="92" t="s">
+      <c r="B94" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="C94" s="92"/>
+      <c r="C94" s="76"/>
       <c r="D94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="34" t="s">
@@ -9953,7 +9981,7 @@
       <c r="S94" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T94" s="70" t="s">
+      <c r="T94" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U94" s="36" t="s">
@@ -9988,10 +10016,10 @@
       <c r="A95" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="92"/>
+      <c r="C95" s="76"/>
       <c r="D95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="34" t="s">
@@ -10036,7 +10064,7 @@
       <c r="S95" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T95" s="70" t="s">
+      <c r="T95" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U95" s="36" t="s">
@@ -10071,10 +10099,10 @@
       <c r="A96" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="92"/>
+      <c r="C96" s="76"/>
       <c r="D96" s="43"/>
       <c r="E96" s="43"/>
       <c r="F96" s="34" t="s">
@@ -10119,7 +10147,7 @@
       <c r="S96" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T96" s="70" t="s">
+      <c r="T96" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U96" s="36" t="s">
@@ -10154,10 +10182,10 @@
       <c r="A97" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B97" s="92" t="s">
+      <c r="B97" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="92"/>
+      <c r="C97" s="76"/>
       <c r="D97" s="43"/>
       <c r="E97" s="43"/>
       <c r="F97" s="34" t="s">
@@ -10202,7 +10230,7 @@
       <c r="S97" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T97" s="70" t="s">
+      <c r="T97" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U97" s="36" t="s">
@@ -10237,10 +10265,10 @@
       <c r="A98" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B98" s="92" t="s">
+      <c r="B98" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="92"/>
+      <c r="C98" s="76"/>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
       <c r="F98" s="34" t="s">
@@ -10285,7 +10313,7 @@
       <c r="S98" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T98" s="70" t="s">
+      <c r="T98" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U98" s="36" t="s">
@@ -10320,10 +10348,10 @@
       <c r="A99" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B99" s="92" t="s">
+      <c r="B99" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="92"/>
+      <c r="C99" s="76"/>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
       <c r="F99" s="34" t="s">
@@ -10368,7 +10396,7 @@
       <c r="S99" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T99" s="70" t="s">
+      <c r="T99" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U99" s="36" t="s">
@@ -10403,10 +10431,10 @@
       <c r="A100" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B100" s="92" t="s">
+      <c r="B100" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C100" s="92"/>
+      <c r="C100" s="76"/>
       <c r="D100" s="43"/>
       <c r="E100" s="43"/>
       <c r="F100" s="34" t="s">
@@ -10451,7 +10479,7 @@
       <c r="S100" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T100" s="70" t="s">
+      <c r="T100" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U100" s="36" t="s">
@@ -10486,10 +10514,10 @@
       <c r="A101" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B101" s="92" t="s">
+      <c r="B101" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C101" s="92"/>
+      <c r="C101" s="76"/>
       <c r="D101" s="43"/>
       <c r="E101" s="43"/>
       <c r="F101" s="34" t="s">
@@ -10534,7 +10562,7 @@
       <c r="S101" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T101" s="70" t="s">
+      <c r="T101" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U101" s="36" t="s">
@@ -10569,10 +10597,10 @@
       <c r="A102" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="96" t="s">
+      <c r="B102" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="C102" s="97"/>
+      <c r="C102" s="81"/>
       <c r="D102" s="43"/>
       <c r="E102" s="43"/>
       <c r="F102" s="34" t="s">
@@ -10617,7 +10645,7 @@
       <c r="S102" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T102" s="70" t="s">
+      <c r="T102" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U102" s="36" t="s">
@@ -10652,10 +10680,10 @@
       <c r="A103" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B103" s="96" t="s">
+      <c r="B103" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="C103" s="97"/>
+      <c r="C103" s="81"/>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
       <c r="F103" s="34" t="s">
@@ -10700,7 +10728,7 @@
       <c r="S103" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T103" s="70" t="s">
+      <c r="T103" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U103" s="36" t="s">
@@ -10735,10 +10763,10 @@
       <c r="A104" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B104" s="99" t="s">
+      <c r="B104" s="82" t="s">
         <v>249</v>
       </c>
-      <c r="C104" s="100"/>
+      <c r="C104" s="83"/>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
       <c r="F104" s="34" t="s">
@@ -10783,7 +10811,7 @@
       <c r="S104" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T104" s="70" t="s">
+      <c r="T104" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U104" s="36" t="s">
@@ -10818,10 +10846,10 @@
       <c r="A105" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B105" s="96" t="s">
+      <c r="B105" s="80" t="s">
         <v>250</v>
       </c>
-      <c r="C105" s="97"/>
+      <c r="C105" s="81"/>
       <c r="D105" s="43"/>
       <c r="E105" s="43"/>
       <c r="F105" s="34" t="s">
@@ -10866,7 +10894,7 @@
       <c r="S105" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T105" s="70" t="s">
+      <c r="T105" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U105" s="36" t="s">
@@ -10901,10 +10929,10 @@
       <c r="A106" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B106" s="96" t="s">
+      <c r="B106" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="C106" s="97"/>
+      <c r="C106" s="81"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
       <c r="F106" s="34" t="s">
@@ -10949,7 +10977,7 @@
       <c r="S106" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T106" s="70" t="s">
+      <c r="T106" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U106" s="36" t="s">
@@ -10984,10 +11012,10 @@
       <c r="A107" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B107" s="101" t="s">
+      <c r="B107" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="C107" s="102"/>
+      <c r="C107" s="79"/>
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
       <c r="F107" s="34" t="s">
@@ -11032,7 +11060,7 @@
       <c r="S107" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T107" s="70" t="s">
+      <c r="T107" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U107" s="36" t="s">
@@ -11067,10 +11095,10 @@
       <c r="A108" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B108" s="101" t="s">
+      <c r="B108" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="C108" s="102"/>
+      <c r="C108" s="79"/>
       <c r="D108" s="43"/>
       <c r="E108" s="43"/>
       <c r="F108" s="34" t="s">
@@ -11115,7 +11143,7 @@
       <c r="S108" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T108" s="70" t="s">
+      <c r="T108" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U108" s="36" t="s">
@@ -11150,10 +11178,10 @@
       <c r="A109" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B109" s="101" t="s">
+      <c r="B109" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="C109" s="102"/>
+      <c r="C109" s="79"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
       <c r="F109" s="34" t="s">
@@ -11198,7 +11226,7 @@
       <c r="S109" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T109" s="70" t="s">
+      <c r="T109" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U109" s="36" t="s">
@@ -11233,10 +11261,10 @@
       <c r="A110" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B110" s="103" t="s">
+      <c r="B110" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="C110" s="103"/>
+      <c r="C110" s="77"/>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
       <c r="F110" s="34" t="s">
@@ -11281,7 +11309,7 @@
       <c r="S110" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T110" s="70" t="s">
+      <c r="T110" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U110" s="36" t="s">
@@ -11316,10 +11344,10 @@
       <c r="A111" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B111" s="103" t="s">
+      <c r="B111" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="C111" s="103"/>
+      <c r="C111" s="77"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
       <c r="F111" s="34" t="s">
@@ -11364,7 +11392,7 @@
       <c r="S111" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T111" s="70" t="s">
+      <c r="T111" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U111" s="36" t="s">
@@ -11399,10 +11427,10 @@
       <c r="A112" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B112" s="103" t="s">
+      <c r="B112" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="C112" s="103"/>
+      <c r="C112" s="77"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
       <c r="F112" s="34" t="s">
@@ -11447,7 +11475,7 @@
       <c r="S112" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T112" s="70" t="s">
+      <c r="T112" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U112" s="36" t="s">
@@ -11482,10 +11510,10 @@
       <c r="A113" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B113" s="103" t="s">
+      <c r="B113" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="C113" s="103"/>
+      <c r="C113" s="77"/>
       <c r="D113" s="43"/>
       <c r="E113" s="43"/>
       <c r="F113" s="34" t="s">
@@ -11530,7 +11558,7 @@
       <c r="S113" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T113" s="70" t="s">
+      <c r="T113" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U113" s="36" t="s">
@@ -11565,10 +11593,10 @@
       <c r="A114" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B114" s="103" t="s">
+      <c r="B114" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="C114" s="103"/>
+      <c r="C114" s="77"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
       <c r="F114" s="34" t="s">
@@ -11613,7 +11641,7 @@
       <c r="S114" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T114" s="70" t="s">
+      <c r="T114" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U114" s="36" t="s">
@@ -11648,10 +11676,10 @@
       <c r="A115" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B115" s="103" t="s">
+      <c r="B115" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="C115" s="103"/>
+      <c r="C115" s="77"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
       <c r="F115" s="34" t="s">
@@ -11696,7 +11724,7 @@
       <c r="S115" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T115" s="70" t="s">
+      <c r="T115" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U115" s="36" t="s">
@@ -11731,10 +11759,10 @@
       <c r="A116" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B116" s="103" t="s">
+      <c r="B116" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="C116" s="103"/>
+      <c r="C116" s="77"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
       <c r="F116" s="34" t="s">
@@ -11779,7 +11807,7 @@
       <c r="S116" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T116" s="70" t="s">
+      <c r="T116" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U116" s="36" t="s">
@@ -11814,10 +11842,10 @@
       <c r="A117" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B117" s="103" t="s">
+      <c r="B117" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="C117" s="103"/>
+      <c r="C117" s="77"/>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
       <c r="F117" s="34" t="s">
@@ -11862,7 +11890,7 @@
       <c r="S117" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T117" s="70" t="s">
+      <c r="T117" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U117" s="36" t="s">
@@ -11897,10 +11925,10 @@
       <c r="A118" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B118" s="92" t="s">
+      <c r="B118" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="C118" s="92"/>
+      <c r="C118" s="76"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
       <c r="F118" s="34" t="s">
@@ -11945,7 +11973,7 @@
       <c r="S118" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T118" s="70" t="s">
+      <c r="T118" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U118" s="36" t="s">
@@ -11980,10 +12008,10 @@
       <c r="A119" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B119" s="92" t="s">
+      <c r="B119" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="C119" s="92"/>
+      <c r="C119" s="76"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
       <c r="F119" s="34" t="s">
@@ -12028,7 +12056,7 @@
       <c r="S119" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T119" s="70" t="s">
+      <c r="T119" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U119" s="36" t="s">
@@ -12063,10 +12091,10 @@
       <c r="A120" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B120" s="92" t="s">
+      <c r="B120" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="C120" s="92"/>
+      <c r="C120" s="76"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
       <c r="F120" s="34" t="s">
@@ -12111,7 +12139,7 @@
       <c r="S120" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T120" s="70" t="s">
+      <c r="T120" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U120" s="36" t="s">
@@ -12146,10 +12174,10 @@
       <c r="A121" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B121" s="92" t="s">
+      <c r="B121" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="C121" s="92"/>
+      <c r="C121" s="76"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
       <c r="F121" s="34" t="s">
@@ -12194,7 +12222,7 @@
       <c r="S121" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T121" s="70" t="s">
+      <c r="T121" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U121" s="36" t="s">
@@ -12229,10 +12257,10 @@
       <c r="A122" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B122" s="92" t="s">
+      <c r="B122" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="C122" s="92"/>
+      <c r="C122" s="76"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
       <c r="F122" s="34" t="s">
@@ -12277,7 +12305,7 @@
       <c r="S122" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T122" s="70" t="s">
+      <c r="T122" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U122" s="36" t="s">
@@ -12312,10 +12340,10 @@
       <c r="A123" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B123" s="92" t="s">
+      <c r="B123" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="C123" s="92"/>
+      <c r="C123" s="76"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
       <c r="F123" s="34" t="s">
@@ -12360,7 +12388,7 @@
       <c r="S123" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T123" s="70" t="s">
+      <c r="T123" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U123" s="36" t="s">
@@ -12395,10 +12423,10 @@
       <c r="A124" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B124" s="92" t="s">
+      <c r="B124" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="C124" s="92"/>
+      <c r="C124" s="76"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
       <c r="F124" s="34" t="s">
@@ -12443,7 +12471,7 @@
       <c r="S124" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T124" s="70" t="s">
+      <c r="T124" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U124" s="36" t="s">
@@ -12478,10 +12506,10 @@
       <c r="A125" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B125" s="92" t="s">
+      <c r="B125" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="C125" s="92"/>
+      <c r="C125" s="76"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
       <c r="F125" s="34" t="s">
@@ -12526,7 +12554,7 @@
       <c r="S125" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T125" s="70" t="s">
+      <c r="T125" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U125" s="36" t="s">
@@ -12561,10 +12589,10 @@
       <c r="A126" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B126" s="92" t="s">
+      <c r="B126" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="C126" s="92"/>
+      <c r="C126" s="76"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
       <c r="F126" s="34" t="s">
@@ -12609,7 +12637,7 @@
       <c r="S126" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T126" s="70" t="s">
+      <c r="T126" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U126" s="36" t="s">
@@ -12644,10 +12672,10 @@
       <c r="A127" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B127" s="92" t="s">
+      <c r="B127" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="C127" s="92"/>
+      <c r="C127" s="76"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
       <c r="F127" s="34" t="s">
@@ -12692,7 +12720,7 @@
       <c r="S127" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T127" s="70" t="s">
+      <c r="T127" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U127" s="36" t="s">
@@ -12727,10 +12755,10 @@
       <c r="A128" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B128" s="92" t="s">
+      <c r="B128" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="C128" s="92"/>
+      <c r="C128" s="76"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
       <c r="F128" s="34" t="s">
@@ -12775,7 +12803,7 @@
       <c r="S128" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T128" s="70" t="s">
+      <c r="T128" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U128" s="36" t="s">
@@ -12810,10 +12838,10 @@
       <c r="A129" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B129" s="92" t="s">
+      <c r="B129" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="C129" s="92"/>
+      <c r="C129" s="76"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
       <c r="F129" s="34" t="s">
@@ -12858,7 +12886,7 @@
       <c r="S129" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T129" s="70" t="s">
+      <c r="T129" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U129" s="36" t="s">
@@ -12893,10 +12921,10 @@
       <c r="A130" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="B130" s="92" t="s">
+      <c r="B130" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="C130" s="92"/>
+      <c r="C130" s="76"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
       <c r="F130" s="34" t="s">
@@ -12941,7 +12969,7 @@
       <c r="S130" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T130" s="70" t="s">
+      <c r="T130" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U130" s="36" t="s">
@@ -12976,10 +13004,10 @@
       <c r="A131" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B131" s="92" t="s">
+      <c r="B131" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="C131" s="92"/>
+      <c r="C131" s="76"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
       <c r="F131" s="34" t="s">
@@ -13024,7 +13052,7 @@
       <c r="S131" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T131" s="70" t="s">
+      <c r="T131" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U131" s="36" t="s">
@@ -13059,10 +13087,10 @@
       <c r="A132" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B132" s="92" t="s">
+      <c r="B132" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="C132" s="92"/>
+      <c r="C132" s="76"/>
       <c r="D132" s="43"/>
       <c r="E132" s="43"/>
       <c r="F132" s="34" t="s">
@@ -13107,7 +13135,7 @@
       <c r="S132" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T132" s="70" t="s">
+      <c r="T132" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U132" s="36" t="s">
@@ -13142,10 +13170,10 @@
       <c r="A133" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="B133" s="92" t="s">
+      <c r="B133" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="C133" s="92"/>
+      <c r="C133" s="76"/>
       <c r="D133" s="43"/>
       <c r="E133" s="43"/>
       <c r="F133" s="34" t="s">
@@ -13190,7 +13218,7 @@
       <c r="S133" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T133" s="70" t="s">
+      <c r="T133" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U133" s="36" t="s">
@@ -13221,14 +13249,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:255" s="47" customFormat="1" ht="38.450000000000003" customHeight="1">
+    <row r="134" spans="1:255" s="46" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A134" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B134" s="89" t="s">
+      <c r="B134" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="C134" s="89"/>
+      <c r="C134" s="75"/>
       <c r="D134" s="34"/>
       <c r="E134" s="34"/>
       <c r="F134" s="34" t="s">
@@ -13273,7 +13301,7 @@
       <c r="S134" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T134" s="70" t="s">
+      <c r="T134" s="69" t="s">
         <v>16</v>
       </c>
       <c r="U134" s="36" t="s">
@@ -13531,884 +13559,884 @@
       <c r="IU134" s="10"/>
     </row>
     <row r="135" spans="1:255" s="10" customFormat="1">
-      <c r="A135" s="48" t="s">
+      <c r="A135" s="47" t="s">
         <v>215</v>
       </c>
       <c r="B135" s="26"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="50"/>
-      <c r="F135" s="51" t="s">
+      <c r="C135" s="48"/>
+      <c r="D135" s="49"/>
+      <c r="F135" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="H135" s="52"/>
-      <c r="I135" s="53"/>
-      <c r="J135" s="53"/>
-      <c r="K135" s="53"/>
-      <c r="L135" s="54"/>
-      <c r="M135" s="54"/>
-      <c r="N135" s="54"/>
-      <c r="O135" s="54"/>
-      <c r="P135" s="55"/>
-      <c r="Q135" s="54"/>
-      <c r="R135" s="54"/>
-      <c r="T135" s="56"/>
-      <c r="AP135" s="57"/>
-      <c r="AQ135" s="57"/>
-      <c r="AR135" s="57"/>
-      <c r="AS135" s="57"/>
-      <c r="AT135" s="57"/>
-      <c r="AU135" s="57"/>
-      <c r="AV135" s="57"/>
-      <c r="AW135" s="57"/>
+      <c r="H135" s="51"/>
+      <c r="I135" s="52"/>
+      <c r="J135" s="52"/>
+      <c r="K135" s="52"/>
+      <c r="L135" s="53"/>
+      <c r="M135" s="53"/>
+      <c r="N135" s="53"/>
+      <c r="O135" s="53"/>
+      <c r="P135" s="54"/>
+      <c r="Q135" s="53"/>
+      <c r="R135" s="53"/>
+      <c r="T135" s="55"/>
+      <c r="AP135" s="56"/>
+      <c r="AQ135" s="56"/>
+      <c r="AR135" s="56"/>
+      <c r="AS135" s="56"/>
+      <c r="AT135" s="56"/>
+      <c r="AU135" s="56"/>
+      <c r="AV135" s="56"/>
+      <c r="AW135" s="56"/>
     </row>
     <row r="136" spans="1:255" s="10" customFormat="1">
-      <c r="A136" s="58" t="s">
+      <c r="A136" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="B136" s="59"/>
-      <c r="C136" s="60"/>
-      <c r="D136" s="59"/>
-      <c r="E136" s="59"/>
-      <c r="F136" s="59"/>
-      <c r="G136" s="59"/>
-      <c r="H136" s="61"/>
-      <c r="I136" s="54"/>
-      <c r="J136" s="54"/>
-      <c r="K136" s="54"/>
-      <c r="L136" s="54"/>
-      <c r="M136" s="54"/>
-      <c r="N136" s="54"/>
-      <c r="O136" s="54"/>
-      <c r="AM136" s="57"/>
-      <c r="AN136" s="57"/>
-      <c r="AO136" s="57"/>
-      <c r="AP136" s="57"/>
-      <c r="AQ136" s="57"/>
-      <c r="AR136" s="57"/>
-      <c r="AS136" s="57"/>
-      <c r="AT136" s="57"/>
+      <c r="B136" s="58"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="58"/>
+      <c r="E136" s="58"/>
+      <c r="F136" s="58"/>
+      <c r="G136" s="58"/>
+      <c r="H136" s="60"/>
+      <c r="I136" s="53"/>
+      <c r="J136" s="53"/>
+      <c r="K136" s="53"/>
+      <c r="L136" s="53"/>
+      <c r="M136" s="53"/>
+      <c r="N136" s="53"/>
+      <c r="O136" s="53"/>
+      <c r="AM136" s="56"/>
+      <c r="AN136" s="56"/>
+      <c r="AO136" s="56"/>
+      <c r="AP136" s="56"/>
+      <c r="AQ136" s="56"/>
+      <c r="AR136" s="56"/>
+      <c r="AS136" s="56"/>
+      <c r="AT136" s="56"/>
     </row>
     <row r="137" spans="1:255" s="10" customFormat="1">
-      <c r="A137" s="58" t="s">
+      <c r="A137" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="B137" s="59"/>
-      <c r="C137" s="60"/>
-      <c r="D137" s="59"/>
-      <c r="E137" s="59"/>
-      <c r="F137" s="59"/>
-      <c r="G137" s="59"/>
-      <c r="H137" s="61"/>
-      <c r="I137" s="54"/>
-      <c r="J137" s="54"/>
-      <c r="K137" s="54"/>
-      <c r="L137" s="54"/>
-      <c r="M137" s="54"/>
-      <c r="N137" s="54"/>
-      <c r="O137" s="54"/>
-      <c r="AM137" s="57"/>
-      <c r="AN137" s="57"/>
-      <c r="AO137" s="57"/>
-      <c r="AP137" s="57"/>
-      <c r="AQ137" s="57"/>
-      <c r="AR137" s="57"/>
-      <c r="AS137" s="57"/>
-      <c r="AT137" s="57"/>
+      <c r="B137" s="58"/>
+      <c r="C137" s="59"/>
+      <c r="D137" s="58"/>
+      <c r="E137" s="58"/>
+      <c r="F137" s="58"/>
+      <c r="G137" s="58"/>
+      <c r="H137" s="60"/>
+      <c r="I137" s="53"/>
+      <c r="J137" s="53"/>
+      <c r="K137" s="53"/>
+      <c r="L137" s="53"/>
+      <c r="M137" s="53"/>
+      <c r="N137" s="53"/>
+      <c r="O137" s="53"/>
+      <c r="AM137" s="56"/>
+      <c r="AN137" s="56"/>
+      <c r="AO137" s="56"/>
+      <c r="AP137" s="56"/>
+      <c r="AQ137" s="56"/>
+      <c r="AR137" s="56"/>
+      <c r="AS137" s="56"/>
+      <c r="AT137" s="56"/>
     </row>
     <row r="138" spans="1:255" s="10" customFormat="1">
-      <c r="A138" s="71" t="s">
+      <c r="A138" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="B138" s="62"/>
+      <c r="B138" s="61"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="62"/>
-      <c r="E138" s="59"/>
-      <c r="F138" s="59"/>
-      <c r="G138" s="59"/>
-      <c r="H138" s="63"/>
-      <c r="I138" s="54"/>
-      <c r="J138" s="54"/>
-      <c r="K138" s="54"/>
-      <c r="L138" s="54"/>
-      <c r="M138" s="54"/>
-      <c r="N138" s="54"/>
-      <c r="O138" s="54"/>
-      <c r="AM138" s="57"/>
-      <c r="AN138" s="57"/>
-      <c r="AO138" s="57"/>
-      <c r="AP138" s="57"/>
-      <c r="AQ138" s="57"/>
-      <c r="AR138" s="57"/>
-      <c r="AS138" s="57"/>
-      <c r="AT138" s="57"/>
+      <c r="D138" s="61"/>
+      <c r="E138" s="58"/>
+      <c r="F138" s="58"/>
+      <c r="G138" s="58"/>
+      <c r="H138" s="62"/>
+      <c r="I138" s="53"/>
+      <c r="J138" s="53"/>
+      <c r="K138" s="53"/>
+      <c r="L138" s="53"/>
+      <c r="M138" s="53"/>
+      <c r="N138" s="53"/>
+      <c r="O138" s="53"/>
+      <c r="AM138" s="56"/>
+      <c r="AN138" s="56"/>
+      <c r="AO138" s="56"/>
+      <c r="AP138" s="56"/>
+      <c r="AQ138" s="56"/>
+      <c r="AR138" s="56"/>
+      <c r="AS138" s="56"/>
+      <c r="AT138" s="56"/>
     </row>
     <row r="139" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A139" s="71" t="s">
+      <c r="A139" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="B139" s="62"/>
+      <c r="B139" s="61"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="62"/>
-      <c r="E139" s="59"/>
-      <c r="F139" s="59"/>
-      <c r="G139" s="59"/>
-      <c r="H139" s="63"/>
-      <c r="I139" s="54"/>
-      <c r="J139" s="54"/>
-      <c r="K139" s="54"/>
-      <c r="L139" s="54"/>
-      <c r="M139" s="54"/>
-      <c r="N139" s="54"/>
-      <c r="O139" s="54"/>
-      <c r="AM139" s="57"/>
-      <c r="AN139" s="57"/>
-      <c r="AO139" s="57"/>
-      <c r="AP139" s="57"/>
-      <c r="AQ139" s="57"/>
-      <c r="AR139" s="57"/>
-      <c r="AS139" s="57"/>
-      <c r="AT139" s="57"/>
+      <c r="D139" s="61"/>
+      <c r="E139" s="58"/>
+      <c r="F139" s="58"/>
+      <c r="G139" s="58"/>
+      <c r="H139" s="62"/>
+      <c r="I139" s="53"/>
+      <c r="J139" s="53"/>
+      <c r="K139" s="53"/>
+      <c r="L139" s="53"/>
+      <c r="M139" s="53"/>
+      <c r="N139" s="53"/>
+      <c r="O139" s="53"/>
+      <c r="AM139" s="56"/>
+      <c r="AN139" s="56"/>
+      <c r="AO139" s="56"/>
+      <c r="AP139" s="56"/>
+      <c r="AQ139" s="56"/>
+      <c r="AR139" s="56"/>
+      <c r="AS139" s="56"/>
+      <c r="AT139" s="56"/>
     </row>
     <row r="140" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A140" s="58" t="s">
+      <c r="A140" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="B140" s="62"/>
+      <c r="B140" s="61"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="62"/>
-      <c r="E140" s="59"/>
-      <c r="F140" s="59"/>
-      <c r="G140" s="59"/>
-      <c r="H140" s="63"/>
-      <c r="I140" s="54"/>
-      <c r="J140" s="54"/>
-      <c r="K140" s="54"/>
-      <c r="L140" s="54"/>
-      <c r="M140" s="54"/>
-      <c r="N140" s="54"/>
-      <c r="O140" s="54"/>
-      <c r="AM140" s="57"/>
-      <c r="AN140" s="57"/>
-      <c r="AO140" s="57"/>
-      <c r="AP140" s="57"/>
-      <c r="AQ140" s="57"/>
-      <c r="AR140" s="57"/>
-      <c r="AS140" s="57"/>
-      <c r="AT140" s="57"/>
+      <c r="D140" s="61"/>
+      <c r="E140" s="58"/>
+      <c r="F140" s="58"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="62"/>
+      <c r="I140" s="53"/>
+      <c r="J140" s="53"/>
+      <c r="K140" s="53"/>
+      <c r="L140" s="53"/>
+      <c r="M140" s="53"/>
+      <c r="N140" s="53"/>
+      <c r="O140" s="53"/>
+      <c r="AM140" s="56"/>
+      <c r="AN140" s="56"/>
+      <c r="AO140" s="56"/>
+      <c r="AP140" s="56"/>
+      <c r="AQ140" s="56"/>
+      <c r="AR140" s="56"/>
+      <c r="AS140" s="56"/>
+      <c r="AT140" s="56"/>
     </row>
     <row r="141" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A141" s="58" t="s">
+      <c r="A141" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="B141" s="62"/>
+      <c r="B141" s="61"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="62"/>
-      <c r="E141" s="59"/>
-      <c r="F141" s="59"/>
-      <c r="G141" s="59"/>
-      <c r="H141" s="63"/>
-      <c r="I141" s="54"/>
-      <c r="J141" s="54"/>
-      <c r="K141" s="54"/>
-      <c r="L141" s="54"/>
-      <c r="M141" s="54"/>
-      <c r="N141" s="54"/>
-      <c r="O141" s="54"/>
-      <c r="AM141" s="57"/>
-      <c r="AN141" s="57"/>
-      <c r="AO141" s="57"/>
-      <c r="AP141" s="57"/>
-      <c r="AQ141" s="57"/>
-      <c r="AR141" s="57"/>
-      <c r="AS141" s="57"/>
-      <c r="AT141" s="57"/>
+      <c r="D141" s="61"/>
+      <c r="E141" s="58"/>
+      <c r="F141" s="58"/>
+      <c r="G141" s="58"/>
+      <c r="H141" s="62"/>
+      <c r="I141" s="53"/>
+      <c r="J141" s="53"/>
+      <c r="K141" s="53"/>
+      <c r="L141" s="53"/>
+      <c r="M141" s="53"/>
+      <c r="N141" s="53"/>
+      <c r="O141" s="53"/>
+      <c r="AM141" s="56"/>
+      <c r="AN141" s="56"/>
+      <c r="AO141" s="56"/>
+      <c r="AP141" s="56"/>
+      <c r="AQ141" s="56"/>
+      <c r="AR141" s="56"/>
+      <c r="AS141" s="56"/>
+      <c r="AT141" s="56"/>
     </row>
     <row r="142" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A142" s="58" t="s">
+      <c r="A142" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="B142" s="62"/>
+      <c r="B142" s="61"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="62"/>
-      <c r="E142" s="59"/>
-      <c r="F142" s="59"/>
-      <c r="G142" s="59"/>
-      <c r="H142" s="63"/>
-      <c r="I142" s="54"/>
-      <c r="J142" s="54"/>
-      <c r="K142" s="54"/>
-      <c r="L142" s="54"/>
-      <c r="M142" s="54"/>
-      <c r="N142" s="54"/>
-      <c r="O142" s="54"/>
-      <c r="AM142" s="57"/>
-      <c r="AN142" s="57"/>
-      <c r="AO142" s="57"/>
-      <c r="AP142" s="57"/>
-      <c r="AQ142" s="57"/>
-      <c r="AR142" s="57"/>
-      <c r="AS142" s="57"/>
-      <c r="AT142" s="57"/>
+      <c r="D142" s="61"/>
+      <c r="E142" s="58"/>
+      <c r="F142" s="58"/>
+      <c r="G142" s="58"/>
+      <c r="H142" s="62"/>
+      <c r="I142" s="53"/>
+      <c r="J142" s="53"/>
+      <c r="K142" s="53"/>
+      <c r="L142" s="53"/>
+      <c r="M142" s="53"/>
+      <c r="N142" s="53"/>
+      <c r="O142" s="53"/>
+      <c r="AM142" s="56"/>
+      <c r="AN142" s="56"/>
+      <c r="AO142" s="56"/>
+      <c r="AP142" s="56"/>
+      <c r="AQ142" s="56"/>
+      <c r="AR142" s="56"/>
+      <c r="AS142" s="56"/>
+      <c r="AT142" s="56"/>
     </row>
     <row r="143" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A143" s="58" t="s">
+      <c r="A143" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="B143" s="62"/>
+      <c r="B143" s="61"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="62"/>
-      <c r="E143" s="59"/>
-      <c r="F143" s="59"/>
-      <c r="G143" s="59"/>
-      <c r="H143" s="63"/>
-      <c r="I143" s="54"/>
-      <c r="J143" s="54"/>
-      <c r="K143" s="54"/>
-      <c r="L143" s="54"/>
-      <c r="M143" s="54"/>
-      <c r="N143" s="54"/>
-      <c r="O143" s="54"/>
-      <c r="AM143" s="57"/>
-      <c r="AN143" s="57"/>
-      <c r="AO143" s="57"/>
-      <c r="AP143" s="57"/>
-      <c r="AQ143" s="57"/>
-      <c r="AR143" s="57"/>
-      <c r="AS143" s="57"/>
-      <c r="AT143" s="57"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="58"/>
+      <c r="F143" s="58"/>
+      <c r="G143" s="58"/>
+      <c r="H143" s="62"/>
+      <c r="I143" s="53"/>
+      <c r="J143" s="53"/>
+      <c r="K143" s="53"/>
+      <c r="L143" s="53"/>
+      <c r="M143" s="53"/>
+      <c r="N143" s="53"/>
+      <c r="O143" s="53"/>
+      <c r="AM143" s="56"/>
+      <c r="AN143" s="56"/>
+      <c r="AO143" s="56"/>
+      <c r="AP143" s="56"/>
+      <c r="AQ143" s="56"/>
+      <c r="AR143" s="56"/>
+      <c r="AS143" s="56"/>
+      <c r="AT143" s="56"/>
     </row>
     <row r="144" spans="1:255" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A144" s="58" t="s">
+      <c r="A144" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="B144" s="62"/>
+      <c r="B144" s="61"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="62"/>
-      <c r="E144" s="59"/>
-      <c r="F144" s="59"/>
-      <c r="G144" s="59"/>
-      <c r="H144" s="63"/>
-      <c r="I144" s="54"/>
-      <c r="J144" s="54"/>
-      <c r="K144" s="54"/>
-      <c r="L144" s="54"/>
-      <c r="M144" s="54"/>
-      <c r="N144" s="54"/>
-      <c r="O144" s="54"/>
-      <c r="AM144" s="57"/>
-      <c r="AN144" s="57"/>
-      <c r="AO144" s="57"/>
-      <c r="AP144" s="57"/>
-      <c r="AQ144" s="57"/>
-      <c r="AR144" s="57"/>
-      <c r="AS144" s="57"/>
-      <c r="AT144" s="57"/>
+      <c r="D144" s="61"/>
+      <c r="E144" s="58"/>
+      <c r="F144" s="58"/>
+      <c r="G144" s="58"/>
+      <c r="H144" s="62"/>
+      <c r="I144" s="53"/>
+      <c r="J144" s="53"/>
+      <c r="K144" s="53"/>
+      <c r="L144" s="53"/>
+      <c r="M144" s="53"/>
+      <c r="N144" s="53"/>
+      <c r="O144" s="53"/>
+      <c r="AM144" s="56"/>
+      <c r="AN144" s="56"/>
+      <c r="AO144" s="56"/>
+      <c r="AP144" s="56"/>
+      <c r="AQ144" s="56"/>
+      <c r="AR144" s="56"/>
+      <c r="AS144" s="56"/>
+      <c r="AT144" s="56"/>
     </row>
     <row r="145" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A145" s="58" t="s">
+      <c r="A145" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="B145" s="62"/>
+      <c r="B145" s="61"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="62"/>
-      <c r="E145" s="59"/>
-      <c r="F145" s="59"/>
-      <c r="G145" s="59"/>
-      <c r="H145" s="63"/>
-      <c r="I145" s="54"/>
-      <c r="J145" s="54"/>
-      <c r="K145" s="54"/>
-      <c r="L145" s="54"/>
-      <c r="M145" s="54"/>
-      <c r="N145" s="54"/>
-      <c r="O145" s="54"/>
-      <c r="AM145" s="57"/>
-      <c r="AN145" s="57"/>
-      <c r="AO145" s="57"/>
-      <c r="AP145" s="57"/>
-      <c r="AQ145" s="57"/>
-      <c r="AR145" s="57"/>
-      <c r="AS145" s="57"/>
-      <c r="AT145" s="57"/>
+      <c r="D145" s="61"/>
+      <c r="E145" s="58"/>
+      <c r="F145" s="58"/>
+      <c r="G145" s="58"/>
+      <c r="H145" s="62"/>
+      <c r="I145" s="53"/>
+      <c r="J145" s="53"/>
+      <c r="K145" s="53"/>
+      <c r="L145" s="53"/>
+      <c r="M145" s="53"/>
+      <c r="N145" s="53"/>
+      <c r="O145" s="53"/>
+      <c r="AM145" s="56"/>
+      <c r="AN145" s="56"/>
+      <c r="AO145" s="56"/>
+      <c r="AP145" s="56"/>
+      <c r="AQ145" s="56"/>
+      <c r="AR145" s="56"/>
+      <c r="AS145" s="56"/>
+      <c r="AT145" s="56"/>
     </row>
     <row r="146" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A146" s="58" t="s">
+      <c r="A146" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="B146" s="62"/>
+      <c r="B146" s="61"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="62"/>
-      <c r="E146" s="59"/>
-      <c r="F146" s="59"/>
-      <c r="G146" s="59"/>
-      <c r="H146" s="63"/>
-      <c r="I146" s="54"/>
-      <c r="J146" s="54"/>
-      <c r="K146" s="54"/>
-      <c r="L146" s="54"/>
-      <c r="M146" s="54"/>
-      <c r="N146" s="54"/>
-      <c r="O146" s="54"/>
-      <c r="AM146" s="57"/>
-      <c r="AN146" s="57"/>
-      <c r="AO146" s="57"/>
-      <c r="AP146" s="57"/>
-      <c r="AQ146" s="57"/>
-      <c r="AR146" s="57"/>
-      <c r="AS146" s="57"/>
-      <c r="AT146" s="57"/>
+      <c r="D146" s="61"/>
+      <c r="E146" s="58"/>
+      <c r="F146" s="58"/>
+      <c r="G146" s="58"/>
+      <c r="H146" s="62"/>
+      <c r="I146" s="53"/>
+      <c r="J146" s="53"/>
+      <c r="K146" s="53"/>
+      <c r="L146" s="53"/>
+      <c r="M146" s="53"/>
+      <c r="N146" s="53"/>
+      <c r="O146" s="53"/>
+      <c r="AM146" s="56"/>
+      <c r="AN146" s="56"/>
+      <c r="AO146" s="56"/>
+      <c r="AP146" s="56"/>
+      <c r="AQ146" s="56"/>
+      <c r="AR146" s="56"/>
+      <c r="AS146" s="56"/>
+      <c r="AT146" s="56"/>
     </row>
     <row r="147" spans="1:46">
-      <c r="A147" s="71" t="s">
+      <c r="A147" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="B147" s="59"/>
-      <c r="C147" s="60"/>
-      <c r="D147" s="59"/>
-      <c r="E147" s="59"/>
-      <c r="F147" s="59"/>
-      <c r="G147" s="59"/>
-      <c r="H147" s="61"/>
-      <c r="I147" s="54"/>
-      <c r="J147" s="54"/>
-      <c r="K147" s="54"/>
-      <c r="L147" s="54"/>
-      <c r="M147" s="54"/>
-      <c r="N147" s="54"/>
-      <c r="O147" s="54"/>
+      <c r="B147" s="58"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="58"/>
+      <c r="E147" s="58"/>
+      <c r="F147" s="58"/>
+      <c r="G147" s="58"/>
+      <c r="H147" s="60"/>
+      <c r="I147" s="53"/>
+      <c r="J147" s="53"/>
+      <c r="K147" s="53"/>
+      <c r="L147" s="53"/>
+      <c r="M147" s="53"/>
+      <c r="N147" s="53"/>
+      <c r="O147" s="53"/>
       <c r="P147" s="10"/>
       <c r="Q147" s="10"/>
       <c r="R147" s="10"/>
       <c r="S147"/>
     </row>
-    <row r="148" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="A148" s="71" t="s">
+    <row r="148" spans="1:46" s="55" customFormat="1" ht="21" customHeight="1">
+      <c r="A148" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="B148" s="59"/>
-      <c r="C148" s="60"/>
-      <c r="D148" s="59"/>
-      <c r="E148" s="59"/>
-      <c r="F148" s="59"/>
-      <c r="G148" s="64"/>
-      <c r="H148" s="63"/>
-      <c r="I148" s="55"/>
-      <c r="J148" s="55"/>
-      <c r="K148" s="55"/>
-      <c r="L148" s="55"/>
-      <c r="M148" s="55"/>
-      <c r="N148" s="55"/>
-      <c r="O148" s="55"/>
-      <c r="AM148" s="65"/>
-      <c r="AN148" s="65"/>
-      <c r="AO148" s="65"/>
-      <c r="AP148" s="65"/>
-      <c r="AQ148" s="65"/>
-      <c r="AR148" s="65"/>
-      <c r="AS148" s="65"/>
-      <c r="AT148" s="65"/>
+      <c r="B148" s="58"/>
+      <c r="C148" s="59"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="58"/>
+      <c r="F148" s="58"/>
+      <c r="G148" s="63"/>
+      <c r="H148" s="62"/>
+      <c r="I148" s="54"/>
+      <c r="J148" s="54"/>
+      <c r="K148" s="54"/>
+      <c r="L148" s="54"/>
+      <c r="M148" s="54"/>
+      <c r="N148" s="54"/>
+      <c r="O148" s="54"/>
+      <c r="AM148" s="64"/>
+      <c r="AN148" s="64"/>
+      <c r="AO148" s="64"/>
+      <c r="AP148" s="64"/>
+      <c r="AQ148" s="64"/>
+      <c r="AR148" s="64"/>
+      <c r="AS148" s="64"/>
+      <c r="AT148" s="64"/>
     </row>
     <row r="149" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A149" s="71" t="s">
+      <c r="A149" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="B149" s="66"/>
-      <c r="C149" s="67"/>
-      <c r="D149" s="68"/>
-      <c r="E149" s="59"/>
-      <c r="F149" s="59"/>
-      <c r="G149" s="59"/>
-      <c r="H149" s="61"/>
-      <c r="I149" s="54"/>
-      <c r="J149" s="54"/>
-      <c r="K149" s="54"/>
-      <c r="L149" s="54"/>
-      <c r="M149" s="54"/>
-      <c r="N149" s="54"/>
-      <c r="O149" s="54"/>
-      <c r="AM149" s="57"/>
-      <c r="AN149" s="57"/>
-      <c r="AO149" s="57"/>
-      <c r="AP149" s="57"/>
-      <c r="AQ149" s="57"/>
-      <c r="AR149" s="57"/>
-      <c r="AS149" s="57"/>
-      <c r="AT149" s="57"/>
-    </row>
-    <row r="150" spans="1:46" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="A150" s="71" t="s">
+      <c r="B149" s="65"/>
+      <c r="C149" s="66"/>
+      <c r="D149" s="67"/>
+      <c r="E149" s="58"/>
+      <c r="F149" s="58"/>
+      <c r="G149" s="58"/>
+      <c r="H149" s="60"/>
+      <c r="I149" s="53"/>
+      <c r="J149" s="53"/>
+      <c r="K149" s="53"/>
+      <c r="L149" s="53"/>
+      <c r="M149" s="53"/>
+      <c r="N149" s="53"/>
+      <c r="O149" s="53"/>
+      <c r="AM149" s="56"/>
+      <c r="AN149" s="56"/>
+      <c r="AO149" s="56"/>
+      <c r="AP149" s="56"/>
+      <c r="AQ149" s="56"/>
+      <c r="AR149" s="56"/>
+      <c r="AS149" s="56"/>
+      <c r="AT149" s="56"/>
+    </row>
+    <row r="150" spans="1:46" s="55" customFormat="1" ht="21" customHeight="1">
+      <c r="A150" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="B150" s="59"/>
-      <c r="C150" s="60"/>
-      <c r="D150" s="59"/>
-      <c r="E150" s="59"/>
-      <c r="F150" s="59"/>
-      <c r="G150" s="59"/>
-      <c r="H150" s="63"/>
-      <c r="I150" s="55"/>
-      <c r="J150" s="55"/>
-      <c r="K150" s="55"/>
-      <c r="L150" s="55"/>
-      <c r="M150" s="55"/>
-      <c r="N150" s="55"/>
-      <c r="O150" s="55"/>
-      <c r="AM150" s="65"/>
-      <c r="AN150" s="65"/>
-      <c r="AO150" s="65"/>
-      <c r="AP150" s="65"/>
-      <c r="AQ150" s="65"/>
-      <c r="AR150" s="65"/>
-      <c r="AS150" s="65"/>
-      <c r="AT150" s="65"/>
+      <c r="B150" s="58"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="58"/>
+      <c r="E150" s="58"/>
+      <c r="F150" s="58"/>
+      <c r="G150" s="58"/>
+      <c r="H150" s="62"/>
+      <c r="I150" s="54"/>
+      <c r="J150" s="54"/>
+      <c r="K150" s="54"/>
+      <c r="L150" s="54"/>
+      <c r="M150" s="54"/>
+      <c r="N150" s="54"/>
+      <c r="O150" s="54"/>
+      <c r="AM150" s="64"/>
+      <c r="AN150" s="64"/>
+      <c r="AO150" s="64"/>
+      <c r="AP150" s="64"/>
+      <c r="AQ150" s="64"/>
+      <c r="AR150" s="64"/>
+      <c r="AS150" s="64"/>
+      <c r="AT150" s="64"/>
     </row>
     <row r="151" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A151" s="71" t="s">
+      <c r="A151" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="B151" s="59"/>
-      <c r="C151" s="60"/>
-      <c r="D151" s="59"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="59"/>
-      <c r="G151" s="59"/>
-      <c r="H151" s="61"/>
-      <c r="I151" s="54"/>
-      <c r="J151" s="54"/>
-      <c r="K151" s="54"/>
-      <c r="L151" s="54"/>
-      <c r="M151" s="54"/>
-      <c r="N151" s="54"/>
-      <c r="O151" s="54"/>
-      <c r="AM151" s="57"/>
-      <c r="AN151" s="57"/>
-      <c r="AO151" s="57"/>
-      <c r="AP151" s="57"/>
-      <c r="AQ151" s="57"/>
-      <c r="AR151" s="57"/>
-      <c r="AS151" s="57"/>
-      <c r="AT151" s="57"/>
+      <c r="B151" s="58"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="58"/>
+      <c r="F151" s="58"/>
+      <c r="G151" s="58"/>
+      <c r="H151" s="60"/>
+      <c r="I151" s="53"/>
+      <c r="J151" s="53"/>
+      <c r="K151" s="53"/>
+      <c r="L151" s="53"/>
+      <c r="M151" s="53"/>
+      <c r="N151" s="53"/>
+      <c r="O151" s="53"/>
+      <c r="AM151" s="56"/>
+      <c r="AN151" s="56"/>
+      <c r="AO151" s="56"/>
+      <c r="AP151" s="56"/>
+      <c r="AQ151" s="56"/>
+      <c r="AR151" s="56"/>
+      <c r="AS151" s="56"/>
+      <c r="AT151" s="56"/>
     </row>
     <row r="152" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A152" s="71" t="s">
+      <c r="A152" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="B152" s="59"/>
-      <c r="C152" s="60"/>
-      <c r="D152" s="59"/>
-      <c r="E152" s="59"/>
-      <c r="F152" s="59"/>
-      <c r="G152" s="59"/>
-      <c r="H152" s="61"/>
-      <c r="I152" s="54"/>
-      <c r="J152" s="54"/>
-      <c r="K152" s="54"/>
-      <c r="L152" s="54"/>
-      <c r="M152" s="54"/>
-      <c r="N152" s="54"/>
-      <c r="O152" s="54"/>
-      <c r="AM152" s="57"/>
-      <c r="AN152" s="57"/>
-      <c r="AO152" s="57"/>
-      <c r="AP152" s="57"/>
-      <c r="AQ152" s="57"/>
-      <c r="AR152" s="57"/>
-      <c r="AS152" s="57"/>
-      <c r="AT152" s="57"/>
+      <c r="B152" s="58"/>
+      <c r="C152" s="59"/>
+      <c r="D152" s="58"/>
+      <c r="E152" s="58"/>
+      <c r="F152" s="58"/>
+      <c r="G152" s="58"/>
+      <c r="H152" s="60"/>
+      <c r="I152" s="53"/>
+      <c r="J152" s="53"/>
+      <c r="K152" s="53"/>
+      <c r="L152" s="53"/>
+      <c r="M152" s="53"/>
+      <c r="N152" s="53"/>
+      <c r="O152" s="53"/>
+      <c r="AM152" s="56"/>
+      <c r="AN152" s="56"/>
+      <c r="AO152" s="56"/>
+      <c r="AP152" s="56"/>
+      <c r="AQ152" s="56"/>
+      <c r="AR152" s="56"/>
+      <c r="AS152" s="56"/>
+      <c r="AT152" s="56"/>
     </row>
     <row r="153" spans="1:46">
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-      <c r="G153" s="69"/>
+      <c r="G153" s="68"/>
     </row>
     <row r="154" spans="1:46">
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-      <c r="G154" s="69"/>
+      <c r="G154" s="68"/>
     </row>
     <row r="155" spans="1:46">
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="69"/>
+      <c r="G155" s="68"/>
     </row>
     <row r="156" spans="1:46">
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-      <c r="G156" s="69"/>
+      <c r="G156" s="68"/>
     </row>
     <row r="157" spans="1:46">
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="69"/>
+      <c r="G157" s="68"/>
     </row>
     <row r="158" spans="1:46">
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
-      <c r="G158" s="69"/>
+      <c r="G158" s="68"/>
     </row>
     <row r="159" spans="1:46">
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-      <c r="G159" s="69"/>
+      <c r="G159" s="68"/>
     </row>
     <row r="160" spans="1:46">
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-      <c r="G160" s="69"/>
+      <c r="G160" s="68"/>
     </row>
     <row r="161" spans="4:7">
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-      <c r="G161" s="69"/>
+      <c r="G161" s="68"/>
     </row>
     <row r="162" spans="4:7">
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-      <c r="G162" s="69"/>
+      <c r="G162" s="68"/>
     </row>
     <row r="163" spans="4:7">
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="69"/>
+      <c r="G163" s="68"/>
     </row>
     <row r="164" spans="4:7">
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-      <c r="G164" s="69"/>
+      <c r="G164" s="68"/>
     </row>
     <row r="165" spans="4:7">
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-      <c r="G165" s="69"/>
+      <c r="G165" s="68"/>
     </row>
     <row r="166" spans="4:7">
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-      <c r="G166" s="69"/>
+      <c r="G166" s="68"/>
     </row>
     <row r="167" spans="4:7">
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
-      <c r="G167" s="69"/>
+      <c r="G167" s="68"/>
     </row>
     <row r="168" spans="4:7">
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-      <c r="G168" s="69"/>
+      <c r="G168" s="68"/>
     </row>
     <row r="169" spans="4:7">
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-      <c r="G169" s="69"/>
+      <c r="G169" s="68"/>
     </row>
     <row r="170" spans="4:7">
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
-      <c r="G170" s="69"/>
+      <c r="G170" s="68"/>
     </row>
     <row r="171" spans="4:7">
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-      <c r="G171" s="69"/>
+      <c r="G171" s="68"/>
     </row>
     <row r="172" spans="4:7">
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-      <c r="G172" s="69"/>
+      <c r="G172" s="68"/>
     </row>
     <row r="173" spans="4:7">
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-      <c r="G173" s="69"/>
+      <c r="G173" s="68"/>
     </row>
     <row r="174" spans="4:7">
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-      <c r="G174" s="69"/>
+      <c r="G174" s="68"/>
     </row>
     <row r="175" spans="4:7">
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-      <c r="G175" s="69"/>
+      <c r="G175" s="68"/>
     </row>
     <row r="176" spans="4:7">
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
-      <c r="G176" s="69"/>
+      <c r="G176" s="68"/>
     </row>
     <row r="177" spans="4:7">
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
-      <c r="G177" s="69"/>
+      <c r="G177" s="68"/>
     </row>
     <row r="178" spans="4:7">
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
-      <c r="G178" s="69"/>
+      <c r="G178" s="68"/>
     </row>
     <row r="179" spans="4:7">
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
-      <c r="G179" s="69"/>
+      <c r="G179" s="68"/>
     </row>
     <row r="180" spans="4:7">
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
-      <c r="G180" s="69"/>
+      <c r="G180" s="68"/>
     </row>
     <row r="181" spans="4:7">
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
-      <c r="G181" s="69"/>
+      <c r="G181" s="68"/>
     </row>
     <row r="182" spans="4:7">
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
-      <c r="G182" s="69"/>
+      <c r="G182" s="68"/>
     </row>
     <row r="183" spans="4:7">
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
-      <c r="G183" s="69"/>
+      <c r="G183" s="68"/>
     </row>
     <row r="184" spans="4:7">
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-      <c r="G184" s="69"/>
+      <c r="G184" s="68"/>
     </row>
     <row r="185" spans="4:7">
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
-      <c r="G185" s="69"/>
+      <c r="G185" s="68"/>
     </row>
     <row r="186" spans="4:7">
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-      <c r="G186" s="69"/>
+      <c r="G186" s="68"/>
     </row>
     <row r="187" spans="4:7">
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-      <c r="G187" s="69"/>
+      <c r="G187" s="68"/>
     </row>
     <row r="188" spans="4:7">
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-      <c r="G188" s="69"/>
+      <c r="G188" s="68"/>
     </row>
     <row r="189" spans="4:7">
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-      <c r="G189" s="69"/>
+      <c r="G189" s="68"/>
     </row>
     <row r="190" spans="4:7">
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
-      <c r="G190" s="69"/>
+      <c r="G190" s="68"/>
     </row>
     <row r="191" spans="4:7">
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
-      <c r="G191" s="69"/>
+      <c r="G191" s="68"/>
     </row>
     <row r="192" spans="4:7">
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
-      <c r="G192" s="69"/>
+      <c r="G192" s="68"/>
     </row>
     <row r="193" spans="4:7">
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-      <c r="G193" s="69"/>
+      <c r="G193" s="68"/>
     </row>
     <row r="194" spans="4:7">
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
-      <c r="G194" s="69"/>
+      <c r="G194" s="68"/>
     </row>
     <row r="195" spans="4:7">
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-      <c r="G195" s="69"/>
+      <c r="G195" s="68"/>
     </row>
     <row r="196" spans="4:7">
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
-      <c r="G196" s="69"/>
+      <c r="G196" s="68"/>
     </row>
     <row r="197" spans="4:7">
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
-      <c r="G197" s="69"/>
+      <c r="G197" s="68"/>
     </row>
     <row r="198" spans="4:7">
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
-      <c r="G198" s="69"/>
+      <c r="G198" s="68"/>
     </row>
     <row r="199" spans="4:7">
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
-      <c r="G199" s="69"/>
+      <c r="G199" s="68"/>
     </row>
     <row r="200" spans="4:7">
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
-      <c r="G200" s="69"/>
+      <c r="G200" s="68"/>
     </row>
     <row r="201" spans="4:7">
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
-      <c r="G201" s="69"/>
+      <c r="G201" s="68"/>
     </row>
     <row r="202" spans="4:7">
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
-      <c r="G202" s="69"/>
+      <c r="G202" s="68"/>
     </row>
     <row r="203" spans="4:7">
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
-      <c r="G203" s="69"/>
+      <c r="G203" s="68"/>
     </row>
     <row r="204" spans="4:7">
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
-      <c r="G204" s="69"/>
+      <c r="G204" s="68"/>
     </row>
     <row r="205" spans="4:7">
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
-      <c r="G205" s="69"/>
+      <c r="G205" s="68"/>
     </row>
     <row r="206" spans="4:7">
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
-      <c r="G206" s="69"/>
+      <c r="G206" s="68"/>
     </row>
     <row r="207" spans="4:7">
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
-      <c r="G207" s="69"/>
+      <c r="G207" s="68"/>
     </row>
     <row r="208" spans="4:7">
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
-      <c r="G208" s="69"/>
+      <c r="G208" s="68"/>
     </row>
     <row r="209" spans="4:7">
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
-      <c r="G209" s="69"/>
+      <c r="G209" s="68"/>
     </row>
     <row r="210" spans="4:7">
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
-      <c r="G210" s="69"/>
+      <c r="G210" s="68"/>
     </row>
     <row r="211" spans="4:7">
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
-      <c r="G211" s="69"/>
+      <c r="G211" s="68"/>
     </row>
     <row r="212" spans="4:7">
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
-      <c r="G212" s="69"/>
+      <c r="G212" s="68"/>
     </row>
     <row r="213" spans="4:7">
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
-      <c r="G213" s="69"/>
+      <c r="G213" s="68"/>
     </row>
     <row r="214" spans="4:7">
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
-      <c r="G214" s="69"/>
+      <c r="G214" s="68"/>
     </row>
     <row r="215" spans="4:7">
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
-      <c r="G215" s="69"/>
+      <c r="G215" s="68"/>
     </row>
     <row r="216" spans="4:7">
       <c r="F216" s="1"/>
-      <c r="G216" s="69"/>
+      <c r="G216" s="68"/>
     </row>
     <row r="217" spans="4:7">
-      <c r="G217" s="69"/>
+      <c r="G217" s="68"/>
     </row>
     <row r="218" spans="4:7">
-      <c r="G218" s="69"/>
+      <c r="G218" s="68"/>
     </row>
     <row r="219" spans="4:7">
-      <c r="G219" s="69"/>
+      <c r="G219" s="68"/>
     </row>
     <row r="220" spans="4:7">
-      <c r="G220" s="69"/>
+      <c r="G220" s="68"/>
     </row>
     <row r="225" spans="7:7">
       <c r="G225"/>
@@ -14520,136 +14548,6 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="J5:K5"/>
@@ -14664,6 +14562,136 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
